--- a/Analysis/main_diseases_analysis_final.xlsx
+++ b/Analysis/main_diseases_analysis_final.xlsx
@@ -556,7 +556,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="30" customWidth="1" min="1" max="1"/>
     <col width="15" customWidth="1" min="2" max="2"/>
@@ -903,7 +903,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="25" customWidth="1" min="1" max="1"/>
     <col width="50" customWidth="1" min="2" max="2"/>
@@ -1488,7 +1488,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="25" customWidth="1" min="1" max="1"/>
     <col width="50" customWidth="1" min="2" max="2"/>
@@ -3217,7 +3217,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="30" customWidth="1" min="1" max="1"/>
     <col width="40" customWidth="1" min="2" max="2"/>
@@ -3520,62 +3520,12 @@
         <is>
           <t>Skip to main content
 Search Drugs.com
-All
-Select the section you want to search in
-All
-Consumer
-Professional
-Pill ID
-Interactions
-News and alerts
-Care notes
-Natural products
 Search
-Browse all medications:
-A
-B
-C
-D
-E
-F
-G
-H
-I
-J
-K
-L
-M
-N
-O
-P
-Q
-R
-S
-T
-U
-V
-W
-X
-Y
-Z
-0-9
-Advanced Search
-Register
-Sign In
-Drugs A-Z
-Pill Identifier
-Drug Interaction Checker
-Compare Drugs
-News
-Pro Edition
-More
-Resources
-Help &amp; Support
+Site navigation
+Close
 Home
 Side Effects
 Achromycin V
-Print
-Save
 Achromycin V Side Effects
 Generic name: tetracycline
 Medically reviewed by Drugs.com. Last updated on Jun 23, 2025.
@@ -3811,7 +3761,6 @@
 Access drug &amp; treatment information, identify pills, check interactions and set up personal medication records.
 Download the Medication Guide app on iTunes
 Download the Medication Guide app on the Google Play store
-Drugs.com
 About
 About Drugs.com
 Advertising policy
@@ -3997,31 +3946,220 @@
       </c>
       <c r="H15" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve">❌ Error processing Adipex-P: Message: element click intercepted: Element &lt;a href="/sfx/adipex-p-side-effects.html"&gt;...&lt;/a&gt; is not clickable at point (93, 459). Other element would receive the click: &lt;div id="google_ads_iframe_/7146/dosage_0__container__" style="border: 0pt none;"&gt;...&lt;/div&gt;
-  (Session info: chrome=138.0.7204.93); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#elementclickinterceptedexception
-Stacktrace:
-0   chromedriver                        0x00000001053c0ea4 cxxbridge1$str$ptr + 2722840
-1   chromedriver                        0x00000001053b8dac cxxbridge1$str$ptr + 2689824
-2   chromedriver                        0x0000000104f0a3ec cxxbridge1$string$len + 90648
-3   chromedriver                        0x0000000104f570a8 cxxbridge1$string$len + 405204
-4   chromedriver                        0x0000000104f55614 cxxbridge1$string$len + 398400
-5   chromedriver                        0x0000000104f53428 cxxbridge1$string$len + 389716
-6   chromedriver                        0x0000000104f52824 cxxbridge1$string$len + 386640
-7   chromedriver                        0x0000000104f47358 cxxbridge1$string$len + 340356
-8   chromedriver                        0x0000000104f46de4 cxxbridge1$string$len + 338960
-9   chromedriver                        0x0000000104f92934 cxxbridge1$string$len + 649056
-10  chromedriver                        0x0000000104f45834 cxxbridge1$string$len + 333408
-11  chromedriver                        0x0000000105383fc0 cxxbridge1$str$ptr + 2473268
-12  chromedriver                        0x000000010538722c cxxbridge1$str$ptr + 2486176
-13  chromedriver                        0x0000000105365a08 cxxbridge1$str$ptr + 2348924
-14  chromedriver                        0x0000000105387ae8 cxxbridge1$str$ptr + 2488412
-15  chromedriver                        0x0000000105356a98 cxxbridge1$str$ptr + 2287628
-16  chromedriver                        0x00000001053a79d8 cxxbridge1$str$ptr + 2619212
-17  chromedriver                        0x00000001053a7b64 cxxbridge1$str$ptr + 2619608
-18  chromedriver                        0x00000001053b89e8 cxxbridge1$str$ptr + 2688860
-19  libsystem_pthread.dylib             0x00000001821cbc0c _pthread_start + 136
-20  libsystem_pthread.dylib             0x00000001821c6b80 thread_start + 8
-</t>
+          <t>Skip to main content
+Search Drugs.com
+Search
+Site navigation
+Close
+Home
+Adipex-P
+Side Effects
+Adipex-P Side Effects
+Generic name: phentermine
+Medically reviewed by Drugs.com. Last updated on Nov 11, 2024.
+Serious side effects
+Other side effects
+Professional info
+FAQ
+Note: This document provides detailed information about Adipex-P Side Effects associated with phentermine. Some dosage forms listed on this page may not apply specifically to the brand name Adipex-P.
+Applies to phentermine: oral capsule, oral tablet.
+Precautions
+It is very important that your doctor check your progress at regular visits to make sure that this medicine is working properly and does not cause any unwanted effects.
+Do not use phentermine (the active ingredient contained in Adipex-P) if you are also using similar medicines such as benzphetamine, diethylpropion, mazindol, phendimetrazine, Bontril®, or Didrex®. Do not use this medicine if you also take an MAO inhibitor (MAOI), such as isocarboxazid (Marplan®), phenelzine (Nardil®,), selegiline (Eldepryl®), or tranylcypromine (Parnate®), or if you have used an MAOI within the past 14 days. Using these medicines together may cause serious unwanted effects.
+Using this medicine while you are pregnant can harm your unborn baby. Use an effective form of birth control to keep from getting pregnant. If you think you have become pregnant while using this medicine, tell your doctor right away.
+This medicine may be habit-forming. If you think this medicine is not working properly after you have taken it for a few weeks, do not increase the dose. Instead, check with your doctor.
+Call your doctor right away if you notice a decrease in your ability to exercise, or if you faint, have chest pain, swelling of your feet or lower legs, or trouble with breathing. These may be symptoms of a very serious heart or lung problem.
+This medicine may cause some people to become dizzy, lightheaded, or less alert than they are normally. Make sure you know how you react to this medicine before you drive, use machines, or do anything else that could be dangerous if you are dizzy or not alert.
+This medicine may affect blood sugar levels. Diabetic patients may notice a change in blood or urine sugar tests. Check with your doctor if you have any questions.
+Avoid drinking alcohol while you are using this medicine.
+Do not take other medicines unless they have been discussed with your doctor. This includes prescription and nonprescription (over-the-counter) medicines, dietary supplements, herbal remedies, or medicines for appetite control, asthma, colds, cough, hay fever, and sinus problems.
+Serious side effects of Adipex-P
+Along with its needed effects, phentermine may cause some unwanted effects. Although not all of these side effects may occur, if they do occur they may need medical attention.
+Check with your doctor immediately if any of the following side effects occur while taking phentermine:
+Rare side effects
+seeing, hearing, or feeling things that are not there
+severe mental changes
+Incidence not known
+Other side effects of Adipex-P
+Some side effects of phentermine may occur that usually do not need medical attention. These side effects may go away during treatment as your body adjusts to the medicine. Also, your health care professional may be able to tell you about ways to prevent or reduce some of these side effects.
+Check with your health care professional if any of the following side effects continue or are bothersome or if you have any questions about them:
+Incidence not known
+decreased interest in sexual intercourse
+difficulty having a bowel movement (stool)
+dry mouth
+false or unusual sense of well-being
+hives or welts, itching, or skin rash
+inability to have or keep an erection
+increased in sexual ability, desire, drive, or performance
+increased interest in sexual intercourse
+loss in sexual ability, desire, drive, or performance
+redness of the skin
+unpleasant taste
+See also:
+Ozempic
+Learn about Ozempic (semaglutide) for type 2 diabetes treatment, weight management, cardiovascular ...
+Reviews &amp; ratings
+6.7 / 10
+1,565 Reviews
+View more
+Mounjaro
+Mounjaro is used for type 2 diabetes to help lower blood sugar levels. Mounjaro has also been shown ...
+Reviews &amp; ratings
+8.5 / 10
+1,402 Reviews
+View more
+FEATURED
+Botox
+Botox is used cosmetically to reduce facial lines and wrinkles and for medical purposes for ...
+Reviews &amp; ratings
+5.7 / 10
+478 Reviews
+View more
+Rybelsus
+Rybelsus tablets are used to improve blood sugar control in adults with type 2 diabetes, and may ...
+Reviews &amp; ratings
+6.5 / 10
+303 Reviews
+View more
+Zepbound
+Zepbound (tirzepatide) is an FDA-approved weekly injection for weight loss and obstructive sleep ...
+Reviews &amp; ratings
+8.9 / 10
+383 Reviews
+View more
+Wegovy
+Wegovy (semaglutide) an FDA-approved weekly injection for weight loss and to reduce heart risks ...
+Reviews &amp; ratings
+7.6 / 10
+512 Reviews
+View more
+Victoza
+Victoza helps control blood sugar levels and reduce the risk of serious heart problems in people ...
+Reviews &amp; ratings
+7.6 / 10
+766 Reviews
+View more
+Saxenda
+Saxenda (liraglutide) injection is used for weight loss in obese or overweight patients. Includes ...
+Reviews &amp; ratings
+7.5 / 10
+1,451 Reviews
+View more
+Alli
+alli blocks the absorption of some of the fat that you eat and is used to treat obesity. Learn ...
+Reviews &amp; ratings
+6.3 / 10
+122 Reviews
+View more
+Amphetamine
+Amphetamine is a stimulant and is used to trat narcolepsy and attention deficit disorder. Includes ...
+Reviews &amp; ratings
+6.5 / 10
+141 Reviews
+View more
+Managing side effects (general information)
+For healthcare professionals
+Applies to phentermine: compounding powder, oral capsule, oral capsule extended release, oral tablet, oral tablet disintegrating.
+General adverse events
+The more commonly reported adverse reactions have included palpitations, restlessness, insomnia, and headache.
+Cardiovascular
+Frequency not reported: Regurgitant cardiac valvular disease, primary pulmonary hypertension, palpitations, tachycardia, elevated blood pressure, precordial pain, ischemic events, angina, myocardial infarction, cardiac failure, cardiac arrest[Ref]
+Nervous system
+Frequency not reported: Overstimulation, restlessness, nervousness, dizziness, euphoria, dysphoria, tremor, headache, fatigue, cerebrovascular events[Ref]
+Psychiatric
+Frequency not reported: Insomnia, psychosis, impotence, libido changes, depression, hallucinations[Ref]
+Hypersensitivity
+Frequency not reported: Urticaria[Ref]
+Gastrointestinal
+Frequency not reported: Dry mouth, unpleasant taste, diarrhea, constipation, other gastrointestinal disturbances, nausea, vomiting, abdominal cramps[Ref]
+Dermatologic
+Frequency not reported: Rash[Ref]
+Genitourinary
+Frequency not reported: Micturition disturbances[Ref]
+Other
+Frequency not reported: Facial edema[Ref]
+References
+1. Cerner Multum, Inc. "Australian Product Information."
+2. (2016) "Product Information. Phentermine Hydrochloride (phentermine)." Teva Pharmaceuticals USA
+3. (2016) "Product Information. Adipex-P (phentermine)." Teva Pharmaceuticals (formerly Gate Pharmaceuticals)
+4. (2016) "Product Information. Lomaira (phentermine)." KVK-Tech Inc
+Does Adipex-P interact with my other drugs?
+Enter medications to view a detailed interaction report using our Drug Interaction Checker.
+Drug name
+Add a drug to check interactions
+Add
+Frequently asked questions
+What drugs can cause serotonin syndrome?
+Why is phentermine a controlled substance?
+More about Adipex-P (phentermine)
+Check interactions
+Compare alternatives
+Pricing &amp; coupons
+Reviews (609)
+Drug images
+Dosage information
+During pregnancy
+Support group
+Drug class: anorexiants
+Breastfeeding
+En español
+Patient resources
+Adipex-P drug information
+Other brands
+Lomaira, Fastin, Ionamin, Atti-Plex P, ... +3 more
+Professional resources
+Adipex-P prescribing information
+Phentermine (AHFS Monograph)
+Other brands
+Lomaira, Ionamin
+Related treatment guides
+Weight Loss (Obesity/Overweight)
+Further information
+Adipex-P side effects can vary depending on the individual. Always consult your healthcare provider to ensure the information displayed on this page applies to your personal circumstances.
+Note: Medication side effects may be underreported. If you are experiencing side effects that are not listed, submit a report to the FDA by following this guide.
+Medical Disclaimer
+Guide to Weight Loss Drugs
+Find out everything you need to know about weight loss drugs in our prescription weight loss drug guide.
+DRUG STATUS
+Availability
+Prescription only
+Rx
+Pregnancy &amp; Lactation
+Risk data available
+CSA Schedule*
+Some potential for abuse
+4
+Approval History
+Drug history at FDA
+WADA Class
+Anti-Doping Classification
+User Reviews &amp; Ratings
+8.9 / 10
+609 Reviews
+Images
+Adipex-P 37.5 mg (ADIPEX-P 9 9)
+View larger images
+Drugs.com Mobile App
+Access drug &amp; treatment information, identify pills, check interactions and set up personal medication records.
+Download the Medication Guide app on iTunes
+Download the Medication Guide app on the Google Play store
+About
+About Drugs.com
+Advertising policy
+Attribution &amp; citations
+Editorial policy
+Support
+Help center
+Sitemap
+Subscribe to Drugs.com newsletters
+Follow Drugs.com on Facebook
+Follow Drugs.com on Twitter
+Follow Drugs.com on Instagram
+Follow Drugs.com on YouTube
+Follow Drugs.com on Pinterest
+Subscribe to our newsletter for the latest medication news, new drug approvals and FDA alerts.
+Drugs.com provides accurate and independent information on more than 24,000 prescription drugs, over-the-counter medicines and natural products. This material is provided for educational purposes only and is not intended for medical advice, diagnosis or treatment. Data sources include Micromedex (updated 1 Jul 2025), Cerner Multum™ (updated 6 Jul 2025), ASHP (updated 11 May 2025) and others.
+Copyright © 2000-2025 Drugs.com. All rights reserved.</t>
         </is>
       </c>
     </row>
@@ -4094,31 +4232,469 @@
       </c>
       <c r="H17" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve">❌ Error processing Advil Children's: Message: element click intercepted: Element &lt;a href="/sfx/advil-children-s-side-effects.html"&gt;...&lt;/a&gt; is not clickable at point (93, 459). Other element would receive the click: &lt;div id="google_ads_iframe_/7146/interactions/interactions-content_0__container__" style="border: 0pt none;"&gt;...&lt;/div&gt;
-  (Session info: chrome=138.0.7204.93); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#elementclickinterceptedexception
-Stacktrace:
-0   chromedriver                        0x00000001053c0ea4 cxxbridge1$str$ptr + 2722840
-1   chromedriver                        0x00000001053b8dac cxxbridge1$str$ptr + 2689824
-2   chromedriver                        0x0000000104f0a3ec cxxbridge1$string$len + 90648
-3   chromedriver                        0x0000000104f570a8 cxxbridge1$string$len + 405204
-4   chromedriver                        0x0000000104f55614 cxxbridge1$string$len + 398400
-5   chromedriver                        0x0000000104f53428 cxxbridge1$string$len + 389716
-6   chromedriver                        0x0000000104f52824 cxxbridge1$string$len + 386640
-7   chromedriver                        0x0000000104f47358 cxxbridge1$string$len + 340356
-8   chromedriver                        0x0000000104f46de4 cxxbridge1$string$len + 338960
-9   chromedriver                        0x0000000104f92934 cxxbridge1$string$len + 649056
-10  chromedriver                        0x0000000104f45834 cxxbridge1$string$len + 333408
-11  chromedriver                        0x0000000105383fc0 cxxbridge1$str$ptr + 2473268
-12  chromedriver                        0x000000010538722c cxxbridge1$str$ptr + 2486176
-13  chromedriver                        0x0000000105365a08 cxxbridge1$str$ptr + 2348924
-14  chromedriver                        0x0000000105387ae8 cxxbridge1$str$ptr + 2488412
-15  chromedriver                        0x0000000105356a98 cxxbridge1$str$ptr + 2287628
-16  chromedriver                        0x00000001053a79d8 cxxbridge1$str$ptr + 2619212
-17  chromedriver                        0x00000001053a7b64 cxxbridge1$str$ptr + 2619608
-18  chromedriver                        0x00000001053b89e8 cxxbridge1$str$ptr + 2688860
-19  libsystem_pthread.dylib             0x00000001821cbc0c _pthread_start + 136
-20  libsystem_pthread.dylib             0x00000001821c6b80 thread_start + 8
-</t>
+          <t>Skip to main content
+Search Drugs.com
+Search
+Site navigation
+Close
+Home
+Advil Children's
+Side Effects
+Advil Children's Side Effects
+Generic name: ibuprofen
+Medically reviewed by Drugs.com. Last updated on Jun 5, 2025.
+Serious side effects
+Other side effects
+Professional info
+FAQ
+Note: This document provides detailed information about Advil Children's Side Effects associated with ibuprofen. Some dosage forms listed on this page may not apply specifically to the brand name Advil Children's.
+Applies to ibuprofen: oral capsule liquid filled, oral suspension, oral tablet, oral tablet chewable.
+Other dosage forms:
+intravenous solution
+Important warnings
+This medicine can cause some serious health issues
+Oral route (tablet; suspension; capsule, liquid filled; tablet, chewable)
+NSAIDs may cause an increased risk of serious cardiovascular thrombotic events, myocardial infarction, and stroke, which can be fatal.
+This risk may be increased in patients with cardiovascular disease or risk factors for cardiovascular disease.
+Ibuprofen is contraindicated for the treatment of peri-operative pain in the setting of coronary artery bypass graft (CABG) surgery.
+NSAIDs can also cause an increased risk of serious gastrointestinal adverse events especially in the elderly, including bleeding, ulceration, and perforation of the stomach or intestines, which can be fatal.
+Precautions
+It is very important that your doctor check your progress at regular visits. This will allow your doctor to see if the medicine is working properly and to decide if you should continue to take it. Blood and urine tests may be needed to check for unwanted effects .
+This medicine may raise your risk of having a heart attack or stroke. This is more likely in people who already have heart disease. People who use this medicine for a long time might also have a higher risk .
+This medicine may cause bleeding in your stomach or intestines. These problems can happen without warning signs. This is more likely if you have had a stomach ulcer in the past, if you smoke or drink alcohol regularly, if you are over 60 years old, if you are in poor health, or if you are using certain other medicines (a steroid or a blood thinner) .
+Serious skin reactions can occur during treatment with this medicine. Check with your doctor right away if you have any of the following symptoms while taking this medicine: blistering, peeling, loosening of skin, chills, cough, diarrhea, fever, itching, joint or muscle pain, red skin lesions, sore throat, sores, ulcers, white spots in mouth or on lips, or unusual tiredness or weakness .
+Possible warning signs of some serious side effects that can occur during treatment with this medicine may include swelling of the face, fingers, feet, and/or lower legs; severe stomach pain, black, tarry stools, and/or vomiting of blood or material that looks like coffee grounds; unusual weight gain; yellow skin or eyes; decreased urination; bleeding or bruising; and/or skin rash. Also, signs of serious heart problems could occur such as chest pain, tightness in chest, fast or irregular heartbeat, unusual flushing or warmth of skin, weakness, or slurring of speech. Stop taking ibuprofen (the active ingredient contained in Advil Children's) and check with your doctor immediately if you notice any of these warning signs .
+This medicine may also cause a serious type of allergic reaction called anaphylaxis. Although this is rare, it may occur often in patients who are allergic to aspirin or other nonsteroidal anti-inflammatory drugs. Anaphylaxis requires immediate medical attention. The most serious signs of this reaction are very fast or irregular breathing, gasping for breath, wheezing, or fainting. Other signs may include changes in skin color of the face; very fast but irregular heartbeat or pulse; hive-like swellings on the skin; and puffiness or swelling of the eyelids or around the eyes. If these effects occur, get emergency help at once .
+Some people who have used this medicine had symptoms of meningitis. If you have fever, headache, nausea, vomiting, and stiff neck or back while using this medicine, check with your doctor right away .
+Using this medicine while you are pregnant can harm your unborn baby. If you think you have become pregnant while using this medicine, tell your doctor right away .
+Check with your doctor immediately if blurred vision, difficulty in reading, or any other change in vision occurs during or after your treatment. Your doctor may want you to have your eyes checked by an ophthalmologist (eye doctor) .
+Before having any kind of surgery or medical tests, tell your doctor that you are taking this medicine. It may be necessary for you to stop treatment for a while, or to change to a different nonsteroidal anti-inflammatory drug before your procedure .
+Serious side effects of Advil Children's
+Along with its needed effects, ibuprofen may cause some unwanted effects. Although not all of these side effects may occur, if they do occur they may need medical attention.
+Check with your doctor immediately if any of the following side effects occur while taking ibuprofen:
+More common side effects
+abdominal pain
+acid or sour stomach
+belching
+bloating
+cloudy urine
+decrease in amount of urine
+decrease in urine output or decrease in urine-concentrating ability
+diarrhea
+difficulty having a bowel movement (stool)
+excess air or gas in stomach or intestines
+full feeling
+heartburn
+indigestion
+itching skin
+pain or discomfort in chest, upper stomach, or throat
+pale skin
+passing gas
+nausea
+noisy, rattling breathing
+rash with flat lesions or small raised lesions on the skin
+shortness of breath
+swelling of face, fingers, hands, feet, lower legs, or ankles
+troubled breathing at rest
+troubled breathing with exertion
+unusual bleeding or bruising
+unusual tiredness or weakness
+vomiting
+weight gain
+Less common side effects
+abdominal cramps
+stomach soreness or discomfort
+Rare side effects
+agitation
+back, leg, or stomach pains
+bleeding gums
+blistering, peeling, loosening of skin
+blood in urine or stools
+bloody, black, or tarry stools
+blurred vision
+burning feeling in chest or stomach
+change in vision
+chest pain
+chills
+clay-colored stools
+coma
+confusion
+constipation
+cough or hoarseness
+dark urine
+decreased urine output
+depression
+difficulty breathing
+difficulty swallowing
+dilated neck veins
+dizziness
+dry mouth
+extreme fatigue
+fast, irregular, pounding, or racing heartbeat or pulse
+fever with or without chills
+frequent urination
+general body swelling
+general feeling of tiredness or weakness
+hair loss, thinning of hair
+headache
+hives or welts
+hostility
+impaired vision
+increased blood pressure
+increased volume of pale, dilute urine
+irregular breathing
+irritability
+itching
+joint or muscle pain
+lab results that show problems with liver
+lethargy
+light-colored stools
+loss of appetite
+lower back or side pain
+muscle twitching
+nosebleeds
+painful or difficult urination
+pains in stomach, side, or abdomen, possibly radiating to the back
+pinpoint red spots on skin
+puffiness or swelling of the eyelids or around the eyes, face, lips, or tongue
+rash
+red skin lesions, often with a purple center
+red, irritated eyes
+redness of skin
+seizures
+severe abdominal pain, cramping, burning
+severe and continuing nausea
+sore throat
+sores, ulcers, or white spots in mouth or on lips
+stiff neck or back
+stomach upset
+stupor
+swollen or painful glands
+tenderness in stomach area
+thirst
+tightness in chest
+unpleasant breath odor
+upper right abdominal pain
+vomiting of blood
+vomiting of material that looks like coffee grounds
+wheezing
+yellow eyes and skin
+Symptoms of overdose
+bluish lips or skin
+difficulty sleeping
+disorientation
+dizziness, faintness, or lightheadedness when getting up from a lying or sitting position suddenly
+drowsiness to profound coma
+hallucination
+lightheadedness or fainting
+mood or other mental changes
+muscle tremors
+not breathing
+rapid, deep breathing
+restlessness
+slow or irregular heartbeat
+stomach cramps
+sudden fainting
+sweating
+Other side effects of Advil Children's
+Some side effects of ibuprofen may occur that usually do not need medical attention. These side effects may go away during treatment as your body adjusts to the medicine. Also, your health care professional may be able to tell you about ways to prevent or reduce some of these side effects.
+Check with your health care professional if any of the following side effects continue or are bothersome or if you have any questions about them:
+More common side effects
+continuing ringing or buzzing or other unexplained noise in ears
+hearing loss
+nervousness
+Rare side effects
+crying
+depersonalization
+discouragement
+dry eyes
+dysphoria
+euphoria
+feeling sad or empty
+lack of appetite
+loss of interest or pleasure
+mental depression
+paranoia
+quick to react or overreact
+rapidly changing moods
+runny nose
+sleepiness or unusual drowsiness
+sleeplessness
+sneezing
+stuffy nose
+trouble concentrating
+trouble sleeping
+unable to sleep
+See also:
+Paracetamol
+Paracetamol (Panadol, Calpol, Alvedon) is a widely used over-the-counter painkiller and fever ...
+Reviews &amp; ratings
+6.1 / 10
+13 Reviews
+View more
+Tylenol
+Tylenol is a pain reliever and a fever reducer used to treat many conditions such as headaches ...
+Reviews &amp; ratings
+5.9 / 10
+31 Reviews
+View more
+FEATURED
+Botox
+Botox is used cosmetically to reduce facial lines and wrinkles and for medical purposes for ...
+Reviews &amp; ratings
+5.7 / 10
+478 Reviews
+View more
+Naproxen
+Naproxen is a nonsteroidal anti-inflammatory drug used to treat pain or inflammation caused by ...
+Reviews &amp; ratings
+6.8 / 10
+683 Reviews
+View more
+Oxycodone
+Oxycodone is an opioid analgesic used to treat moderate to severe pain; it has a high potential for ...
+Reviews &amp; ratings
+6.9 / 10
+1,146 Reviews
+View more
+Diclofenac
+Diclofenac is a nonsteroidal anti-inflammatory drug used to treat pain and inflammation associated ...
+Reviews &amp; ratings
+7.3 / 10
+699 Reviews
+View more
+Cyclobenzaprine
+Cyclobenzaprine is a muscle relaxant and works by blocking pain sensations. Includes ...
+Reviews &amp; ratings
+6.0 / 10
+621 Reviews
+View more
+Hydroxyzine
+Hydroxyzine is an antihistamine used to treat itching, hives, and anxiety. It also acts as a ...
+Reviews &amp; ratings
+5.9 / 10
+1,409 Reviews
+View more
+Meloxicam
+Meloxicam is a nonsteroidal anti-inflammatory drug used to treat pain or inflammation caused by ...
+Reviews &amp; ratings
+6.3 / 10
+600 Reviews
+View more
+Tramadol
+Tramadol is an opioid medication that may be used to treat moderate to moderately severe chronic ...
+Reviews &amp; ratings
+7.0 / 10
+1,884 Reviews
+View more
+Managing side effects (general information)
+For healthcare professionals
+Applies to ibuprofen: compounding powder, intravenous solution, oral capsule, oral suspension, oral tablet, oral tablet chewable.
+General adverse events
+The most frequently reported adverse effects were gastrointestinal (GI) in nature and included nausea, vomiting, flatulence, and diarrhea.
+Patent Ductus Arteriosus: The most frequently reported adverse effects were sepsis, anemia, intraventricular bleeding, apnea, GI disorders, impaired renal function, respiratory infection, skin lesions, hypoglycemia, hypocalcemia, and respiratory failure.[Ref]
+Gastrointestinal
+Very common (10% or more): Nausea (up to 57%), vomiting (up to 22%), flatulence (up to 16%), diarrhea (up to 10%)
+Common (1% to 10%): Dyspepsia, abdominal discomfort, epigastric pain, heartburn, abdominal distress, indigestion, constipation, abdominal cramps/pain, fullness of GI tract, bloating, GI hemorrhage, melena
+Uncommon (0.1% to 1%): Abdominal distention, dyspepsia, gastritis
+Very rare (less than 0.01%): Peptic ulcer, perforation, hematemesis, mouth ulceration, exacerbation of colitis, exacerbation of Crohn's disease
+Frequency not reported: Dry mouth, duodenitis, esophagitis, gastric ulcer, duodenal ulcer, GI bleeding, glossitis, rectal bleeding, stomatitis, eructation, gingival ulcer, pancreatitis
+Patent Ductus Arteriosus:
+Very common (10% or more): GI disorders non-necrotizing enterocolitis (22%)
+Common (1% to 10%): Necrotizing enterocolitis, intestinal perforation
+Frequency not reported: Abdominal distension, gastroesophageal reflux, gastritis, ileus, inguinal hernia
+Postmarketing reports: GI perforation[Ref]
+Cardiovascular
+Very common (10% or more): Hemorrhage (up to 10%), hypertension (10%), hypotension (10%)
+Very rare (less than 0.01%): Cardiac failure
+Frequency not reported: Congestive heart failure, tachycardia, arrhythmia, myocardial infarction, palpitations, vasculitis, sinus bradycardia, angina pectoris, thrombotic events
+Patent Ductus Arteriosus:
+Frequency not reported: Tachycardia, cardiac failure, hypotension[Ref]
+Nervous system
+Very common (10% or more): Headache (up to 12%)
+Common (1% to 10%): Dizziness, nervousness
+Very rare (less than 0.01%): Cerebrovascular accident
+Frequency not reported: Syncope, drowsiness, paresthesia, somnolence, tremors, convulsions, coma
+Patent Ductus Arteriosus:
+Common (1% to 10%): Intraventricular hemorrhage, periventricular hemorrhage
+Frequency not reported: Convulsions[Ref]
+Renal
+Very rare (less than 0.01%): Acute renal failure, renal papillary necrosis, interstitial nephritis, nephrotic syndrome, renal failure, renal insufficiency
+Frequency not reported: Cystitis, azotemia, creatinine clearance decreased, glomerulitis, tubular necrosis, nephrotoxicity
+Patent Ductus Arteriosus:
+Very common (10% or more): Renal events (21%)
+Uncommon (0.1% to 1%): Acute renal failure[Ref]
+The number of total renal events in preterm infants within 30 days of therapy following IV use was 21% and included increased blood urea (7%), renal insufficiency/impairment (6%), reduced urine output (3%), increased blood creatinine (3%), renal failure (1%), and increased blood urea with hematuria (1%).[Ref]
+Hematologic
+Very common (10% or more): Anemia (up to 36%), eosinophilia (up to 26%), neutropenia (up to 13%), thrombocythemia (up to 10%)
+Common (1% to 10%): Hemoglobin decreased
+Very rare (less than 0.01%): Leukopenia, thrombocytopenia, agranulocytosis, hemolytic anemia, aplastic anemia, pancytopenia, hematocrit decreased
+Frequency not reported: lymphadenopathy, bleeding episodes
+Patent Ductus Arteriosus:
+Very common (10% or more): Anemia (32%), total bleeding (32%), intraventricular hemorrhage (29%), Neutropenia, thrombocytopenia[Ref]
+The incidence of total bleeding events within 30 days of therapy with IV use in preterm infants was 32%. This percentage included grade 1 and 2 intraventricular hemorrhage (15%), grade 3 and 4 intraventricular hemorrhage (15%), and other bleeding (6%).[Ref]
+Dermatologic
+Common (1% to 10%): Rash, maculopapular rash, pruritus
+Very rare (less than 0.01%): Stevens-Johnson syndrome, erythema multiforme, toxic epidermal necrolysis
+Frequency not reported: Ecchymosis, purpura, alopecia, sweating, photosensitivity, angioedema, exfoliative dermatitis, urticaria, vesiculobullous eruptions, Henoch Schonlein vasculitis
+Patent Ductus Arteriosus:
+Very common (10% or more): Skin lesion/irritation (16%)[Ref]
+Metabolic
+Very common (10% or more): Hypokalemia (up to 19%), hypoproteinemia (up to 13%), blood urea increased (10%), hypernatremia (10%), hypoalbuminemia (10%)
+Common (1% to 10%): Appetite decreased, fluid retention
+Frequency not reported: Appetite changes, hyperglycemia, hypoglycemic reaction, acidosis
+Patent Ductus Arteriosus:
+Very common (10% or more): Hypoglycemia (12%), hypocalcemia (12%), blood creatinine increased, blood sodium decreased
+Common (1% to 10%): Hypernatremia
+Frequency not reported: Feeding problems, hyperglycemia[Ref]
+Other
+Very common (10% or more): Bacteremia (13%), blood LDH increased (up to 10%)
+Common (1% to 10%): Peripheral edema, wound hemorrhage, tinnitus, hearing impairment, edema, fatigue
+Very rare (less than 0.01%): Aseptic meningitis, vertigo, exacerbation of infection-related inflammations
+Frequency not reported: Fever, infection, sepsis, weight changes, asthenia, malaise, pseudo-tumor, hearing loss, drowsiness
+Patent Ductus Arteriosus:
+Very common (10% or more): Sepsis (43%)
+Common (1% to 10%): Edema, fluid retention
+Frequency not reported: Various infections[Ref]
+Respiratory
+Very common (10% or more): Bacterial pneumonia (up to 10%)
+Common (1% to 10%): Cough
+Very rare (less than 0.01%): Asthma, bronchospasm, dyspnea, wheezing
+Frequency not reported: Apnea, respiratory depression, pneumonia, rhinitis, epistaxis
+Patent Ductus Arteriosus:
+Very common (10% or more): Apnea (28%), respiratory infection (19%), respiratory failure (10%), bronchopulmonary dysplasia
+Common (1% to 10%): Atelectasis, pulmonary hemorrhage
+Uncommon (0.1% to 1%): Hypoxemia
+Postmarketing reports: Pulmonary hypertension[Ref]
+Hepatic
+Very rare (less than 0.01%): Hepatitis, jaundice
+Frequency not reported: Hepatorenal syndrome, liver necrosis, liver failure, abnormal liver function tests
+Patent Ductus Arteriosus:
+Frequency not reported: Cholestasis, jaundice[Ref]
+Hypersensitivity
+Frequency not reported: Anaphylactoid reactions, hypersensitivity reaction[Ref]
+Hypersensitivity reactions have been reported and may consist of any of the following: a syndrome of abdominal pain, fever, chills, nausea, vomiting, and anaphylaxis; respiratory tract reactivity comprising bronchospasm, asthma/aggravated asthma, or dyspnea; skin reactions, which rarely included exfoliative and bullous dermatoses, Stevens-Johnson syndrome, toxic epidermal necrolysis, angioedema, pruritus, and urticaria.[Ref]
+Ocular
+Very rare (less than 0.01%): Visual disturbances
+Frequency not reported: Blurred vision, amblyopia, diminished vision, scotomata, changes in color vision, conjunctivitis, dry eyes, diplopia, optic neuritis, cataracts, optic neuritis, toxic optic neuropathy[Ref]
+Musculoskeletal
+Frequency not reported: Lupus erythematosus syndrome[Ref]
+Psychiatric
+Frequency not reported: Anxiety, confusion, depression, dream abnormalities, insomnia, emotional lability, hallucinations[Ref]
+Genitourinary
+Common (1% to 10%): Urinary retention
+Very rare (less than 0.01%): Proteinuria, hematuria
+Frequency not reported: Dysuria, oliguria, polyuria, menorrhagia
+Patent Ductus Arteriosus:
+Very common (10% or more): Oliguria, hematuria
+Common (1% to 10%): Urinary tract infection[Ref]
+Immunologic
+Frequency not reported: Serum sickness[Ref]
+Local
+Common (1% to 10%): Infusion site pain
+Postmarketing reports: Transient sensation of burning in mouth/throat
+Patent Ductus Arteriosus:
+Frequency not reported: Injection site reactions[Ref]
+Endocrine
+Frequency not reported: Gynecomastia
+Patent Ductus Arteriosus:
+Common (1% to 10%): Adrenal insufficiency[Ref]
+References
+1. (2002) "Product Information. Motrin (ibuprofen)." Pharmacia and Upjohn
+2. (2004) "Product Information. Ibuprofen (ibuprofen)." Par Pharmaceutical Inc
+3. Cerner Multum, Inc. "UK Summary of Product Characteristics."
+4. (2006) "Product Information. NeoProfen (ibuprofen)." Ovation Pharmaceuticals Inc
+5. Cerner Multum, Inc. "Australian Product Information."
+6. (2009) "Product Information. Caldolor (ibuprofen)." Cumberland Pharmaceuticals Inc
+Does Advil Children's interact with my other drugs?
+Enter medications to view a detailed interaction report using our Drug Interaction Checker.
+Drug name
+Add a drug to check interactions
+Add
+Frequently asked questions
+Can you take Ibuprofen if you have COVID-19 (coronavirus)?
+Naproxen vs ibuprofen: What's the difference?
+Can you take ibuprofen on an empty stomach?
+Can you take expired ibuprofen?
+What's the difference between aspirin and ibuprofen?
+Meloxicam vs Ibuprofen: What's the difference?
+Can you overdose on ibuprofen?
+Can you take tramadol with acetaminophen, ibuprofen, or aspirin?
+Aleve vs Ibuprofen: What's the difference?
+More about Advil Children's (ibuprofen)
+Check interactions
+Compare alternatives
+Pricing &amp; coupons
+Drug images
+Latest FDA alerts (14)
+Dosage information
+During pregnancy
+Drug class: Nonsteroidal anti-inflammatory drugs
+Breastfeeding
+En español
+Patient resources
+Children's Advil drug information
+Other brands
+IBU, Motrin IB, Children's Motrin, Caldolor, ... +17 more
+Professional resources
+Advil Childrens prescribing information
+Ibuprofen, Ibuprofen Lysine (AHFS Monograph)
+Other brands
+Motrin, IBU, Motrin IB, Children's Motrin, ... +2 more
+Other formulations
+Advil
+Related treatment guides
+Pain
+Headache
+Fever
+Juvenile Rheumatoid Arthritis
+Further information
+Advil Children's side effects can vary depending on the individual. Always consult your healthcare provider to ensure the information displayed on this page applies to your personal circumstances.
+Note: Medication side effects may be underreported. If you are experiencing side effects that are not listed, submit a report to the FDA by following this guide.
+Medical Disclaimer
+Advil Pediatric Dosage Guide
+Use these dosage charts for infants and children under 12 years old:
+Advil Dosage Charts (Infants &amp; Children)
+DRUG STATUS
+Availability
+Rx and/or OTC
+Rx
+OTC
+Pregnancy &amp; Lactation
+Risk data available
+CSA Schedule*
+Not a controlled drug
+N/A
+Approval History
+Drug history at FDA
+User Reviews &amp; Ratings
+Review this drug
+Related News
+Common Meds Appear To Delay Onset Of Parkinson's Disease
+Images
+Advil Junior Strength (Chewable) 100 mg (Advil 100)
+View larger images
+Drugs.com Mobile App
+Access drug &amp; treatment information, identify pills, check interactions and set up personal medication records.
+Download the Medication Guide app on iTunes
+Download the Medication Guide app on the Google Play store
+About
+About Drugs.com
+Advertising policy
+Attribution &amp; citations
+Editorial policy
+Support
+Help center
+Sitemap
+Subscribe to Drugs.com newsletters
+Follow Drugs.com on Facebook
+Follow Drugs.com on Twitter
+Follow Drugs.com on Instagram
+Follow Drugs.com on YouTube
+Follow Drugs.com on Pinterest
+Subscribe to our newsletter for the latest medication news, new drug approvals and FDA alerts.
+Drugs.com provides accurate and independent information on more than 24,000 prescription drugs, over-the-counter medicines and natural products. This material is provided for educational purposes only and is not intended for medical advice, diagnosis or treatment. Data sources include Micromedex (updated 1 Jul 2025), Cerner Multum™ (updated 6 Jul 2025), ASHP (updated 11 May 2025) and others.
+Copyright © 2000-2025 Drugs.com. All rights reserved.</t>
         </is>
       </c>
     </row>
@@ -4144,31 +4720,461 @@
       </c>
       <c r="H18" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">❌ Error processing Advil Infant's Concentrated Drops: Message: element click intercepted: Element &lt;a href="/sfx/advil-infant-s-concentrated-drops-side-effects.html"&gt;...&lt;/a&gt; is not clickable at point (93, 459). Other element would receive the click: &lt;div id="display-ad-1" class="display-ad display-ad-static display-ad-728x90" data-google-query-id="CNXsldTIrY4DFYZLuAQd0pIHgw"&gt;...&lt;/div&gt;
-  (Session info: chrome=138.0.7204.93); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#elementclickinterceptedexception
-Stacktrace:
-0   chromedriver                        0x00000001053c0ea4 cxxbridge1$str$ptr + 2722840
-1   chromedriver                        0x00000001053b8dac cxxbridge1$str$ptr + 2689824
-2   chromedriver                        0x0000000104f0a3ec cxxbridge1$string$len + 90648
-3   chromedriver                        0x0000000104f570a8 cxxbridge1$string$len + 405204
-4   chromedriver                        0x0000000104f55614 cxxbridge1$string$len + 398400
-5   chromedriver                        0x0000000104f53428 cxxbridge1$string$len + 389716
-6   chromedriver                        0x0000000104f52824 cxxbridge1$string$len + 386640
-7   chromedriver                        0x0000000104f47358 cxxbridge1$string$len + 340356
-8   chromedriver                        0x0000000104f46de4 cxxbridge1$string$len + 338960
-9   chromedriver                        0x0000000104f92934 cxxbridge1$string$len + 649056
-10  chromedriver                        0x0000000104f45834 cxxbridge1$string$len + 333408
-11  chromedriver                        0x0000000105383fc0 cxxbridge1$str$ptr + 2473268
-12  chromedriver                        0x000000010538722c cxxbridge1$str$ptr + 2486176
-13  chromedriver                        0x0000000105365a08 cxxbridge1$str$ptr + 2348924
-14  chromedriver                        0x0000000105387ae8 cxxbridge1$str$ptr + 2488412
-15  chromedriver                        0x0000000105356a98 cxxbridge1$str$ptr + 2287628
-16  chromedriver                        0x00000001053a79d8 cxxbridge1$str$ptr + 2619212
-17  chromedriver                        0x00000001053a7b64 cxxbridge1$str$ptr + 2619608
-18  chromedriver                        0x00000001053b89e8 cxxbridge1$str$ptr + 2688860
-19  libsystem_pthread.dylib             0x00000001821cbc0c _pthread_start + 136
-20  libsystem_pthread.dylib             0x00000001821c6b80 thread_start + 8
-</t>
+          <t>Skip to main content
+Search Drugs.com
+Search
+Site navigation
+Close
+Home
+Side Effects
+Advil Infant's Concentrated Drops
+Advil Infant's Concentrated Drops Side Effects
+Generic name: ibuprofen
+Medically reviewed by Drugs.com. Last updated on Jun 5, 2025.
+Serious side effects
+Other side effects
+Professional info
+FAQ
+Note: This document provides detailed information about Advil Infant's Concentrated Drops Side Effects associated with ibuprofen. Some dosage forms listed on this page may not apply specifically to the brand name Advil Infant's Concentrated Drops.
+Applies to ibuprofen: oral capsule liquid filled, oral suspension, oral tablet, oral tablet chewable.
+Other dosage forms:
+intravenous solution
+Important warnings
+This medicine can cause some serious health issues
+Oral route (tablet; suspension; capsule, liquid filled; tablet, chewable)
+NSAIDs may cause an increased risk of serious cardiovascular thrombotic events, myocardial infarction, and stroke, which can be fatal.
+This risk may be increased in patients with cardiovascular disease or risk factors for cardiovascular disease.
+Ibuprofen is contraindicated for the treatment of peri-operative pain in the setting of coronary artery bypass graft (CABG) surgery.
+NSAIDs can also cause an increased risk of serious gastrointestinal adverse events especially in the elderly, including bleeding, ulceration, and perforation of the stomach or intestines, which can be fatal.
+Precautions
+It is very important that your doctor check your progress at regular visits. This will allow your doctor to see if the medicine is working properly and to decide if you should continue to take it. Blood and urine tests may be needed to check for unwanted effects .
+This medicine may raise your risk of having a heart attack or stroke. This is more likely in people who already have heart disease. People who use this medicine for a long time might also have a higher risk .
+This medicine may cause bleeding in your stomach or intestines. These problems can happen without warning signs. This is more likely if you have had a stomach ulcer in the past, if you smoke or drink alcohol regularly, if you are over 60 years old, if you are in poor health, or if you are using certain other medicines (a steroid or a blood thinner) .
+Serious skin reactions can occur during treatment with this medicine. Check with your doctor right away if you have any of the following symptoms while taking this medicine: blistering, peeling, loosening of skin, chills, cough, diarrhea, fever, itching, joint or muscle pain, red skin lesions, sore throat, sores, ulcers, white spots in mouth or on lips, or unusual tiredness or weakness .
+Possible warning signs of some serious side effects that can occur during treatment with this medicine may include swelling of the face, fingers, feet, and/or lower legs; severe stomach pain, black, tarry stools, and/or vomiting of blood or material that looks like coffee grounds; unusual weight gain; yellow skin or eyes; decreased urination; bleeding or bruising; and/or skin rash. Also, signs of serious heart problems could occur such as chest pain, tightness in chest, fast or irregular heartbeat, unusual flushing or warmth of skin, weakness, or slurring of speech. Stop taking ibuprofen (the active ingredient contained in Advil Infant's Concentrated Drops) and check with your doctor immediately if you notice any of these warning signs .
+This medicine may also cause a serious type of allergic reaction called anaphylaxis. Although this is rare, it may occur often in patients who are allergic to aspirin or other nonsteroidal anti-inflammatory drugs. Anaphylaxis requires immediate medical attention. The most serious signs of this reaction are very fast or irregular breathing, gasping for breath, wheezing, or fainting. Other signs may include changes in skin color of the face; very fast but irregular heartbeat or pulse; hive-like swellings on the skin; and puffiness or swelling of the eyelids or around the eyes. If these effects occur, get emergency help at once .
+Some people who have used this medicine had symptoms of meningitis. If you have fever, headache, nausea, vomiting, and stiff neck or back while using this medicine, check with your doctor right away .
+Using this medicine while you are pregnant can harm your unborn baby. If you think you have become pregnant while using this medicine, tell your doctor right away .
+Check with your doctor immediately if blurred vision, difficulty in reading, or any other change in vision occurs during or after your treatment. Your doctor may want you to have your eyes checked by an ophthalmologist (eye doctor) .
+Before having any kind of surgery or medical tests, tell your doctor that you are taking this medicine. It may be necessary for you to stop treatment for a while, or to change to a different nonsteroidal anti-inflammatory drug before your procedure .
+Serious side effects
+Along with its needed effects, ibuprofen may cause some unwanted effects. Although not all of these side effects may occur, if they do occur they may need medical attention.
+Check with your doctor immediately if any of the following side effects occur while taking ibuprofen:
+More common side effects
+abdominal pain
+acid or sour stomach
+belching
+bloating
+cloudy urine
+decrease in amount of urine
+decrease in urine output or decrease in urine-concentrating ability
+diarrhea
+difficulty having a bowel movement (stool)
+excess air or gas in stomach or intestines
+full feeling
+heartburn
+indigestion
+itching skin
+pain or discomfort in chest, upper stomach, or throat
+pale skin
+passing gas
+nausea
+noisy, rattling breathing
+rash with flat lesions or small raised lesions on the skin
+shortness of breath
+swelling of face, fingers, hands, feet, lower legs, or ankles
+troubled breathing at rest
+troubled breathing with exertion
+unusual bleeding or bruising
+unusual tiredness or weakness
+vomiting
+weight gain
+Less common side effects
+abdominal cramps
+stomach soreness or discomfort
+Rare side effects
+agitation
+back, leg, or stomach pains
+bleeding gums
+blistering, peeling, loosening of skin
+blood in urine or stools
+bloody, black, or tarry stools
+blurred vision
+burning feeling in chest or stomach
+change in vision
+chest pain
+chills
+clay-colored stools
+coma
+confusion
+constipation
+cough or hoarseness
+dark urine
+decreased urine output
+depression
+difficulty breathing
+difficulty swallowing
+dilated neck veins
+dizziness
+dry mouth
+extreme fatigue
+fast, irregular, pounding, or racing heartbeat or pulse
+fever with or without chills
+frequent urination
+general body swelling
+general feeling of tiredness or weakness
+hair loss, thinning of hair
+headache
+hives or welts
+hostility
+impaired vision
+increased blood pressure
+increased volume of pale, dilute urine
+irregular breathing
+irritability
+itching
+joint or muscle pain
+lab results that show problems with liver
+lethargy
+light-colored stools
+loss of appetite
+lower back or side pain
+muscle twitching
+nosebleeds
+painful or difficult urination
+pains in stomach, side, or abdomen, possibly radiating to the back
+pinpoint red spots on skin
+puffiness or swelling of the eyelids or around the eyes, face, lips, or tongue
+rash
+red skin lesions, often with a purple center
+red, irritated eyes
+redness of skin
+seizures
+severe abdominal pain, cramping, burning
+severe and continuing nausea
+sore throat
+sores, ulcers, or white spots in mouth or on lips
+stiff neck or back
+stomach upset
+stupor
+swollen or painful glands
+tenderness in stomach area
+thirst
+tightness in chest
+unpleasant breath odor
+upper right abdominal pain
+vomiting of blood
+vomiting of material that looks like coffee grounds
+wheezing
+yellow eyes and skin
+Symptoms of overdose
+bluish lips or skin
+difficulty sleeping
+disorientation
+dizziness, faintness, or lightheadedness when getting up from a lying or sitting position suddenly
+drowsiness to profound coma
+hallucination
+lightheadedness or fainting
+mood or other mental changes
+muscle tremors
+not breathing
+rapid, deep breathing
+restlessness
+slow or irregular heartbeat
+stomach cramps
+sudden fainting
+sweating
+Other side effects
+Some side effects of ibuprofen may occur that usually do not need medical attention. These side effects may go away during treatment as your body adjusts to the medicine. Also, your health care professional may be able to tell you about ways to prevent or reduce some of these side effects.
+Check with your health care professional if any of the following side effects continue or are bothersome or if you have any questions about them:
+More common side effects
+continuing ringing or buzzing or other unexplained noise in ears
+hearing loss
+nervousness
+Rare side effects
+crying
+depersonalization
+discouragement
+dry eyes
+dysphoria
+euphoria
+feeling sad or empty
+lack of appetite
+loss of interest or pleasure
+mental depression
+paranoia
+quick to react or overreact
+rapidly changing moods
+runny nose
+sleepiness or unusual drowsiness
+sleeplessness
+sneezing
+stuffy nose
+trouble concentrating
+trouble sleeping
+unable to sleep
+See also:
+Paracetamol
+Paracetamol (Panadol, Calpol, Alvedon) is a widely used over-the-counter painkiller and fever ...
+Reviews &amp; ratings
+6.1 / 10
+13 Reviews
+View more
+Tylenol
+Tylenol is a pain reliever and a fever reducer used to treat many conditions such as headaches ...
+Reviews &amp; ratings
+5.9 / 10
+31 Reviews
+View more
+FEATURED
+Botox
+Botox is used cosmetically to reduce facial lines and wrinkles and for medical purposes for ...
+Reviews &amp; ratings
+5.7 / 10
+478 Reviews
+View more
+Naproxen
+Naproxen is a nonsteroidal anti-inflammatory drug used to treat pain or inflammation caused by ...
+Reviews &amp; ratings
+6.8 / 10
+683 Reviews
+View more
+Oxycodone
+Oxycodone is an opioid analgesic used to treat moderate to severe pain; it has a high potential for ...
+Reviews &amp; ratings
+6.9 / 10
+1,146 Reviews
+View more
+Diclofenac
+Diclofenac is a nonsteroidal anti-inflammatory drug used to treat pain and inflammation associated ...
+Reviews &amp; ratings
+7.3 / 10
+699 Reviews
+View more
+Cyclobenzaprine
+Cyclobenzaprine is a muscle relaxant and works by blocking pain sensations. Includes ...
+Reviews &amp; ratings
+6.0 / 10
+621 Reviews
+View more
+Hydroxyzine
+Hydroxyzine is an antihistamine used to treat itching, hives, and anxiety. It also acts as a ...
+Reviews &amp; ratings
+5.9 / 10
+1,409 Reviews
+View more
+Meloxicam
+Meloxicam is a nonsteroidal anti-inflammatory drug used to treat pain or inflammation caused by ...
+Reviews &amp; ratings
+6.3 / 10
+600 Reviews
+View more
+Tramadol
+Tramadol is an opioid medication that may be used to treat moderate to moderately severe chronic ...
+Reviews &amp; ratings
+7.0 / 10
+1,884 Reviews
+View more
+Managing side effects (general information)
+For healthcare professionals
+Applies to ibuprofen: compounding powder, intravenous solution, oral capsule, oral suspension, oral tablet, oral tablet chewable.
+General adverse events
+The most frequently reported adverse effects were gastrointestinal (GI) in nature and included nausea, vomiting, flatulence, and diarrhea.
+Patent Ductus Arteriosus: The most frequently reported adverse effects were sepsis, anemia, intraventricular bleeding, apnea, GI disorders, impaired renal function, respiratory infection, skin lesions, hypoglycemia, hypocalcemia, and respiratory failure.[Ref]
+Gastrointestinal
+Very common (10% or more): Nausea (up to 57%), vomiting (up to 22%), flatulence (up to 16%), diarrhea (up to 10%)
+Common (1% to 10%): Dyspepsia, abdominal discomfort, epigastric pain, heartburn, abdominal distress, indigestion, constipation, abdominal cramps/pain, fullness of GI tract, bloating, GI hemorrhage, melena
+Uncommon (0.1% to 1%): Abdominal distention, dyspepsia, gastritis
+Very rare (less than 0.01%): Peptic ulcer, perforation, hematemesis, mouth ulceration, exacerbation of colitis, exacerbation of Crohn's disease
+Frequency not reported: Dry mouth, duodenitis, esophagitis, gastric ulcer, duodenal ulcer, GI bleeding, glossitis, rectal bleeding, stomatitis, eructation, gingival ulcer, pancreatitis
+Patent Ductus Arteriosus:
+Very common (10% or more): GI disorders non-necrotizing enterocolitis (22%)
+Common (1% to 10%): Necrotizing enterocolitis, intestinal perforation
+Frequency not reported: Abdominal distension, gastroesophageal reflux, gastritis, ileus, inguinal hernia
+Postmarketing reports: GI perforation[Ref]
+Cardiovascular
+Very common (10% or more): Hemorrhage (up to 10%), hypertension (10%), hypotension (10%)
+Very rare (less than 0.01%): Cardiac failure
+Frequency not reported: Congestive heart failure, tachycardia, arrhythmia, myocardial infarction, palpitations, vasculitis, sinus bradycardia, angina pectoris, thrombotic events
+Patent Ductus Arteriosus:
+Frequency not reported: Tachycardia, cardiac failure, hypotension[Ref]
+Nervous system
+Very common (10% or more): Headache (up to 12%)
+Common (1% to 10%): Dizziness, nervousness
+Very rare (less than 0.01%): Cerebrovascular accident
+Frequency not reported: Syncope, drowsiness, paresthesia, somnolence, tremors, convulsions, coma
+Patent Ductus Arteriosus:
+Common (1% to 10%): Intraventricular hemorrhage, periventricular hemorrhage
+Frequency not reported: Convulsions[Ref]
+Renal
+Very rare (less than 0.01%): Acute renal failure, renal papillary necrosis, interstitial nephritis, nephrotic syndrome, renal failure, renal insufficiency
+Frequency not reported: Cystitis, azotemia, creatinine clearance decreased, glomerulitis, tubular necrosis, nephrotoxicity
+Patent Ductus Arteriosus:
+Very common (10% or more): Renal events (21%)
+Uncommon (0.1% to 1%): Acute renal failure[Ref]
+The number of total renal events in preterm infants within 30 days of therapy following IV use was 21% and included increased blood urea (7%), renal insufficiency/impairment (6%), reduced urine output (3%), increased blood creatinine (3%), renal failure (1%), and increased blood urea with hematuria (1%).[Ref]
+Hematologic
+Very common (10% or more): Anemia (up to 36%), eosinophilia (up to 26%), neutropenia (up to 13%), thrombocythemia (up to 10%)
+Common (1% to 10%): Hemoglobin decreased
+Very rare (less than 0.01%): Leukopenia, thrombocytopenia, agranulocytosis, hemolytic anemia, aplastic anemia, pancytopenia, hematocrit decreased
+Frequency not reported: lymphadenopathy, bleeding episodes
+Patent Ductus Arteriosus:
+Very common (10% or more): Anemia (32%), total bleeding (32%), intraventricular hemorrhage (29%), Neutropenia, thrombocytopenia[Ref]
+The incidence of total bleeding events within 30 days of therapy with IV use in preterm infants was 32%. This percentage included grade 1 and 2 intraventricular hemorrhage (15%), grade 3 and 4 intraventricular hemorrhage (15%), and other bleeding (6%).[Ref]
+Dermatologic
+Common (1% to 10%): Rash, maculopapular rash, pruritus
+Very rare (less than 0.01%): Stevens-Johnson syndrome, erythema multiforme, toxic epidermal necrolysis
+Frequency not reported: Ecchymosis, purpura, alopecia, sweating, photosensitivity, angioedema, exfoliative dermatitis, urticaria, vesiculobullous eruptions, Henoch Schonlein vasculitis
+Patent Ductus Arteriosus:
+Very common (10% or more): Skin lesion/irritation (16%)[Ref]
+Metabolic
+Very common (10% or more): Hypokalemia (up to 19%), hypoproteinemia (up to 13%), blood urea increased (10%), hypernatremia (10%), hypoalbuminemia (10%)
+Common (1% to 10%): Appetite decreased, fluid retention
+Frequency not reported: Appetite changes, hyperglycemia, hypoglycemic reaction, acidosis
+Patent Ductus Arteriosus:
+Very common (10% or more): Hypoglycemia (12%), hypocalcemia (12%), blood creatinine increased, blood sodium decreased
+Common (1% to 10%): Hypernatremia
+Frequency not reported: Feeding problems, hyperglycemia[Ref]
+Other
+Very common (10% or more): Bacteremia (13%), blood LDH increased (up to 10%)
+Common (1% to 10%): Peripheral edema, wound hemorrhage, tinnitus, hearing impairment, edema, fatigue
+Very rare (less than 0.01%): Aseptic meningitis, vertigo, exacerbation of infection-related inflammations
+Frequency not reported: Fever, infection, sepsis, weight changes, asthenia, malaise, pseudo-tumor, hearing loss, drowsiness
+Patent Ductus Arteriosus:
+Very common (10% or more): Sepsis (43%)
+Common (1% to 10%): Edema, fluid retention
+Frequency not reported: Various infections[Ref]
+Respiratory
+Very common (10% or more): Bacterial pneumonia (up to 10%)
+Common (1% to 10%): Cough
+Very rare (less than 0.01%): Asthma, bronchospasm, dyspnea, wheezing
+Frequency not reported: Apnea, respiratory depression, pneumonia, rhinitis, epistaxis
+Patent Ductus Arteriosus:
+Very common (10% or more): Apnea (28%), respiratory infection (19%), respiratory failure (10%), bronchopulmonary dysplasia
+Common (1% to 10%): Atelectasis, pulmonary hemorrhage
+Uncommon (0.1% to 1%): Hypoxemia
+Postmarketing reports: Pulmonary hypertension[Ref]
+Hepatic
+Very rare (less than 0.01%): Hepatitis, jaundice
+Frequency not reported: Hepatorenal syndrome, liver necrosis, liver failure, abnormal liver function tests
+Patent Ductus Arteriosus:
+Frequency not reported: Cholestasis, jaundice[Ref]
+Hypersensitivity
+Frequency not reported: Anaphylactoid reactions, hypersensitivity reaction[Ref]
+Hypersensitivity reactions have been reported and may consist of any of the following: a syndrome of abdominal pain, fever, chills, nausea, vomiting, and anaphylaxis; respiratory tract reactivity comprising bronchospasm, asthma/aggravated asthma, or dyspnea; skin reactions, which rarely included exfoliative and bullous dermatoses, Stevens-Johnson syndrome, toxic epidermal necrolysis, angioedema, pruritus, and urticaria.[Ref]
+Ocular
+Very rare (less than 0.01%): Visual disturbances
+Frequency not reported: Blurred vision, amblyopia, diminished vision, scotomata, changes in color vision, conjunctivitis, dry eyes, diplopia, optic neuritis, cataracts, optic neuritis, toxic optic neuropathy[Ref]
+Musculoskeletal
+Frequency not reported: Lupus erythematosus syndrome[Ref]
+Psychiatric
+Frequency not reported: Anxiety, confusion, depression, dream abnormalities, insomnia, emotional lability, hallucinations[Ref]
+Genitourinary
+Common (1% to 10%): Urinary retention
+Very rare (less than 0.01%): Proteinuria, hematuria
+Frequency not reported: Dysuria, oliguria, polyuria, menorrhagia
+Patent Ductus Arteriosus:
+Very common (10% or more): Oliguria, hematuria
+Common (1% to 10%): Urinary tract infection[Ref]
+Immunologic
+Frequency not reported: Serum sickness[Ref]
+Local
+Common (1% to 10%): Infusion site pain
+Postmarketing reports: Transient sensation of burning in mouth/throat
+Patent Ductus Arteriosus:
+Frequency not reported: Injection site reactions[Ref]
+Endocrine
+Frequency not reported: Gynecomastia
+Patent Ductus Arteriosus:
+Common (1% to 10%): Adrenal insufficiency[Ref]
+References
+1. (2002) "Product Information. Motrin (ibuprofen)." Pharmacia and Upjohn
+2. (2004) "Product Information. Ibuprofen (ibuprofen)." Par Pharmaceutical Inc
+3. Cerner Multum, Inc. "UK Summary of Product Characteristics."
+4. (2006) "Product Information. NeoProfen (ibuprofen)." Ovation Pharmaceuticals Inc
+5. Cerner Multum, Inc. "Australian Product Information."
+6. (2009) "Product Information. Caldolor (ibuprofen)." Cumberland Pharmaceuticals Inc
+Does Advil Infant's Concentrated Drops interact with my other drugs?
+Enter medications to view a detailed interaction report using our Drug Interaction Checker.
+Drug name
+Add a drug to check interactions
+Add
+Frequently asked questions
+Can you take Ibuprofen if you have COVID-19 (coronavirus)?
+Naproxen vs ibuprofen: What's the difference?
+Can you take ibuprofen on an empty stomach?
+Can you take expired ibuprofen?
+What's the difference between aspirin and ibuprofen?
+Meloxicam vs Ibuprofen: What's the difference?
+Can you overdose on ibuprofen?
+Can you take tramadol with acetaminophen, ibuprofen, or aspirin?
+Aleve vs Ibuprofen: What's the difference?
+More about Advil Infant's Concentrated Drops (ibuprofen)
+Check interactions
+Compare alternatives
+Pricing &amp; coupons
+Latest FDA alerts (14)
+Dosage information
+During pregnancy
+Drug class: Nonsteroidal anti-inflammatory drugs
+Breastfeeding
+Patient resources
+Other brands
+IBU, Motrin IB, Children's Motrin, Caldolor, ... +17 more
+Professional resources
+Advil Infants Concentrated Drops prescribing information
+Ibuprofen, Ibuprofen Lysine (AHFS Monograph)
+Other brands
+Motrin, IBU, Motrin IB, Children's Motrin, ... +2 more
+Other formulations
+Advil
+Related treatment guides
+Fever
+Juvenile Rheumatoid Arthritis
+Pain
+Toothache
+Further information
+Advil Infant's Concentrated Drops side effects can vary depending on the individual. Always consult your healthcare provider to ensure the information displayed on this page applies to your personal circumstances.
+Note: Medication side effects may be underreported. If you are experiencing side effects that are not listed, submit a report to the FDA by following this guide.
+Medical Disclaimer
+Advil Pediatric Dosage Guide
+Use these dosage charts for infants and children under 12 years old:
+Advil Dosage Charts (Infants &amp; Children)
+DRUG STATUS
+Availability
+Rx and/or OTC
+Rx
+OTC
+Pregnancy &amp; Lactation
+Risk data available
+CSA Schedule*
+Not a controlled drug
+N/A
+User Reviews &amp; Ratings
+Review this drug
+Related News
+Common Meds Appear To Delay Onset Of Parkinson's Disease
+Drugs.com Mobile App
+Access drug &amp; treatment information, identify pills, check interactions and set up personal medication records.
+Download the Medication Guide app on iTunes
+Download the Medication Guide app on the Google Play store
+About
+About Drugs.com
+Advertising policy
+Attribution &amp; citations
+Editorial policy
+Support
+Help center
+Sitemap
+Subscribe to Drugs.com newsletters
+Follow Drugs.com on Facebook
+Follow Drugs.com on Twitter
+Follow Drugs.com on Instagram
+Follow Drugs.com on YouTube
+Follow Drugs.com on Pinterest
+Subscribe to our newsletter for the latest medication news, new drug approvals and FDA alerts.
+Drugs.com provides accurate and independent information on more than 24,000 prescription drugs, over-the-counter medicines and natural products. This material is provided for educational purposes only and is not intended for medical advice, diagnosis or treatment. Data sources include Micromedex (updated 1 Jul 2025), Cerner Multum™ (updated 6 Jul 2025), ASHP (updated 11 May 2025) and others.
+Copyright © 2000-2025 Drugs.com. All rights reserved.</t>
         </is>
       </c>
     </row>
@@ -4194,31 +5200,461 @@
       </c>
       <c r="H19" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve">❌ Error processing Advil Junior Strength: Message: element click intercepted: Element &lt;a href="/sfx/advil-junior-strength-side-effects.html"&gt;...&lt;/a&gt; is not clickable at point (93, 458). Other element would receive the click: &lt;div id="google_ads_iframe_/7146/dosage_0__container__" style="border: 0pt none;"&gt;...&lt;/div&gt;
-  (Session info: chrome=138.0.7204.93); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#elementclickinterceptedexception
-Stacktrace:
-0   chromedriver                        0x00000001053c0ea4 cxxbridge1$str$ptr + 2722840
-1   chromedriver                        0x00000001053b8dac cxxbridge1$str$ptr + 2689824
-2   chromedriver                        0x0000000104f0a3ec cxxbridge1$string$len + 90648
-3   chromedriver                        0x0000000104f570a8 cxxbridge1$string$len + 405204
-4   chromedriver                        0x0000000104f55614 cxxbridge1$string$len + 398400
-5   chromedriver                        0x0000000104f53428 cxxbridge1$string$len + 389716
-6   chromedriver                        0x0000000104f52824 cxxbridge1$string$len + 386640
-7   chromedriver                        0x0000000104f47358 cxxbridge1$string$len + 340356
-8   chromedriver                        0x0000000104f46de4 cxxbridge1$string$len + 338960
-9   chromedriver                        0x0000000104f92934 cxxbridge1$string$len + 649056
-10  chromedriver                        0x0000000104f45834 cxxbridge1$string$len + 333408
-11  chromedriver                        0x0000000105383fc0 cxxbridge1$str$ptr + 2473268
-12  chromedriver                        0x000000010538722c cxxbridge1$str$ptr + 2486176
-13  chromedriver                        0x0000000105365a08 cxxbridge1$str$ptr + 2348924
-14  chromedriver                        0x0000000105387ae8 cxxbridge1$str$ptr + 2488412
-15  chromedriver                        0x0000000105356a98 cxxbridge1$str$ptr + 2287628
-16  chromedriver                        0x00000001053a79d8 cxxbridge1$str$ptr + 2619212
-17  chromedriver                        0x00000001053a7b64 cxxbridge1$str$ptr + 2619608
-18  chromedriver                        0x00000001053b89e8 cxxbridge1$str$ptr + 2688860
-19  libsystem_pthread.dylib             0x00000001821cbc0c _pthread_start + 136
-20  libsystem_pthread.dylib             0x00000001821c6b80 thread_start + 8
-</t>
+          <t>Skip to main content
+Search Drugs.com
+Search
+Site navigation
+Close
+Home
+Side Effects
+Advil Junior Strength
+Advil Junior Strength Side Effects
+Generic name: ibuprofen
+Medically reviewed by Drugs.com. Last updated on Jun 5, 2025.
+Serious side effects
+Other side effects
+Professional info
+FAQ
+Note: This document provides detailed information about Advil Junior Strength Side Effects associated with ibuprofen. Some dosage forms listed on this page may not apply specifically to the brand name Advil Junior Strength.
+Applies to ibuprofen: oral capsule liquid filled, oral suspension, oral tablet, oral tablet chewable.
+Other dosage forms:
+intravenous solution
+Important warnings
+This medicine can cause some serious health issues
+Oral route (tablet; suspension; capsule, liquid filled; tablet, chewable)
+NSAIDs may cause an increased risk of serious cardiovascular thrombotic events, myocardial infarction, and stroke, which can be fatal.
+This risk may be increased in patients with cardiovascular disease or risk factors for cardiovascular disease.
+Ibuprofen is contraindicated for the treatment of peri-operative pain in the setting of coronary artery bypass graft (CABG) surgery.
+NSAIDs can also cause an increased risk of serious gastrointestinal adverse events especially in the elderly, including bleeding, ulceration, and perforation of the stomach or intestines, which can be fatal.
+Precautions
+It is very important that your doctor check your progress at regular visits. This will allow your doctor to see if the medicine is working properly and to decide if you should continue to take it. Blood and urine tests may be needed to check for unwanted effects .
+This medicine may raise your risk of having a heart attack or stroke. This is more likely in people who already have heart disease. People who use this medicine for a long time might also have a higher risk .
+This medicine may cause bleeding in your stomach or intestines. These problems can happen without warning signs. This is more likely if you have had a stomach ulcer in the past, if you smoke or drink alcohol regularly, if you are over 60 years old, if you are in poor health, or if you are using certain other medicines (a steroid or a blood thinner) .
+Serious skin reactions can occur during treatment with this medicine. Check with your doctor right away if you have any of the following symptoms while taking this medicine: blistering, peeling, loosening of skin, chills, cough, diarrhea, fever, itching, joint or muscle pain, red skin lesions, sore throat, sores, ulcers, white spots in mouth or on lips, or unusual tiredness or weakness .
+Possible warning signs of some serious side effects that can occur during treatment with this medicine may include swelling of the face, fingers, feet, and/or lower legs; severe stomach pain, black, tarry stools, and/or vomiting of blood or material that looks like coffee grounds; unusual weight gain; yellow skin or eyes; decreased urination; bleeding or bruising; and/or skin rash. Also, signs of serious heart problems could occur such as chest pain, tightness in chest, fast or irregular heartbeat, unusual flushing or warmth of skin, weakness, or slurring of speech. Stop taking ibuprofen (the active ingredient contained in Advil Junior Strength) and check with your doctor immediately if you notice any of these warning signs .
+This medicine may also cause a serious type of allergic reaction called anaphylaxis. Although this is rare, it may occur often in patients who are allergic to aspirin or other nonsteroidal anti-inflammatory drugs. Anaphylaxis requires immediate medical attention. The most serious signs of this reaction are very fast or irregular breathing, gasping for breath, wheezing, or fainting. Other signs may include changes in skin color of the face; very fast but irregular heartbeat or pulse; hive-like swellings on the skin; and puffiness or swelling of the eyelids or around the eyes. If these effects occur, get emergency help at once .
+Some people who have used this medicine had symptoms of meningitis. If you have fever, headache, nausea, vomiting, and stiff neck or back while using this medicine, check with your doctor right away .
+Using this medicine while you are pregnant can harm your unborn baby. If you think you have become pregnant while using this medicine, tell your doctor right away .
+Check with your doctor immediately if blurred vision, difficulty in reading, or any other change in vision occurs during or after your treatment. Your doctor may want you to have your eyes checked by an ophthalmologist (eye doctor) .
+Before having any kind of surgery or medical tests, tell your doctor that you are taking this medicine. It may be necessary for you to stop treatment for a while, or to change to a different nonsteroidal anti-inflammatory drug before your procedure .
+Serious side effects
+Along with its needed effects, ibuprofen may cause some unwanted effects. Although not all of these side effects may occur, if they do occur they may need medical attention.
+Check with your doctor immediately if any of the following side effects occur while taking ibuprofen:
+More common side effects
+abdominal pain
+acid or sour stomach
+belching
+bloating
+cloudy urine
+decrease in amount of urine
+decrease in urine output or decrease in urine-concentrating ability
+diarrhea
+difficulty having a bowel movement (stool)
+excess air or gas in stomach or intestines
+full feeling
+heartburn
+indigestion
+itching skin
+pain or discomfort in chest, upper stomach, or throat
+pale skin
+passing gas
+nausea
+noisy, rattling breathing
+rash with flat lesions or small raised lesions on the skin
+shortness of breath
+swelling of face, fingers, hands, feet, lower legs, or ankles
+troubled breathing at rest
+troubled breathing with exertion
+unusual bleeding or bruising
+unusual tiredness or weakness
+vomiting
+weight gain
+Less common side effects
+abdominal cramps
+stomach soreness or discomfort
+Rare side effects
+agitation
+back, leg, or stomach pains
+bleeding gums
+blistering, peeling, loosening of skin
+blood in urine or stools
+bloody, black, or tarry stools
+blurred vision
+burning feeling in chest or stomach
+change in vision
+chest pain
+chills
+clay-colored stools
+coma
+confusion
+constipation
+cough or hoarseness
+dark urine
+decreased urine output
+depression
+difficulty breathing
+difficulty swallowing
+dilated neck veins
+dizziness
+dry mouth
+extreme fatigue
+fast, irregular, pounding, or racing heartbeat or pulse
+fever with or without chills
+frequent urination
+general body swelling
+general feeling of tiredness or weakness
+hair loss, thinning of hair
+headache
+hives or welts
+hostility
+impaired vision
+increased blood pressure
+increased volume of pale, dilute urine
+irregular breathing
+irritability
+itching
+joint or muscle pain
+lab results that show problems with liver
+lethargy
+light-colored stools
+loss of appetite
+lower back or side pain
+muscle twitching
+nosebleeds
+painful or difficult urination
+pains in stomach, side, or abdomen, possibly radiating to the back
+pinpoint red spots on skin
+puffiness or swelling of the eyelids or around the eyes, face, lips, or tongue
+rash
+red skin lesions, often with a purple center
+red, irritated eyes
+redness of skin
+seizures
+severe abdominal pain, cramping, burning
+severe and continuing nausea
+sore throat
+sores, ulcers, or white spots in mouth or on lips
+stiff neck or back
+stomach upset
+stupor
+swollen or painful glands
+tenderness in stomach area
+thirst
+tightness in chest
+unpleasant breath odor
+upper right abdominal pain
+vomiting of blood
+vomiting of material that looks like coffee grounds
+wheezing
+yellow eyes and skin
+Symptoms of overdose
+bluish lips or skin
+difficulty sleeping
+disorientation
+dizziness, faintness, or lightheadedness when getting up from a lying or sitting position suddenly
+drowsiness to profound coma
+hallucination
+lightheadedness or fainting
+mood or other mental changes
+muscle tremors
+not breathing
+rapid, deep breathing
+restlessness
+slow or irregular heartbeat
+stomach cramps
+sudden fainting
+sweating
+Other side effects
+Some side effects of ibuprofen may occur that usually do not need medical attention. These side effects may go away during treatment as your body adjusts to the medicine. Also, your health care professional may be able to tell you about ways to prevent or reduce some of these side effects.
+Check with your health care professional if any of the following side effects continue or are bothersome or if you have any questions about them:
+More common side effects
+continuing ringing or buzzing or other unexplained noise in ears
+hearing loss
+nervousness
+Rare side effects
+crying
+depersonalization
+discouragement
+dry eyes
+dysphoria
+euphoria
+feeling sad or empty
+lack of appetite
+loss of interest or pleasure
+mental depression
+paranoia
+quick to react or overreact
+rapidly changing moods
+runny nose
+sleepiness or unusual drowsiness
+sleeplessness
+sneezing
+stuffy nose
+trouble concentrating
+trouble sleeping
+unable to sleep
+See also:
+Paracetamol
+Paracetamol (Panadol, Calpol, Alvedon) is a widely used over-the-counter painkiller and fever ...
+Reviews &amp; ratings
+6.1 / 10
+13 Reviews
+View more
+Tylenol
+Tylenol is a pain reliever and a fever reducer used to treat many conditions such as headaches ...
+Reviews &amp; ratings
+5.9 / 10
+31 Reviews
+View more
+FEATURED
+Botox
+Botox is used cosmetically to reduce facial lines and wrinkles and for medical purposes for ...
+Reviews &amp; ratings
+5.7 / 10
+478 Reviews
+View more
+Naproxen
+Naproxen is a nonsteroidal anti-inflammatory drug used to treat pain or inflammation caused by ...
+Reviews &amp; ratings
+6.8 / 10
+683 Reviews
+View more
+Oxycodone
+Oxycodone is an opioid analgesic used to treat moderate to severe pain; it has a high potential for ...
+Reviews &amp; ratings
+6.9 / 10
+1,146 Reviews
+View more
+Diclofenac
+Diclofenac is a nonsteroidal anti-inflammatory drug used to treat pain and inflammation associated ...
+Reviews &amp; ratings
+7.3 / 10
+699 Reviews
+View more
+Cyclobenzaprine
+Cyclobenzaprine is a muscle relaxant and works by blocking pain sensations. Includes ...
+Reviews &amp; ratings
+6.0 / 10
+621 Reviews
+View more
+Hydroxyzine
+Hydroxyzine is an antihistamine used to treat itching, hives, and anxiety. It also acts as a ...
+Reviews &amp; ratings
+5.9 / 10
+1,409 Reviews
+View more
+Meloxicam
+Meloxicam is a nonsteroidal anti-inflammatory drug used to treat pain or inflammation caused by ...
+Reviews &amp; ratings
+6.3 / 10
+600 Reviews
+View more
+Tramadol
+Tramadol is an opioid medication that may be used to treat moderate to moderately severe chronic ...
+Reviews &amp; ratings
+7.0 / 10
+1,884 Reviews
+View more
+Managing side effects (general information)
+For healthcare professionals
+Applies to ibuprofen: compounding powder, intravenous solution, oral capsule, oral suspension, oral tablet, oral tablet chewable.
+General adverse events
+The most frequently reported adverse effects were gastrointestinal (GI) in nature and included nausea, vomiting, flatulence, and diarrhea.
+Patent Ductus Arteriosus: The most frequently reported adverse effects were sepsis, anemia, intraventricular bleeding, apnea, GI disorders, impaired renal function, respiratory infection, skin lesions, hypoglycemia, hypocalcemia, and respiratory failure.[Ref]
+Gastrointestinal
+Very common (10% or more): Nausea (up to 57%), vomiting (up to 22%), flatulence (up to 16%), diarrhea (up to 10%)
+Common (1% to 10%): Dyspepsia, abdominal discomfort, epigastric pain, heartburn, abdominal distress, indigestion, constipation, abdominal cramps/pain, fullness of GI tract, bloating, GI hemorrhage, melena
+Uncommon (0.1% to 1%): Abdominal distention, dyspepsia, gastritis
+Very rare (less than 0.01%): Peptic ulcer, perforation, hematemesis, mouth ulceration, exacerbation of colitis, exacerbation of Crohn's disease
+Frequency not reported: Dry mouth, duodenitis, esophagitis, gastric ulcer, duodenal ulcer, GI bleeding, glossitis, rectal bleeding, stomatitis, eructation, gingival ulcer, pancreatitis
+Patent Ductus Arteriosus:
+Very common (10% or more): GI disorders non-necrotizing enterocolitis (22%)
+Common (1% to 10%): Necrotizing enterocolitis, intestinal perforation
+Frequency not reported: Abdominal distension, gastroesophageal reflux, gastritis, ileus, inguinal hernia
+Postmarketing reports: GI perforation[Ref]
+Cardiovascular
+Very common (10% or more): Hemorrhage (up to 10%), hypertension (10%), hypotension (10%)
+Very rare (less than 0.01%): Cardiac failure
+Frequency not reported: Congestive heart failure, tachycardia, arrhythmia, myocardial infarction, palpitations, vasculitis, sinus bradycardia, angina pectoris, thrombotic events
+Patent Ductus Arteriosus:
+Frequency not reported: Tachycardia, cardiac failure, hypotension[Ref]
+Nervous system
+Very common (10% or more): Headache (up to 12%)
+Common (1% to 10%): Dizziness, nervousness
+Very rare (less than 0.01%): Cerebrovascular accident
+Frequency not reported: Syncope, drowsiness, paresthesia, somnolence, tremors, convulsions, coma
+Patent Ductus Arteriosus:
+Common (1% to 10%): Intraventricular hemorrhage, periventricular hemorrhage
+Frequency not reported: Convulsions[Ref]
+Renal
+Very rare (less than 0.01%): Acute renal failure, renal papillary necrosis, interstitial nephritis, nephrotic syndrome, renal failure, renal insufficiency
+Frequency not reported: Cystitis, azotemia, creatinine clearance decreased, glomerulitis, tubular necrosis, nephrotoxicity
+Patent Ductus Arteriosus:
+Very common (10% or more): Renal events (21%)
+Uncommon (0.1% to 1%): Acute renal failure[Ref]
+The number of total renal events in preterm infants within 30 days of therapy following IV use was 21% and included increased blood urea (7%), renal insufficiency/impairment (6%), reduced urine output (3%), increased blood creatinine (3%), renal failure (1%), and increased blood urea with hematuria (1%).[Ref]
+Hematologic
+Very common (10% or more): Anemia (up to 36%), eosinophilia (up to 26%), neutropenia (up to 13%), thrombocythemia (up to 10%)
+Common (1% to 10%): Hemoglobin decreased
+Very rare (less than 0.01%): Leukopenia, thrombocytopenia, agranulocytosis, hemolytic anemia, aplastic anemia, pancytopenia, hematocrit decreased
+Frequency not reported: lymphadenopathy, bleeding episodes
+Patent Ductus Arteriosus:
+Very common (10% or more): Anemia (32%), total bleeding (32%), intraventricular hemorrhage (29%), Neutropenia, thrombocytopenia[Ref]
+The incidence of total bleeding events within 30 days of therapy with IV use in preterm infants was 32%. This percentage included grade 1 and 2 intraventricular hemorrhage (15%), grade 3 and 4 intraventricular hemorrhage (15%), and other bleeding (6%).[Ref]
+Dermatologic
+Common (1% to 10%): Rash, maculopapular rash, pruritus
+Very rare (less than 0.01%): Stevens-Johnson syndrome, erythema multiforme, toxic epidermal necrolysis
+Frequency not reported: Ecchymosis, purpura, alopecia, sweating, photosensitivity, angioedema, exfoliative dermatitis, urticaria, vesiculobullous eruptions, Henoch Schonlein vasculitis
+Patent Ductus Arteriosus:
+Very common (10% or more): Skin lesion/irritation (16%)[Ref]
+Metabolic
+Very common (10% or more): Hypokalemia (up to 19%), hypoproteinemia (up to 13%), blood urea increased (10%), hypernatremia (10%), hypoalbuminemia (10%)
+Common (1% to 10%): Appetite decreased, fluid retention
+Frequency not reported: Appetite changes, hyperglycemia, hypoglycemic reaction, acidosis
+Patent Ductus Arteriosus:
+Very common (10% or more): Hypoglycemia (12%), hypocalcemia (12%), blood creatinine increased, blood sodium decreased
+Common (1% to 10%): Hypernatremia
+Frequency not reported: Feeding problems, hyperglycemia[Ref]
+Other
+Very common (10% or more): Bacteremia (13%), blood LDH increased (up to 10%)
+Common (1% to 10%): Peripheral edema, wound hemorrhage, tinnitus, hearing impairment, edema, fatigue
+Very rare (less than 0.01%): Aseptic meningitis, vertigo, exacerbation of infection-related inflammations
+Frequency not reported: Fever, infection, sepsis, weight changes, asthenia, malaise, pseudo-tumor, hearing loss, drowsiness
+Patent Ductus Arteriosus:
+Very common (10% or more): Sepsis (43%)
+Common (1% to 10%): Edema, fluid retention
+Frequency not reported: Various infections[Ref]
+Respiratory
+Very common (10% or more): Bacterial pneumonia (up to 10%)
+Common (1% to 10%): Cough
+Very rare (less than 0.01%): Asthma, bronchospasm, dyspnea, wheezing
+Frequency not reported: Apnea, respiratory depression, pneumonia, rhinitis, epistaxis
+Patent Ductus Arteriosus:
+Very common (10% or more): Apnea (28%), respiratory infection (19%), respiratory failure (10%), bronchopulmonary dysplasia
+Common (1% to 10%): Atelectasis, pulmonary hemorrhage
+Uncommon (0.1% to 1%): Hypoxemia
+Postmarketing reports: Pulmonary hypertension[Ref]
+Hepatic
+Very rare (less than 0.01%): Hepatitis, jaundice
+Frequency not reported: Hepatorenal syndrome, liver necrosis, liver failure, abnormal liver function tests
+Patent Ductus Arteriosus:
+Frequency not reported: Cholestasis, jaundice[Ref]
+Hypersensitivity
+Frequency not reported: Anaphylactoid reactions, hypersensitivity reaction[Ref]
+Hypersensitivity reactions have been reported and may consist of any of the following: a syndrome of abdominal pain, fever, chills, nausea, vomiting, and anaphylaxis; respiratory tract reactivity comprising bronchospasm, asthma/aggravated asthma, or dyspnea; skin reactions, which rarely included exfoliative and bullous dermatoses, Stevens-Johnson syndrome, toxic epidermal necrolysis, angioedema, pruritus, and urticaria.[Ref]
+Ocular
+Very rare (less than 0.01%): Visual disturbances
+Frequency not reported: Blurred vision, amblyopia, diminished vision, scotomata, changes in color vision, conjunctivitis, dry eyes, diplopia, optic neuritis, cataracts, optic neuritis, toxic optic neuropathy[Ref]
+Musculoskeletal
+Frequency not reported: Lupus erythematosus syndrome[Ref]
+Psychiatric
+Frequency not reported: Anxiety, confusion, depression, dream abnormalities, insomnia, emotional lability, hallucinations[Ref]
+Genitourinary
+Common (1% to 10%): Urinary retention
+Very rare (less than 0.01%): Proteinuria, hematuria
+Frequency not reported: Dysuria, oliguria, polyuria, menorrhagia
+Patent Ductus Arteriosus:
+Very common (10% or more): Oliguria, hematuria
+Common (1% to 10%): Urinary tract infection[Ref]
+Immunologic
+Frequency not reported: Serum sickness[Ref]
+Local
+Common (1% to 10%): Infusion site pain
+Postmarketing reports: Transient sensation of burning in mouth/throat
+Patent Ductus Arteriosus:
+Frequency not reported: Injection site reactions[Ref]
+Endocrine
+Frequency not reported: Gynecomastia
+Patent Ductus Arteriosus:
+Common (1% to 10%): Adrenal insufficiency[Ref]
+References
+1. (2002) "Product Information. Motrin (ibuprofen)." Pharmacia and Upjohn
+2. (2004) "Product Information. Ibuprofen (ibuprofen)." Par Pharmaceutical Inc
+3. Cerner Multum, Inc. "UK Summary of Product Characteristics."
+4. (2006) "Product Information. NeoProfen (ibuprofen)." Ovation Pharmaceuticals Inc
+5. Cerner Multum, Inc. "Australian Product Information."
+6. (2009) "Product Information. Caldolor (ibuprofen)." Cumberland Pharmaceuticals Inc
+Does Advil Junior Strength interact with my other drugs?
+Enter medications to view a detailed interaction report using our Drug Interaction Checker.
+Drug name
+Add a drug to check interactions
+Add
+Frequently asked questions
+Can you take Ibuprofen if you have COVID-19 (coronavirus)?
+Naproxen vs ibuprofen: What's the difference?
+Can you take ibuprofen on an empty stomach?
+Can you take expired ibuprofen?
+What's the difference between aspirin and ibuprofen?
+Meloxicam vs Ibuprofen: What's the difference?
+Can you overdose on ibuprofen?
+Can you take tramadol with acetaminophen, ibuprofen, or aspirin?
+Aleve vs Ibuprofen: What's the difference?
+More about Advil Junior Strength (ibuprofen)
+Check interactions
+Compare alternatives
+Pricing &amp; coupons
+Latest FDA alerts (14)
+Dosage information
+During pregnancy
+Drug class: Nonsteroidal anti-inflammatory drugs
+Breastfeeding
+Patient resources
+Other brands
+IBU, Motrin IB, Children's Motrin, Caldolor, ... +17 more
+Professional resources
+Advil Junior Strength prescribing information
+Ibuprofen, Ibuprofen Lysine (AHFS Monograph)
+Other brands
+Motrin, IBU, Motrin IB, Children's Motrin, ... +2 more
+Other formulations
+Advil
+Related treatment guides
+Fever
+Headache
+Juvenile Rheumatoid Arthritis
+Muscle Pain
+Further information
+Advil Junior Strength side effects can vary depending on the individual. Always consult your healthcare provider to ensure the information displayed on this page applies to your personal circumstances.
+Note: Medication side effects may be underreported. If you are experiencing side effects that are not listed, submit a report to the FDA by following this guide.
+Medical Disclaimer
+Advil Pediatric Dosage Guide
+Use these dosage charts for infants and children under 12 years old:
+Advil Dosage Charts (Infants &amp; Children)
+DRUG STATUS
+Availability
+Rx and/or OTC
+Rx
+OTC
+Pregnancy &amp; Lactation
+Risk data available
+CSA Schedule*
+Not a controlled drug
+N/A
+User Reviews &amp; Ratings
+Review this drug
+Related News
+Common Meds Appear To Delay Onset Of Parkinson's Disease
+Drugs.com Mobile App
+Access drug &amp; treatment information, identify pills, check interactions and set up personal medication records.
+Download the Medication Guide app on iTunes
+Download the Medication Guide app on the Google Play store
+About
+About Drugs.com
+Advertising policy
+Attribution &amp; citations
+Editorial policy
+Support
+Help center
+Sitemap
+Subscribe to Drugs.com newsletters
+Follow Drugs.com on Facebook
+Follow Drugs.com on Twitter
+Follow Drugs.com on Instagram
+Follow Drugs.com on YouTube
+Follow Drugs.com on Pinterest
+Subscribe to our newsletter for the latest medication news, new drug approvals and FDA alerts.
+Drugs.com provides accurate and independent information on more than 24,000 prescription drugs, over-the-counter medicines and natural products. This material is provided for educational purposes only and is not intended for medical advice, diagnosis or treatment. Data sources include Micromedex (updated 1 Jul 2025), Cerner Multum™ (updated 6 Jul 2025), ASHP (updated 11 May 2025) and others.
+Copyright © 2000-2025 Drugs.com. All rights reserved.</t>
         </is>
       </c>
     </row>
@@ -4244,31 +5680,468 @@
       </c>
       <c r="H20" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">❌ Error processing Advil Liqui-Gels: Message: element click intercepted: Element &lt;a href="/sfx/advil-liqui-gels-side-effects.html"&gt;...&lt;/a&gt; is not clickable at point (93, 458). Other element would receive the click: &lt;div id="google_ads_iframe_/7146/dosage_0__container__" style="border: 0pt none;"&gt;...&lt;/div&gt;
-  (Session info: chrome=138.0.7204.93); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#elementclickinterceptedexception
-Stacktrace:
-0   chromedriver                        0x00000001053c0ea4 cxxbridge1$str$ptr + 2722840
-1   chromedriver                        0x00000001053b8dac cxxbridge1$str$ptr + 2689824
-2   chromedriver                        0x0000000104f0a3ec cxxbridge1$string$len + 90648
-3   chromedriver                        0x0000000104f570a8 cxxbridge1$string$len + 405204
-4   chromedriver                        0x0000000104f55614 cxxbridge1$string$len + 398400
-5   chromedriver                        0x0000000104f53428 cxxbridge1$string$len + 389716
-6   chromedriver                        0x0000000104f52824 cxxbridge1$string$len + 386640
-7   chromedriver                        0x0000000104f47358 cxxbridge1$string$len + 340356
-8   chromedriver                        0x0000000104f46de4 cxxbridge1$string$len + 338960
-9   chromedriver                        0x0000000104f92934 cxxbridge1$string$len + 649056
-10  chromedriver                        0x0000000104f45834 cxxbridge1$string$len + 333408
-11  chromedriver                        0x0000000105383fc0 cxxbridge1$str$ptr + 2473268
-12  chromedriver                        0x000000010538722c cxxbridge1$str$ptr + 2486176
-13  chromedriver                        0x0000000105365a08 cxxbridge1$str$ptr + 2348924
-14  chromedriver                        0x0000000105387ae8 cxxbridge1$str$ptr + 2488412
-15  chromedriver                        0x0000000105356a98 cxxbridge1$str$ptr + 2287628
-16  chromedriver                        0x00000001053a79d8 cxxbridge1$str$ptr + 2619212
-17  chromedriver                        0x00000001053a7b64 cxxbridge1$str$ptr + 2619608
-18  chromedriver                        0x00000001053b89e8 cxxbridge1$str$ptr + 2688860
-19  libsystem_pthread.dylib             0x00000001821cbc0c _pthread_start + 136
-20  libsystem_pthread.dylib             0x00000001821c6b80 thread_start + 8
-</t>
+          <t>Skip to main content
+Search Drugs.com
+Search
+Site navigation
+Close
+Home
+Side Effects
+Advil Liqui-Gels
+Advil Liqui-Gels Side Effects
+Generic name: ibuprofen
+Medically reviewed by Drugs.com. Last updated on Jun 5, 2025.
+Serious side effects
+Other side effects
+Professional info
+FAQ
+Note: This document provides detailed information about Advil Liqui-Gels Side Effects associated with ibuprofen. Some dosage forms listed on this page may not apply specifically to the brand name Advil Liqui-Gels.
+Applies to ibuprofen: oral capsule liquid filled, oral suspension, oral tablet, oral tablet chewable.
+Other dosage forms:
+intravenous solution
+Important warnings
+This medicine can cause some serious health issues
+Oral route (tablet; suspension; capsule, liquid filled; tablet, chewable)
+NSAIDs may cause an increased risk of serious cardiovascular thrombotic events, myocardial infarction, and stroke, which can be fatal.
+This risk may be increased in patients with cardiovascular disease or risk factors for cardiovascular disease.
+Ibuprofen is contraindicated for the treatment of peri-operative pain in the setting of coronary artery bypass graft (CABG) surgery.
+NSAIDs can also cause an increased risk of serious gastrointestinal adverse events especially in the elderly, including bleeding, ulceration, and perforation of the stomach or intestines, which can be fatal.
+Precautions
+It is very important that your doctor check your progress at regular visits. This will allow your doctor to see if the medicine is working properly and to decide if you should continue to take it. Blood and urine tests may be needed to check for unwanted effects .
+This medicine may raise your risk of having a heart attack or stroke. This is more likely in people who already have heart disease. People who use this medicine for a long time might also have a higher risk .
+This medicine may cause bleeding in your stomach or intestines. These problems can happen without warning signs. This is more likely if you have had a stomach ulcer in the past, if you smoke or drink alcohol regularly, if you are over 60 years old, if you are in poor health, or if you are using certain other medicines (a steroid or a blood thinner) .
+Serious skin reactions can occur during treatment with this medicine. Check with your doctor right away if you have any of the following symptoms while taking this medicine: blistering, peeling, loosening of skin, chills, cough, diarrhea, fever, itching, joint or muscle pain, red skin lesions, sore throat, sores, ulcers, white spots in mouth or on lips, or unusual tiredness or weakness .
+Possible warning signs of some serious side effects that can occur during treatment with this medicine may include swelling of the face, fingers, feet, and/or lower legs; severe stomach pain, black, tarry stools, and/or vomiting of blood or material that looks like coffee grounds; unusual weight gain; yellow skin or eyes; decreased urination; bleeding or bruising; and/or skin rash. Also, signs of serious heart problems could occur such as chest pain, tightness in chest, fast or irregular heartbeat, unusual flushing or warmth of skin, weakness, or slurring of speech. Stop taking ibuprofen (the active ingredient contained in Advil Liqui-Gels) and check with your doctor immediately if you notice any of these warning signs .
+This medicine may also cause a serious type of allergic reaction called anaphylaxis. Although this is rare, it may occur often in patients who are allergic to aspirin or other nonsteroidal anti-inflammatory drugs. Anaphylaxis requires immediate medical attention. The most serious signs of this reaction are very fast or irregular breathing, gasping for breath, wheezing, or fainting. Other signs may include changes in skin color of the face; very fast but irregular heartbeat or pulse; hive-like swellings on the skin; and puffiness or swelling of the eyelids or around the eyes. If these effects occur, get emergency help at once .
+Some people who have used this medicine had symptoms of meningitis. If you have fever, headache, nausea, vomiting, and stiff neck or back while using this medicine, check with your doctor right away .
+Using this medicine while you are pregnant can harm your unborn baby. If you think you have become pregnant while using this medicine, tell your doctor right away .
+Check with your doctor immediately if blurred vision, difficulty in reading, or any other change in vision occurs during or after your treatment. Your doctor may want you to have your eyes checked by an ophthalmologist (eye doctor) .
+Before having any kind of surgery or medical tests, tell your doctor that you are taking this medicine. It may be necessary for you to stop treatment for a while, or to change to a different nonsteroidal anti-inflammatory drug before your procedure .
+Serious side effects of Advil Liqui-Gels
+Along with its needed effects, ibuprofen may cause some unwanted effects. Although not all of these side effects may occur, if they do occur they may need medical attention.
+Check with your doctor immediately if any of the following side effects occur while taking ibuprofen:
+More common side effects
+abdominal pain
+acid or sour stomach
+belching
+bloating
+cloudy urine
+decrease in amount of urine
+decrease in urine output or decrease in urine-concentrating ability
+diarrhea
+difficulty having a bowel movement (stool)
+excess air or gas in stomach or intestines
+full feeling
+heartburn
+indigestion
+itching skin
+pain or discomfort in chest, upper stomach, or throat
+pale skin
+passing gas
+nausea
+noisy, rattling breathing
+rash with flat lesions or small raised lesions on the skin
+shortness of breath
+swelling of face, fingers, hands, feet, lower legs, or ankles
+troubled breathing at rest
+troubled breathing with exertion
+unusual bleeding or bruising
+unusual tiredness or weakness
+vomiting
+weight gain
+Less common side effects
+abdominal cramps
+stomach soreness or discomfort
+Rare side effects
+agitation
+back, leg, or stomach pains
+bleeding gums
+blistering, peeling, loosening of skin
+blood in urine or stools
+bloody, black, or tarry stools
+blurred vision
+burning feeling in chest or stomach
+change in vision
+chest pain
+chills
+clay-colored stools
+coma
+confusion
+constipation
+cough or hoarseness
+dark urine
+decreased urine output
+depression
+difficulty breathing
+difficulty swallowing
+dilated neck veins
+dizziness
+dry mouth
+extreme fatigue
+fast, irregular, pounding, or racing heartbeat or pulse
+fever with or without chills
+frequent urination
+general body swelling
+general feeling of tiredness or weakness
+hair loss, thinning of hair
+headache
+hives or welts
+hostility
+impaired vision
+increased blood pressure
+increased volume of pale, dilute urine
+irregular breathing
+irritability
+itching
+joint or muscle pain
+lab results that show problems with liver
+lethargy
+light-colored stools
+loss of appetite
+lower back or side pain
+muscle twitching
+nosebleeds
+painful or difficult urination
+pains in stomach, side, or abdomen, possibly radiating to the back
+pinpoint red spots on skin
+puffiness or swelling of the eyelids or around the eyes, face, lips, or tongue
+rash
+red skin lesions, often with a purple center
+red, irritated eyes
+redness of skin
+seizures
+severe abdominal pain, cramping, burning
+severe and continuing nausea
+sore throat
+sores, ulcers, or white spots in mouth or on lips
+stiff neck or back
+stomach upset
+stupor
+swollen or painful glands
+tenderness in stomach area
+thirst
+tightness in chest
+unpleasant breath odor
+upper right abdominal pain
+vomiting of blood
+vomiting of material that looks like coffee grounds
+wheezing
+yellow eyes and skin
+Symptoms of overdose
+bluish lips or skin
+difficulty sleeping
+disorientation
+dizziness, faintness, or lightheadedness when getting up from a lying or sitting position suddenly
+drowsiness to profound coma
+hallucination
+lightheadedness or fainting
+mood or other mental changes
+muscle tremors
+not breathing
+rapid, deep breathing
+restlessness
+slow or irregular heartbeat
+stomach cramps
+sudden fainting
+sweating
+Other side effects of Advil Liqui-Gels
+Some side effects of ibuprofen may occur that usually do not need medical attention. These side effects may go away during treatment as your body adjusts to the medicine. Also, your health care professional may be able to tell you about ways to prevent or reduce some of these side effects.
+Check with your health care professional if any of the following side effects continue or are bothersome or if you have any questions about them:
+More common side effects
+continuing ringing or buzzing or other unexplained noise in ears
+hearing loss
+nervousness
+Rare side effects
+crying
+depersonalization
+discouragement
+dry eyes
+dysphoria
+euphoria
+feeling sad or empty
+lack of appetite
+loss of interest or pleasure
+mental depression
+paranoia
+quick to react or overreact
+rapidly changing moods
+runny nose
+sleepiness or unusual drowsiness
+sleeplessness
+sneezing
+stuffy nose
+trouble concentrating
+trouble sleeping
+unable to sleep
+See also:
+Paracetamol
+Paracetamol (Panadol, Calpol, Alvedon) is a widely used over-the-counter painkiller and fever ...
+Reviews &amp; ratings
+6.1 / 10
+13 Reviews
+View more
+Tylenol
+Tylenol is a pain reliever and a fever reducer used to treat many conditions such as headaches ...
+Reviews &amp; ratings
+5.9 / 10
+31 Reviews
+View more
+FEATURED
+Dupixent
+Dupixent is used to treat eczema, eosinophilic or oral-corticosteroid-dependent asthma, chronic ...
+Reviews &amp; ratings
+7.3 / 10
+520 Reviews
+View more
+Cymbalta
+Cymbalta (duloxetine) is used to treat major depressive disorder, general anxiety disorder and ...
+Reviews &amp; ratings
+6.3 / 10
+1,904 Reviews
+View more
+Naproxen
+Naproxen is a nonsteroidal anti-inflammatory drug used to treat pain or inflammation caused by ...
+Reviews &amp; ratings
+6.8 / 10
+683 Reviews
+View more
+Oxycodone
+Oxycodone is an opioid analgesic used to treat moderate to severe pain; it has a high potential for ...
+Reviews &amp; ratings
+6.9 / 10
+1,146 Reviews
+View more
+Cyclobenzaprine
+Cyclobenzaprine is a muscle relaxant and works by blocking pain sensations. Includes ...
+Reviews &amp; ratings
+6.0 / 10
+621 Reviews
+View more
+Duloxetine
+Duloxetine is a selective serotonin and norepinephrine reuptake inhibitor antidepressant used to ...
+Reviews &amp; ratings
+6.2 / 10
+2,467 Reviews
+View more
+Tramadol
+Tramadol is an opioid medication that may be used to treat moderate to moderately severe chronic ...
+Reviews &amp; ratings
+7.0 / 10
+1,884 Reviews
+View more
+Aspirin
+Aspirin is used to treat mild to moderate pain and to reduce fever or inflammation. Learn about ...
+Reviews &amp; ratings
+7.8 / 10
+52 Reviews
+View more
+Managing side effects (general information)
+For healthcare professionals
+Applies to ibuprofen: compounding powder, intravenous solution, oral capsule, oral suspension, oral tablet, oral tablet chewable.
+General adverse events
+The most frequently reported adverse effects were gastrointestinal (GI) in nature and included nausea, vomiting, flatulence, and diarrhea.
+Patent Ductus Arteriosus: The most frequently reported adverse effects were sepsis, anemia, intraventricular bleeding, apnea, GI disorders, impaired renal function, respiratory infection, skin lesions, hypoglycemia, hypocalcemia, and respiratory failure.[Ref]
+Gastrointestinal
+Very common (10% or more): Nausea (up to 57%), vomiting (up to 22%), flatulence (up to 16%), diarrhea (up to 10%)
+Common (1% to 10%): Dyspepsia, abdominal discomfort, epigastric pain, heartburn, abdominal distress, indigestion, constipation, abdominal cramps/pain, fullness of GI tract, bloating, GI hemorrhage, melena
+Uncommon (0.1% to 1%): Abdominal distention, dyspepsia, gastritis
+Very rare (less than 0.01%): Peptic ulcer, perforation, hematemesis, mouth ulceration, exacerbation of colitis, exacerbation of Crohn's disease
+Frequency not reported: Dry mouth, duodenitis, esophagitis, gastric ulcer, duodenal ulcer, GI bleeding, glossitis, rectal bleeding, stomatitis, eructation, gingival ulcer, pancreatitis
+Patent Ductus Arteriosus:
+Very common (10% or more): GI disorders non-necrotizing enterocolitis (22%)
+Common (1% to 10%): Necrotizing enterocolitis, intestinal perforation
+Frequency not reported: Abdominal distension, gastroesophageal reflux, gastritis, ileus, inguinal hernia
+Postmarketing reports: GI perforation[Ref]
+Cardiovascular
+Very common (10% or more): Hemorrhage (up to 10%), hypertension (10%), hypotension (10%)
+Very rare (less than 0.01%): Cardiac failure
+Frequency not reported: Congestive heart failure, tachycardia, arrhythmia, myocardial infarction, palpitations, vasculitis, sinus bradycardia, angina pectoris, thrombotic events
+Patent Ductus Arteriosus:
+Frequency not reported: Tachycardia, cardiac failure, hypotension[Ref]
+Nervous system
+Very common (10% or more): Headache (up to 12%)
+Common (1% to 10%): Dizziness, nervousness
+Very rare (less than 0.01%): Cerebrovascular accident
+Frequency not reported: Syncope, drowsiness, paresthesia, somnolence, tremors, convulsions, coma
+Patent Ductus Arteriosus:
+Common (1% to 10%): Intraventricular hemorrhage, periventricular hemorrhage
+Frequency not reported: Convulsions[Ref]
+Renal
+Very rare (less than 0.01%): Acute renal failure, renal papillary necrosis, interstitial nephritis, nephrotic syndrome, renal failure, renal insufficiency
+Frequency not reported: Cystitis, azotemia, creatinine clearance decreased, glomerulitis, tubular necrosis, nephrotoxicity
+Patent Ductus Arteriosus:
+Very common (10% or more): Renal events (21%)
+Uncommon (0.1% to 1%): Acute renal failure[Ref]
+The number of total renal events in preterm infants within 30 days of therapy following IV use was 21% and included increased blood urea (7%), renal insufficiency/impairment (6%), reduced urine output (3%), increased blood creatinine (3%), renal failure (1%), and increased blood urea with hematuria (1%).[Ref]
+Hematologic
+Very common (10% or more): Anemia (up to 36%), eosinophilia (up to 26%), neutropenia (up to 13%), thrombocythemia (up to 10%)
+Common (1% to 10%): Hemoglobin decreased
+Very rare (less than 0.01%): Leukopenia, thrombocytopenia, agranulocytosis, hemolytic anemia, aplastic anemia, pancytopenia, hematocrit decreased
+Frequency not reported: lymphadenopathy, bleeding episodes
+Patent Ductus Arteriosus:
+Very common (10% or more): Anemia (32%), total bleeding (32%), intraventricular hemorrhage (29%), Neutropenia, thrombocytopenia[Ref]
+The incidence of total bleeding events within 30 days of therapy with IV use in preterm infants was 32%. This percentage included grade 1 and 2 intraventricular hemorrhage (15%), grade 3 and 4 intraventricular hemorrhage (15%), and other bleeding (6%).[Ref]
+Dermatologic
+Common (1% to 10%): Rash, maculopapular rash, pruritus
+Very rare (less than 0.01%): Stevens-Johnson syndrome, erythema multiforme, toxic epidermal necrolysis
+Frequency not reported: Ecchymosis, purpura, alopecia, sweating, photosensitivity, angioedema, exfoliative dermatitis, urticaria, vesiculobullous eruptions, Henoch Schonlein vasculitis
+Patent Ductus Arteriosus:
+Very common (10% or more): Skin lesion/irritation (16%)[Ref]
+Metabolic
+Very common (10% or more): Hypokalemia (up to 19%), hypoproteinemia (up to 13%), blood urea increased (10%), hypernatremia (10%), hypoalbuminemia (10%)
+Common (1% to 10%): Appetite decreased, fluid retention
+Frequency not reported: Appetite changes, hyperglycemia, hypoglycemic reaction, acidosis
+Patent Ductus Arteriosus:
+Very common (10% or more): Hypoglycemia (12%), hypocalcemia (12%), blood creatinine increased, blood sodium decreased
+Common (1% to 10%): Hypernatremia
+Frequency not reported: Feeding problems, hyperglycemia[Ref]
+Other
+Very common (10% or more): Bacteremia (13%), blood LDH increased (up to 10%)
+Common (1% to 10%): Peripheral edema, wound hemorrhage, tinnitus, hearing impairment, edema, fatigue
+Very rare (less than 0.01%): Aseptic meningitis, vertigo, exacerbation of infection-related inflammations
+Frequency not reported: Fever, infection, sepsis, weight changes, asthenia, malaise, pseudo-tumor, hearing loss, drowsiness
+Patent Ductus Arteriosus:
+Very common (10% or more): Sepsis (43%)
+Common (1% to 10%): Edema, fluid retention
+Frequency not reported: Various infections[Ref]
+Respiratory
+Very common (10% or more): Bacterial pneumonia (up to 10%)
+Common (1% to 10%): Cough
+Very rare (less than 0.01%): Asthma, bronchospasm, dyspnea, wheezing
+Frequency not reported: Apnea, respiratory depression, pneumonia, rhinitis, epistaxis
+Patent Ductus Arteriosus:
+Very common (10% or more): Apnea (28%), respiratory infection (19%), respiratory failure (10%), bronchopulmonary dysplasia
+Common (1% to 10%): Atelectasis, pulmonary hemorrhage
+Uncommon (0.1% to 1%): Hypoxemia
+Postmarketing reports: Pulmonary hypertension[Ref]
+Hepatic
+Very rare (less than 0.01%): Hepatitis, jaundice
+Frequency not reported: Hepatorenal syndrome, liver necrosis, liver failure, abnormal liver function tests
+Patent Ductus Arteriosus:
+Frequency not reported: Cholestasis, jaundice[Ref]
+Hypersensitivity
+Frequency not reported: Anaphylactoid reactions, hypersensitivity reaction[Ref]
+Hypersensitivity reactions have been reported and may consist of any of the following: a syndrome of abdominal pain, fever, chills, nausea, vomiting, and anaphylaxis; respiratory tract reactivity comprising bronchospasm, asthma/aggravated asthma, or dyspnea; skin reactions, which rarely included exfoliative and bullous dermatoses, Stevens-Johnson syndrome, toxic epidermal necrolysis, angioedema, pruritus, and urticaria.[Ref]
+Ocular
+Very rare (less than 0.01%): Visual disturbances
+Frequency not reported: Blurred vision, amblyopia, diminished vision, scotomata, changes in color vision, conjunctivitis, dry eyes, diplopia, optic neuritis, cataracts, optic neuritis, toxic optic neuropathy[Ref]
+Musculoskeletal
+Frequency not reported: Lupus erythematosus syndrome[Ref]
+Psychiatric
+Frequency not reported: Anxiety, confusion, depression, dream abnormalities, insomnia, emotional lability, hallucinations[Ref]
+Genitourinary
+Common (1% to 10%): Urinary retention
+Very rare (less than 0.01%): Proteinuria, hematuria
+Frequency not reported: Dysuria, oliguria, polyuria, menorrhagia
+Patent Ductus Arteriosus:
+Very common (10% or more): Oliguria, hematuria
+Common (1% to 10%): Urinary tract infection[Ref]
+Immunologic
+Frequency not reported: Serum sickness[Ref]
+Local
+Common (1% to 10%): Infusion site pain
+Postmarketing reports: Transient sensation of burning in mouth/throat
+Patent Ductus Arteriosus:
+Frequency not reported: Injection site reactions[Ref]
+Endocrine
+Frequency not reported: Gynecomastia
+Patent Ductus Arteriosus:
+Common (1% to 10%): Adrenal insufficiency[Ref]
+References
+1. (2002) "Product Information. Motrin (ibuprofen)." Pharmacia and Upjohn
+2. (2004) "Product Information. Ibuprofen (ibuprofen)." Par Pharmaceutical Inc
+3. Cerner Multum, Inc. "UK Summary of Product Characteristics."
+4. (2006) "Product Information. NeoProfen (ibuprofen)." Ovation Pharmaceuticals Inc
+5. Cerner Multum, Inc. "Australian Product Information."
+6. (2009) "Product Information. Caldolor (ibuprofen)." Cumberland Pharmaceuticals Inc
+Does Advil Liqui-Gels interact with my other drugs?
+Enter medications to view a detailed interaction report using our Drug Interaction Checker.
+Drug name
+Add a drug to check interactions
+Add
+Frequently asked questions
+Can you take Ibuprofen if you have COVID-19 (coronavirus)?
+Naproxen vs ibuprofen: What's the difference?
+Can you take ibuprofen on an empty stomach?
+Can you take expired ibuprofen?
+What's the difference between aspirin and ibuprofen?
+Meloxicam vs Ibuprofen: What's the difference?
+Can you overdose on ibuprofen?
+Can you take tramadol with acetaminophen, ibuprofen, or aspirin?
+Aleve vs Ibuprofen: What's the difference?
+More about Advil Liqui-Gels (ibuprofen)
+Check interactions
+Compare alternatives
+Pricing &amp; coupons
+Reviews (25)
+Drug images
+Latest FDA alerts (14)
+Dosage information
+During pregnancy
+Drug class: Nonsteroidal anti-inflammatory drugs
+Breastfeeding
+Patient resources
+Other brands
+IBU, Motrin IB, Children's Motrin, Caldolor, ... +17 more
+Professional resources
+Advil Liqui-Gels prescribing information
+Ibuprofen, Ibuprofen Lysine (AHFS Monograph)
+Other brands
+Motrin, IBU, Motrin IB, Children's Motrin, ... +2 more
+Other formulations
+Advil
+Related treatment guides
+Back Pain
+Gout, Acute
+Headache
+Fever
+Further information
+Advil Liqui-Gels side effects can vary depending on the individual. Always consult your healthcare provider to ensure the information displayed on this page applies to your personal circumstances.
+Note: Medication side effects may be underreported. If you are experiencing side effects that are not listed, submit a report to the FDA by following this guide.
+Medical Disclaimer
+Advil Pediatric Dosage Guide
+Use these dosage charts for infants and children under 12 years old:
+Advil Dosage Charts (Infants &amp; Children)
+DRUG STATUS
+Availability
+Rx and/or OTC
+Rx
+OTC
+Pregnancy &amp; Lactation
+Risk data available
+CSA Schedule*
+Not a controlled drug
+N/A
+Approval History
+Drug history at FDA
+User Reviews &amp; Ratings
+7.8 / 10
+25 Reviews
+Related News
+Common Meds Appear To Delay Onset Of Parkinson's Disease
+Images
+Advil Liqui-Gels 200 mg (Advil)
+Drugs.com Mobile App
+Access drug &amp; treatment information, identify pills, check interactions and set up personal medication records.
+Download the Medication Guide app on iTunes
+Download the Medication Guide app on the Google Play store
+About
+About Drugs.com
+Advertising policy
+Attribution &amp; citations
+Editorial policy
+Support
+Help center
+Sitemap
+Subscribe to Drugs.com newsletters
+Follow Drugs.com on Facebook
+Follow Drugs.com on Twitter
+Follow Drugs.com on Instagram
+Follow Drugs.com on YouTube
+Follow Drugs.com on Pinterest
+Subscribe to our newsletter for the latest medication news, new drug approvals and FDA alerts.
+Drugs.com provides accurate and independent information on more than 24,000 prescription drugs, over-the-counter medicines and natural products. This material is provided for educational purposes only and is not intended for medical advice, diagnosis or treatment. Data sources include Micromedex (updated 1 Jul 2025), Cerner Multum™ (updated 6 Jul 2025), ASHP (updated 11 May 2025) and others.
+Copyright © 2000-2025 Drugs.com. All rights reserved.</t>
         </is>
       </c>
     </row>
@@ -4962,31 +6835,402 @@
       </c>
       <c r="H38" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">❌ Error processing Avtozma: Message: element click intercepted: Element &lt;a href="/sfx/avtozma-side-effects.html"&gt;...&lt;/a&gt; is not clickable at point (93, 458). Other element would receive the click: &lt;div id="google_ads_iframe_/7146/dosage_0__container__" style="border: 0pt none;"&gt;...&lt;/div&gt;
-  (Session info: chrome=138.0.7204.93); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#elementclickinterceptedexception
-Stacktrace:
-0   chromedriver                        0x00000001053c0ea4 cxxbridge1$str$ptr + 2722840
-1   chromedriver                        0x00000001053b8dac cxxbridge1$str$ptr + 2689824
-2   chromedriver                        0x0000000104f0a3ec cxxbridge1$string$len + 90648
-3   chromedriver                        0x0000000104f570a8 cxxbridge1$string$len + 405204
-4   chromedriver                        0x0000000104f55614 cxxbridge1$string$len + 398400
-5   chromedriver                        0x0000000104f53428 cxxbridge1$string$len + 389716
-6   chromedriver                        0x0000000104f52824 cxxbridge1$string$len + 386640
-7   chromedriver                        0x0000000104f47358 cxxbridge1$string$len + 340356
-8   chromedriver                        0x0000000104f46de4 cxxbridge1$string$len + 338960
-9   chromedriver                        0x0000000104f92934 cxxbridge1$string$len + 649056
-10  chromedriver                        0x0000000104f45834 cxxbridge1$string$len + 333408
-11  chromedriver                        0x0000000105383fc0 cxxbridge1$str$ptr + 2473268
-12  chromedriver                        0x000000010538722c cxxbridge1$str$ptr + 2486176
-13  chromedriver                        0x0000000105365a08 cxxbridge1$str$ptr + 2348924
-14  chromedriver                        0x0000000105387ae8 cxxbridge1$str$ptr + 2488412
-15  chromedriver                        0x0000000105356a98 cxxbridge1$str$ptr + 2287628
-16  chromedriver                        0x00000001053a79d8 cxxbridge1$str$ptr + 2619212
-17  chromedriver                        0x00000001053a7b64 cxxbridge1$str$ptr + 2619608
-18  chromedriver                        0x00000001053b89e8 cxxbridge1$str$ptr + 2688860
-19  libsystem_pthread.dylib             0x00000001821cbc0c _pthread_start + 136
-20  libsystem_pthread.dylib             0x00000001821c6b80 thread_start + 8
-</t>
+          <t>Skip to main content
+Search Drugs.com
+Search
+Site navigation
+Close
+Home
+Side Effects
+Avtozma
+Avtozma Side Effects
+Generic name: tocilizumab
+Medically reviewed by Drugs.com. Last updated on Jun 25, 2025.
+Serious side effects
+Other side effects
+Professional info
+FAQ
+Note: This document provides detailed information about Avtozma Side Effects associated with tocilizumab. Some dosage forms listed on this page may not apply specifically to the brand name Avtozma.
+Applies to tocilizumab: solution.
+Important warnings
+This medicine can cause some serious health issues
+Intravenous route (solution)
+Risk Of Serious Infections. Patients treated with tocilizumab products including tocilizumab-bavi are at increased risk for developing serious infections that may lead to hospitalization or death.
+Most patients who developed these infections were taking concomitant immunosuppressants such as methotrexate or corticosteroids.If a serious infection develops, interrupt tocilizumab-bavi until the infection is controlled.Reported infections include: 1.
+Active tuberculosis, which may present with pulmonary or extrapulmonary disease.
+Patients should be tested for latent tuberculosis before tocilizumab-bavi use and during therapy.
+Treatment for latent infection should be initiated prior to tocilizumab-bavi use. 2.
+Invasive fungal infections, including candidiasis, aspergillosis, and pneumocystosis.
+Patients with invasive fungal infections may present with disseminated, rather than localized, disease. 3.
+Bacterial, viral and other infections due to opportunistic pathogens.The risks and benefits of treatment with tocilizumab-bavi should be carefully considered prior to initiating therapy in patients with chronic or recurrent infection.Patients should be closely monitored for the development of signs and symptoms of infection during and after treatment with tocilizumab-bavi, including the possible development of tuberculosis in patients who tested negative for latent tuberculosis infection prior to initiating therapy.
+Precautions
+It is very important that your doctor check your or your child's progress at regular visits to make sure that this medicine is working properly. Blood and urine tests may be needed to check for unwanted effects.
+You or your child will need to have a skin test for tuberculosis before you start using this medicine. Tell your doctor if you or anyone in your home has ever had a positive reaction to a tuberculosis skin test.
+This medicine will lower the number of some types of blood cells in your body. Because of this, you may bleed or get infections more easily. To help with these problems, avoid being near people who are sick or have infections. Wash your hands often. Stay away from rough sports or other situations where you could be bruised, cut, or injured. Brush and floss your teeth gently. Be careful when using sharp objects, including razors and fingernail clippers. Tell your doctor if you have any kind of infection before you start using this medicine. Also tell your doctor if you have ever had an infection that would not go away or an infection that keeps coming back.
+Call your doctor right away if you or your child start to have a cough that would not go away, weight loss, night sweats, fever, chills, or flu-like symptoms, such as a runny or stuffy nose, headache, blurred vision, or feeling generally ill. These may be signs that you have an infection.
+This medicine may cause serious stomach and bowel problems, especially if you have a history of ulcers or diverticulosis. Check with your doctor right away if you or your child start having severe stomach cramps or pain, black, tarry stools, diarrhea, fever, or vomiting that is severe and sometimes bloody while being treated with this medicine.
+Check with your doctor right away if you have pain or tenderness in the upper stomach, pale stools, dark urine, loss of appetite, nausea, vomiting, or yellow eyes or skin. These could be symptoms of a serious liver problem.
+Using this medicine may increase your risk of having certain cancers. Talk to your doctor if you have unusual bleeding, bruising, or weakness, swollen lymph nodes in the neck, underarms, or groin, or unexplained weight loss. Also, check with your doctor right away if your skin has red, scaly patches, or raised bumps that are filled with pus.
+Tocilizumab may cause headaches and skin reactions, such as a rash or itching, while you are receiving the injection or within 24 hours after you receive it. Check with your doctor or nurse right away if you or your child have any of these symptoms.
+This medicine may cause serious types of allergic reactions, including anaphylaxis, which can be life-threatening and require immediate medical attention. Tell your doctor right away if you or your child have a rash, itching, hoarseness, trouble breathing, trouble swallowing, or any swelling of your hands, face, or mouth after using this medicine.
+While you or your child are being treated with tocilizumab (the active ingredient contained in Avtozma), and after you stop treatment with it, it is important to see your doctor about the immunizations (vaccinations) you should receive. Do not get any immunizations (vaccines) without your doctor's approval. Tocilizumab may lower your body's resistance, and there is a chance you might get the infection the vaccine is meant to prevent. In addition, you should not be around other persons living in your household who receive live virus vaccines because there is a chance that they could pass the virus on to you. Some examples of live vaccines include measles, mumps, influenza (nasal flu vaccine), poliovirus (oral form), rotavirus, and rubella. Do not get close to them and do not stay in the same room with them for very long. If you have questions about this, talk to your doctor.
+This medicine may increase the amounts of cholesterol and fats in your blood. If this condition occurs, your doctor may give you some medicines that can lower their amounts. Talk to your doctor if you or your child have concerns.
+Do not take other medicines unless they have been discussed with your doctor. This includes prescription or nonprescription (over-the-counter [OTC]) medicines and herbal or vitamin supplements.
+Serious side effects of Avtozma
+Along with its needed effects, tocilizumab may cause some unwanted effects. Although not all of these side effects may occur, if they do occur they may need medical attention.
+Check with your doctor immediately if any of the following side effects occur while taking tocilizumab:
+More common side effects
+black, tarry stools
+bloody or cloudy urine
+blurred vision
+body aches or pain
+chest pain or tightness
+chills
+cough with or without mucus
+diarrhea
+difficult, burning, or painful urination
+difficulty breathing
+difficulty swallowing
+dizziness
+ear congestion
+fast heartbeat
+feeling of warmth
+fever
+frequent urge to urinate
+headache
+hives, itching, skin rash
+loss of appetite
+loss of consciousness
+loss of voice
+lower back or side pain
+nausea
+nervousness
+pain or tenderness around the eyes and cheekbones
+painful blisters on the trunk of the body
+pale skin
+pounding in the ears
+puffiness or swelling of the eyelids or around the eyes, face, lips, or tongue
+redness of the face, neck, arms, and occasionally, upper chest
+slow or fast heartbeat
+sneezing
+sore throat
+stomach pain
+stuffy or runny nose
+sudden sweating
+ulcers, sores, or white spots in the mouth
+unusual bleeding or bruising
+unusual tiredness or weakness
+Less common side effects
+accumulation of pus
+anxiety
+bladder pain
+burning feeling in the chest or stomach
+confusion
+dark urine
+decrease in height
+decreased urine
+difficulty moving
+dizziness, faintness, or lightheadedness when getting up suddenly from a lying or sitting position
+dry mouth
+fast, irregular, pounding, or racing heartbeat or pulse
+feeling hot
+general feeling of discomfort or illness
+heartburn
+increased thirst
+indigestion
+itching, pain, redness, swelling, tenderness, or warmth on the skin at the injection site
+joint pain
+light-colored stools
+loss of appetite
+mood changes
+muscle ache, pain, cramp, or stiffness
+numbness or tingling in the hands, feet, or lips
+pain in the back, ribs, arms, legs, groin, or genitals
+severe stomach pain
+sharp back pain just below the ribs
+shivering
+stomach upset
+sweating
+swollen joints
+swollen, painful, or tender lymph glands in the face, neck, armpit, or groin
+swollen, red, or tender area of infection
+tenderness in the stomach area
+trouble with sleeping
+unexplained runny nose or sneezing
+vomiting
+yellow eyes and skin
+Rare side effects
+belching
+changes in skin color
+coughing or spitting up blood
+fainting
+gaseous stomach pain
+lightheadedness
+neck pain
+night sweats
+noisy breathing
+rapid, shallow breathing
+recurrent fever
+red, tender, or oozing skin at the wounded area
+sudden high fever or low-grade fever for months
+swelling of the foot or leg
+weight loss
+Incidence not known
+Other side effects of Avtozma
+Some side effects of tocilizumab may occur that usually do not need medical attention. These side effects may go away during treatment as your body adjusts to the medicine. Also, your health care professional may be able to tell you about ways to prevent or reduce some of these side effects.
+Check with your health care professional if any of the following side effects continue or are bothersome or if you have any questions about them:
+More common side effects
+burning, dry, or itching eyes
+constipation
+discharge, excessive tearing
+redness, pain, or swelling of the eye, eyelid, or inner lining of the eyelid
+skin rash, encrusted, scaly and oozing
+swelling or inflammation of the mouth
+Less common side effects
+abnormal or decreased touch sensation
+bleeding or redness and swelling of the gums
+blemishes on the skin
+bloody eye
+chapped, red, or swollen lips
+earache
+feeling of constant movement of self or surroundings
+irritation in the mouth
+loose teeth
+persistent breath odor or bad taste in your mouth
+pimples
+redness or swelling in the ear
+scaling, redness, burning, pain, or other signs of inflammation on the lips
+sensation of spinning
+sore mouth or tongue
+white patches in the mouth or on the tongue
+Rare side effects
+bleeding after passing stool
+blindness
+bloody nose
+burning, numbness, tingling, or painful sensations
+change in hearing
+continuing ringing or buzzing or other unexplained noise in the ears
+coughing or spitting up blood
+decreased vision or other changes in vision
+dry mouth
+ear drainage
+flushed, dry skin
+fruit-like breath odor
+hearing loss
+increased hunger, thirst, urination
+itching ears
+uncomfortable swelling around the anus
+unexplained weight loss
+unsteadiness or awkwardness
+weakness in the arms, hands, legs, or feet
+See also:
+Rinvoq
+Rinvoq (upadacitinib) is used to treat rheumatoid arthritis, psoriatic arthritis, atopic ...
+Reviews &amp; ratings
+7.1 / 10
+239 Reviews
+View more
+Actemra
+Actemra is used to treat COVID-19, rheumatoid arthritis, systemic juvenile idiopathic arthritis ...
+Reviews &amp; ratings
+6.7 / 10
+49 Reviews
+View more
+FEATURED
+Humira
+Humira is a tumor necrosis factor blocker used to treat many inflammatory conditions in adults ...
+Reviews &amp; ratings
+6.4 / 10
+703 Reviews
+View more
+Deltasone
+Deltasone is used for acute lymphocytic leukemia, adrenocortical insufficiency, allergic reactions ...
+Reviews &amp; ratings
+6.6 / 10
+8 Reviews
+View more
+Tyenne
+Tyenne is approved to treat adults with moderately to severely active rheumatoid arthritis, Giant ...
+Reviews &amp; ratings
+1 Reviews
+View more
+Rayos
+Rayos (prednisone, delayed-release) is used to treat rheumatoid arthritis, polymyalgia rheumatica ...
+Reviews &amp; ratings
+3 Reviews
+View more
+Sterapred
+Sterapred is used for acute lymphocytic leukemia, adrenocortical insufficiency, allergic reactions ...
+Reviews &amp; ratings
+Add a review
+View more
+Tofidence
+Tofidence (tocilizumab-bavi) is administered as an intravenous infusion by a healthcare provider ...
+Reviews &amp; ratings
+Add a review
+View more
+Upadacitinib
+Upadacitinib is an oral Janus kinase (JAK) inhibitor that may be used alone or in combination with ...
+Reviews &amp; ratings
+7.1 / 10
+247 Reviews
+View more
+Prednisone
+Prednisone is used to treat allergic disorders, ulcerative colitis, psoriasis and arthritis. Learn ...
+Reviews &amp; ratings
+7.5 / 10
+872 Reviews
+View more
+Managing side effects (general information)
+For healthcare professionals
+Applies to tocilizumab: intravenous solution, subcutaneous solution.
+General adverse events
+The most common adverse reactions were upper respiratory tract infections, nasopharyngitis, headache, hypertension, increased ALT, and injection site reactions. The most common serious adverse reactions were serious infections.[Ref]
+Cardiovascular
+Common (1% to 10%): Hypertension
+Uncommon (0.1% to 1%): Myocardial infarction
+Frequency not reported: Hypotension[Ref]
+Dermatologic
+Common (1% to 10%): Rash, pruritus, urticaria, cellulitis, skin reactions
+Frequency not reported: Angioedema
+Postmarketing reports: Stevens-Johnson syndrome[Ref]
+Endocrine
+Uncommon (0.1% to 1%): Hypothyroidism[Ref]
+Gastrointestinal
+Common (1% to 10%): Abdominal pain, mouth ulceration, gastritis, diarrhea, oral herpes simplex, upper abdominal pain, constipation, nausea
+Uncommon (0.1% to 1%): Stomatitis, gastric ulcer, diverticulitis, gastrointestinal (GI) perforations
+Frequency not reported: Gastroenteritis, diverticulitis complications (including generalized purulent peritonitis, lower GI perforation, fistula, abscess), epigastric discomfort
+Postmarketing reports: Pancreatitis[Ref]
+GI perforations were primarily reported as complications of diverticulitis (including generalized purulent peritonitis, lower GI perforation, fistula, and abscess). Most patients who developed GI perforations were taking concomitant nonsteroidal anti-inflammatory medications (NSAIDs), corticosteroids, or methotrexate.[Ref]
+Genitourinary
+Common (1% to 10%): Urinary tract infection
+Hematologic
+Very common (10% or more): Bleeding events
+Common (1% to 10%): Leukopenia, neutropenia, thrombocytopenia, decreased neutrophil counts, decreased platelet counts, serious bleeding
+Postmarketing reports: Hypofibrinogenemia, pancytopenia[Ref]
+Hepatic
+Very common (10% or more): Increased ALT (up to 48%), increased AST (up to 41%)
+Common (1% to 10%): Increased hepatic transaminases, increased total bilirubin, hepatic events
+Frequency not reported: Drug-induced hepatitis with hyperbilirubinemia
+Postmarketing reports: Drug-induced liver injury, hepatitis, hepatic failure, jaundice[Ref]
+Increased ALT and AST greater than the upper limit of normal (ULN) to 3 times ULN (3 x ULN) were reported in up to 48% and up to 41% of patients, respectively. Increased ALT and AST greater than 3 to 5 x ULN were reported in up to 5% and up to 2% of patients, respectively. Increased ALT and AST greater than 5 x ULN were reported in up to 1.5% and up to 0.7% of patients, respectively.
+ALT or AST at least 5 x ULN occurred in 11.7% of patients who received this drug for coronavirus disease 2019 (COVID-19).[Ref]
+Hypersensitivity
+Common (1% to 10%): Hypersensitivity reactions (including anaphylaxis)
+Uncommon (0.1% to 1%): Anaphylactic reactions
+Frequency not reported: Anaphylactoid reactions
+Postmarketing reports: Fatal anaphylaxis[Ref]
+Immunologic
+Common (1% to 10%): Anti-drug antibodies, neutralizing antibodies
+Frequency not reported: Macrophage activation syndrome[Ref]
+Local
+Very common (10% or more): Injection site reactions (including erythema, pruritus, pain, hematoma)
+Frequency not reported: Injection site swelling[Ref]
+Metabolic
+Very common (10% or more): Hypercholesterolemia
+Common (1% to 10%): Hypokalemia
+Uncommon (0.1% to 1%): Hypertriglyceridemia[Ref]
+Musculoskeletal
+Common (1% to 10%): Back pain
+Frequency not reported: Bacterial arthritis, arthralgia[Ref]
+Nervous system
+Common (1% to 10%): Headache, dizziness, stroke[Ref]
+Ocular
+Common (1% to 10%): Conjunctivitis[Ref]
+Oncologic
+Uncommon (0.1% to 1%): Malignancies[Ref]
+Other
+Very common (10% or more): Increased low-density lipoprotein (LDL) cholesterol (up to 47%), infection (up to 30.3%), increased total cholesterol (up to 25%), serious infection (up to 18.6%)
+Common (1% to 10%): Peripheral edema, herpes zoster, increased weight, infusion-related reactions
+Uncommon (0.1% to 1%): Opportunistic infections
+Frequency not reported: Sepsis, increased lipid parameters (total cholesterol, LDL cholesterol, high-density lipoprotein cholesterol, triglycerides), active tuberculosis[Ref]
+Psychiatric
+Common (1% to 10%): Anxiety, insomnia[Ref]
+Renal
+Uncommon (0.1% to 1%): Nephrolithiasis[Ref]
+Respiratory
+Very common (10% or more): Upper respiratory tract infection
+Common (1% to 10%): Cough, dyspnea, nasopharyngitis, bronchitis, pneumonia
+Frequency not reported: Invasive pulmonary infections (including candidiasis, aspergillosis, coccidioidomycosis, pneumocystis jirovecii)
+Postmarketing reports: Interstitial lung disease (including pneumonitis, pulmonary fibrosis; some fatal outcomes)[Ref]
+References
+1. (2022) "Product Information. Actemra (tocilizumab)." Genentech, SUPPL-138/SUPPL-49
+2. (2022) "Product Information. Actemra (tocilizumab)." Roche Products Pty Ltd, Actemra 20220902
+3. (2022) "Product Information. RoActemra (tocilizumab)." Roche Products Ltd
+Does Avtozma interact with my other drugs?
+Enter medications to view a detailed interaction report using our Drug Interaction Checker.
+Drug name
+Add a drug to check interactions
+Add
+Frequently asked questions
+What biosimilars have been approved in the United States?
+What are the new drugs for rheumatoid arthritis (RA)?
+What is Actemra used to treat?
+Is tocilizumab (Actemra) effective for treating COVID-19?
+More about Avtozma (tocilizumab)
+Check interactions
+Compare alternatives
+Drug images
+Dosage information
+During pregnancy
+FDA approval history
+Drug class: interleukin inhibitors
+Breastfeeding
+Patient resources
+Other brands
+Actemra, Tyenne, Tofidence
+Professional resources
+Avtozma prescribing information
+Tocilizumab (AHFS Monograph)
+Other brands
+Actemra, Tyenne, Tofidence
+Related treatment guides
+Giant Cell Arteritis
+Rheumatoid Arthritis
+COVID-19
+Polyarticular Juvenile Idiopathic Arthritis
+Juvenile Idiopathic Arthritis
+Further information
+Avtozma side effects can vary depending on the individual. Always consult your healthcare provider to ensure the information displayed on this page applies to your personal circumstances.
+Note: Medication side effects may be underreported. If you are experiencing side effects that are not listed, submit a report to the FDA by following this guide.
+Medical Disclaimer
+DRUG STATUS
+Availability
+Prescription only
+Rx
+Pregnancy &amp; Lactation
+Risk data available
+CSA Schedule*
+Not a controlled drug
+N/A
+Approval History
+Drug history at FDA
+User Reviews &amp; Ratings
+Review this drug
+Images
+Avtozma 20 mg/mL injection (multiple presentations)
+View larger images
+Drugs.com Mobile App
+Access drug &amp; treatment information, identify pills, check interactions and set up personal medication records.
+Download the Medication Guide app on iTunes
+Download the Medication Guide app on the Google Play store
+About
+About Drugs.com
+Advertising policy
+Attribution &amp; citations
+Editorial policy
+Support
+Help center
+Sitemap
+Subscribe to Drugs.com newsletters
+Follow Drugs.com on Facebook
+Follow Drugs.com on Twitter
+Follow Drugs.com on Instagram
+Follow Drugs.com on YouTube
+Follow Drugs.com on Pinterest
+Subscribe to our newsletter for the latest medication news, new drug approvals and FDA alerts.
+Drugs.com provides accurate and independent information on more than 24,000 prescription drugs, over-the-counter medicines and natural products. This material is provided for educational purposes only and is not intended for medical advice, diagnosis or treatment. Data sources include Micromedex (updated 1 Jul 2025), Cerner Multum™ (updated 6 Jul 2025), ASHP (updated 11 May 2025) and others.
+Copyright © 2000-2025 Drugs.com. All rights reserved.</t>
         </is>
       </c>
     </row>
@@ -5012,31 +7256,377 @@
       </c>
       <c r="H39" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve">❌ Error processing Azithromycin Dose Pack: Message: element click intercepted: Element &lt;a href="/sfx/azithromycin-dose-pack-side-effects.html"&gt;...&lt;/a&gt; is not clickable at point (93, 458). Other element would receive the click: &lt;div id="google_ads_iframe_/7146/interactions/interactions-content_0__container__" style="border: 0pt none;"&gt;...&lt;/div&gt;
-  (Session info: chrome=138.0.7204.93); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#elementclickinterceptedexception
-Stacktrace:
-0   chromedriver                        0x00000001053c0ea4 cxxbridge1$str$ptr + 2722840
-1   chromedriver                        0x00000001053b8dac cxxbridge1$str$ptr + 2689824
-2   chromedriver                        0x0000000104f0a3ec cxxbridge1$string$len + 90648
-3   chromedriver                        0x0000000104f570a8 cxxbridge1$string$len + 405204
-4   chromedriver                        0x0000000104f55614 cxxbridge1$string$len + 398400
-5   chromedriver                        0x0000000104f53428 cxxbridge1$string$len + 389716
-6   chromedriver                        0x0000000104f52824 cxxbridge1$string$len + 386640
-7   chromedriver                        0x0000000104f47358 cxxbridge1$string$len + 340356
-8   chromedriver                        0x0000000104f46de4 cxxbridge1$string$len + 338960
-9   chromedriver                        0x0000000104f92934 cxxbridge1$string$len + 649056
-10  chromedriver                        0x0000000104f45834 cxxbridge1$string$len + 333408
-11  chromedriver                        0x0000000105383fc0 cxxbridge1$str$ptr + 2473268
-12  chromedriver                        0x000000010538722c cxxbridge1$str$ptr + 2486176
-13  chromedriver                        0x0000000105365a08 cxxbridge1$str$ptr + 2348924
-14  chromedriver                        0x0000000105387ae8 cxxbridge1$str$ptr + 2488412
-15  chromedriver                        0x0000000105356a98 cxxbridge1$str$ptr + 2287628
-16  chromedriver                        0x00000001053a79d8 cxxbridge1$str$ptr + 2619212
-17  chromedriver                        0x00000001053a7b64 cxxbridge1$str$ptr + 2619608
-18  chromedriver                        0x00000001053b89e8 cxxbridge1$str$ptr + 2688860
-19  libsystem_pthread.dylib             0x00000001821cbc0c _pthread_start + 136
-20  libsystem_pthread.dylib             0x00000001821c6b80 thread_start + 8
-</t>
+          <t>Skip to main content
+Search Drugs.com
+Search
+Site navigation
+Close
+Home
+Azithromycin Dose Pack
+Side Effects
+Azithromycin Dose Pack Side Effects
+Generic name: azithromycin
+Medically reviewed by Drugs.com. Last updated on Oct 16, 2024.
+Serious side effects
+Other side effects
+Professional info
+FAQ
+Note: This document provides detailed information about Azithromycin Dose Pack Side Effects associated with azithromycin. Some dosage forms listed on this page may not apply specifically to the brand name Azithromycin Dose Pack.
+Applies to azithromycin: oral powder for suspension, oral powder for suspension extended release, oral tablet.
+Other dosage forms:
+intravenous powder for solution
+Precautions
+It is very important that your doctor check the progress of you or your child at regular visits to make sure this medicine is working properly. Blood and urine tests may be needed to check for unwanted effects.
+If you or your child's symptoms do not improve within a few days, or if they become worse, check with your doctor.
+This medicine may cause serious allergic reactions, including anaphylaxis and angioedema, which can be life-threatening and require immediate medical attention. Call your doctor right away if you or your child have a rash, itching, hives, hoarseness, trouble breathing, trouble swallowing, or any swelling of your hands, face, or mouth after you take this medicine.
+Serious skin reactions, including Stevens-Johnson syndrome, acute generalized exanthematous pustulosis, toxic epidermal necrolysis, and drug reaction with eosinophilia and systemic symptoms (DRESS) can occur with this medicine. Check with your doctor right away if you or your child have black, tarry stools, blistering, peeling, or loosening of the skin, chest pain, chills, cough, diarrhea, itching, joint or muscle pain, painful or difficult urination, red irritated eyes, red skin lesions, often with a purple center, sore throat, sores, ulcers, or white spots in the mouth or on the lips, swollen glands, unusual bleeding or bruising or unusual tiredness or weakness while you are using this medicine.
+Check with your doctor right away if you or your child have pain or tenderness in the upper stomach, pale stools, dark urine, loss of appetite, nausea, unusual tiredness or weakness, or yellow eyes or skin. These could be symptoms of a serious liver problem.
+Call your child's doctor right away if your child feels irritable or vomits after feeding. These may be symptoms of a condition called infantile hypertrophic pyloric stenosis.
+Azithromycin may cause diarrhea, and in some cases it can be severe. It may occur 2 months or more after you stop using this medicine. Do not take any medicine to treat diarrhea without first checking with your doctor. Diarrhea medicines may make the diarrhea worse or make it last longer. If you or your child have any questions about this or if mild diarrhea continues or gets worse, check with your doctor.
+This medicine can cause changes in heart rhythms, including QT prolongation. It may change the way your heart beats and cause fainting or serious side effects in some patients. Contact your doctor right away if you or your child have any symptoms of heart rhythm problems, including fast, pounding, or irregular heartbeats.
+This medicine may increase the risk of serious heart or blood vessel problems. Call your doctor right away if you have blurred vision, chest pain, confusion, lightheadedness, dizziness, fainting, fast or irregular heartbeat, trouble breathing, or unusual tiredness or weakness.
+Do not take other medicines unless they have been discussed with your doctor. This includes prescription or nonprescription (over-the-counter [OTC]) medicines and herbal or vitamin supplements.
+Serious side effects
+Along with its needed effects, azithromycin (the active ingredient contained in Azithromycin Dose Pack) may cause some unwanted effects. Although not all of these side effects may occur, if they do occur they may need medical attention.
+Check with your doctor immediately if any of the following side effects occur while taking azithromycin:
+More common side effects
+diarrhea
+loose stools
+Less common side effects
+blistering, crusting, irritation, itching, or reddening of the skin
+cracked, dry, or scaly skin
+fever
+swelling
+Rare side effects
+blistering, peeling, or loosening of the skin
+bloody or cloudy urine
+bloody, black, or tarry stools
+body aches or pain
+burning while urinating
+chest pain or tightness
+chills
+congestion
+cough increased
+cough producing mucus
+dark urine
+difficult or labored breathing
+difficult or painful urination
+dizziness
+drowsiness
+dryness or soreness of the throat
+earache
+fainting
+fast, irregular, pounding, or racing heartbeat or pulse
+general feeling of discomfort or illness
+headache
+indigestion
+irregular or slow heart rate
+itching or rash
+joint or muscle pain
+large, hive-like swelling on the face, eyelids, lips, tongue, throat, hands, legs, feet, or sex organs
+light-colored stools
+loss of appetite
+muscle aches and pains
+nausea or vomiting
+noisy breathing
+passing of gas
+red skin lesions, often with a purple center
+red, irritated eyes
+redness or swelling in the ear
+runny nose
+shivering
+sneezing
+sores, ulcers, or white spots on the lips or in the mouth
+stomach pain, continuing
+stomach pain, fullness, or discomfort
+stuffy nose
+sweating
+swelling of the face, ankles, hands, feet, or lower legs
+tender, swollen glands in the neck
+trouble with sleeping
+trouble with swallowing
+unpleasant breath odor
+unusual bleeding or bruising
+unusual tiredness or weakness
+upper right abdominal or stomach pain
+voice changes
+vomiting of blood
+yellow eyes or skin
+Incidence not known
+Other side effects
+Some side effects of azithromycin may occur that usually do not need medical attention. These side effects may go away during treatment as your body adjusts to the medicine. Also, your health care professional may be able to tell you about ways to prevent or reduce some of these side effects.
+Check with your health care professional if any of the following side effects continue or are bothersome or if you have any questions about them:
+Rare side effects
+acid or sour stomach
+aggressive or angry
+bad, unusual, or unpleasant (after) taste
+belching
+burning feeling in the chest or stomach
+burning, crawling, itching, numbness, prickling, "pins and needles", or tingling feelings
+change in taste
+changes in the color of the tongue
+crying
+depersonalization
+dry mouth
+dysphoria
+euphoria
+excess air or gas in the stomach or intestines
+feeling of constant movement of self or surroundings
+full feeling
+heartburn
+hyperventilation
+increase in body movements
+itching of the vagina or genital area
+lack or loss of strength
+mental depression
+nervousness
+pain during sexual intercourse
+paranoia
+quick to react or overreact emotionally
+rapidly changing moods
+rash with flat lesions or small raised lesions on the skin
+redness of the skin
+restlessness
+sensation of spinning
+shaking
+sleepiness or unusual drowsiness
+stomach upset
+thick, white vaginal discharge with no odor or with a mild odor
+white patches in the mouth, tongue, or throat
+Incidence not known
+See also:
+Cefdinir
+Cefdinir is used for bacterial infection, bronchitis, middle ear infections, pneumonia, sinusitis ...
+Reviews &amp; ratings
+4.3 / 10
+398 Reviews
+View more
+Amoxicillin/clavulanate
+Amoxicillin and clavulanate potassium is a combination antibiotic used to treat bacterial ...
+Reviews &amp; ratings
+5.3 / 10
+913 Reviews
+View more
+FEATURED
+Botox
+Botox is used cosmetically to reduce facial lines and wrinkles and for medical purposes for ...
+Reviews &amp; ratings
+5.7 / 10
+478 Reviews
+View more
+Levofloxacin
+Levofloxacin is a fluoroquinolone antibiotic used to treat serious bacterial infections and prevent ...
+Reviews &amp; ratings
+5.1 / 10
+745 Reviews
+View more
+Augmentin
+Augmentin is a prescription antibiotic combining amoxicillin and clavulanate to treat bacterial ...
+Reviews &amp; ratings
+5.4 / 10
+449 Reviews
+View more
+Ceftriaxone
+Ceftriaxone is used for bacteremia, bacterial endocarditis prevention, bacterial infection, bone ...
+Reviews &amp; ratings
+8.5 / 10
+177 Reviews
+View more
+Clindamycin
+Clindamycin (Cleocin) is used to treat serious infections caused by bacteria. Includes clindamycin ...
+Reviews &amp; ratings
+5.7 / 10
+808 Reviews
+View more
+Metronidazole
+Metronidazole is an antibiotic used to fight bacteria in your body. Learn about side effects ...
+Reviews &amp; ratings
+6.0 / 10
+2,432 Reviews
+View more
+Ciprofloxacin
+Ciprofloxacin is an antibiotic belong to a group of drugs called fluoroquinolones. Learn about side ...
+Reviews &amp; ratings
+5.0 / 10
+937 Reviews
+View more
+Cephalexin
+Cephalexin is a cephalosporin antibiotic used to treat bacterial infections like respiratory, skin ...
+Reviews &amp; ratings
+6.4 / 10
+510 Reviews
+View more
+Managing side effects (general information)
+For healthcare professionals
+Applies to azithromycin: intravenous powder for injection, oral capsule, oral powder for reconstitution, oral powder for reconstitution extended release, oral tablet.
+General adverse events
+The most commonly reported side effects were diarrhea/loose stools, nausea, abdominal pain, and vomiting.[Ref]
+Cardiovascular
+Uncommon (0.1% to 1%): Palpitations, chest pain
+Postmarketing reports: Torsades de pointes, arrhythmia (including ventricular tachycardia), ECG QT prolonged, hypotension, cardiovascular death
+Dermatologic
+Common (1% to 10%): Rash, pruritus
+Uncommon (0.1% to 1%): Angioedema, photosensitivity reaction, Stevens-Johnson syndrome, urticaria, dermatitis, dry skin, hyperhidrosis/sweating
+Rare (0.01% to 0.1%): Acute generalized exanthematous pustulosis, drug reaction with eosinophilia and systemic symptoms (DRESS)
+Frequency not reported: Eczema, fungal dermatitis, vesiculobullous rash
+Postmarketing reports: Toxic epidermal necrolysis, erythema multiforme, serious skin reactions
+Gastrointestinal
+Very common (10% or more): Diarrhea (up to 52.8%), nausea (up to 32.6%), abdominal pain (up to 32.2%), loose stools (up to 19.1%), vomiting (up to 13%), flatulence (up to 10.7%), abdominal discomfort
+Common (1% to 10%): Dyspepsia, stomatitis
+Uncommon (0.1% to 1%): Gastritis, gastroenteritis, oral candidiasis/moniliasis, constipation, dysphagia, abdominal distension, dry mouth, eructation, mouth ulceration, salivary hypersecretion
+Frequency not reported: Clostridioides difficile-associated diarrhea, melena, infantile hypertrophic pyloric stenosis, mucositis, enteritis
+Postmarketing reports: Pyloric stenosis, pseudomembranous colitis, pancreatitis, tongue discoloration
+Genitourinary
+Common (1% to 10%): Vaginitis/vaginal infection
+Uncommon (0.1% to 1%): Dysuria, metrorrhagia, testicular disorder
+Hematologic
+Very common (10% or more): Decreased neutrophils (up to 29%)
+Common (1% to 10%): Decreased lymphocyte count, decreased hematocrit, decreased hemoglobin, increased eosinophil count, increased platelet count, increased lymphocytes, increased basophils, increased monocytes, increased neutrophils
+Uncommon (0.1% to 1%): Leukopenia, neutropenia, eosinophilia
+Frequency not reported: Decreased white cell count, decreased platelet count, anemia
+Postmarketing reports: Thrombocytopenia, hemolytic anemia
+Hepatic
+Common (1% to 10%): Increased AST, increased ALT, increased GGT, increased blood bilirubin
+Uncommon (0.1% to 1%): Hepatitis, abnormal liver function tests
+Rare (0.01% to 0.1%): Abnormal hepatic function, cholestatic jaundice
+Frequency not reported: Liver enzyme abnormalities, increased transaminase levels, jaundice
+Postmarketing reports: Hepatic failure, fulminant hepatitis, hepatic necrosis
+Hepatic failure has rarely resulted in death.
+Hypersensitivity
+Uncommon (0.1% to 1%): Hypersensitivity
+Postmarketing reports: Anaphylactic reaction/anaphylaxis (e.g., anaphylactic shock), allergic reactions
+Severe (rarely fatal) anaphylactic reaction has been reported.
+Local
+Common (1% to 10%): IV site pain, injection site inflammation (with IV administration), IV site disorders (infection/inflammation/edema/pain reactions), local inflammation, infusion site reaction
+Frequency not reported: Local inflammation at infusion site
+Metabolic
+Common (1% to 10%): Decreased blood bicarbonate, anorexia, decreased blood glucose, increased blood glucose
+Uncommon (0.1% to 1%): Increased bicarbonate
+Postmarketing reports: Dehydration
+Musculoskeletal
+Common (1% to 10%): Arthralgia, increased creatine phosphokinase
+Uncommon (0.1% to 1%): Osteoarthritis, myalgia, back pain, neck pain
+Nervous system
+Common (1% to 10%): Headache, dizziness, paresthesia, dysgeusia
+Uncommon (0.1% to 1%): Somnolence, hypesthesia, tinnitus, vertigo
+Frequency not reported: Hyperkinesia
+Postmarketing reports: Syncope, convulsion, psychomotor hyperactivity, anosmia, ageusia, parosmia, myasthenia gravis, hyperactivity
+Ocular
+Common (1% to 10%): Visual impairment, abnormal vision
+Frequency not reported: Conjunctivitis, blurred vision
+Other
+Very common (10% or more): Increased blood alkaline phosphatase (up to 20%)
+Common (1% to 10%): Deafness, fatigue, increased potassium, increased lactate dehydrogenase, reversible hearing impairment
+Uncommon (0.1% to 1%): Candidiasis/moniliasis, ear disorder, asthenia, malaise, chest pain, edema, hearing impaired, abnormal blood potassium, fungal infection, bacterial infection, hot flush, face edema, pyrexia/fever, pain, peripheral edema, increased chloride, abnormal sodium, postprocedural complications
+Frequency not reported: Increased phosphate, decreased sodium, decreased potassium
+Postmarketing reports: Hearing disturbances (including hearing loss, deafness, tinnitus)
+Psychiatric
+Uncommon (0.1% to 1%): Nervousness, insomnia
+Rare (0.01% to 0.1%): Agitation, depersonalization
+Frequency not reported: Delirium, hallucination
+Postmarketing reports: Aggression/aggressive reaction, anxiety
+Renal
+Common (1% to 10%): Increased blood urea/BUN, increased blood creatinine
+Uncommon (0.1% to 1%): Renal pain
+Frequency not reported: Nephritis, renal function abnormality
+Postmarketing reports: Acute renal failure, interstitial nephritis
+Respiratory
+Common (1% to 10%): Dyspnea
+Uncommon (0.1% to 1%): Pneumonia, pharyngitis, rhinitis, respiratory disorder, epistaxis
+Frequency not reported: Bronchospasm, cough, pleural effusion
+References
+1. (2022) "Product Information. Zithromax IV (azithromycin)." Pfizer U.S. Pharmaceuticals Group, LAB-0024-23.0
+2. (2021) "Product Information. Zithromax (azithromycin)." Pfizer U.S. Pharmaceuticals Group, LAB-0372-7.0
+3. (2022) "Product Information. Zithromax (aziTHROMYCIN)." Pfizer Australia Pty Ltd, pfpzithb10122
+4. (2019) "Product Information. Zithromax IV (aziTHROMYCIN)." Pfizer Australia Pty Ltd, pfpzithv10619
+5. (2022) "Product Information. aziTHROMYCIN (Mylan) (aziTHROMYCIN)." Alphapharm Pty Ltd
+6. (2022) "Product Information. Zedbac (azithromycin)." Aspire Pharma Ltd
+7. (2022) "Product Information. Zithromax (azithromycin)." Pfizer Ltd
+8. (2022) "Product Information. Azithromycin (azithromycin)." Sandoz Ltd
+9. (2022) "Product Information. Azithromycin (azithromycin)." Accord-UK Ltd
+Does Azithromycin Dose Pack interact with my other drugs?
+Enter medications to view a detailed interaction report using our Drug Interaction Checker.
+Drug name
+Add a drug to check interactions
+Add
+Frequently asked questions
+What are the best antibiotics for a tooth infection?
+What antibiotics kill Covid-19 (coronavirus)?
+What is the best antibiotic to treat strep throat?
+Does azithromycin cure chlamydia: How much / how long?
+How long does azithromycin stay in your system?
+What are the best antibiotics for pneumonia?
+What antibiotics are used to treat chlamydia and gonorrhea?
+Can you drink alcohol with Z-Pak (Azithromycin)?
+Was azithromycin in my system long enough to treat chlamydia after throwing up?
+More about Azithromycin Dose Pack (azithromycin)
+Check interactions
+Compare alternatives
+Pricing &amp; coupons
+Reviews (68)
+Dosage information
+During pregnancy
+Drug class: macrolides
+Breastfeeding
+Patient resources
+Azithromycin 3 Day Dose Pack drug information
+Azithromycin 5 Day Dose Pack
+Other brands
+Zithromax, Zmax
+Professional resources
+Azithromycin Dihydrate monograph
+Azithromycin Tablets (FDA)
+Other brands
+Zithromax, Zmax
+Related treatment guides
+Bacterial Infection
+Babesiosis
+Bacterial Endocarditis Prevention
+Bartonellosis
+Further information
+Azithromycin Dose Pack side effects can vary depending on the individual. Always consult your healthcare provider to ensure the information displayed on this page applies to your personal circumstances.
+Note: Medication side effects may be underreported. If you are experiencing side effects that are not listed, submit a report to the FDA by following this guide.
+Medical Disclaimer
+Antibiotics 101
+List of Common Antibiotics &amp; Types
+Antibiotics and Alcohol
+Probiotics and Antibiotics
+Antibiotics for Strep Throat
+Antibiotics for a Tooth Infection
+Antibiotics for UTI's
+DRUG STATUS
+Availability
+Prescription only
+Rx
+Pregnancy &amp; Lactation
+Risk data available
+CSA Schedule*
+Not a controlled drug
+N/A
+User Reviews &amp; Ratings
+5.7 / 10
+68 Reviews
+Drugs.com Mobile App
+Access drug &amp; treatment information, identify pills, check interactions and set up personal medication records.
+Download the Medication Guide app on iTunes
+Download the Medication Guide app on the Google Play store
+About
+About Drugs.com
+Advertising policy
+Attribution &amp; citations
+Editorial policy
+Support
+Help center
+Sitemap
+Subscribe to Drugs.com newsletters
+Follow Drugs.com on Facebook
+Follow Drugs.com on Twitter
+Follow Drugs.com on Instagram
+Follow Drugs.com on YouTube
+Follow Drugs.com on Pinterest
+Subscribe to our newsletter for the latest medication news, new drug approvals and FDA alerts.
+Drugs.com provides accurate and independent information on more than 24,000 prescription drugs, over-the-counter medicines and natural products. This material is provided for educational purposes only and is not intended for medical advice, diagnosis or treatment. Data sources include Micromedex (updated 1 Jul 2025), Cerner Multum™ (updated 6 Jul 2025), ASHP (updated 11 May 2025) and others.
+Copyright © 2000-2025 Drugs.com. All rights reserved.</t>
         </is>
       </c>
     </row>
@@ -5155,31 +7745,289 @@
       </c>
       <c r="H42" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">❌ Error processing Bayer Aspirin: Message: element click intercepted: Element &lt;a href="/sfx/bayer-aspirin-side-effects.html"&gt;...&lt;/a&gt; is not clickable at point (93, 459). Other element would receive the click: &lt;div id="google_ads_iframe_/7146/interactions/interactions-content_0__container__" style="border: 0pt none;"&gt;...&lt;/div&gt;
-  (Session info: chrome=138.0.7204.93); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#elementclickinterceptedexception
-Stacktrace:
-0   chromedriver                        0x00000001053c0ea4 cxxbridge1$str$ptr + 2722840
-1   chromedriver                        0x00000001053b8dac cxxbridge1$str$ptr + 2689824
-2   chromedriver                        0x0000000104f0a3ec cxxbridge1$string$len + 90648
-3   chromedriver                        0x0000000104f570a8 cxxbridge1$string$len + 405204
-4   chromedriver                        0x0000000104f55614 cxxbridge1$string$len + 398400
-5   chromedriver                        0x0000000104f53428 cxxbridge1$string$len + 389716
-6   chromedriver                        0x0000000104f52824 cxxbridge1$string$len + 386640
-7   chromedriver                        0x0000000104f47358 cxxbridge1$string$len + 340356
-8   chromedriver                        0x0000000104f46de4 cxxbridge1$string$len + 338960
-9   chromedriver                        0x0000000104f92934 cxxbridge1$string$len + 649056
-10  chromedriver                        0x0000000104f45834 cxxbridge1$string$len + 333408
-11  chromedriver                        0x0000000105383fc0 cxxbridge1$str$ptr + 2473268
-12  chromedriver                        0x000000010538722c cxxbridge1$str$ptr + 2486176
-13  chromedriver                        0x0000000105365a08 cxxbridge1$str$ptr + 2348924
-14  chromedriver                        0x0000000105387ae8 cxxbridge1$str$ptr + 2488412
-15  chromedriver                        0x0000000105356a98 cxxbridge1$str$ptr + 2287628
-16  chromedriver                        0x00000001053a79d8 cxxbridge1$str$ptr + 2619212
-17  chromedriver                        0x00000001053a7b64 cxxbridge1$str$ptr + 2619608
-18  chromedriver                        0x00000001053b89e8 cxxbridge1$str$ptr + 2688860
-19  libsystem_pthread.dylib             0x00000001821cbc0c _pthread_start + 136
-20  libsystem_pthread.dylib             0x00000001821c6b80 thread_start + 8
-</t>
+          <t>Skip to main content
+Search Drugs.com
+Search
+Site navigation
+Close
+Home
+Bayer Aspirin
+Side Effects
+Bayer Aspirin Side Effects
+Generic name: aspirin
+Medically reviewed by Drugs.com. Last updated on May 14, 2024.
+Serious side effects
+Other side effects
+Professional info
+FAQ
+Note: This document provides detailed information about Bayer Aspirin Side Effects associated with aspirin. Some dosage forms listed on this page may not apply specifically to the brand name Bayer Aspirin.
+Applies to aspirin: oral capsule extended release 24 hr, oral capsule liquid filled, oral tablet, oral tablet chewable, oral tablet enteric coated.
+Other dosage forms:
+rectal suppository
+Precautions
+It is very important that your doctor check your progress while you are using this medicine. This will allow your doctor to see if the medicine is working properly and to decide if you should continue to take it.
+This medicine can not be used for treatment of a heart attack. Use an immediate-release aspirin (the active ingredient contained in Bayer Aspirin) in such an event.
+Make sure your doctor knows if you are pregnant or breastfeeding. Do not use this medicine during the later part of a pregnancy unless your doctor tells you to.
+This medicine may increase risk for bleeding problems, including stomach ulcers or bleeding. This usually occurs if you are taking aspirin with certain medicines (eg, NSAIDs, blood thinner). Check with your doctor right away if you have black, tarry stools, severe or continuing stomach pain, unusual bleeding, bruising, or weakness, or vomiting of blood or material that looks like coffee grounds.
+Do not take other medicines unless they have been discussed with your doctor. This includes prescription or nonprescription (over-the-counter [OTC]) medicines and herbal or vitamin supplements.
+Serious side effects of Bayer Aspirin
+Along with its needed effects, aspirin may cause some unwanted effects. Although not all of these side effects may occur, if they do occur they may need medical attention.
+Check with your doctor immediately if any of the following side effects occur while taking aspirin:
+Incidence not known
+abdominal or stomach pain, cramping, or burning
+black, tarry stools
+bloody or cloudy urine
+change in consciousness
+chest pain or discomfort
+confusion
+constipation
+convulsions, severe or continuing
+dark urine
+decreased frequency or amount of urine
+diarrhea
+difficult breathing
+drowsiness
+fainting
+fast breathing
+feeling that something terrible will happen
+fever
+general tiredness and weakness
+greatly decreased frequency of urination or amount of urine
+headache
+heartburn
+increased thirst
+indigestion
+irregular heartbeat
+light-colored stools
+loss of appetite
+loss of consciousness
+lower back or side pain
+muscle cramping and weakness
+muscle tremors
+nausea or vomiting
+nervousness
+numbness or tingling in the hands, feet, or lips
+panic
+rapid, deep breathing
+restlessness
+seizures
+skin rash
+stomach cramps
+swelling of the face, fingers, or lower legs
+unusual bleeding or bruising
+unusual tiredness or weakness
+upper right abdominal or stomach
+vomiting of blood or material that looks like coffee grounds
+weakness or heaviness of the legs
+weight gain
+yellow eyes and skin
+Other side effects of Bayer Aspirin
+Some side effects of aspirin may occur that usually do not need medical attention. These side effects may go away during treatment as your body adjusts to the medicine. Also, your health care professional may be able to tell you about ways to prevent or reduce some of these side effects.
+Check with your health care professional if any of the following side effects continue or are bothersome or if you have any questions about them:
+Incidence not known
+acid or sour stomach
+anxiety
+belching
+dizziness
+dry mouth
+hyperventilation
+irritability
+shaking
+stomach discomfort, upset, or pain
+trouble sleeping
+unusual drowsiness, dullness, tiredness, weakness, or feeling of sluggishness
+See also:
+Humira
+Humira is a tumor necrosis factor blocker used to treat many inflammatory conditions in adults ...
+Reviews &amp; ratings
+6.4 / 10
+703 Reviews
+View more
+Taltz
+Taltz (ixekizumab) is used to treat plaque psoriasis, psoriatic arthritis, and ankylosing ...
+Reviews &amp; ratings
+7.2 / 10
+227 Reviews
+View more
+FEATURED
+Cosentyx
+Cosentyx (secukinumab) is used to treat plaque psoriasis, psoriatic arthritis, ankylosing ...
+Reviews &amp; ratings
+6.3 / 10
+254 Reviews
+View more
+Heparin
+Heparin injection is used to treat and prevent blood clots in the veins, arteries, or lungs. Learn ...
+Reviews &amp; ratings
+2 Reviews
+View more
+Verapamil
+Verapamil is used to treat hypertension (high blood pressure), angina (chest pain), and certain ...
+Reviews &amp; ratings
+7.6 / 10
+183 Reviews
+View more
+Enoxaparin
+Enoxaparin is used for acute coronary syndrome, angina, deep vein thrombosis, deep vein thrombosis ...
+Reviews &amp; ratings
+6.9 / 10
+26 Reviews
+View more
+Nitroglycerin
+Nitroglycerin is used for anal fissure and fistula, angina, angina pectoris prophylaxis, heart ...
+Reviews &amp; ratings
+7.5 / 10
+57 Reviews
+View more
+Atenolol
+Atenolol is used to treat angina (chest pain) and hypertension (high blood pressure). Learn about ...
+Reviews &amp; ratings
+7.2 / 10
+279 Reviews
+View more
+Propranolol
+Propranolol is a beta-blocker that is used to treat tremors, chest pain, high blood pressure, heart ...
+Reviews &amp; ratings
+8.2 / 10
+1,383 Reviews
+View more
+Carvedilol
+Carvedilol (Coreg) is used to treat heart failure and hypertension (high blood pressure). Includes ...
+Reviews &amp; ratings
+5.2 / 10
+206 Reviews
+View more
+Managing side effects (general information)
+For healthcare professionals
+Applies to aspirin: compounding powder, oral capsule, oral capsule extended release, oral delayed release capsule, oral delayed release tablet, oral gum, oral powder for reconstitution, oral tablet, oral tablet chewable, oral tablet disintegrating, oral tablet dispersible, oral tablet extended release, rectal suppository.
+General adverse events
+The more commonly experienced adverse effects include indigestion, dyspepsia, bleeding, and bruising.[Ref]
+Renal
+Frequency not reported: Interstitial nephritis, papillary necrosis, renal insufficiency and failure[Ref]
+Hematologic
+Common (1% to 10%): Increased bleeding tendencies
+Rare (0.01% to 0.1%): Aplastic anemia agranulocytosis, thrombocytopenia
+Frequency not reported: Prolongation of prothrombin time, disseminated intravascular coagulation, coagulopathy, antepartum and postpartum bleeding, anemia[Ref]
+Hypersensitivity
+Rare (0.01% to 0.1%): Anaphylactic reactions including shock
+Frequency not reported: Urticaria, angioedema, skin rashes[Ref]
+Dermatologic
+Uncommon (0.1% to 1%): Urticaria
+Rare (0.01% to 0.1%): Steven-Johnson syndrome, Lyell's syndrome, erythema nodosum, erythema multiforme
+Frequency not reported: Purpura, hives[Ref]
+Hepatic
+Frequency not reported: Transient elevations of hepatic enzymes, hepatitis, Reye's syndrome, hepatic insufficiency[Ref]
+Metabolic
+Frequency not reported: Thirst, dehydration, hyperkalemia, metabolic acidosis, respiratory alkalosis, hypoglycemia, hyperglycemia, hyperuricemia, salt and water retention[Ref]
+Cardiovascular
+Rare (0.01% to 0.1%): Hemorrhagic vasculitis
+Frequency not reported: Dysrhythmias, hypotension, tachycardia[Ref]
+Nervous system
+Frequency not reported: Cerebral edema, coma headache, subdural or intracranial hemorrhage, seizures, lethargy, dizziness[Ref]
+Other
+Frequency not reported: Fever, hypothermia, hearing loss, tinnitus (at high doses), hearing disturbances[Ref]
+Musculoskeletal
+Frequency not reported: Rhabdomyolysis[Ref]
+Respiratory
+Frequency not reported: Hyperpnea, pulmonary edema, tachypnea, epistaxis, dyspnea, bronchospasm, asthma[Ref]
+Gastrointestinal
+Common (1% to 10%): Dyspepsia,
+Frequency not reported: GI bleeding, ulceration, perforation, nausea, vomiting, pancreatitis, gastric irritation, GI erosions, gastritis, melena, hematemesis, gingival bleeding[Ref]
+Genitourinary
+Rare (0.01% to 0.1%): Menorrhagia
+Frequency not reported: Proteinuria[Ref]
+Psychiatric
+Frequency not reported: Agitation, confusion[Ref]
+References
+1. "Product Information. Bayer Aspirin (acetylsalicylsyra)." Bayer
+2. Cerner Multum, Inc. "UK Summary of Product Characteristics."
+3. US Food and Drug Administration (2016) TITLE 21--FOOD AND DRUGS,CHAPTER I--FOOD AND DRUG ADMINISTRATION,DEPARTMENT OF HEALTH AND HUMAN SERVICES SUBCHAPTER D--DRUGS FOR HUMAN USE,PART 341 COLD, COUGH, ALLERGY, BRONCHODILATOR, AND ANTIASTHMATIC DRUG PRODUCTS FO. https://www.accessdata.fda.gov
+4. (2022) "Product Information. Durlaza (aspirin)." New Haven Pharmaceuticals
+Does Bayer Aspirin interact with my other drugs?
+Enter medications to view a detailed interaction report using our Drug Interaction Checker.
+Drug name
+Add a drug to check interactions
+Add
+Frequently asked questions
+What's the difference between aspirin and ibuprofen?
+Can you take tramadol with acetaminophen, ibuprofen, or aspirin?
+What temperature is considered a fever?
+What cold medicine can you take with diabetes?
+Aspirin Overdose: Symptoms, Diagnosis, Emergency Treatment
+Which painkiller should you use?
+Does aspirin lower blood pressure?
+Can I give Aspirin to my dog or cat?
+Can you take ibuprofen with Excedrin Migraine?
+More about Bayer Aspirin (aspirin)
+Check interactions
+Compare alternatives
+Pricing &amp; coupons
+Reviews (5)
+Drug images
+Latest FDA alerts (3)
+Dosage information
+During pregnancy
+Drug class: platelet aggregation inhibitors
+Breastfeeding
+Patient resources
+Bayer advanced reading
+Other brands
+Ecotrin, Vazalore, Easprin, Arthritis Pain, ... +12 more
+Professional resources
+Aspirin monograph
+Aspirin Low Dose Enteric Coated (FDA)
+Other brands
+Vazalore
+Other formulations
+Bayer Plus
+Related treatment guides
+Angina Pectoris Prophylaxis
+Ischemic Stroke
+Angina
+Ankylosing Spondylitis
+Further information
+Bayer Aspirin side effects can vary depending on the individual. Always consult your healthcare provider to ensure the information displayed on this page applies to your personal circumstances.
+Note: Medication side effects may be underreported. If you are experiencing side effects that are not listed, submit a report to the FDA by following this guide.
+Medical Disclaimer
+DRUG STATUS
+Availability
+Rx and/or OTC
+Rx
+OTC
+Pregnancy &amp; Lactation
+Risk data available
+CSA Schedule*
+Not a controlled drug
+N/A
+User Reviews &amp; Ratings
+5 Reviews
+Related News
+Many Older Adults Taking Daily Aspirin Despite Tighter Guidelines
+Common Meds Appear To Delay Onset Of Parkinson's Disease
+Images
+Bayer Aspirin 325 mg (BAYER BAYER BAYER BAYER)
+View larger images
+Drugs.com Mobile App
+Access drug &amp; treatment information, identify pills, check interactions and set up personal medication records.
+Download the Medication Guide app on iTunes
+Download the Medication Guide app on the Google Play store
+About
+About Drugs.com
+Advertising policy
+Attribution &amp; citations
+Editorial policy
+Support
+Help center
+Sitemap
+Subscribe to Drugs.com newsletters
+Follow Drugs.com on Facebook
+Follow Drugs.com on Twitter
+Follow Drugs.com on Instagram
+Follow Drugs.com on YouTube
+Follow Drugs.com on Pinterest
+Subscribe to our newsletter for the latest medication news, new drug approvals and FDA alerts.
+Drugs.com provides accurate and independent information on more than 24,000 prescription drugs, over-the-counter medicines and natural products. This material is provided for educational purposes only and is not intended for medical advice, diagnosis or treatment. Data sources include Micromedex (updated 1 Jul 2025), Cerner Multum™ (updated 6 Jul 2025), ASHP (updated 11 May 2025) and others.
+Copyright © 2000-2025 Drugs.com. All rights reserved.</t>
         </is>
       </c>
     </row>
@@ -5205,31 +8053,285 @@
       </c>
       <c r="H43" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve">❌ Error processing Bayer Aspirin Extra Strength Plus: Message: element click intercepted: Element &lt;a class="ddc-search-result-link-wrap" href="https://www.drugs.com/drug-interactions/aspirin,bayer-aspirin-extra-strength-plus.html"&gt;...&lt;/a&gt; is not clickable at point (370, 456). Other element would receive the click: &lt;iframe id="google_ads_iframe_/7146/search_0" name="google_ads_iframe_/7146/search_0" title="3rd party ad content" width="320" height="50" scrolling="no" marginwidth="0" marginheight="0" frameborder="0" aria-label="Advertisement" tabindex="0" allow="private-state-token-redemption;attribution-reporting" data-load-complete="true" style="border: 0px; vertical-align: bottom;" data-google-container-id="1"&gt;&lt;/iframe&gt;
-  (Session info: chrome=138.0.7204.93); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#elementclickinterceptedexception
-Stacktrace:
-0   chromedriver                        0x00000001053c0ea4 cxxbridge1$str$ptr + 2722840
-1   chromedriver                        0x00000001053b8dac cxxbridge1$str$ptr + 2689824
-2   chromedriver                        0x0000000104f0a3ec cxxbridge1$string$len + 90648
-3   chromedriver                        0x0000000104f570a8 cxxbridge1$string$len + 405204
-4   chromedriver                        0x0000000104f55614 cxxbridge1$string$len + 398400
-5   chromedriver                        0x0000000104f53428 cxxbridge1$string$len + 389716
-6   chromedriver                        0x0000000104f52824 cxxbridge1$string$len + 386640
-7   chromedriver                        0x0000000104f47358 cxxbridge1$string$len + 340356
-8   chromedriver                        0x0000000104f46de4 cxxbridge1$string$len + 338960
-9   chromedriver                        0x0000000104f92934 cxxbridge1$string$len + 649056
-10  chromedriver                        0x0000000104f45834 cxxbridge1$string$len + 333408
-11  chromedriver                        0x0000000105383fc0 cxxbridge1$str$ptr + 2473268
-12  chromedriver                        0x000000010538722c cxxbridge1$str$ptr + 2486176
-13  chromedriver                        0x0000000105365a08 cxxbridge1$str$ptr + 2348924
-14  chromedriver                        0x0000000105387ae8 cxxbridge1$str$ptr + 2488412
-15  chromedriver                        0x0000000105356a98 cxxbridge1$str$ptr + 2287628
-16  chromedriver                        0x00000001053a79d8 cxxbridge1$str$ptr + 2619212
-17  chromedriver                        0x00000001053a7b64 cxxbridge1$str$ptr + 2619608
-18  chromedriver                        0x00000001053b89e8 cxxbridge1$str$ptr + 2688860
-19  libsystem_pthread.dylib             0x00000001821cbc0c _pthread_start + 136
-20  libsystem_pthread.dylib             0x00000001821c6b80 thread_start + 8
-</t>
+          <t>Skip to main content
+Search Drugs.com
+Search
+Site navigation
+Close
+Home
+Bayer Aspirin Extra Strength Plus
+Side Effects
+Bayer Aspirin Extra Strength Plus Side Effects
+Generic name: aspirin
+Medically reviewed by Drugs.com. Last updated on May 14, 2024.
+Serious side effects
+Other side effects
+Professional info
+FAQ
+Note: This document provides detailed information about Bayer Aspirin Extra Strength Plus Side Effects associated with aspirin. Some dosage forms listed on this page may not apply specifically to the brand name Bayer Aspirin Extra Strength Plus.
+Applies to aspirin: oral capsule extended release 24 hr, oral capsule liquid filled, oral tablet, oral tablet chewable, oral tablet enteric coated.
+Other dosage forms:
+rectal suppository
+Precautions
+It is very important that your doctor check your progress while you are using this medicine. This will allow your doctor to see if the medicine is working properly and to decide if you should continue to take it.
+This medicine can not be used for treatment of a heart attack. Use an immediate-release aspirin (the active ingredient contained in Bayer Aspirin Extra Strength Plus) in such an event.
+Make sure your doctor knows if you are pregnant or breastfeeding. Do not use this medicine during the later part of a pregnancy unless your doctor tells you to.
+This medicine may increase risk for bleeding problems, including stomach ulcers or bleeding. This usually occurs if you are taking aspirin with certain medicines (eg, NSAIDs, blood thinner). Check with your doctor right away if you have black, tarry stools, severe or continuing stomach pain, unusual bleeding, bruising, or weakness, or vomiting of blood or material that looks like coffee grounds.
+Do not take other medicines unless they have been discussed with your doctor. This includes prescription or nonprescription (over-the-counter [OTC]) medicines and herbal or vitamin supplements.
+Serious side effects
+Along with its needed effects, aspirin may cause some unwanted effects. Although not all of these side effects may occur, if they do occur they may need medical attention.
+Check with your doctor immediately if any of the following side effects occur while taking aspirin:
+Incidence not known
+abdominal or stomach pain, cramping, or burning
+black, tarry stools
+bloody or cloudy urine
+change in consciousness
+chest pain or discomfort
+confusion
+constipation
+convulsions, severe or continuing
+dark urine
+decreased frequency or amount of urine
+diarrhea
+difficult breathing
+drowsiness
+fainting
+fast breathing
+feeling that something terrible will happen
+fever
+general tiredness and weakness
+greatly decreased frequency of urination or amount of urine
+headache
+heartburn
+increased thirst
+indigestion
+irregular heartbeat
+light-colored stools
+loss of appetite
+loss of consciousness
+lower back or side pain
+muscle cramping and weakness
+muscle tremors
+nausea or vomiting
+nervousness
+numbness or tingling in the hands, feet, or lips
+panic
+rapid, deep breathing
+restlessness
+seizures
+skin rash
+stomach cramps
+swelling of the face, fingers, or lower legs
+unusual bleeding or bruising
+unusual tiredness or weakness
+upper right abdominal or stomach
+vomiting of blood or material that looks like coffee grounds
+weakness or heaviness of the legs
+weight gain
+yellow eyes and skin
+Other side effects
+Some side effects of aspirin may occur that usually do not need medical attention. These side effects may go away during treatment as your body adjusts to the medicine. Also, your health care professional may be able to tell you about ways to prevent or reduce some of these side effects.
+Check with your health care professional if any of the following side effects continue or are bothersome or if you have any questions about them:
+Incidence not known
+acid or sour stomach
+anxiety
+belching
+dizziness
+dry mouth
+hyperventilation
+irritability
+shaking
+stomach discomfort, upset, or pain
+trouble sleeping
+unusual drowsiness, dullness, tiredness, weakness, or feeling of sluggishness
+See also:
+Humira
+Humira is a tumor necrosis factor blocker used to treat many inflammatory conditions in adults ...
+Reviews &amp; ratings
+6.4 / 10
+703 Reviews
+View more
+Taltz
+Taltz (ixekizumab) is used to treat plaque psoriasis, psoriatic arthritis, and ankylosing ...
+Reviews &amp; ratings
+7.2 / 10
+227 Reviews
+View more
+FEATURED
+Cosentyx
+Cosentyx (secukinumab) is used to treat plaque psoriasis, psoriatic arthritis, ankylosing ...
+Reviews &amp; ratings
+6.3 / 10
+254 Reviews
+View more
+Heparin
+Heparin injection is used to treat and prevent blood clots in the veins, arteries, or lungs. Learn ...
+Reviews &amp; ratings
+2 Reviews
+View more
+Verapamil
+Verapamil is used to treat hypertension (high blood pressure), angina (chest pain), and certain ...
+Reviews &amp; ratings
+7.6 / 10
+183 Reviews
+View more
+Enoxaparin
+Enoxaparin is used for acute coronary syndrome, angina, deep vein thrombosis, deep vein thrombosis ...
+Reviews &amp; ratings
+6.9 / 10
+26 Reviews
+View more
+Nitroglycerin
+Nitroglycerin is used for anal fissure and fistula, angina, angina pectoris prophylaxis, heart ...
+Reviews &amp; ratings
+7.5 / 10
+57 Reviews
+View more
+Atenolol
+Atenolol is used to treat angina (chest pain) and hypertension (high blood pressure). Learn about ...
+Reviews &amp; ratings
+7.2 / 10
+279 Reviews
+View more
+Propranolol
+Propranolol is a beta-blocker that is used to treat tremors, chest pain, high blood pressure, heart ...
+Reviews &amp; ratings
+8.2 / 10
+1,383 Reviews
+View more
+Carvedilol
+Carvedilol (Coreg) is used to treat heart failure and hypertension (high blood pressure). Includes ...
+Reviews &amp; ratings
+5.2 / 10
+206 Reviews
+View more
+Managing side effects (general information)
+For healthcare professionals
+Applies to aspirin: compounding powder, oral capsule, oral capsule extended release, oral delayed release capsule, oral delayed release tablet, oral gum, oral powder for reconstitution, oral tablet, oral tablet chewable, oral tablet disintegrating, oral tablet dispersible, oral tablet extended release, rectal suppository.
+General adverse events
+The more commonly experienced adverse effects include indigestion, dyspepsia, bleeding, and bruising.[Ref]
+Renal
+Frequency not reported: Interstitial nephritis, papillary necrosis, renal insufficiency and failure[Ref]
+Hematologic
+Common (1% to 10%): Increased bleeding tendencies
+Rare (0.01% to 0.1%): Aplastic anemia agranulocytosis, thrombocytopenia
+Frequency not reported: Prolongation of prothrombin time, disseminated intravascular coagulation, coagulopathy, antepartum and postpartum bleeding, anemia[Ref]
+Hypersensitivity
+Rare (0.01% to 0.1%): Anaphylactic reactions including shock
+Frequency not reported: Urticaria, angioedema, skin rashes[Ref]
+Dermatologic
+Uncommon (0.1% to 1%): Urticaria
+Rare (0.01% to 0.1%): Steven-Johnson syndrome, Lyell's syndrome, erythema nodosum, erythema multiforme
+Frequency not reported: Purpura, hives[Ref]
+Hepatic
+Frequency not reported: Transient elevations of hepatic enzymes, hepatitis, Reye's syndrome, hepatic insufficiency[Ref]
+Metabolic
+Frequency not reported: Thirst, dehydration, hyperkalemia, metabolic acidosis, respiratory alkalosis, hypoglycemia, hyperglycemia, hyperuricemia, salt and water retention[Ref]
+Cardiovascular
+Rare (0.01% to 0.1%): Hemorrhagic vasculitis
+Frequency not reported: Dysrhythmias, hypotension, tachycardia[Ref]
+Nervous system
+Frequency not reported: Cerebral edema, coma headache, subdural or intracranial hemorrhage, seizures, lethargy, dizziness[Ref]
+Other
+Frequency not reported: Fever, hypothermia, hearing loss, tinnitus (at high doses), hearing disturbances[Ref]
+Musculoskeletal
+Frequency not reported: Rhabdomyolysis[Ref]
+Respiratory
+Frequency not reported: Hyperpnea, pulmonary edema, tachypnea, epistaxis, dyspnea, bronchospasm, asthma[Ref]
+Gastrointestinal
+Common (1% to 10%): Dyspepsia,
+Frequency not reported: GI bleeding, ulceration, perforation, nausea, vomiting, pancreatitis, gastric irritation, GI erosions, gastritis, melena, hematemesis, gingival bleeding[Ref]
+Genitourinary
+Rare (0.01% to 0.1%): Menorrhagia
+Frequency not reported: Proteinuria[Ref]
+Psychiatric
+Frequency not reported: Agitation, confusion[Ref]
+References
+1. "Product Information. Bayer Aspirin (acetylsalicylsyra)." Bayer
+2. Cerner Multum, Inc. "UK Summary of Product Characteristics."
+3. US Food and Drug Administration (2016) TITLE 21--FOOD AND DRUGS,CHAPTER I--FOOD AND DRUG ADMINISTRATION,DEPARTMENT OF HEALTH AND HUMAN SERVICES SUBCHAPTER D--DRUGS FOR HUMAN USE,PART 341 COLD, COUGH, ALLERGY, BRONCHODILATOR, AND ANTIASTHMATIC DRUG PRODUCTS FO. https://www.accessdata.fda.gov
+4. (2022) "Product Information. Durlaza (aspirin)." New Haven Pharmaceuticals
+Does Bayer Aspirin Extra Strength Plus interact with my other drugs?
+Enter medications to view a detailed interaction report using our Drug Interaction Checker.
+Drug name
+Add a drug to check interactions
+Add
+Frequently asked questions
+What's the difference between aspirin and ibuprofen?
+Can you take tramadol with acetaminophen, ibuprofen, or aspirin?
+What temperature is considered a fever?
+What cold medicine can you take with diabetes?
+Aspirin Overdose: Symptoms, Diagnosis, Emergency Treatment
+Which painkiller should you use?
+Does aspirin lower blood pressure?
+Can I give Aspirin to my dog or cat?
+Can you take ibuprofen with Excedrin Migraine?
+More about Bayer Aspirin Extra Strength Plus (aspirin)
+Check interactions
+Compare alternatives
+Reviews (4)
+Latest FDA alerts (3)
+Dosage information
+During pregnancy
+Drug class: platelet aggregation inhibitors
+Breastfeeding
+En español
+Patient resources
+Bayer Plus drug information
+Other brands
+Ecotrin, Vazalore, Easprin, Arthritis Pain, ... +12 more
+Professional resources
+Aspirin monograph
+Aspirin Low Dose Enteric Coated (FDA)
+Other brands
+Vazalore
+Other formulations
+Bayer
+Related treatment guides
+Angina
+Angina Pectoris Prophylaxis
+Ankylosing Spondylitis
+Antiphospholipid Syndrome
+Further information
+Bayer Aspirin Extra Strength Plus side effects can vary depending on the individual. Always consult your healthcare provider to ensure the information displayed on this page applies to your personal circumstances.
+Note: Medication side effects may be underreported. If you are experiencing side effects that are not listed, submit a report to the FDA by following this guide.
+Medical Disclaimer
+DRUG STATUS
+Availability
+Rx and/or OTC
+Rx
+OTC
+Pregnancy &amp; Lactation
+Risk data available
+CSA Schedule*
+Not a controlled drug
+N/A
+User Reviews &amp; Ratings
+4 Reviews
+Related News
+Many Older Adults Taking Daily Aspirin Despite Tighter Guidelines
+Common Meds Appear To Delay Onset Of Parkinson's Disease
+Drugs.com Mobile App
+Access drug &amp; treatment information, identify pills, check interactions and set up personal medication records.
+Download the Medication Guide app on iTunes
+Download the Medication Guide app on the Google Play store
+About
+About Drugs.com
+Advertising policy
+Attribution &amp; citations
+Editorial policy
+Support
+Help center
+Sitemap
+Subscribe to Drugs.com newsletters
+Follow Drugs.com on Facebook
+Follow Drugs.com on Twitter
+Follow Drugs.com on Instagram
+Follow Drugs.com on YouTube
+Follow Drugs.com on Pinterest
+Subscribe to our newsletter for the latest medication news, new drug approvals and FDA alerts.
+Drugs.com provides accurate and independent information on more than 24,000 prescription drugs, over-the-counter medicines and natural products. This material is provided for educational purposes only and is not intended for medical advice, diagnosis or treatment. Data sources include Micromedex (updated 1 Jul 2025), Cerner Multum™ (updated 6 Jul 2025), ASHP (updated 11 May 2025) and others.
+Copyright © 2000-2025 Drugs.com. All rights reserved.</t>
         </is>
       </c>
     </row>
@@ -5330,31 +8432,313 @@
       </c>
       <c r="H46" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">❌ Error processing Celestone Soluspan: Message: element click intercepted: Element &lt;a href="/sfx/celestone-soluspan-side-effects.html"&gt;...&lt;/a&gt; is not clickable at point (93, 458). Other element would receive the click: &lt;div id="google_ads_iframe_/7146/dosage_0__container__" style="border: 0pt none;"&gt;...&lt;/div&gt;
-  (Session info: chrome=138.0.7204.93); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#elementclickinterceptedexception
-Stacktrace:
-0   chromedriver                        0x00000001053c0ea4 cxxbridge1$str$ptr + 2722840
-1   chromedriver                        0x00000001053b8dac cxxbridge1$str$ptr + 2689824
-2   chromedriver                        0x0000000104f0a3ec cxxbridge1$string$len + 90648
-3   chromedriver                        0x0000000104f570a8 cxxbridge1$string$len + 405204
-4   chromedriver                        0x0000000104f55614 cxxbridge1$string$len + 398400
-5   chromedriver                        0x0000000104f53428 cxxbridge1$string$len + 389716
-6   chromedriver                        0x0000000104f52824 cxxbridge1$string$len + 386640
-7   chromedriver                        0x0000000104f47358 cxxbridge1$string$len + 340356
-8   chromedriver                        0x0000000104f46de4 cxxbridge1$string$len + 338960
-9   chromedriver                        0x0000000104f92934 cxxbridge1$string$len + 649056
-10  chromedriver                        0x0000000104f45834 cxxbridge1$string$len + 333408
-11  chromedriver                        0x0000000105383fc0 cxxbridge1$str$ptr + 2473268
-12  chromedriver                        0x000000010538722c cxxbridge1$str$ptr + 2486176
-13  chromedriver                        0x0000000105365a08 cxxbridge1$str$ptr + 2348924
-14  chromedriver                        0x0000000105387ae8 cxxbridge1$str$ptr + 2488412
-15  chromedriver                        0x0000000105356a98 cxxbridge1$str$ptr + 2287628
-16  chromedriver                        0x00000001053a79d8 cxxbridge1$str$ptr + 2619212
-17  chromedriver                        0x00000001053a7b64 cxxbridge1$str$ptr + 2619608
-18  chromedriver                        0x00000001053b89e8 cxxbridge1$str$ptr + 2688860
-19  libsystem_pthread.dylib             0x00000001821cbc0c _pthread_start + 136
-20  libsystem_pthread.dylib             0x00000001821c6b80 thread_start + 8
-</t>
+          <t>Skip to main content
+Search Drugs.com
+Search
+Site navigation
+Close
+Home
+Celestone Soluspan
+Side Effects
+Celestone Soluspan Side Effects
+Generic name: betamethasone
+Medically reviewed by Drugs.com. Last updated on Oct 28, 2024.
+Serious side effects
+Other side effects
+Professional info
+FAQ
+Note: This document provides detailed information about Celestone Soluspan Side Effects associated with betamethasone. Some dosage forms listed on this page may not apply specifically to the brand name Celestone Soluspan.
+Applies to betamethasone: injection suspension.
+Precautions
+It is very important that your doctor check you or your child's progress at regular visits to make sure this medicine is working properly and to decide if you should continue to receive it. Blood or urine tests may be needed to check for unwanted effects.
+This medicine may cause a serious allergic reaction, called anaphylaxis. This can be life-threatening and requires immediate medical attention. Tell your doctor right away if you have a rash, itching, hoarseness, trouble breathing, trouble swallowing, or any swelling of your hands, face, or mouth after receiving this medicine.
+Your blood pressure might get too high while you are using this medicine. This may cause headaches, dizziness, or blurred vision. You might need to measure your blood pressure at home. If you think your blood pressure is too high, call your doctor right away.
+Receiving too much of this medicine or receiving it for a long time may increase your and your child's risk of having adrenal gland problems. Talk to your doctor right away if you or your child have more than one of these symptoms while receiving this medicine: blurred vision, dizziness or fainting, a fast, irregular, or pounding heartbeat, increased thirst or urination, irritability, or unusual tiredness or weakness.
+This medicine may cause you or your child to get more infections than usual. Avoid people who are sick or have infections and wash your hands often. If you or your child are exposed to chickenpox or measles, tell your doctor right away. If you or your child start to have a fever, chills, sore throat, or any other sign of an infection, call your doctor right away.
+Tell your doctor if you or your child have recently spent time in a tropical climate or have unexplained diarrhea before receiving this medicine.
+While you are being treated with betamethasone (the active ingredient contained in Celestone Soluspan) sodium phosphate and betamethasone acetate combination injection, do not have any immunizations (vaccines) without your doctor's approval. Betamethasone may lower your body's resistance and the vaccine may not work as well or you might get the infection the vaccine is meant to prevent. In addition, you should not be around other persons living in your household who receive live virus vaccines because there is a chance they could pass the virus on to you. Some examples of live vaccines include measles, mumps, influenza (nasal flu vaccine), poliovirus (oral form), rotavirus, and rubella. Do not get close to them and do not stay in the same room with them for very long. If you have questions about this, talk to your doctor.
+Check with your doctor right away if blurred vision, difficulty in reading, eye pain, or any other change in vision occurs during treatment with this medicine for more than 6 weeks. Your doctor may want you to have your eyes checked by an ophthalmologist (eye doctor).
+This medicine may increase your risk for cancer (eg, Kaposi's sarcoma) when used for a long time. Talk with your doctor if you have concerns.
+This medicine may increase your risk for stomach or bowel perforation (tear or hole). Check with your doctor right away if you have stomach cramps or pain, black, tarry stools, diarrhea, fever, or severe vomiting, sometimes with blood.
+If you receive this medicine for a long time, tell your doctor about any extra stress or anxiety in your life, including other health concerns and emotional stress. Your dose of this medicine might need to be changed for a short time while you have extra stress.
+This medicine might cause thinning of the bones (osteoporosis) or slow growth in children if used for a long time. Tell your doctor if you have any bone pain or if you have an increased risk for osteoporosis. If your child is using this medicine, tell the doctor if you think your child is not growing properly.
+This medicine may cause changes in mood or behavior for some patients. Tell your doctor right away if you or your child have depression, mood swings, a false or unusual sense of well-being, trouble with sleeping, or personality changes while receiving this medicine.
+Make sure any doctor or dentist who treats you knows that you are receiving this medicine. This medicine may affect the results of certain skin tests.
+Do not stop receiving this medicine suddenly without checking first with your doctor. Your doctor may want you or your child to gradually reduce the amount you are receiving before stopping it completely.
+Do not take other medicines unless they have been discussed with your doctor. This includes prescription or nonprescription (over-the-counter [OTC]) medicines and herbal or vitamin supplements.
+Serious side effects of Celestone Soluspan
+Along with its needed effects, betamethasone may cause some unwanted effects. Although not all of these side effects may occur, if they do occur they may need medical attention.
+Check with your doctor or nurse immediately if any of the following side effects occur while taking betamethasone:
+Incidence not known
+blindness
+bloating
+bloody or black, tarry stools
+blue lips and fingernails
+blurred vision
+bone pain
+bowel or bladder dysfunction
+bulging soft spot on the head of an infant
+change in ability to see colors, especially blue or yellow
+changes in skin color, pain, tenderness, or swelling of the foot or leg
+chest pain or discomfort
+chills
+constipation
+cough
+coughing that sometimes produces a pink frothy sputum
+darkened urine
+decrease in height
+decrease in the amount of urine
+decreased urine
+decreased vision
+difficult, fast, noisy breathing
+difficulty swallowing
+dilated neck veins
+discouragement
+dry mouth
+extreme tiredness or weakness
+eye pain
+eyeballs bulge out of the eye sockets
+fast, pounding, or irregular heartbeat or pulse
+feeling sad or empty
+fever
+general feeling of discomfort or illness
+headache
+hives, skin rash
+impaired wound healing
+increased sweating
+increased thirst
+indigestion
+irregular breathing
+irritability
+lack of appetite
+large, hive-like swelling on face, eyelids, lips, tongue, throat, hands, legs, feet, or genitals
+lightheadedness, dizziness, or fainting
+loss of appetite
+loss of interest or pleasure
+lower back or side pain
+mood changes
+muscle cramp, pain, tenderness, wasting, or weakness
+nausea
+nervousness
+numbness or tingling in the hands, feet, or lips
+pain in the back, ribs, arms, or legs
+pain in the chest, groin, or legs, especially the calves
+painful, swollen joints
+pains in the stomach, side, or abdomen, possibly radiating to the back
+pale skin
+pounding in the ears
+puffiness or swelling of the eyelids or around the eyes, face, lips, or tongue
+redness, soreness, or itching skin
+right upper abdominal pain and fullness
+seizures
+severe, sudden headache
+slow heartbeat
+slurred speech
+sores, welts, or blisters
+stomach distention
+stomach pain or burning
+sudden loss of coordination
+sudden, severe weakness or numbness in the arm or leg
+swelling of the face, fingers, feet, or lower legs
+tearing
+tightness in the chest
+trouble concentrating
+trouble sleeping
+troubled breathing at rest
+unusual tiredness or weakness
+vision changes
+vomiting
+weight gain
+yellow eyes or skin
+Other side effects of Celestone Soluspan
+Some side effects of betamethasone may occur that usually do not need medical attention. These side effects may go away during treatment as your body adjusts to the medicine. Also, your health care professional may be able to tell you about ways to prevent or reduce some of these side effects.
+Check with your health care professional if any of the following side effects continue or are bothersome or if you have any questions about them:
+Incidence not known
+abnormal fat deposits
+darkening or lightening of normal skin color
+dry, scaly skin
+increased appetite
+increased sweating
+lightening of treated areas of dark skin
+moon face
+thinning hair
+weight gain
+See also:
+Medrol
+Medrol is used for allergic rhinitis, asthma, asthma, acute, asthma, maintenance, congenital ...
+Reviews &amp; ratings
+5.2 / 10
+12 Reviews
+View more
+Decadron
+Decadron is used for addison's disease, adrenal insufficiency, adrenocortical insufficiency ...
+Reviews &amp; ratings
+3.9 / 10
+29 Reviews
+View more
+FEATURED
+Stelara
+Stelara (ustekinumab) is used to treat Crohn's disease, ulcerative colitis, plaque psoriasis, and ...
+Reviews &amp; ratings
+7.6 / 10
+253 Reviews
+View more
+Medrol Dosepak
+Medrol Dosepak is used for allergic rhinitis, asthma, asthma, acute, asthma, maintenance, atopic ...
+Reviews &amp; ratings
+7.3 / 10
+45 Reviews
+View more
+Solu-Medrol
+Solu-Medrol is used for allergic rhinitis, allergies, asthma, asthma, acute, asthma, maintenance ...
+Reviews &amp; ratings
+7.8 / 10
+16 Reviews
+View more
+Dexamethasone Intensol
+Dexamethasone Intensol is used for addison's disease, adrenal insufficiency, adrenocortical ...
+Reviews &amp; ratings
+4 Reviews
+View more
+Prednisolone
+Prednisolone is used to treat many different inflammatory conditions such as arthritis, lupus, and ...
+Reviews &amp; ratings
+6.4 / 10
+48 Reviews
+View more
+Hydrocortisone
+Hydrocortisone is used for addison's disease, adrenocortical insufficiency, asthma, acute, crohn's ...
+Reviews &amp; ratings
+7.5 / 10
+31 Reviews
+View more
+Triamcinolone
+Triamcinolone is used to treat allergies, skin conditions, ulcerative colitis, and arthritis. Learn ...
+Reviews &amp; ratings
+6.8 / 10
+230 Reviews
+View more
+Dexamethasone
+Dexamethasone is used to treat inflammatory conditions such as allergies, skin conditions ...
+Reviews &amp; ratings
+5.9 / 10
+164 Reviews
+View more
+Managing side effects (general information)
+For healthcare professionals
+Applies to betamethasone: compounding powder, injectable solution, injectable suspension, oral syrup, oral tablet.
+Cardiovascular adverse events
+Frequency not reported: Bradycardia, cardiac arrest, cardiac arrhythmias, cardiac enlargement, circulatory collapse, congestive heart failure, fat embolism, hypertension, hypertrophic cardiomyopathy in premature infants, myocardial rupture following recent myocardial infarction, tachycardia, thrombophlebitis, vasculitis[Ref]
+Endocrine
+Frequency not reported: Development of cushingoid state, adrenocortical and pituitary unresponsiveness (particularly during stress, e.g. trauma, surgery, illness), moon face[Ref]
+Gastrointestinal
+Frequency not reported: Abdominal distension, bowel/bladder dysfunction (intrathecal administration), nausea, pancreatitis, peptic ulcer with possible perforation and hemorrhage, perforation of the small bowel and large intestine (particularly in inflammatory bowel disease patients), ulcerative esophagitis[Ref]
+Immunologic
+Frequency not reported: Decreased resistance to infection[Ref]
+Musculoskeletal
+Frequency not reported: Suppression of growth in pediatric patients, Charcot-like arthropathy, loss of muscle mass, muscle weakness, osteoporosis, pathologic fracture of long bones, post-injection flare (intra-articular use), steroid myopathy, tendon rupture, vertebral compression fractures[Ref]
+Ocular
+Rare (less than 0.1%): Blindness (periocular injection)
+Frequency not reported: Exophthalmos, glaucoma, increased intraocular pressure, posterior subcapsular cataracts, vision blurred[Ref]
+Hypersensitivity
+Frequency not reported: Anaphylactoid reaction, anaphylaxis[Ref]
+Metabolic
+Frequency not reported: Decreased carbohydrate and glucose tolerance, increased requirement for insulin or oral hypoglycemics, fluid retention, hypokalemic alkalosis, potassium loss, sodium retention, increased appetite, negative nitrogen balance due to protein catabolism, weight gain[Ref]
+Dermatologic
+Frequency not reported: Angioedema, acne, allergic dermatitis, cutaneous and subcutaneous atrophy, dry scaly skin, ecchymosis and petechiae, erythema, hyperpigmentation, hypopigmentation, increased sweating, rash, sterile abscess, striae, thin fragile skin, thinning scalp hair, urticaria[Ref]
+Nervous system
+Frequency not reported: Syncope, convulsions, headache, increased intracranial pressure with papilledema (pseudotumor cerebri) usually following treatment discontinuation, neuritis, neuropathy, paresthesia, vertigo, arachnoiditis (intrathecal), meningitis (intrathecal), paraparesis/paraplegia (intrathecal), sensory disturbances (intrathecal)[Ref]
+Psychiatric
+Frequency not reported: Depression, emotional instability, euphoria, insomnia, mood swings, personality changes, psychic disorders[Ref]
+Other
+Frequency not reported: Edema, impaired wound healing, suppressed reactions to skin tests, calcinosis (intra-articular or intralesional use), abnormal fat deposits, malaise[Ref]
+Genitourinary
+Frequency not reported: Glucosuria, increased or decreased motility and number of spermatozoa[Ref]
+Hepatic
+Frequency not reported: Elevation in serum liver enzyme, hepatomegaly[Ref]
+Serum liver enzyme elevations were usually reversible upon discontinuation.[Ref]
+Respiratory
+Frequency not reported: Pulmonary edema, hiccups[Ref]
+References
+1. (2019) "Product Information. Celestone Soluspan (betamethasone)." Merck &amp; Co., Inc
+Does Celestone Soluspan interact with my other drugs?
+Enter medications to view a detailed interaction report using our Drug Interaction Checker.
+Drug name
+Add a drug to check interactions
+Add
+Frequently asked questions
+Is betamethasone the same as hydrocortisone?
+Can I use betamethasone cream on my face?
+What is Diprospan used for?
+What is Ardosons called in the U.S?
+Can betamethasone be used for a yeast infection?
+How long does it take for betamethasone to work?
+How long can you use betamethasone cream for?
+Is betamethasone an antifungal?
+Can Enstilar be used on the scalp?
+More about Celestone Soluspan (betamethasone)
+Check interactions
+Compare alternatives
+Pricing &amp; coupons
+Dosage information
+During pregnancy
+Generic availability
+Drug class: glucocorticoids
+Breastfeeding
+En español
+Patient resources
+Celestone Soluspan injection drug information
+Celestone Soluspan (Advanced Reading)
+Professional resources
+Celestone Soluspan prescribing information
+Betamethasone, Betamethasone Sodium Phosphate and Betamethasone Acetate (AHFS Monograph)
+Other brands
+Celestone
+Related treatment guides
+Inflammatory Conditions
+Dermatological Disorders
+Bursitis
+Crohn's Disease, Active
+Further information
+Celestone Soluspan side effects can vary depending on the individual. Always consult your healthcare provider to ensure the information displayed on this page applies to your personal circumstances.
+Note: Medication side effects may be underreported. If you are experiencing side effects that are not listed, submit a report to the FDA by following this guide.
+Medical Disclaimer
+DRUG STATUS
+Availability
+Prescription only
+Rx
+Pregnancy &amp; Lactation
+Risk data available
+CSA Schedule*
+Not a controlled drug
+N/A
+Approval History
+Drug history at FDA
+WADA Class
+Anti-Doping Classification
+User Reviews &amp; Ratings
+Review this drug
+Drugs.com Mobile App
+Access drug &amp; treatment information, identify pills, check interactions and set up personal medication records.
+Download the Medication Guide app on iTunes
+Download the Medication Guide app on the Google Play store
+About
+About Drugs.com
+Advertising policy
+Attribution &amp; citations
+Editorial policy
+Support
+Help center
+Sitemap
+Subscribe to Drugs.com newsletters
+Follow Drugs.com on Facebook
+Follow Drugs.com on Twitter
+Follow Drugs.com on Instagram
+Follow Drugs.com on YouTube
+Follow Drugs.com on Pinterest
+Subscribe to our newsletter for the latest medication news, new drug approvals and FDA alerts.
+Drugs.com provides accurate and independent information on more than 24,000 prescription drugs, over-the-counter medicines and natural products. This material is provided for educational purposes only and is not intended for medical advice, diagnosis or treatment. Data sources include Micromedex (updated 1 Jul 2025), Cerner Multum™ (updated 6 Jul 2025), ASHP (updated 11 May 2025) and others.
+Copyright © 2000-2025 Drugs.com. All rights reserved.</t>
         </is>
       </c>
     </row>
@@ -5417,31 +8801,19 @@
       </c>
       <c r="H48" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">❌ Error processing Chondroitin: Message: element click intercepted: Element &lt;a class="ddc-search-result-link-wrap" href="https://www.drugs.com/mtm/chondroitin.html"&gt;...&lt;/a&gt; is not clickable at point (370, 449). Other element would receive the click: &lt;iframe id="google_ads_iframe_/7146/search_0" name="google_ads_iframe_/7146/search_0" title="3rd party ad content" width="320" height="50" scrolling="no" marginwidth="0" marginheight="0" frameborder="0" aria-label="Advertisement" tabindex="0" allow="private-state-token-redemption;attribution-reporting" data-load-complete="true" data-google-container-id="1" style="border: 0px; vertical-align: bottom;"&gt;&lt;/iframe&gt;
-  (Session info: chrome=138.0.7204.93); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#elementclickinterceptedexception
-Stacktrace:
-0   chromedriver                        0x00000001053c0ea4 cxxbridge1$str$ptr + 2722840
-1   chromedriver                        0x00000001053b8dac cxxbridge1$str$ptr + 2689824
-2   chromedriver                        0x0000000104f0a3ec cxxbridge1$string$len + 90648
-3   chromedriver                        0x0000000104f570a8 cxxbridge1$string$len + 405204
-4   chromedriver                        0x0000000104f55614 cxxbridge1$string$len + 398400
-5   chromedriver                        0x0000000104f53428 cxxbridge1$string$len + 389716
-6   chromedriver                        0x0000000104f52824 cxxbridge1$string$len + 386640
-7   chromedriver                        0x0000000104f47358 cxxbridge1$string$len + 340356
-8   chromedriver                        0x0000000104f46de4 cxxbridge1$string$len + 338960
-9   chromedriver                        0x0000000104f92934 cxxbridge1$string$len + 649056
-10  chromedriver                        0x0000000104f45834 cxxbridge1$string$len + 333408
-11  chromedriver                        0x0000000105383fc0 cxxbridge1$str$ptr + 2473268
-12  chromedriver                        0x000000010538722c cxxbridge1$str$ptr + 2486176
-13  chromedriver                        0x0000000105365a08 cxxbridge1$str$ptr + 2348924
-14  chromedriver                        0x0000000105387ae8 cxxbridge1$str$ptr + 2488412
-15  chromedriver                        0x0000000105356a98 cxxbridge1$str$ptr + 2287628
-16  chromedriver                        0x00000001053a79d8 cxxbridge1$str$ptr + 2619212
-17  chromedriver                        0x00000001053a7b64 cxxbridge1$str$ptr + 2619608
-18  chromedriver                        0x00000001053b89e8 cxxbridge1$str$ptr + 2688860
-19  libsystem_pthread.dylib             0x00000001821cbc0c _pthread_start + 136
-20  libsystem_pthread.dylib             0x00000001821c6b80 thread_start + 8
-</t>
+          <t>--- Chondroitin side effects ---
+Get emergency medical help if you have signs of an allergic reaction: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+Although not all side effects are known, chondroitin is thought to be possibly safe when taken for up to 6 years.
+Stop using chondroitin and call your healthcare provider at once if you have:
+irregular heartbeats; or
+swelling in your legs.
+Common side effects of chondroitin may include:
+nausea, diarrhea, constipation;
+mild stomach pain;
+hair loss; or
+puffy eyelids.
+This is not a complete list of side effects and others may occur. Call your doctor for medical advice about side effects. You may report side effects to FDA at 1-800-FDA-1088.
+Chondroitin side effects (more detail)</t>
         </is>
       </c>
     </row>
@@ -5467,31 +8839,29 @@
       </c>
       <c r="H49" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve">❌ Error processing Cipro I.V.: Message: element click intercepted: Element &lt;a href="/mtm/cipro-i-v-injection.html"&gt;...&lt;/a&gt; is not clickable at point (197, 458). Other element would receive the click: &lt;div id="google_ads_iframe_/7146/interactions/interactions-content_0__container__" style="border: 0pt none;"&gt;...&lt;/div&gt;
-  (Session info: chrome=138.0.7204.93); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#elementclickinterceptedexception
-Stacktrace:
-0   chromedriver                        0x00000001053c0ea4 cxxbridge1$str$ptr + 2722840
-1   chromedriver                        0x00000001053b8dac cxxbridge1$str$ptr + 2689824
-2   chromedriver                        0x0000000104f0a3ec cxxbridge1$string$len + 90648
-3   chromedriver                        0x0000000104f570a8 cxxbridge1$string$len + 405204
-4   chromedriver                        0x0000000104f55614 cxxbridge1$string$len + 398400
-5   chromedriver                        0x0000000104f53428 cxxbridge1$string$len + 389716
-6   chromedriver                        0x0000000104f52824 cxxbridge1$string$len + 386640
-7   chromedriver                        0x0000000104f47358 cxxbridge1$string$len + 340356
-8   chromedriver                        0x0000000104f46de4 cxxbridge1$string$len + 338960
-9   chromedriver                        0x0000000104f92934 cxxbridge1$string$len + 649056
-10  chromedriver                        0x0000000104f45834 cxxbridge1$string$len + 333408
-11  chromedriver                        0x0000000105383fc0 cxxbridge1$str$ptr + 2473268
-12  chromedriver                        0x000000010538722c cxxbridge1$str$ptr + 2486176
-13  chromedriver                        0x0000000105365a08 cxxbridge1$str$ptr + 2348924
-14  chromedriver                        0x0000000105387ae8 cxxbridge1$str$ptr + 2488412
-15  chromedriver                        0x0000000105356a98 cxxbridge1$str$ptr + 2287628
-16  chromedriver                        0x00000001053a79d8 cxxbridge1$str$ptr + 2619212
-17  chromedriver                        0x00000001053a7b64 cxxbridge1$str$ptr + 2619608
-18  chromedriver                        0x00000001053b89e8 cxxbridge1$str$ptr + 2688860
-19  libsystem_pthread.dylib             0x00000001821cbc0c _pthread_start + 136
-20  libsystem_pthread.dylib             0x00000001821c6b80 thread_start + 8
-</t>
+          <t>--- Cipro I.V. side effects ---
+Get emergency medical help if you have signs of an allergic reaction (hives, difficult breathing, swelling in your face or throat) or a severe skin reaction (fever, sore throat, burning in your eyes, skin pain, red or purple skin rash that spreads and causes blistering and peeling).
+Cipro I.V. can cause serious side effects, including tendon problems, side effects on your nerves (which may cause permanent nerve damage), serious mood or behavior changes (after just one dose), or low blood sugar (which can lead to coma).
+Stop using Cipro I.V. and call your doctor at once if you have:
+low blood sugar--headache, hunger, sweating, irritability, dizziness, nausea, fast heart rate, or feeling anxious or shaky;
+nerve symptoms in your hands, arms, legs, or feet--numbness, weakness, tingling, burning pain;
+serious mood or behavior changes--nervousness, confusion, agitation, paranoia, hallucinations, memory problems, trouble concentrating, thoughts of suicide; or
+signs of tendon rupture--sudden pain, swelling, bruising, tenderness, stiffness, movement problems, or a snapping or popping sound in any of your joints (rest the joint until you receive medical care or instructions).
+In rare cases, Cipro I.V. may cause damage to your aorta, the main blood artery of the body. This could lead to dangerous bleeding or death. Get emergency medical help if you have severe and constant pain in your chest, stomach, or back.
+Also, stop using Cipro I.V. and call your doctor at once if you have:
+severe stomach pain with diarrhea that is watery or bloody;
+fast or pounding heartbeats, fluttering in your chest, shortness of breath, and sudden dizziness (like you might pass out);
+any skin rash, no matter how mild;
+muscle weakness, breathing problems;
+little or no urination;
+jaundice (yellowing of the skin or eyes); or
+increased pressure inside the skull--severe headaches, ringing in your ears, dizziness, nausea, vision problems, pain behind your eyes.
+Common side effects of Cipro I.V. may include:
+nausea, vomiting, diarrhea;
+rash; or
+abnormal liver function tests.
+This is not a complete list of side effects and others may occur. Call your doctor for medical advice about side effects. You may report side effects to FDA at 1-800-FDA-1088.
+Cipro I.V. side effects (more detail)</t>
         </is>
       </c>
     </row>
@@ -5517,31 +8887,327 @@
       </c>
       <c r="H50" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">❌ Error processing Cipro XR: Message: element click intercepted: Element &lt;a href="/sfx/cipro-xr-side-effects.html"&gt;...&lt;/a&gt; is not clickable at point (93, 459). Other element would receive the click: &lt;div id="google_ads_iframe_/7146/dosage_0__container__" style="border: 0pt none;"&gt;...&lt;/div&gt;
-  (Session info: chrome=138.0.7204.93); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#elementclickinterceptedexception
-Stacktrace:
-0   chromedriver                        0x00000001053c0ea4 cxxbridge1$str$ptr + 2722840
-1   chromedriver                        0x00000001053b8dac cxxbridge1$str$ptr + 2689824
-2   chromedriver                        0x0000000104f0a3ec cxxbridge1$string$len + 90648
-3   chromedriver                        0x0000000104f570a8 cxxbridge1$string$len + 405204
-4   chromedriver                        0x0000000104f55614 cxxbridge1$string$len + 398400
-5   chromedriver                        0x0000000104f53428 cxxbridge1$string$len + 389716
-6   chromedriver                        0x0000000104f52824 cxxbridge1$string$len + 386640
-7   chromedriver                        0x0000000104f47358 cxxbridge1$string$len + 340356
-8   chromedriver                        0x0000000104f46de4 cxxbridge1$string$len + 338960
-9   chromedriver                        0x0000000104f92934 cxxbridge1$string$len + 649056
-10  chromedriver                        0x0000000104f45834 cxxbridge1$string$len + 333408
-11  chromedriver                        0x0000000105383fc0 cxxbridge1$str$ptr + 2473268
-12  chromedriver                        0x000000010538722c cxxbridge1$str$ptr + 2486176
-13  chromedriver                        0x0000000105365a08 cxxbridge1$str$ptr + 2348924
-14  chromedriver                        0x0000000105387ae8 cxxbridge1$str$ptr + 2488412
-15  chromedriver                        0x0000000105356a98 cxxbridge1$str$ptr + 2287628
-16  chromedriver                        0x00000001053a79d8 cxxbridge1$str$ptr + 2619212
-17  chromedriver                        0x00000001053a7b64 cxxbridge1$str$ptr + 2619608
-18  chromedriver                        0x00000001053b89e8 cxxbridge1$str$ptr + 2688860
-19  libsystem_pthread.dylib             0x00000001821cbc0c _pthread_start + 136
-20  libsystem_pthread.dylib             0x00000001821c6b80 thread_start + 8
-</t>
+          <t>Skip to main content
+Search Drugs.com
+Search
+Site navigation
+Close
+Home
+Side Effects
+Cipro XR
+Cipro XR Side Effects
+Generic name: ciprofloxacin
+Medically reviewed by Drugs.com. Last updated on Mar 20, 2024.
+Serious side effects
+Other side effects
+Professional info
+FAQ
+Note: This document provides detailed information about Cipro XR Side Effects associated with ciprofloxacin. Some dosage forms listed on this page may not apply specifically to the brand name Cipro XR.
+Applies to ciprofloxacin: oral powder for suspension, oral tablet.
+Other dosage forms:
+intravenous solution
+Important warnings
+This medicine can cause some serious health issues
+Oral route (tablet; tablet, extended release; suspension)
+Fluoroquinolones, including ciprofloxacin, are associated with disabling and potentially irreversible serious adverse reactions that have occurred together, including tendinitis and tendon rupture, peripheral neuropathy, and CNS effects.
+Discontinue ciprofloxacin and avoid use of fluoroquinolones in patients with these serious adverse reactions.
+Reserve use of ciprofloxacin for patients with no alternative treatment options for an uncomplicated UTI.
+Fluoroquinolones, including ciprofloxacin, may exacerbate muscle weakness in persons with myasthenia gravis.
+Avoid in patients with known history of myasthenia gravis.
+Oral route (suspension; tablet, extended release; tablet)
+Fluoroquinolones, including ciprofloxacin, are associated with disabling and potentially irreversible serious adverse reactions that have occurred together, including tendinitis and tendon rupture, peripheral neuropathy, and CNS effects.
+Discontinue ciprofloxacin and avoid use of fluoroquinolones in patients with these serious adverse reactions.
+Reserve use of ciprofloxacin for patients with no alternative treatment options for an acute exacerbation of chronic bronchitis or acute sinusitis.
+Fluoroquinolones, including ciprofloxacin hydrochloride, may exacerbate muscle weakness in persons with myasthenia gravis.
+Avoid in patients with known history of myasthenia gravis.
+Precautions
+It is very important that your doctor check your or your child's progress while you are using this medicine. This will allow your doctor to see if the medicine is working properly and to decide if you should continue to use it. Blood and urine tests may be needed to check for unwanted effects.
+If your or your child's symptoms do not improve within a few days, or if they become worse, check with your doctor.
+Do not use this medicine if you are also taking tizanidine (Zanaflex®). Tell your doctor if you or your child are also using theophylline (Theo-Dur®) or other products that contain caffeine (eg, coffee, soda, chocolate). Using these medicines together may increase the risk for more serious side effects.
+Ciprofloxacin may rarely cause inflammation (tendinitis) or tearing of a tendon (the cord that attaches muscles to bones). This can occur while you are taking the medicine or after you finish taking it. The risk of having tendon problems may be increased if you are over 60 years of age, are using steroid medicines (eg, dexamethasone, prednisolone, prednisone, Medrol®), have severe kidney problems, have a history of tendon problems (eg, rheumatoid arthritis), or if you have received an organ transplant (eg, heart, kidney, or lung). Check with your doctor right away if you have sudden pain or swelling in a tendon after exercise (eg, ankle, back of the knee or leg, shoulder, elbow, or wrist), bruise more easily after an injury, or are unable to bear weight or move the affected area. Refrain from exercise until your doctor says otherwise.
+Tell your doctor right away if you have feeling anxious, confused, or depressed, seeing, hearing, or feeling things that are not there, seizures, severe headache, trouble sleeping, or unusual thoughts or behaviors. These may be symptoms of serious mental problems.
+This medicine may cause serious allergic reactions, including anaphylaxis, which can be life-threatening and require immediate medical attention. Call your doctor right away if you or your child have a rash, itching, hives, hoarseness, trouble or swallowing, or any swelling of your hands, face, mouth, or throat after you take this medicine.
+Serious side effects can occur during treatment with this medicine and can sometimes occur without warning. However, possible warning signs include: black, tarry stools, blistering, peeling, or loosening of the skin, bloody or cloudy urine, chills, decreased urination, diarrhea, fever, joint or muscle pain, red skin lesions, often with a purple center, sores, ulcers, or white spots in the mouth or on the lips, severe stomach pain, skin rash, swelling of the face, fingers, feet, or lower legs, unusual bleeding or bruising, unusual weight gain, or yellow skin or eyes. Check with your doctor immediately if you or your child notice any of these warning signs.
+Check with your doctor right away if you have dark urine, clay-colored stools, stomach pain, or yellow eyes or skin. These maybe symptoms of a serious liver problem.
+Ciprofloxacin may lower the number of some types of blood cells in your body. Because of this, you may bleed or get infections more easily. To help with these problems, avoid being near people who are sick or have infections. Wash your hands often. Stay away from rough sports or other situations where you could be bruised, cut, or injured. Brush and floss your teeth gently. Be careful when using sharp objects, including razors and fingernail clippers.
+Ciprofloxacin may cause diarrhea, and in some cases it can be severe. It may occur 2 months or more after you or your child Stop taking ciprofloxacin (the active ingredient contained in Cipro XR). Do not take any medicine to treat diarrhea without first checking with your doctor. Diarrhea medicines may make the diarrhea worse or make it last longer. If you have any questions about this or if mild diarrhea continues or gets worse, check with your doctor.
+Check with your doctor right away if you or your child start having numbness, tingling, or burning pain in your hands, arms, legs, or feet. These may be symptoms of a condition called peripheral neuropathy.
+This medicine may increase your risk for aortic aneurysm (bulge in the wall of the largest artery). Check with your doctor right away if you have sudden chest, stomach, or back pain, trouble breathing, cough, or hoarseness.
+Some people who take ciprofloxacin may become more sensitive to sunlight than they are normally. Exposure to sunlight, even for brief periods of time, may cause severe sunburn, skin rash, redness, itching, or discoloration. When you begin using this medicine:
+Stay out of direct sunlight, especially between the hours of 10:00 AM and 3:00 PM, if possible.
+Wear protective clothing, including a hat and sunglasses.
+Apply a sun block product that has a sun protection factor (SPF) of at least 15. Some people may require a product with a higher SPF number, especially if they have a fair complexion. If you have any questions about this, check with your doctor.
+Do not use a sun lamp or tanning bed or booth.
+If you have a severe reaction from the sun, check with your doctor.
+Ciprofloxacin may cause some people to become dizzy, lightheaded, drowsy, or less alert than they are normally. Do not drive or do anything else that could be dangerous until you know how this medicine affects you. If these reactions are especially bothersome, check with your doctor.
+If you are a diabetic patient taking diabetes medicine by mouth: Ciprofloxacin may cause hypoglycemia (low blood sugar) in some patients. Symptoms of low blood sugar must be treated before they lead to unconsciousness (passing out). Different people may feel different symptoms of low blood sugar. If you experience symptoms of low blood sugar, check with your doctor right away.
+Symptoms of low blood sugar can include: anxiety, behavior change similar to being drunk, blurred vision, cold sweats, confusion, cool pale skin, difficulty with concentrating, drowsiness, excessive hunger, headache, nausea, nervousness, rapid heartbeat, shakiness, or unusual tiredness or weakness.
+Do not take other medicines unless they have been discussed with your doctor. This includes prescription or nonprescription (over-the-counter [OTC]) medicines and herbal or vitamin supplements.
+Serious side effects of Cipro XR
+Along with its needed effects, ciprofloxacin may cause some unwanted effects. Although not all of these side effects may occur, if they do occur they may need medical attention.
+Check with your doctor immediately if any of the following side effects occur while taking ciprofloxacin:
+More common side effects
+diarrhea
+Rare side effects
+bloody or black, tarry stools
+burning, crawling, itching, numbness, prickling, "pins and needles", or tingling feelings
+changes in skin color
+changes in urination
+chest pain, discomfort, tightness, or heaviness
+chills
+clumsiness or unsteadiness
+confusion
+continuing ringing or buzzing or other unexplained noise in the ears
+coughing or spitting up blood
+dizziness, fainting, or lightheadedness when getting up suddenly from a lying or sitting position
+fast, irregular, pounding, or racing heartbeat or pulse
+fever
+headache, severe and throbbing
+hearing loss
+hives or welts, skin rash
+joint stiffness
+large, hive-like swelling on the face, eyelids, lips, tongue, throat, hands, legs, feet, or genitals
+light-colored stools
+muscle pain or stiffness
+nausea
+nightmares
+numbness of the hands
+pain in the joints
+pain or discomfort in the arms, jaw, back, or neck
+painful, red lumps under the skin, mostly on the legs
+pounding in the ears
+puffiness or swelling of the eyelids or around the eyes, face, lips, or tongue
+redness of the face, neck, arms, and occasionally, upper chest
+seizures
+severe stomach pain, cramping, or burning
+shakiness in the legs, arms, hands, or feet
+swelling of the face, feet, or lower legs
+swollen, painful, or tender lymph glands in the neck, armpit, or groin
+thick, white vaginal discharge with no odor or with a mild odor
+unsteadiness, trembling, or other problems with muscle control or coordination
+unusual drowsiness, dullness, tiredness, weakness, or feeling of sluggishness
+vomiting
+white patches in the mouth or on the tongue
+yellow eyes or skin
+Incidence not known
+Other side effects of Cipro XR
+Some side effects of ciprofloxacin may occur that usually do not need medical attention. These side effects may go away during treatment as your body adjusts to the medicine. Also, your health care professional may be able to tell you about ways to prevent or reduce some of these side effects.
+Check with your health care professional if any of the following side effects continue or are bothersome or if you have any questions about them:
+Less common side effects
+runny or stuffy nose
+sneezing
+See also:
+Cefdinir
+Cefdinir is used for bacterial infection, bronchitis, middle ear infections, pneumonia, sinusitis ...
+Reviews &amp; ratings
+4.3 / 10
+398 Reviews
+View more
+Amoxicillin/clavulanate
+Amoxicillin and clavulanate potassium is a combination antibiotic used to treat bacterial ...
+Reviews &amp; ratings
+5.3 / 10
+913 Reviews
+View more
+FEATURED
+Dupixent
+Dupixent is used to treat eczema, eosinophilic or oral-corticosteroid-dependent asthma, chronic ...
+Reviews &amp; ratings
+7.3 / 10
+520 Reviews
+View more
+Levofloxacin
+Levofloxacin is a fluoroquinolone antibiotic used to treat serious bacterial infections and prevent ...
+Reviews &amp; ratings
+5.1 / 10
+745 Reviews
+View more
+Augmentin
+Augmentin is a prescription antibiotic combining amoxicillin and clavulanate to treat bacterial ...
+Reviews &amp; ratings
+5.4 / 10
+449 Reviews
+View more
+Ceftriaxone
+Ceftriaxone is used for bacteremia, bacterial endocarditis prevention, bacterial infection, bone ...
+Reviews &amp; ratings
+8.5 / 10
+177 Reviews
+View more
+Clindamycin
+Clindamycin (Cleocin) is used to treat serious infections caused by bacteria. Includes clindamycin ...
+Reviews &amp; ratings
+5.7 / 10
+808 Reviews
+View more
+Metronidazole
+Metronidazole is an antibiotic used to fight bacteria in your body. Learn about side effects ...
+Reviews &amp; ratings
+6.0 / 10
+2,432 Reviews
+View more
+Cephalexin
+Cephalexin is a cephalosporin antibiotic used to treat bacterial infections like respiratory, skin ...
+Reviews &amp; ratings
+6.4 / 10
+510 Reviews
+View more
+Azithromycin
+Azithromycin is an antibiotic used to treat many different types of infections caused by bacteria ...
+Reviews &amp; ratings
+6.8 / 10
+1,309 Reviews
+View more
+Managing side effects (general information)
+For healthcare professionals
+Applies to ciprofloxacin: intravenous solution, oral powder for reconstitution, oral tablet, oral tablet extended release.
+General adverse events
+The most common side effects (from clinical trials of all formulations, doses, durations of therapy, and indications) were nausea, diarrhea, abnormal liver function tests, vomiting, and rash. The most common side effects reported with the IV formulation were nausea, diarrhea, vomiting, injection and infusion site reactions, rash, and increased transaminases (transient).[Ref]
+Gastrointestinal
+Common (1% to 10%): Nausea, diarrhea, vomiting, dyspepsia
+Uncommon (0.1% to 1%): Abdominal pains/discomfort, gastrointestinal (GI) pains, flatulence
+Rare (0.01% to 0.1%): Elevated amylase, antibiotic-associated colitis, pancreatitis
+Frequency not reported: Clostridium difficile-associated diarrhea, constipation, GI bleeding, ileus, intestinal perforation, dry mouth, oral ulceration, epigastric pain, dysphagia, elevated lipase, painful oral mucosa, heartburn, acid reflux, aggravated irritable bowel syndrome, lower abdominal pain
+Postmarketing reports: GI candidiasis, oral candidiasis, pseudomembranous colitis[Ref]
+Antibiotic-associated colitis with possible fatal outcome was reported very rarely.
+The onset of pseudomembranous colitis symptoms has been reported during or after antimicrobial treatment.[Ref]
+Dermatologic
+Common (1% to 10%): Rash
+Uncommon (0.1% to 1%): Pruritus, urticaria
+Rare (0.01% to 0.1%): Angioedema, photosensitivity reactions, sweating/hyperhidrosis, petechiae, blistering
+Very rare (less than 0.01%): Erythema multiforme, erythema nodosum, Stevens-Johnson syndrome (potentially life-threatening), toxic epidermal necrolysis (potentially life-threatening)
+Frequency not reported: Exfoliative dermatitis, purpura, burning, phototoxicity reaction, dry skin, maculopapular rash, skin disorder, vesiculobullous rash, erythema, hyperpigmentation, cutaneous candidiasis, bullous pemphigoid, vesicles, lobular panniculitis, photoinduced acute exanthematous pustulosis, drug reaction with eosinophilia and systemic symptoms (DRESS)
+Postmarketing reports: Acute generalized exanthematous pustulosis, fixed eruption[Ref]
+Photosensitivity was seen most often when patients were exposed to intense sun (e.g., as when used to treat or prevent travelers' diarrhea).
+A 27-year-old woman with mild systemic erythematosus developed toxic epidermal necrolysis (TEN) after starting a second oral course of this drug after a prior 5-day course. She developed a rash, high fever, and diarrhea after taking the 2nd dose and presented with diffuse rash, epidermal sloughing of 60% of the skin, desquamation of the lips, shock, and respiratory distress. She died on the 28th hospital day of TEN, right ventricular failure, and acute respiratory distress syndrome. As of 2003, 9 cases of TEN, including 5 fatalities, had been reported in the literature.
+Erythema nodosum, Stevens-Johnson syndrome (potentially life-threatening), and TEN (potentially life-threatening) have also been reported during postmarketing experience.[Ref]
+Nervous system
+Common (1% to 10%): Headache, dizziness/lightheadedness, central nervous system disturbance
+Uncommon (0.1% to 1%): Sleep disorders, taste disorders, seizures (including status epilepticus), dysesthesia, paresthesia, vertigo, hearing loss
+Rare (0.01% to 0.1%): Syncope, hypoesthesia, tremor, tinnitus, migraine, olfactory nerve disorders, smell disorders, hearing impaired
+Very rare (less than 0.01%): Disturbed coordination, intracranial hypertension, benign intracranial hypertension/pseudotumor cerebri, exacerbation of myasthenia gravis, hyperesthesia
+Frequency not reported: Unresponsiveness, ataxia, hypertonia, anosmia, nystagmus, taste perversion/bad taste, somnolence/drowsiness, incoordination, disturbance in attention, dyskinesia, myasthenia gravis, paresis, aseptic meningitis, cerebral thrombosis, grand mal convulsion, dysphasia, lethargy, sensory axonal polyneuropathy, sensorimotor axonal polyneuropathy
+Postmarketing reports: Taste loss, peripheral neuropathy (may be irreversible), polyneuropathy[Ref]
+Seizures have been reported in 2 patients given this drug and foscarnet. The temporal association between the onset of seizures and drug administration suggests a possible drug interaction; causal relationship was not established in either case. Both drugs are individually epileptogenic; concurrent use may potentiate risk of seizures.
+Cases of sensory or sensorimotor axonal polyneuropathy (affecting small and/or large axons) resulting in paresthesias, hypoesthesias, dysesthesias, and weakness have been reported.
+One survey reported 11 cases of peripheral neuropathy associated with this drug. The severity ranged from mild and reversible to severe and persistent. In 1 case, a 44-year-old female developed numbness, allodynia, hypoesthesia, tremors, electrical and diffuse burning sensations, twitching, disorientation, visual impairment, nausea, temperature intolerance, rash, and palpitations; she remained disabled after 29 months.
+Nystagmus, anosmia, hyperesthesia, hypoesthesia, hypertonia, intracranial hypertension, and exacerbation of myasthenia gravis have also been reported during postmarketing experience.[Ref]
+Hematologic
+Common (1% to 10%): Eosinophilia
+Uncommon (0.1% to 1%): Thrombocytopenia, thrombocythemia
+Rare (0.01% to 0.1%): Leukopenia, anemia, neutropenia, leukocytosis, pancytopenia, bone marrow depression, abnormal prothrombin level
+Very rare (less than 0.01%): Hemolytic anemia, agranulocytosis
+Frequency not reported: Decreased hematocrit, decreased platelet counts, increased platelet counts, prolonged prothrombin time, decreased prothrombin, bleeding diathesis, decreased hemoglobin, decreased leukocyte count, increased atypical lymphocyte count, immature WBCs, increased blood monocytes, elevated sedimentation rate, elevated eosinophil counts, lymphadenopathy
+Postmarketing reports: Methemoglobinemia, increased INR, prothrombin time prolonged or decreased[Ref]
+Pancytopenia (life-threatening or fatal outcome) and bone marrow depression (life-threatening) were reported very rarely; also reported during postmarketing experience.
+Increased INR was reported in patients treated with vitamin K antagonists.[Ref]
+Hepatic
+Common (1% to 10%): Abnormal liver function tests, increased transaminases
+Uncommon (0.1% to 1%): Elevated bilirubin, hepatic impairment, cholestatic icterus/cholestatic jaundice, jaundice
+Rare (0.01% to 0.1%): Hepatitis, liver necrosis
+Very rare (less than 0.01%): Hepatic failure
+Frequency not reported: Elevated AST, elevated ALT, elevated GGT[Ref]
+Liver necrosis very rarely progressed to life-threatening hepatic failure. Liver necrosis and hepatic failure (including fatal cases) have also been reported during postmarketing experience.[Ref]
+Psychiatric
+Common (1% to 10%): Restlessness
+Uncommon (0.1% to 1%): Psychomotor hyperactivity/agitation, confusion, disorientation, hallucinations
+Rare (0.01% to 0.1%): Anxiety reaction, abnormal dreams, depression, psychotic reactions
+Frequency not reported: Depersonalization, insomnia, manic reaction, nightmares, paranoia, phobia, toxic psychosis, nervousness, self-injurious behavior, suicidal ideations/thoughts, attempted suicide, completed suicide, catatonia, mania (including hypomania)
+Postmarketing reports: Delirium[Ref]
+Depression and psychotic reactions (both potentially culminating in self-injurious behavior such as suicidal ideations/thoughts and attempted or completed suicide) have been reported.
+Agitation, confusion, and toxic psychosis have also been reported during postmarketing experience.[Ref]
+Genitourinary
+Common (1% to 10%): Vaginal candidiasis
+Rare (0.01% to 0.1%): Hematuria, crystalluria
+Frequency not reported: Albuminuria, cylindruria, frequent urination, hemorrhagic cystitis, vaginitis, dysmenorrhea, candiduria, polyuria, urethral bleeding, urinary retention, urinary tract infection, fungal vaginosis, bacterial vaginitis, dysuria, abnormal urine odor, female genital pruritus, vaginal infection, urinary frequency, micturition urgency, vaginal pruritus[Ref]
+Crystalluria has been reported in patients with alkaline urine and did not necessarily lead to nephrotoxicity. At physiological urinary pH, the risk of crystalluria was considered minor.
+Vaginal candidiasis has also been reported during postmarketing experience.[Ref]
+Local
+Common (1% to 10%): Local IV site reactions, injection and infusion site reactions (e.g., phlebitis, thrombophlebitis)
+Frequency not reported: Injection site irritation and induration with IV infusion[Ref]
+Local IV site reactions occurred more often if the infusion time was 30 minutes or less. These reactions have appeared as local skin reactions and resolved quickly when infusion was completed.
+Injection site irritation and induration have been reported with IV infusion time 30 minutes or less (instead of the recommended 1 hour) or when a small vein in the back of the hand was used.[Ref]
+Musculoskeletal
+Uncommon (0.1% to 1%): Musculoskeletal pain (e.g., extremity pain, back pain, chest pain), arthralgia
+Rare (0.01% to 0.1%): Myalgia, arthritis, increased muscle tone and cramping, tendon rupture (mainly Achilles tendon)
+Very rare (less than 0.01%): Tendinitis, muscular weakness
+Frequency not reported: Arthropathy (including suspected reversible cases), joint stiffness, elevated serum creatine phosphokinase, abnormal joint exam, joint sprains, arthrosis, bone pain, decreased range of motion in a joint (knee, elbow, ankle, hip, wrist, shoulder), jaw pain, neck pain, gout flare-up, joint swelling, muscle spasms, night cramps, knee inflammation
+Postmarketing reports: Myoclonus, myasthenia, twitching[Ref]
+Arthropathy has primarily been a concern in pediatric patients; however, at least 1 case was described in an adult cystic fibrosis patient receiving this drug. Although cystic fibrosis arthropathy and hypertrophic pulmonary osteoarthropathy typically occur in 7% to 8% of cystic fibrosis adults and adolescents, the arthropathy exhibited in this patient did not resemble either. Several elements in its presentation strongly supported the diagnosis of ciprofloxacin-induced arthropathy, such as: a consistent time of onset with other reported cases of suspected quinolone-induced arthropathy (usually 3 weeks after starting therapy); a lack of history of arthralgia in the patient; reoccurrence upon rechallenge; and resolution of symptoms upon discontinuation of therapy (usually 2 weeks after therapy stopped).
+Tendinitis with subsequent tendon rupture has been documented in numerous case reports. One patient with chronic renal failure developed bilateral Achilles tendon rupture after 4 days of ciprofloxacin (the active ingredient contained in Cipro XR) therapy. Although renal transplant patients and those with end-stage renal disease tend to have an increased risk of Achilles tendinitis and rupture over the general population, quinolone use has been shown to further increase that risk (12% in quinolone-treated patients versus 7% in nonquinolone-treated patients).
+As of October 1994, 25 cases of Achilles tendon rupture had been reported to the US FDA. Some ruptures have also occurred in the hand or shoulder. Other risk factors identified included age and corticosteroid use.
+There had been 23 reports of tendinitis submitted to the Australian Adverse Drug Reactions Committee (ADRAC) between 2006 and 2008, including reports of Achilles tendinitis, tendon rupture, and tendon pain and swelling. The reports were primarily in male patients (15 cases) older than 56 years who used this drug for 2 to 14 days. In 19 of the reported cases, a fluoroquinolone (generally ciprofloxacin) was the primary suspect; however, details of concomitant serious medical conditions were not documented in most of the reports.
+Musculoskeletal side effects reported in pediatric patients included arthralgia, abnormal gait, abnormal joint exam, joint sprains, leg pain, back pain, arthrosis, bone pain, pain, myalgia, arm pain, and decreased range of motion in a joint (knee, elbow, ankle, hip, wrist, shoulder).
+Myalgia, tendinitis, and tendon rupture have also been reported during postmarketing experience.[Ref]
+Cardiovascular
+Uncommon (0.1% to 1%): Tachycardia, vasodilatation, hypotension
+Rare (0.01% to 0.1%): Vasculitis
+Frequency not reported: Angina pectoris, cardiopulmonary arrest, myocardial infarction, hypertension, palpitation, bradycardia, arrhythmia, atrial flutter, cardiac murmur, cardiovascular collapse, ventricular ectopy, ventricular bigeminy, abdominal aortic bruit, postural hypotension
+Postmarketing reports: QT prolongation/ECG QT prolonged, torsade de pointes, ventricular arrhythmia[Ref]
+Torsade de pointes was reported mainly in patients with risk factors for QT prolongation.
+Vasculitis has also been reported during postmarketing experience.[Ref]
+Other
+Uncommon (0.1% to 1%): Candida infections, mycotic superinfections, pain, fever, malaise/feeling unwell, asthenia, edema
+Very rare (less than 0.01%): Gait disturbance/abnormal gait
+Frequency not reported: Irritability, flushing, thirst, elevated serum calcium, elevated serum potassium, elevated triglycerides, decreased serum albumin, decreased serum potassium, decreased total serum protein, elevated serum theophylline, serum phenytoin altered, chills, swelling, breast pain, achiness, weakness, fatigue, suprapubic pain, rigors, tenderness, fungal infection, increased body temperature
+Postmarketing reports: Elevated serum cholesterol[Ref]
+Elevated serum theophylline has been reported in patients receiving theophylline concomitantly.
+Gait disturbance and elevated serum potassium have also been reported during postmarketing experience.[Ref]
+Metabolic
+Uncommon (0.1% to 1%): Elevated blood alkaline phosphatase, decreased appetite/anorexia, decreased food intake
+Rare (0.01% to 0.1%): Hyperglycemia, hypoglycemia
+Frequency not reported: Elevated LDH, elevated uric acid, elevated blood glucose, decreased uric acid, decreased blood glucose, acidosis, symptomatic hypoglycemia[Ref]
+Quinolone class antibiotics have been associated with symptomatic hypoglycemia.[Ref]
+Renal
+Uncommon (0.1% to 1%): Renal impairment, renal failure
+Rare (0.01% to 0.1%): Tubulointerstitial nephritis
+Frequency not reported: Elevated serum creatinine, renal calculi, elevated BUN, decreased BUN, abnormal kidney function, allergic interstitial nephritis, nephritis, myoglobin-associated acute kidney injury/failure[Ref]
+Allergic interstitial nephritis resulting in nonoliguric renal failure has been described in numerous case reports. Several cases included symptoms of rash, fever, and arthralgia and were accompanied by eosinophilia and eosinophiluria. Cases of allergic interstitial nephritis often responded to short courses of corticosteroid therapy.[Ref]
+Ocular
+Uncommon (0.1% to 1%): Visual disturbances (e.g., chromatopsia, diplopia, photopsia)
+Very rare (less than 0.01%): Visual color distortions
+Frequency not reported: Decreased visual acuity, blurred vision, cataracts, multiple punctate lenticular opacities, eye pain[Ref]
+Quinolone class antibiotics have been associated with cataracts and multiple punctate lenticular opacities.[Ref]
+Hypersensitivity
+Rare (0.01% to 0.1%): Allergic reactions, anaphylactic shock (life-threatening), allergic edema
+Very rare (less than 0.01%): Anaphylactic reaction, serum sickness-like reaction
+Frequency not reported: Anaphylactoid reactions, necrotizing vasculitis, cutaneous vasculitis[Ref]
+Allergic reactions ranged from urticaria to anaphylactic reactions, including life-threatening anaphylactic shock.
+At least 2 cases have been reported of patients developing a cutaneous vasculitis related to use of this drug. The vasculitis resolved without medical intervention after the drug was discontinued.
+Serum sickness-like reaction and anaphylactic shock (life-threatening) have also been reported during postmarketing experience.[Ref]
+Respiratory
+Rare (0.01% to 0.1%): Dyspnea (including asthmatic condition)
+Frequency not reported: Bronchospasm, hemoptysis, laryngeal edema, respiratory arrest, epistaxis, hiccough, pulmonary edema, pleural effusion, pulmonary embolism, respiratory distress, wheeze, cough, upper respiratory tract infection, pharyngitis, nasopharyngitis[Ref]
+Endocrine
+Frequency not reported: Gynecomastia[Ref]
+Immunologic
+Frequency not reported: Jarisch-Herxheimer reaction[Ref]
+Oral ciprofloxacin has been associated with a case of Jarisch-Herxheimer reaction (characterized by hypotension, tachycardia, and disseminated intravascular coagulation) in a 14-year-old female with tickborne relapsing fever.[Ref]
+References
+1. Ball P (1986) "Ciprofloxacin: an overview of adverse experiences." J Antimicrob Chemother, 18, p. 187-93
+2. Campoli-Richards DM, Monk JP, Price A, Benfield P, Todd PA, Ward A (1988) "Ciprofloxacin: a review of its antibacterial activity, pharmacokinetic properties and therapeutic use." Drugs, 35, p. 373-447
+3. Norrby SR (1991) "Side-effects of quinolones: comparisons between quinolones and other antibiotics." Eur J Clin Microbiol Infect Dis, 10, p. 378-83
+4. (2002) "Product Information. Cipro (ciprofloxacin)." Bayer
+5. Heyd A, Haverstock D (2000) "Retrospective analysis of the safety profile of oral and intravenous ciprofloxacin in a geriatric population." Clin Ther, 22, p. 1239-50
+6. (2001) "From the Centers for Disease Control and Prevention. Update: adverse events associated with anthrax prophylaxis among postal employees--New Jersey, New York City, and the District of Columbia metropolitan area, 2001." JAMA, 286, p. 2935-6
+7. (2004) "Product Information. Cipro XR (ciprofloxacin)." Bayer Pharmaceutical Inc
+8. Alexander RB, Propert KJ, Schaeffer AJ, et al. (2004) "Ciprofloxacin or tamsulosin in men with chronic prostatitis/chronic pelvic pain syndrome: a randomized, double-blind trial." Ann Intern Med, 141, p. 581-9
+9. Ramakrishnan K, Scheid DC (2005) "Diagnosis and management of acute pyelonephritis in adults." Am Fam Physician, 71, p. 933-42
+10. Fourcroy JL, Berner B, Chiang YK, Cramer M, Rowe L, Shore N (2005) "Efficacy and safety of a novel once-daily extended-release ciprofloxacin tablet formulation for treatment of uncomplicated urinary tract infection in women." Antimicrob Agents Chemother, 49, p. 4137-43
+11. Kothur K, Singh M, Dayal D (2006) "Ciprofloxacin-induced anaphylactoid reaction." Eur J Pediatr, 165, p. 573-4
+12. Cerner Multum, Inc. "UK Summary of Product Characteristics."
+13. Cerner Multum, Inc. "Australian Product Information."
+14. Juillerat P, Pittet V, Felley C, et al. (2007) "Drug safety in Crohn's disease therapy." Digestion, 76, p. 161-8
+15. Schacht P, Arcieri G, Hullmann R (1989) "Safety of oral ciprofloxacin. An update based on clinical trial results." Am J Med, 87, s98-102
+16. Harmon T, Burkhart G, Applebaum H (1992) "Perforated pseudomembranous colitis in the breast-fed infant." J Pediatr Surg, 27, p. 744-6
+17. Bauwens JE, McFarland LV, Melcher SA (1997) "Recurrent clostridium difficile disease following ciprofloxacin use." Ann Pharmacother, 31, p. 1090
+18. Overholser BR, Kays MB, Forrest A, Sowinski KM (2004) "Sex-related differences in the pharmacokinetics of oral ciprofloxacin." J Clin Pharmacol, 44, p. 1012-22
+19. Bilton D, Henig N, Morrissey B, Gotfried M (2006) "Addition of Inhaled Tobramycin to Ciprofloxacin for Acute Exacerbations of Pseudomonas aeruginosa Infection in Adult Bronchiectasis." Chest, 130, p. 1503-10
+20. Ferguson J, McEwen J, AlAjmi H, Purkins L, Colman PJ, Willavize SA (2000) "A comparison of the photosensitizing potential of trovafloxacin with that of other quinolones in healthy subjects." J Antimicrob Chemother, 45, p. 503-9
+21. KimyaiAsadi A, Usman A, Nousari HC (2000) "Ciprofloxacin-induced bullous pemphigoid." J Am Acad Dermatol, 42, p. 847
+22. Knoell KA, Lynch JM (2009) "Photoinduced acute exanthematous pustulosis caused by ciprofloxacin and sunlight exposure." Int J Dermatol, 48, p. 1141-3
+23. Arcieri G, Griffith E, Gruenwaldt G, et al. (1988) "A survey of clinical experience with ciprofloxacin, a new quinolone antimicrobial." J Clin Pharmacol, 28, p. 179-89
+24. Gasser TC, Ebert SC, Graversen PH, Mads</t>
         </is>
       </c>
     </row>
@@ -5608,31 +9274,260 @@
       </c>
       <c r="H52" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">❌ Error processing Cleocin HCl: Message: element click intercepted: Element &lt;a href="/sfx/cleocin-side-effects.html"&gt;...&lt;/a&gt; is not clickable at point (93, 459). Other element would receive the click: &lt;div id="google_ads_iframe_/7146/dosage_0__container__" style="border: 0pt none;"&gt;...&lt;/div&gt;
-  (Session info: chrome=138.0.7204.93); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#elementclickinterceptedexception
-Stacktrace:
-0   chromedriver                        0x00000001053c0ea4 cxxbridge1$str$ptr + 2722840
-1   chromedriver                        0x00000001053b8dac cxxbridge1$str$ptr + 2689824
-2   chromedriver                        0x0000000104f0a3ec cxxbridge1$string$len + 90648
-3   chromedriver                        0x0000000104f570a8 cxxbridge1$string$len + 405204
-4   chromedriver                        0x0000000104f55614 cxxbridge1$string$len + 398400
-5   chromedriver                        0x0000000104f53428 cxxbridge1$string$len + 389716
-6   chromedriver                        0x0000000104f52824 cxxbridge1$string$len + 386640
-7   chromedriver                        0x0000000104f47358 cxxbridge1$string$len + 340356
-8   chromedriver                        0x0000000104f46de4 cxxbridge1$string$len + 338960
-9   chromedriver                        0x0000000104f92934 cxxbridge1$string$len + 649056
-10  chromedriver                        0x0000000104f45834 cxxbridge1$string$len + 333408
-11  chromedriver                        0x0000000105383fc0 cxxbridge1$str$ptr + 2473268
-12  chromedriver                        0x000000010538722c cxxbridge1$str$ptr + 2486176
-13  chromedriver                        0x0000000105365a08 cxxbridge1$str$ptr + 2348924
-14  chromedriver                        0x0000000105387ae8 cxxbridge1$str$ptr + 2488412
-15  chromedriver                        0x0000000105356a98 cxxbridge1$str$ptr + 2287628
-16  chromedriver                        0x00000001053a79d8 cxxbridge1$str$ptr + 2619212
-17  chromedriver                        0x00000001053a7b64 cxxbridge1$str$ptr + 2619608
-18  chromedriver                        0x00000001053b89e8 cxxbridge1$str$ptr + 2688860
-19  libsystem_pthread.dylib             0x00000001821cbc0c _pthread_start + 136
-20  libsystem_pthread.dylib             0x00000001821c6b80 thread_start + 8
-</t>
+          <t>Skip to main content
+Search Drugs.com
+Search
+Site navigation
+Close
+Home
+Cleocin
+Side Effects
+Cleocin Side Effects
+Generic name: clindamycin
+Medically reviewed by Drugs.com. Last updated on Mar 25, 2025.
+Serious side effects
+Professional info
+FAQ
+Note: This document provides detailed information about Cleocin Side Effects associated with clindamycin. Some dosage forms listed on this page may not apply specifically to the brand name Cleocin.
+Applies to clindamycin: oral capsule, oral powder for solution.
+Other dosage forms:
+intravenous solution
+solution
+Important warnings
+This medicine can cause some serious health issues
+Oral route (powder for solution)
+Pseudomembranous colitis has been reported with nearly all antibacterial agents, including clindamycin, and may range in severity from mild to life-threatening.
+Therefore, it is important to consider this diagnosis in patients who present with diarrhea subsequent to the administration of antibacterial agents.
+Because clindamycin therapy has been associated with severe colitis which may end fatally, it should be reserved for serious infections where less toxic antimicrobial agents are inappropriate.
+Diarrhea, colitis, and pseudomembranous colitis have been observed to begin up to several weeks following cessation of therapy with clindamycin.
+Oral route (capsule)
+Clostridium difficile associated diarrhea (CDAD) has been reported with nearly all antibacterial agents, including clindamycin, and may range in severity from mild diarrhea to life-threatening colitis and has been observed to begin over 2 months after the administration of antibacterial agents.
+It is important to consider this diagnosis in patients who present with diarrhea subsequent to the administration of antibacterial agents.
+If CDAD is confirmed or suspected, antibiotic therapy not directed against Clostridium difficile may need to be discontinued.
+Because clindamycin therapy has been associated with severe colitis which may end fatally, it should be reserved for serious infections where less toxic antimicrobial agents are inappropriate.
+Precautions
+It is important that your doctor check your or your child's progress after treatment. This is to make sure that the infection is cleared up completely, and to allow your doctor to check for any unwanted effects. Blood tests may be needed to check for unwanted effects.
+If your or your child's symptoms do not improve, or if they become worse, check with your doctor.
+This medicine may cause diarrhea, and in some cases it can be severe. It may occur 2 months or more after you stop using this medicine. Do not take any medicine to treat diarrhea without first checking with your doctor. If you have any questions or if mild diarrhea continues or gets worse, check with your doctor.
+Serious skin reactions can occur with this medicine. Check with your doctor right away if you have blistering, peeling, or loose skin, red skin lesions, severe acne or skin rash, sores or ulcers on the skin, or fever or chills while you or your child are using this medicine.
+This medicine may cause serious allergic reactions, including anaphylaxis. Anaphylaxis can be life-threatening and requires immediate medical attention. Call your doctor right away if you have a rash, itching, trouble breathing, trouble swallowing, or any swelling of your hands, face, or mouth while you or your child are using this medicine.
+Do not take other medicines unless they have been discussed with your doctor. This includes prescription or nonprescription (over-the-counter [OTC]) medicines and herbal or vitamin supplements.
+See also:
+Zithromax
+Zithromax (azithromycin) treats infections caused by bacteria, such as respiratory infections, skin ...
+Reviews &amp; ratings
+7.1 / 10
+129 Reviews
+View more
+Ampicillin
+Ampicillin is used for bacteremia, bacterial endocarditis prevention, bacterial infection ...
+Reviews &amp; ratings
+5 Reviews
+View more
+FEATURED
+Botox
+Botox is used cosmetically to reduce facial lines and wrinkles and for medical purposes for ...
+Reviews &amp; ratings
+5.7 / 10
+478 Reviews
+View more
+Clarithromycin
+Clarithromycin is used to treat bacterial infections affecting the skin and respiratory system ...
+Reviews &amp; ratings
+5.4 / 10
+853 Reviews
+View more
+Gentamicin
+Gentamicin is used for bacteremia, bacterial endocarditis prevention, bacterial infection, bone ...
+Reviews &amp; ratings
+3 Reviews
+View more
+Erythromycin
+Erythromycin is a macrolide antibiotic used to treat bacterial infections. Includes erythromycin ...
+Reviews &amp; ratings
+6.1 / 10
+67 Reviews
+View more
+Keflex
+Keflex (cephalexin) is used to treat infections caused by bacteria, including respiratory ...
+Reviews &amp; ratings
+7.3 / 10
+91 Reviews
+View more
+Vancomycin
+Vancomycin is used to treat infections of the intestines that cause colitis. Learn about side ...
+Reviews &amp; ratings
+6.6 / 10
+58 Reviews
+View more
+Ceftriaxone
+Ceftriaxone is used for bacteremia, bacterial endocarditis prevention, bacterial infection, bone ...
+Reviews &amp; ratings
+8.5 / 10
+177 Reviews
+View more
+Cephalexin
+Cephalexin is a cephalosporin antibiotic used to treat bacterial infections like respiratory, skin ...
+Reviews &amp; ratings
+6.4 / 10
+510 Reviews
+View more
+Serious side effects of Cleocin
+Along with its needed effects, clindamycin (the active ingredient contained in Cleocin) may cause some unwanted effects. Although not all of these side effects may occur, if they do occur they may need medical attention.
+Check with your doctor immediately if any of the following side effects occur while taking clindamycin:
+Rare side effects
+cracks in the skin
+loss of heat from the body
+red, swollen skin scaly skin
+Incidence not known
+Managing side effects (general information)
+For healthcare professionals
+Applies to clindamycin: compounding powder, injectable solution, intravenous solution, oral capsule, oral powder for reconstitution.
+Gastrointestinal adverse events
+Common (1% to 10%): Pseudomembranous colitis, diarrhea, abdominal pain
+Uncommon (0.1% to 1%): Dysgeusia, nausea, vomiting
+Frequency not reported: Esophageal ulcers, esophagitis (oral preparations)[Ref]
+The onset of pseudomembranous colitis symptoms may occur during or after antibacterial treatment and is associated with the presence of Clostridium difficile toxin in the stool. Pseudomembranous colitis may also be associated with toxic megacolon, which can be life-threatening.
+An unpleasant or metallic taste has occasionally been reported after high doses of IV clindamycin.[Ref]
+Dermatologic
+Common (1% to 10%): Maculopapular rash
+Uncommon (0.1% to 1%): Urticaria
+Rare (less than 0.1%): Erythema multiforme, pruritus
+Frequency not reported: Toxic epidermal necrolysis, Stevens-Johnson syndrome, exfoliative dermatitis, bullous dermatitis, generalized mild to moderate morbilliform-like rash, acute generalized exanthematous pustulosis (AGEP), Sweet's Syndrome
+Postmarketing reports: Serious cutaneous adverse reaction[Ref]
+Rash was particularly common in AIDS patients.
+A 47-year-old female patient with multiple comorbidities was diagnosed with Sweet's Syndrome. The patient's symptoms developed 2 days after initiating oral clindamycin therapy for a tooth infection. The patient's symptoms persisted despite tooth extraction and continuance of antibiotic treatment with intravenous, then oral, clindamycin. Following discontinuation of clindamycin, the patient's symptoms resolved over several days. Drug-induced Sweet's syndrome was determined based on the temporal relationship of the patient's symptoms, the beginning and end of clindamycin therapy, and the exclusion of other etiologies.
+Three days after starting oral clindamycin for the persistence of symptoms following a root canal, a 34-year-old male patient reported "pimples" on his scalp which changed to pustules 24 hours later. The lesions progressed and the patient's antibiotic therapy was discontinued. Two days later, the rash improved considerably. The patient met the diagnostic criteria for drug-induced Sweet's syndrome and clindamycin was the most likely cause due to the timeline of antibiotic therapy and the patient's improvement following its discontinuation.[Ref]
+Hypersensitivity
+Frequency not reported: Anaphylactoid reactions, drug reaction with eosinophilia and systemic systems (DRESS)[Ref]
+Cardiovascular
+Common (1% to 10%): Thrombophlebitis (after IV infusion)
+Uncommon (0.1% to 1%): Cardiorespiratory arrest, hypotension[Ref]
+Cardiorespiratory arrest and hypotension have been reported after too rapid IV administration. Thrombophlebitis has been reported after intravenous infusion.[Ref]
+Genitourinary
+Frequency not reported: Vaginitis[Ref]
+Hematologic
+Uncommon (0.1% to 1%): Eosinophilia
+Frequency not reported: Neutropenia, leucopenia, agranulocytosis, thrombocytopenia[Ref]
+Neutropenia (ANC 945 cells/mm3) occurred in a 68-year-old male 6 days after receiving a single 600 mg oral dose of clindamycin. The neutrophil count normalized after 2 weeks.[Ref]
+Hepatic
+Common (1% to 10%): Liver function test abnormalities
+Frequency not reported: Jaundice[Ref]
+Local
+Frequency not reported: Injection site irritation, pain, abscess formation[Ref]
+Pain, induration, and sterile abscess have been reported after intramuscular administration.[Ref]
+Musculoskeletal
+Frequency not reported: Polyarthritis[Ref]
+Renal
+Frequency not reported: Renal dysfunction, as shown by azotemia, oliguria, and/or proteinuria[Ref]
+References
+1. Leigh DA, Simmons K, Williams S (1980) "Gastrointestinal side effects following clindamycin and lincomycin treatment: a follow up study." J Antimicrob Chemother, 6, p. 639-45
+2. Wilson DH (1980) "Clindamycin in the treatment of soft tissue infections: a review of 15,019 patients." Br J Surg, 67, p. 93-6
+3. Mason SJ, O'Meara TF (1981) "Drug-induced esophagitis." J Clin Gastroenterol, 3, p. 115-20
+4. Davies J, Beck E (1981) "Recurrent colitis following antibiotic-associated pseudomembranous colitis." Postgrad Med J, 57, p. 599-601
+5. Milstone EB, McDonald AJ, Scholhamer CF Jr (1981) "Pseudomembranous colitis after topical application of clindamycin." Arch Dermatol, 117, p. 154-5
+6. Cone JB, Wetzel W (1982) "Toxic megacolon secondary to pseudomembranous colitis." Dis Colon Rectum, 25, p. 478-82
+7. Parry MF, Rha CK (1986) "Pseudomembranous colitis caused by topical clindamycin phosphate." Arch Dermatol, 122, p. 583-4
+8. Van Ness MM, Cattau EL Jr (1987) "Fulminant colitis complicating antibiotic-associated pseudomembranous colitis: case report and review of the clinical manifestations and treatment." Am J Gastroenterol, 82, p. 374-7
+9. (2002) "Product Information. Cleocin (clindamycin)." Pharmacia and Upjohn
+10. Meadowcroft AM, Diaz PR, Latham GS (1998) "Clostridium difficile toxin-induced colitis after use of clindmycin phosphate vaginal cream." Ann Pharmacother, 32, p. 309-11
+11. Cerner Multum, Inc. "UK Summary of Product Characteristics."
+12. George WL, Sutter VL, Finegold SM (1977) "Antimicrobial agent-induced diarrhea--a bacterial disease." J Infect Dis, 136, p. 822-8
+13. Geddes AM, Bridgwater FA, Williams DN, Oon J, Grimshaw GJ (1970) "Clinical and bacteriological studies with clindamycin." Br Med J, 2, p. 703-4
+14. Bartlett JG (2006) "Narrative review: the new epidemic of Clostridium difficile-associated enteric disease." Ann Intern Med, 145, p. 758-64
+15. de Groot MC, van Puijenbroek EP (2007) "Clindamycin and taste disorders." Br J Clin Pharmacol, 64, p. 542-5
+16. Cerner Multum, Inc. "Australian Product Information."
+17. Vidal C, Iglesias A, Saez A, Rodriguez M (1991) "Hypersensitivity to clindamycin." DICP, 25, p. 317
+18. Clark BM, Homeyer DC, Glass KR, D'Avignon LC (2007) "Clindamycin-Induced Sweet's Syndrome." Pharmacotherapy, 27, p. 1343-6
+19. Paquet P, Schaaflafontaine N, Pierard GE (1995) "Toxic epidermal necrolysis following clindamycin treatment." Br J Dermatol, 132, p. 665-6
+20. Lammintausta K, Tokola R, Kalimo K (2002) "Cutaneous adverse reactions to clindamycin: results of skin tests and oral exposure." Br J Dermatol, 146, p. 643-8
+21. Kapoor R, Flynn C, Heald PW, Kapoor JR (2006) "Acute generalized exanthematous pustulosis induced by clindamycin." Arch Dermatol, 142, p. 1080-1
+22. Tian D, Mohan RJ, Stallings G (2010) "Drug rash with eosinophilia and systemic symptoms syndrome associated with clindamycin." Am J Med, 123, e7-8
+23. Miller Quidley A, Bookstaver PB, Gainey AB, Gainey MD (2012) "Fatal clindamycin-induced drug rash with eosinophilia and systemic symptoms (DRESS) syndrome." Pharmacotherapy
+24. Bubalo JS, Blasdel CS, Bearden DT (2003) "Neutropenia after single-dose clindamycin for dental prophylaxis." Pharmacotherapy, 23, p. 101-3
+Does Cleocin interact with my other drugs?
+Enter medications to view a detailed interaction report using our Drug Interaction Checker.
+Drug name
+Add a drug to check interactions
+Add
+Frequently asked questions
+What are the best antibiotics for a tooth infection?
+What is the best antibiotic to treat strep throat?
+Is clindamycin a strong antibiotic?
+What are the best antibiotics for a boil?
+Can I take clindamycin if I am allergic to penicillin?
+Is clindamycin a penicillin?
+Why can't you lie down after taking clindamycin?
+Can clindamycin be used to treat chlamydia?
+More about Cleocin (clindamycin)
+Check interactions
+Compare alternatives
+Reviews (17)
+Drug images
+Dosage information
+During pregnancy
+Drug class: lincomycin derivatives
+Breastfeeding
+Patient resources
+Cleocin drug information
+Professional resources
+Cleocin prescribing information
+Clindamycin (AHFS Monograph)
+Other formulations
+Cleocin T
+Related treatment guides
+Bacteremia
+Aspiration Pneumonia
+Babesiosis
+Bacterial Endocarditis Prevention
+Further information
+Cleocin side effects can vary depending on the individual. Always consult your healthcare provider to ensure the information displayed on this page applies to your personal circumstances.
+Note: Medication side effects may be underreported. If you are experiencing side effects that are not listed, submit a report to the FDA by following this guide.
+Medical Disclaimer
+Antibiotics 101
+List of Common Antibiotics &amp; Types
+Antibiotics and Alcohol
+Probiotics and Antibiotics
+Antibiotics for Strep Throat
+Antibiotics for a Tooth Infection
+Antibiotics for UTI's
+DRUG STATUS
+Availability
+Prescription only
+Rx
+Pregnancy &amp; Lactation
+Risk data available
+CSA Schedule*
+Not a controlled drug
+N/A
+Approval History
+Drug history at FDA
+User Reviews &amp; Ratings
+5.7 / 10
+17 Reviews
+Images
+Cleocin HCl 75 MG (CLEOCIN 75 mg CLEOCIN 75 mg)
+Drugs.com Mobile App
+Access drug &amp; treatment information, identify pills, check interactions and set up personal medication records.
+Download the Medication Guide app on iTunes
+Download the Medication Guide app on the Google Play store
+About
+About Drugs.com
+Advertising policy
+Attribution &amp; citations
+Editorial policy
+Support
+Help center
+Sitemap
+Subscribe to Drugs.com newsletters
+Follow Drugs.com on Facebook
+Follow Drugs.com on Twitter
+Follow Drugs.com on Instagram
+Follow Drugs.com on YouTube
+Follow Drugs.com on Pinterest
+Subscribe to our newsletter for the latest medication news, new drug approvals and FDA alerts.
+Drugs.com provides accurate and independent information on more than 24,000 prescription drugs, over-the-counter medicines and natural products. This material is provided for educational purposes only and is not intended for medical advice, diagnosis or treatment. Data sources include Micromedex (updated 1 Jul 2025), Cerner Multum™ (updated 6 Jul 2025), ASHP (updated 11 May 2025) and others.
+Copyright © 2000-2025 Drugs.com. All rights reserved.</t>
         </is>
       </c>
     </row>
@@ -5696,31 +9591,259 @@
       </c>
       <c r="H54" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">❌ Error processing Cleocin Phosphate: Message: element click intercepted: Element &lt;a href="/sfx/cleocin-phosphate-side-effects.html"&gt;...&lt;/a&gt; is not clickable at point (93, 459). Other element would receive the click: &lt;div id="google_ads_iframe_/7146/dosage_0__container__" style="border: 0pt none;"&gt;...&lt;/div&gt;
-  (Session info: chrome=138.0.7204.93); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#elementclickinterceptedexception
-Stacktrace:
-0   chromedriver                        0x00000001053c0ea4 cxxbridge1$str$ptr + 2722840
-1   chromedriver                        0x00000001053b8dac cxxbridge1$str$ptr + 2689824
-2   chromedriver                        0x0000000104f0a3ec cxxbridge1$string$len + 90648
-3   chromedriver                        0x0000000104f570a8 cxxbridge1$string$len + 405204
-4   chromedriver                        0x0000000104f55614 cxxbridge1$string$len + 398400
-5   chromedriver                        0x0000000104f53428 cxxbridge1$string$len + 389716
-6   chromedriver                        0x0000000104f52824 cxxbridge1$string$len + 386640
-7   chromedriver                        0x0000000104f47358 cxxbridge1$string$len + 340356
-8   chromedriver                        0x0000000104f46de4 cxxbridge1$string$len + 338960
-9   chromedriver                        0x0000000104f92934 cxxbridge1$string$len + 649056
-10  chromedriver                        0x0000000104f45834 cxxbridge1$string$len + 333408
-11  chromedriver                        0x0000000105383fc0 cxxbridge1$str$ptr + 2473268
-12  chromedriver                        0x000000010538722c cxxbridge1$str$ptr + 2486176
-13  chromedriver                        0x0000000105365a08 cxxbridge1$str$ptr + 2348924
-14  chromedriver                        0x0000000105387ae8 cxxbridge1$str$ptr + 2488412
-15  chromedriver                        0x0000000105356a98 cxxbridge1$str$ptr + 2287628
-16  chromedriver                        0x00000001053a79d8 cxxbridge1$str$ptr + 2619212
-17  chromedriver                        0x00000001053a7b64 cxxbridge1$str$ptr + 2619608
-18  chromedriver                        0x00000001053b89e8 cxxbridge1$str$ptr + 2688860
-19  libsystem_pthread.dylib             0x00000001821cbc0c _pthread_start + 136
-20  libsystem_pthread.dylib             0x00000001821c6b80 thread_start + 8
-</t>
+          <t>Skip to main content
+Search Drugs.com
+Search
+Site navigation
+Close
+Home
+Cleocin Phosphate
+Side Effects
+Cleocin Phosphate Side Effects
+Generic name: clindamycin
+Medically reviewed by Drugs.com. Last updated on Mar 25, 2025.
+Serious side effects
+Professional info
+FAQ
+Note: This document provides detailed information about Cleocin Phosphate Side Effects associated with clindamycin. Some dosage forms listed on this page may not apply specifically to the brand name Cleocin Phosphate.
+Applies to clindamycin: oral capsule, oral powder for solution.
+Other dosage forms:
+intravenous solution
+solution
+Important warnings
+This medicine can cause some serious health issues
+Oral route (powder for solution)
+Pseudomembranous colitis has been reported with nearly all antibacterial agents, including clindamycin, and may range in severity from mild to life-threatening.
+Therefore, it is important to consider this diagnosis in patients who present with diarrhea subsequent to the administration of antibacterial agents.
+Because clindamycin therapy has been associated with severe colitis which may end fatally, it should be reserved for serious infections where less toxic antimicrobial agents are inappropriate.
+Diarrhea, colitis, and pseudomembranous colitis have been observed to begin up to several weeks following cessation of therapy with clindamycin.
+Oral route (capsule)
+Clostridium difficile associated diarrhea (CDAD) has been reported with nearly all antibacterial agents, including clindamycin, and may range in severity from mild diarrhea to life-threatening colitis and has been observed to begin over 2 months after the administration of antibacterial agents.
+It is important to consider this diagnosis in patients who present with diarrhea subsequent to the administration of antibacterial agents.
+If CDAD is confirmed or suspected, antibiotic therapy not directed against Clostridium difficile may need to be discontinued.
+Because clindamycin therapy has been associated with severe colitis which may end fatally, it should be reserved for serious infections where less toxic antimicrobial agents are inappropriate.
+Precautions
+It is important that your doctor check your or your child's progress after treatment. This is to make sure that the infection is cleared up completely, and to allow your doctor to check for any unwanted effects. Blood tests may be needed to check for unwanted effects.
+If your or your child's symptoms do not improve, or if they become worse, check with your doctor.
+This medicine may cause diarrhea, and in some cases it can be severe. It may occur 2 months or more after you stop using this medicine. Do not take any medicine to treat diarrhea without first checking with your doctor. If you have any questions or if mild diarrhea continues or gets worse, check with your doctor.
+Serious skin reactions can occur with this medicine. Check with your doctor right away if you have blistering, peeling, or loose skin, red skin lesions, severe acne or skin rash, sores or ulcers on the skin, or fever or chills while you or your child are using this medicine.
+This medicine may cause serious allergic reactions, including anaphylaxis. Anaphylaxis can be life-threatening and requires immediate medical attention. Call your doctor right away if you have a rash, itching, trouble breathing, trouble swallowing, or any swelling of your hands, face, or mouth while you or your child are using this medicine.
+Do not take other medicines unless they have been discussed with your doctor. This includes prescription or nonprescription (over-the-counter [OTC]) medicines and herbal or vitamin supplements.
+See also:
+Zithromax
+Zithromax (azithromycin) treats infections caused by bacteria, such as respiratory infections, skin ...
+Reviews &amp; ratings
+7.1 / 10
+129 Reviews
+View more
+Ampicillin
+Ampicillin is used for bacteremia, bacterial endocarditis prevention, bacterial infection ...
+Reviews &amp; ratings
+5 Reviews
+View more
+FEATURED
+Botox
+Botox is used cosmetically to reduce facial lines and wrinkles and for medical purposes for ...
+Reviews &amp; ratings
+5.7 / 10
+478 Reviews
+View more
+Clarithromycin
+Clarithromycin is used to treat bacterial infections affecting the skin and respiratory system ...
+Reviews &amp; ratings
+5.4 / 10
+853 Reviews
+View more
+Gentamicin
+Gentamicin is used for bacteremia, bacterial endocarditis prevention, bacterial infection, bone ...
+Reviews &amp; ratings
+3 Reviews
+View more
+Erythromycin
+Erythromycin is a macrolide antibiotic used to treat bacterial infections. Includes erythromycin ...
+Reviews &amp; ratings
+6.1 / 10
+67 Reviews
+View more
+Keflex
+Keflex (cephalexin) is used to treat infections caused by bacteria, including respiratory ...
+Reviews &amp; ratings
+7.3 / 10
+91 Reviews
+View more
+Vancomycin
+Vancomycin is used to treat infections of the intestines that cause colitis. Learn about side ...
+Reviews &amp; ratings
+6.6 / 10
+58 Reviews
+View more
+Ceftriaxone
+Ceftriaxone is used for bacteremia, bacterial endocarditis prevention, bacterial infection, bone ...
+Reviews &amp; ratings
+8.5 / 10
+177 Reviews
+View more
+Cephalexin
+Cephalexin is a cephalosporin antibiotic used to treat bacterial infections like respiratory, skin ...
+Reviews &amp; ratings
+6.4 / 10
+510 Reviews
+View more
+Serious side effects of Cleocin Phosphate
+Along with its needed effects, clindamycin (the active ingredient contained in Cleocin Phosphate) may cause some unwanted effects. Although not all of these side effects may occur, if they do occur they may need medical attention.
+Check with your doctor immediately if any of the following side effects occur while taking clindamycin:
+Rare side effects
+cracks in the skin
+loss of heat from the body
+red, swollen skin scaly skin
+Incidence not known
+Managing side effects (general information)
+For healthcare professionals
+Applies to clindamycin: compounding powder, injectable solution, intravenous solution, oral capsule, oral powder for reconstitution.
+Gastrointestinal adverse events
+Common (1% to 10%): Pseudomembranous colitis, diarrhea, abdominal pain
+Uncommon (0.1% to 1%): Dysgeusia, nausea, vomiting
+Frequency not reported: Esophageal ulcers, esophagitis (oral preparations)[Ref]
+The onset of pseudomembranous colitis symptoms may occur during or after antibacterial treatment and is associated with the presence of Clostridium difficile toxin in the stool. Pseudomembranous colitis may also be associated with toxic megacolon, which can be life-threatening.
+An unpleasant or metallic taste has occasionally been reported after high doses of IV clindamycin.[Ref]
+Dermatologic
+Common (1% to 10%): Maculopapular rash
+Uncommon (0.1% to 1%): Urticaria
+Rare (less than 0.1%): Erythema multiforme, pruritus
+Frequency not reported: Toxic epidermal necrolysis, Stevens-Johnson syndrome, exfoliative dermatitis, bullous dermatitis, generalized mild to moderate morbilliform-like rash, acute generalized exanthematous pustulosis (AGEP), Sweet's Syndrome
+Postmarketing reports: Serious cutaneous adverse reaction[Ref]
+Rash was particularly common in AIDS patients.
+A 47-year-old female patient with multiple comorbidities was diagnosed with Sweet's Syndrome. The patient's symptoms developed 2 days after initiating oral clindamycin therapy for a tooth infection. The patient's symptoms persisted despite tooth extraction and continuance of antibiotic treatment with intravenous, then oral, clindamycin. Following discontinuation of clindamycin, the patient's symptoms resolved over several days. Drug-induced Sweet's syndrome was determined based on the temporal relationship of the patient's symptoms, the beginning and end of clindamycin therapy, and the exclusion of other etiologies.
+Three days after starting oral clindamycin for the persistence of symptoms following a root canal, a 34-year-old male patient reported "pimples" on his scalp which changed to pustules 24 hours later. The lesions progressed and the patient's antibiotic therapy was discontinued. Two days later, the rash improved considerably. The patient met the diagnostic criteria for drug-induced Sweet's syndrome and clindamycin was the most likely cause due to the timeline of antibiotic therapy and the patient's improvement following its discontinuation.[Ref]
+Hypersensitivity
+Frequency not reported: Anaphylactoid reactions, drug reaction with eosinophilia and systemic systems (DRESS)[Ref]
+Cardiovascular
+Common (1% to 10%): Thrombophlebitis (after IV infusion)
+Uncommon (0.1% to 1%): Cardiorespiratory arrest, hypotension[Ref]
+Cardiorespiratory arrest and hypotension have been reported after too rapid IV administration. Thrombophlebitis has been reported after intravenous infusion.[Ref]
+Genitourinary
+Frequency not reported: Vaginitis[Ref]
+Hematologic
+Uncommon (0.1% to 1%): Eosinophilia
+Frequency not reported: Neutropenia, leucopenia, agranulocytosis, thrombocytopenia[Ref]
+Neutropenia (ANC 945 cells/mm3) occurred in a 68-year-old male 6 days after receiving a single 600 mg oral dose of clindamycin. The neutrophil count normalized after 2 weeks.[Ref]
+Hepatic
+Common (1% to 10%): Liver function test abnormalities
+Frequency not reported: Jaundice[Ref]
+Local
+Frequency not reported: Injection site irritation, pain, abscess formation[Ref]
+Pain, induration, and sterile abscess have been reported after intramuscular administration.[Ref]
+Musculoskeletal
+Frequency not reported: Polyarthritis[Ref]
+Renal
+Frequency not reported: Renal dysfunction, as shown by azotemia, oliguria, and/or proteinuria[Ref]
+References
+1. Leigh DA, Simmons K, Williams S (1980) "Gastrointestinal side effects following clindamycin and lincomycin treatment: a follow up study." J Antimicrob Chemother, 6, p. 639-45
+2. Wilson DH (1980) "Clindamycin in the treatment of soft tissue infections: a review of 15,019 patients." Br J Surg, 67, p. 93-6
+3. Mason SJ, O'Meara TF (1981) "Drug-induced esophagitis." J Clin Gastroenterol, 3, p. 115-20
+4. Davies J, Beck E (1981) "Recurrent colitis following antibiotic-associated pseudomembranous colitis." Postgrad Med J, 57, p. 599-601
+5. Milstone EB, McDonald AJ, Scholhamer CF Jr (1981) "Pseudomembranous colitis after topical application of clindamycin." Arch Dermatol, 117, p. 154-5
+6. Cone JB, Wetzel W (1982) "Toxic megacolon secondary to pseudomembranous colitis." Dis Colon Rectum, 25, p. 478-82
+7. Parry MF, Rha CK (1986) "Pseudomembranous colitis caused by topical clindamycin phosphate." Arch Dermatol, 122, p. 583-4
+8. Van Ness MM, Cattau EL Jr (1987) "Fulminant colitis complicating antibiotic-associated pseudomembranous colitis: case report and review of the clinical manifestations and treatment." Am J Gastroenterol, 82, p. 374-7
+9. (2002) "Product Information. Cleocin (clindamycin)." Pharmacia and Upjohn
+10. Meadowcroft AM, Diaz PR, Latham GS (1998) "Clostridium difficile toxin-induced colitis after use of clindmycin phosphate vaginal cream." Ann Pharmacother, 32, p. 309-11
+11. Cerner Multum, Inc. "UK Summary of Product Characteristics."
+12. George WL, Sutter VL, Finegold SM (1977) "Antimicrobial agent-induced diarrhea--a bacterial disease." J Infect Dis, 136, p. 822-8
+13. Geddes AM, Bridgwater FA, Williams DN, Oon J, Grimshaw GJ (1970) "Clinical and bacteriological studies with clindamycin." Br Med J, 2, p. 703-4
+14. Bartlett JG (2006) "Narrative review: the new epidemic of Clostridium difficile-associated enteric disease." Ann Intern Med, 145, p. 758-64
+15. de Groot MC, van Puijenbroek EP (2007) "Clindamycin and taste disorders." Br J Clin Pharmacol, 64, p. 542-5
+16. Cerner Multum, Inc. "Australian Product Information."
+17. Vidal C, Iglesias A, Saez A, Rodriguez M (1991) "Hypersensitivity to clindamycin." DICP, 25, p. 317
+18. Clark BM, Homeyer DC, Glass KR, D'Avignon LC (2007) "Clindamycin-Induced Sweet's Syndrome." Pharmacotherapy, 27, p. 1343-6
+19. Paquet P, Schaaflafontaine N, Pierard GE (1995) "Toxic epidermal necrolysis following clindamycin treatment." Br J Dermatol, 132, p. 665-6
+20. Lammintausta K, Tokola R, Kalimo K (2002) "Cutaneous adverse reactions to clindamycin: results of skin tests and oral exposure." Br J Dermatol, 146, p. 643-8
+21. Kapoor R, Flynn C, Heald PW, Kapoor JR (2006) "Acute generalized exanthematous pustulosis induced by clindamycin." Arch Dermatol, 142, p. 1080-1
+22. Tian D, Mohan RJ, Stallings G (2010) "Drug rash with eosinophilia and systemic symptoms syndrome associated with clindamycin." Am J Med, 123, e7-8
+23. Miller Quidley A, Bookstaver PB, Gainey AB, Gainey MD (2012) "Fatal clindamycin-induced drug rash with eosinophilia and systemic symptoms (DRESS) syndrome." Pharmacotherapy
+24. Bubalo JS, Blasdel CS, Bearden DT (2003) "Neutropenia after single-dose clindamycin for dental prophylaxis." Pharmacotherapy, 23, p. 101-3
+Does Cleocin Phosphate interact with my other drugs?
+Enter medications to view a detailed interaction report using our Drug Interaction Checker.
+Drug name
+Add a drug to check interactions
+Add
+Frequently asked questions
+What are the best antibiotics for a tooth infection?
+What is the best antibiotic to treat strep throat?
+Is clindamycin a strong antibiotic?
+What are the best antibiotics for a boil?
+Can I take clindamycin if I am allergic to penicillin?
+Is clindamycin a penicillin?
+Why can't you lie down after taking clindamycin?
+Can clindamycin be used to treat chlamydia?
+More about Cleocin Phosphate (clindamycin)
+Check interactions
+Compare alternatives
+Pricing &amp; coupons
+Reviews (1)
+Dosage information
+During pregnancy
+Generic availability
+Drug class: lincomycin derivatives
+Breastfeeding
+En español
+Patient resources
+Cleocin Phosphate IV advanced reading
+Professional resources
+Cleocin Phosphate prescribing information
+Clindamycin (AHFS Monograph)
+Other formulations
+Cleocin
+Related treatment guides
+Bacteremia
+Babesiosis
+Aspiration Pneumonia
+Bacterial Endocarditis Prevention
+Further information
+Cleocin Phosphate side effects can vary depending on the individual. Always consult your healthcare provider to ensure the information displayed on this page applies to your personal circumstances.
+Note: Medication side effects may be underreported. If you are experiencing side effects that are not listed, submit a report to the FDA by following this guide.
+Medical Disclaimer
+Antibiotics 101
+List of Common Antibiotics &amp; Types
+Antibiotics and Alcohol
+Probiotics and Antibiotics
+Antibiotics for Strep Throat
+Antibiotics for a Tooth Infection
+Antibiotics for UTI's
+DRUG STATUS
+Availability
+Prescription only
+Rx
+Pregnancy &amp; Lactation
+Risk data available
+CSA Schedule*
+Not a controlled drug
+N/A
+Approval History
+Drug history at FDA
+User Reviews &amp; Ratings
+Review this drug
+Drugs.com Mobile App
+Access drug &amp; treatment information, identify pills, check interactions and set up personal medication records.
+Download the Medication Guide app on iTunes
+Download the Medication Guide app on the Google Play store
+About
+About Drugs.com
+Advertising policy
+Attribution &amp; citations
+Editorial policy
+Support
+Help center
+Sitemap
+Subscribe to Drugs.com newsletters
+Follow Drugs.com on Facebook
+Follow Drugs.com on Twitter
+Follow Drugs.com on Instagram
+Follow Drugs.com on YouTube
+Follow Drugs.com on Pinterest
+Subscribe to our newsletter for the latest medication news, new drug approvals and FDA alerts.
+Drugs.com provides accurate and independent information on more than 24,000 prescription drugs, over-the-counter medicines and natural products. This material is provided for educational purposes only and is not intended for medical advice, diagnosis or treatment. Data sources include Micromedex (updated 1 Jul 2025), Cerner Multum™ (updated 6 Jul 2025), ASHP (updated 11 May 2025) and others.
+Copyright © 2000-2025 Drugs.com. All rights reserved.</t>
         </is>
       </c>
     </row>
@@ -5817,31 +9940,275 @@
       </c>
       <c r="H57" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve">❌ Error processing Combivent Respimat: Message: element click intercepted: Element &lt;a href="/sfx/combivent-respimat-side-effects.html"&gt;...&lt;/a&gt; is not clickable at point (93, 459). Other element would receive the click: &lt;div id="google_ads_iframe_/7146/dosage_0__container__" style="border: 0pt none;"&gt;...&lt;/div&gt;
-  (Session info: chrome=138.0.7204.93); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#elementclickinterceptedexception
-Stacktrace:
-0   chromedriver                        0x00000001053c0ea4 cxxbridge1$str$ptr + 2722840
-1   chromedriver                        0x00000001053b8dac cxxbridge1$str$ptr + 2689824
-2   chromedriver                        0x0000000104f0a3ec cxxbridge1$string$len + 90648
-3   chromedriver                        0x0000000104f570a8 cxxbridge1$string$len + 405204
-4   chromedriver                        0x0000000104f55614 cxxbridge1$string$len + 398400
-5   chromedriver                        0x0000000104f53428 cxxbridge1$string$len + 389716
-6   chromedriver                        0x0000000104f52824 cxxbridge1$string$len + 386640
-7   chromedriver                        0x0000000104f47358 cxxbridge1$string$len + 340356
-8   chromedriver                        0x0000000104f46de4 cxxbridge1$string$len + 338960
-9   chromedriver                        0x0000000104f92934 cxxbridge1$string$len + 649056
-10  chromedriver                        0x0000000104f45834 cxxbridge1$string$len + 333408
-11  chromedriver                        0x0000000105383fc0 cxxbridge1$str$ptr + 2473268
-12  chromedriver                        0x000000010538722c cxxbridge1$str$ptr + 2486176
-13  chromedriver                        0x0000000105365a08 cxxbridge1$str$ptr + 2348924
-14  chromedriver                        0x0000000105387ae8 cxxbridge1$str$ptr + 2488412
-15  chromedriver                        0x0000000105356a98 cxxbridge1$str$ptr + 2287628
-16  chromedriver                        0x00000001053a79d8 cxxbridge1$str$ptr + 2619212
-17  chromedriver                        0x00000001053a7b64 cxxbridge1$str$ptr + 2619608
-18  chromedriver                        0x00000001053b89e8 cxxbridge1$str$ptr + 2688860
-19  libsystem_pthread.dylib             0x00000001821cbc0c _pthread_start + 136
-20  libsystem_pthread.dylib             0x00000001821c6b80 thread_start + 8
-</t>
+          <t>Skip to main content
+Search Drugs.com
+Search
+Site navigation
+Close
+Home
+Combivent Respimat
+Side Effects
+Combivent Respimat Side Effects
+Generic name: albuterol / ipratropium
+Medically reviewed by Drugs.com. Last updated on Feb 12, 2025.
+Serious side effects
+Other side effects
+Professional info
+Note: This document provides detailed information about Combivent Respimat Side Effects associated with albuterol / ipratropium. Some dosage forms listed on this page may not apply specifically to the brand name Combivent Respimat.
+Applies to albuterol / ipratropium: inhalation solution, inhalation spray.
+Precautions
+It is very important that your doctor check your progress closely while you are using this medicine to see if it is working properly and to help reduce any unwanted effects.
+This medicine may cause paradoxical bronchospasm, which means your breathing or wheezing will get worse. Paradoxical bronchospasm may be life-threatening. Stop using this medicine and check with your doctor right away if you have coughing, difficulty breathing, shortness of breath, or wheezing after using this medicine.
+Check with your doctor at once if difficulty with breathing continues after using a dose of this medicine or if your condition gets worse.
+This medicine may cause serious types of allergic reactions, including anaphylaxis. Anaphylaxis can be life-threatening and requires immediate medical attention. Call your doctor right away if you have a rash, itching, hives, hoarseness, trouble breathing, trouble swallowing, or any swelling of your hands, face, or mouth while you are using this medicine.
+Tell your doctor right away if you feel chest pain, notice any changes in your blood pressure (such as feeling lightheaded or changes in vision), or notice your heart beating faster or slower.
+Take all of your COPD medicines as your doctor ordered. If you use any type of corticosteroid medicine to control your breathing, keep using it as ordered by your doctor. This includes corticosteroid medicines that are taken by mouth or inhaled (such as prednisone, Azmacort®, or Flovent®). If any of your COPD medicines do not seem to be working as well as usual, call your doctor right away. Do not change your doses or stop using your medicines without asking your doctor.
+This medicine may cause dizziness, blurred vision, or trouble in seeing clearly. Make sure you know how you react to this medicine before you drive, use machines, or do other jobs that require you to be alert, well-coordinated, or able to see well.
+Do not take other medicines unless they have been discussed with your doctor. This includes prescription or nonprescription (over-the-counter [OTC]) medicines for appetite control, asthma, colds, cough, hay fever, or sinus problems, and herbal or vitamin supplements.
+Serious side effects of Combivent Respimat
+Along with its needed effects, albuterol/ipratropium may cause some unwanted effects. Although not all of these side effects may occur, if they do occur they may need medical attention.
+Check with your doctor immediately if any of the following side effects occur while taking albuterol / ipratropium:
+More common side effects
+body aches or pain
+chills
+cough
+cough producing mucus
+difficulty with breathing
+ear congestion
+fever
+headache
+loss of voice
+runny nose
+sneezing
+sore throat
+stuffy nose
+tightness in the chest
+unusual tiredness or weakness
+Less common side effects
+bladder pain
+bloody or cloudy urine
+blurred vision
+burning while urinating burning, crawling, itching, numbness, prickling, "pins and needles", or tingling feelings
+chest pain
+congestion
+diarrhea
+difficult, burning, or painful urination
+dizziness
+fainting
+fast, slow, irregular, pounding, or racing heartbeat or pulse
+frequent urge to urinate
+general feeling of discomfort or illness
+hoarseness
+increased sputum
+joint pain
+loss of appetite
+lower back or side pain
+muscle aches and pains
+nausea
+nervousness
+noisy breathing
+pain
+pain or tenderness around the eyes and cheekbones
+pounding in the ears
+shakiness in the legs, arms, hands, or feet
+shivering
+sweating
+swelling
+tender, swollen glands in the neck
+trembling or shaking of the hands or feet
+trouble sleeping
+trouble swallowing
+voice changes
+vomiting
+Rare side effects
+skin rash or hives
+swelling of the face, lips, eyelids, mouth, or throat
+Incidence not known
+Other side effects of Combivent Respimat
+Some side effects of albuterol / ipratropium may occur that usually do not need medical attention. These side effects may go away during treatment as your body adjusts to the medicine. Also, your health care professional may be able to tell you about ways to prevent or reduce some of these side effects.
+Check with your health care professional if any of the following side effects continue or are bothersome or if you have any questions about them:
+Less common side effects
+acid or sour stomach
+bad, unusual, or unpleasant (after) taste
+belching
+change in taste
+diarrhea
+difficulty with moving
+dry mouth
+heartburn
+indigestion
+muscle pain or stiffness
+stomach discomfort, upset, or pain
+voice changes
+Incidence not known
+See also:
+Symbicort
+Symbicort (budesonide and formoterol) is used to prevent bronchospasm in people with asthma or ...
+Reviews &amp; ratings
+6.6 / 10
+226 Reviews
+View more
+Ventolin
+Ventolin is used for asthma, acute, asthma, maintenance, bronchiectasis, bronchospasm prophylaxis ...
+Reviews &amp; ratings
+4.1 / 10
+46 Reviews
+View more
+FEATURED
+Breztri Aerosphere
+Breztri (budesonide/glycopyrrolate/formoterol fumarate) is a combination inhaler used for the ...
+Reviews &amp; ratings
+7.0 / 10
+128 Reviews
+View more
+Ventolin HFA
+Ventolin HFA (albuterol) is used to treat or prevent breathing problems in patients who have asthma ...
+Reviews &amp; ratings
+7.5 / 10
+18 Reviews
+View more
+Breo Ellipta
+Breo Ellipta (fluticasone and vilanterol) is used to prevent airflow obstruction or bronchospasm in ...
+Reviews &amp; ratings
+5.8 / 10
+229 Reviews
+View more
+Spiriva
+Spiriva (tiotropium) is used to prevent bronchospasm in people with bronchitis, emphysema, or COPD ...
+Reviews &amp; ratings
+5.9 / 10
+122 Reviews
+View more
+Anoro Ellipta
+Anoro (umeclidinium and vilanterol inhalation powder) is used to treat chronic obstructive ...
+Reviews &amp; ratings
+7.1 / 10
+70 Reviews
+View more
+Xopenex
+Xopenex is a short-acting bronchodilator used to treat or prevent bronchospasm in asthma and other ...
+Reviews &amp; ratings
+9.0 / 10
+15 Reviews
+View more
+Stiolto Respimat
+Stiolto Respimat (tiotropium bromide and olodaterol) is used to treat COPD. Includes Stiolto ...
+Reviews &amp; ratings
+7.3 / 10
+50 Reviews
+View more
+Atrovent
+Atrovent is used for asthma, COPD, Maintenance
+Reviews &amp; ratings
+8.6 / 10
+9 Reviews
+View more
+Managing side effects (general information)
+For healthcare professionals
+Applies to albuterol / ipratropium: inhalation aerosol, inhalation solution.
+Respiratory adverse events
+Common (1% to 10%): Cough, dyspnea, bronchitis, nasopharyngitis, upper respiratory infection, pharyngolaryngeal pain, wheezing, respiratory disorder, sinusitis, bronchospasm, dysphonia, increased sputum
+Rare (less than 0.1%): Laryngospasm
+Postmarketing reports: Throat irritation, paradoxical bronchospasm, nasal congestion, pharyngeal edema[Ref]
+Nervous system
+Common (1% to 10%): Headache, dizziness, tremor, nervousness, insomnia
+Postmarketing reports: Central nervous system stimulation, mental disorder[Ref]
+Other
+Common (1% to 10%): Asthenia, influenza -like illness, chest discomfort[Ref]
+Cardiovascular
+Common (1% to 10%): Hypertension, palpitations, tachycardia, arrhythmia, angina, systolic blood pressured increased
+Rare (less than 0.1%): Diastolic blood pressure decreased
+Postmarketing reports: Myocardial ischemia, supraventricular tachycardia and/or atrial fibrillation[Ref]
+Hypersensitivity
+Postmarketing reports: Rash, pruritus, and urticaria (including giant urticaria), angioedema including that of tongue, lips and face, laryngospasm, and anaphylactic reaction[Ref]
+Ocular
+Common (1% to 10%): Eye pain
+Postmarketing reports: Glaucoma, blurred vision, mydriasis, conjunctival hyperemia, halo vision, accommodation disorder, ocular irritation, corneal edema, intraocular pressure increased[Ref]
+There are numerous case reports in the literature of precipitation of glaucoma with the use of ipratropium and albuterol via nebulized solution. This is thought to occur through direct contact with the eyes, and is seen with the combination since both beta agonists and anticholinergics can increase intraocular pressure. There is one report of glaucoma associated with the use of nebulized albuterol and ipratropium aerosol in an emergency department. Caution is warranted when the combination is used in patients predisposed to glaucoma. Extra care should be taken to avoid contact with the eyes.[Ref]
+Gastrointestinal
+Common (1% to 10%): Diarrhea, nausea, dry mouth, constipation, vomiting, dyspepsia, taste perversion, dry throat
+Postmarketing reports: Gastrointestinal motility disorder (e.g., diarrhea), drying of secretions, stomatitis, mouth edema[Ref]
+Musculoskeletal
+Common (1% to 10%): Muscle spasms, myalgia, arthralgia
+Postmarketing reports: Muscular weakness[Ref]
+Metabolic
+Common (1% to 10%): Hypokalemia
+Frequency not reported: Lactic acidosis[Ref]
+Dermatologic
+Common (1% to 10%): Pruritus, rash
+Postmarketing reports: Angioedema, hyperhidrosis, skin reaction[Ref]
+Genitourinary
+Common (1% to 10%): Urinary tract infection, dysuria
+Postmarketing reports: Urinary retention[Ref]
+References
+1. (2001) "Product Information. Combivent (albuterol-ipratropium)." Boehringer-Ingelheim
+2. Cerner Multum, Inc. "UK Summary of Product Characteristics."
+Does Combivent Respimat interact with my other drugs?
+Enter medications to view a detailed interaction report using our Drug Interaction Checker.
+Drug name
+Add a drug to check interactions
+Add
+More about Combivent Respimat (albuterol / ipratropium)
+Check interactions
+Compare alternatives
+Pricing &amp; coupons
+Reviews (17)
+Dosage information
+During pregnancy
+Drug class: bronchodilator combinations
+En español
+Patient resources
+Combivent Respimat inhalation drug information
+Combivent Respimat (Advanced Reading)
+Other brands
+DuoNeb
+Professional resources
+Combivent Respimat prescribing information
+Other brands
+DuoNeb
+Other formulations
+Combivent
+Related treatment guides
+COPD, Maintenance
+Further information
+Combivent Respimat side effects can vary depending on the individual. Always consult your healthcare provider to ensure the information displayed on this page applies to your personal circumstances.
+Note: Medication side effects may be underreported. If you are experiencing side effects that are not listed, submit a report to the FDA by following this guide.
+Medical Disclaimer
+DRUG STATUS
+Availability
+Prescription only
+Rx
+Pregnancy &amp; Lactation
+Risk data available
+CSA Schedule*
+Not a controlled drug
+N/A
+Approval History
+Drug history at FDA
+User Reviews &amp; Ratings
+3.9 / 10
+17 Reviews
+Drugs.com Mobile App
+Access drug &amp; treatment information, identify pills, check interactions and set up personal medication records.
+Download the Medication Guide app on iTunes
+Download the Medication Guide app on the Google Play store
+About
+About Drugs.com
+Advertising policy
+Attribution &amp; citations
+Editorial policy
+Support
+Help center
+Sitemap
+Subscribe to Drugs.com newsletters
+Follow Drugs.com on Facebook
+Follow Drugs.com on Twitter
+Follow Drugs.com on Instagram
+Follow Drugs.com on YouTube
+Follow Drugs.com on Pinterest
+Subscribe to our newsletter for the latest medication news, new drug approvals and FDA alerts.
+Drugs.com provides accurate and independent information on more than 24,000 prescription drugs, over-the-counter medicines and natural products. This material is provided for educational purposes only and is not intended for medical advice, diagnosis or treatment. Data sources include Micromedex (updated 1 Jul 2025), Cerner Multum™ (updated 6 Jul 2025), ASHP (updated 11 May 2025) and others.
+Copyright © 2000-2025 Drugs.com. All rights reserved.</t>
         </is>
       </c>
     </row>
@@ -5908,23 +10275,7 @@
       </c>
       <c r="H59" s="14" t="inlineStr">
         <is>
-          <t>--- Daraprim side effects ---
-Get emergency medical help if you have signs of an allergic reaction: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
-Daraprim may cause serious side effects. Stop using Daraprim and call your doctor at once if you have:
-sore throat, swelling in your tongue;
-pale skin, easy bruising, purple spots under your skin;
-the first sign of any skin rash, no matter how mild;
-blood in your urine;
-fever, cold or flu symptoms;
-new or worsening cough, fever, trouble breathing;
-irregular heartbeats;
-signs of folate deficiency--unusual tiredness, mood changes, feeling sick, mouth sores, stomach discomfort, loss of appetite;
-severe skin reaction--fever, sore throat, swelling in your face or tongue, burning in your eyes, skin pain, followed by a red or purple skin rash that spreads (especially in the face or upper body) and causes blistering and peeling.
-Common side effects of Daraprim may include:
-vomiting; or
-loss of appetite.
-This is not a complete list of side effects and others may occur. Call your doctor for medical advice about side effects. You may report side effects to FDA at 1-800-FDA-1088.
-Daraprim side effects (more detail)</t>
+          <t>❌ Could not find main result for Daraprim</t>
         </is>
       </c>
     </row>
@@ -5950,29 +10301,257 @@
       </c>
       <c r="H60" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">❌ Error processing De-Sone LA: Message: invalid session id: session deleted as the browser has closed the connection
-from disconnected: not connected to DevTools
-  (Session info: chrome=138.0.7204.93); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#invalidsessionidexception
-Stacktrace:
-0   chromedriver                        0x00000001053c0ea4 cxxbridge1$str$ptr + 2722840
-1   chromedriver                        0x00000001053b8dac cxxbridge1$str$ptr + 2689824
-2   chromedriver                        0x0000000104f0a3ec cxxbridge1$string$len + 90648
-3   chromedriver                        0x0000000104ef3dcc chromedriver + 196044
-4   chromedriver                        0x0000000104f16ef4 cxxbridge1$string$len + 142624
-5   chromedriver                        0x0000000104f797d8 cxxbridge1$string$len + 546308
-6   chromedriver                        0x0000000104f92454 cxxbridge1$string$len + 647808
-7   chromedriver                        0x0000000104f45834 cxxbridge1$string$len + 333408
-8   chromedriver                        0x0000000105383fc0 cxxbridge1$str$ptr + 2473268
-9   chromedriver                        0x000000010538722c cxxbridge1$str$ptr + 2486176
-10  chromedriver                        0x0000000105365a08 cxxbridge1$str$ptr + 2348924
-11  chromedriver                        0x0000000105387ae8 cxxbridge1$str$ptr + 2488412
-12  chromedriver                        0x0000000105356a98 cxxbridge1$str$ptr + 2287628
-13  chromedriver                        0x00000001053a79d8 cxxbridge1$str$ptr + 2619212
-14  chromedriver                        0x00000001053a7b64 cxxbridge1$str$ptr + 2619608
-15  chromedriver                        0x00000001053b89e8 cxxbridge1$str$ptr + 2688860
-16  libsystem_pthread.dylib             0x00000001821cbc0c _pthread_start + 136
-17  libsystem_pthread.dylib             0x00000001821c6b80 thread_start + 8
-</t>
+          <t>Skip to main content
+Search Drugs.com
+Search
+Site navigation
+Close
+Home
+De-Sone LA
+Side Effects
+De-Sone LA Side Effects
+Generic name: dexamethasone
+Medically reviewed by Drugs.com. Last updated on Oct 9, 2023.
+Serious side effects
+Other side effects
+Professional info
+FAQ
+Note: This document provides detailed information about De-Sone LA Side Effects associated with dexamethasone. Some dosage forms listed on this page may not apply specifically to the brand name De-Sone LA.
+Applies to dexamethasone: oral elixir, oral solution, oral tablet.
+Precautions
+If you will be taking this medicine for a long time, it is very important that your doctor check you at regular visits for any unwanted effects that may be caused by this medicine. Blood or urine tests may be needed to check for unwanted effects.
+Using this medicine while you are pregnant can harm your unborn baby. Use an effective form of birth control to keep from getting pregnant during treatment and for 1 month after your last dose. If you think you have become pregnant while using this medicine, tell your doctor right away.
+If you are using this medicine for a long time, tell your doctor about any extra stress or anxiety in your life, including other health concerns and emotional stress. Your dose of this medicine might need to be changed for a short time while you have extra stress.
+Using too much of this medicine or using it for a long time may increase your risk of having adrenal gland problems. Talk to your doctor right away if you have more than one of these symptoms while you are using this medicine: blurred vision, dizziness or fainting, a fast, irregular, or pounding heartbeat, increased thirst or urination, irritability, or unusual tiredness or weakness.
+Using this medicine may increase your risk of cancer, including Kaposi's sarcoma. Talk to your doctor if you have concerns about this risk.
+While you are being treated with dexamethasone (the active ingredient contained in De-Sone LA), do not have any immunizations (vaccines) without your doctor's approval. Dexamethasone may lower your body's resistance and the vaccine may not work as well or you might get the infection the vaccine is meant to prevent. In addition, you should not be around other persons living in your household who receive live virus vaccines because there is a chance they could pass the virus on to you. Some examples of live vaccines include measles, mumps, influenza (nasal flu vaccine), poliovirus (oral form), rotavirus, and rubella. Do not get close to them and do not stay in the same room with them for very long. If you have questions about this, talk to your doctor.
+Check with your doctor right away if blurred vision, difficulty in reading, or any other change in vision occurs during or after treatment. Your doctor may want you to have your eyes checked by an ophthalmologist (eye doctor).
+This medicine might cause thinning of the bones (osteoporosis) or slow growth in children if used for a long time. Tell your doctor if you have any bone pain or if you have an increased risk for osteoporosis. If your child is using this medicine, tell the doctor if you think your child is not growing properly.
+This medicine may cause myopathy. Tell your doctor right away if you have new or worsening unexplained muscle pain, tenderness, or weakness.
+This medicine may cause changes in mood or behavior for some patients. Tell your doctor right away if you have depression, mood swings, a false or unusual sense of well-being, trouble sleeping, or personality changes while taking this medicine.
+Make sure any doctor or dentist who treats you knows that you are using this medicine. This medicine may affect the results of certain skin tests.
+Talk with your doctor before using this medicine if you plan to have children. Some men who use Hemady™ have become infertile (unable to have children).
+Do not take other medicines unless they have been discussed with your doctor. This includes prescription or nonprescription (over-the-counter [OTC]) medicines and herbal or vitamin supplements.
+Serious side effects of De-Sone LA
+Along with its needed effects, dexamethasone may cause some unwanted effects. Although not all of these side effects may occur, if they do occur they may need medical attention.
+Check with your doctor immediately if any of the following side effects occur while taking dexamethasone:
+More common side effects
+aggression
+agitation
+anxiety
+blurred vision
+decrease in the amount of urine
+dizziness
+fast, slow, pounding, or irregular heartbeat or pulse
+headache
+irritability
+mental depression
+mood changes
+nervousness
+noisy, rattling breathing
+numbness or tingling in the arms or legs
+pounding in the ears
+swelling of the fingers, hands, feet, or lower legs
+trouble thinking, speaking, or walking
+troubled breathing at rest
+weight gain
+Incidence not known
+Other side effects of De-Sone LA
+Some side effects of dexamethasone may occur that usually do not need medical attention. These side effects may go away during treatment as your body adjusts to the medicine. Also, your health care professional may be able to tell you about ways to prevent or reduce some of these side effects.
+Check with your health care professional if any of the following side effects continue or are bothersome or if you have any questions about them:
+More common side effects
+increased appetite
+Incidence not known
+See also:
+Benlysta
+Benlysta is used for active systemic lupus erythematosus (SLE) or lupus nephritis in adults and ...
+Reviews &amp; ratings
+7.8 / 10
+65 Reviews
+View more
+Carvykti
+Carvykti (ciltacabtagene autoleucel) is a treatment for relapsed or refractory multiple myeloma ...
+Reviews &amp; ratings
+Add a review
+View more
+FEATURED
+Entyvio
+Entyvio (vedolizumab) is used to treat ulcerative colitis (UC) and Crohn's disease, reducing ...
+Reviews &amp; ratings
+6.3 / 10
+166 Reviews
+View more
+Abecma
+Abecma is a CAR T cell therapy used to treat relapsed refractory multiple myeloma (RRMM); it is a ...
+Reviews &amp; ratings
+Add a review
+View more
+Nplate
+Nplate is used to prevent bleeding episodes in people with chronic immune thrombocytopenic purpura ...
+Reviews &amp; ratings
+7.5 / 10
+11 Reviews
+View more
+Otezla
+Otezla (apremilast) is used to treat plaque psoriasis, psoriatic arthritis, and oral ulcers ...
+Reviews &amp; ratings
+5.2 / 10
+443 Reviews
+View more
+Saphnelo
+Saphnelo is used for moderate to severe SLE (lupus) for adults who are also receiving other lupus ...
+Reviews &amp; ratings
+7.9 / 10
+11 Reviews
+View more
+Skyrizi
+Skyrizi (risankizumab) is used to treat plaque psoriasis, psoriatic arthritis, ulcerative colitis ...
+Reviews &amp; ratings
+8.0 / 10
+62 Reviews
+View more
+Tecvayli
+Tecvayli (teclistamab) is a treatment for relapsed or refractory multiple myeloma. Includes ...
+Reviews &amp; ratings
+5 Reviews
+View more
+Dupixent
+Dupixent is used to treat eczema, eosinophilic or oral-corticosteroid-dependent asthma, chronic ...
+Reviews &amp; ratings
+7.3 / 10
+520 Reviews
+View more
+Managing side effects (general information)
+For healthcare professionals
+Applies to dexamethasone: compounding powder, inhalation aerosol with adapter, injectable solution, injectable suspension, intravenous solution, oral concentrate, oral liquid, oral tablet, transdermal solution.
+General adverse events
+The most commonly occurring side effects have included alteration in glucose tolerance, behavioral and mood changes, increased appetite, and weight gain; the incidence generally correlates with dosage, timing of administration, and duration of treatment.[Ref]
+Psychiatric
+Frequency not reported: Depression, affective disorders, anxiety, emotional instability, euphoria, insomnia, mood swings, personality changes, psychic disorders, confusional states, anxiety, abnormal behavior, irritability, aggravated schizophrenia[Ref]
+A wide range of psychiatric reactions including affective disorders (e.g., irritable, euphoric, depressed, labile mood, and suicidal ideation) psychotic reactions (e.g., mania, delusions, hallucinations, aggravation of schizophrenia), behavioral disturbances, irritability, anxiety, sleep disturbances and cognitive dysfunction (e.g., confusion, amnesia) have been reported. These reactions have been reported in adults and children. In adults, the occurrence of severe reactions has been estimated to be about 5% to 6%.[Ref]
+Nervous system
+Frequency not reported: Convulsions, headache, increased intracranial pressure with papilledema (pseudotumor cerebri) usually following discontinuation of treatment, benign intracranial hypertension, neuropathy[Ref]
+Gastrointestinal
+Frequency not reported: Abdominal distention, nausea, pancreatitis, peptic ulcer, perforation of the small and large intestine, ulcerative esophagitis, gastric hemorrhage, vomiting, abdominal pain, diarrhea, dyspepsia, nausea, flatulence[Ref]
+Hypersensitivity
+Frequency not reported: Anaphylactoid reaction, anaphylaxis, angioedema[Ref]
+Endocrine
+Frequency not reported: Cushingoid state, hirsutism, secondary adrenocortical and pituitary unresponsiveness (particularly in times of stress, as in trauma, surgery, or illness), moon face[Ref]
+Metabolic
+Frequency not reported: Decreased carbohydrate and glucose tolerance, hyperglycemia, glycosuria, manifestations of latent diabetes, hypokalemic alkalosis, potassium loss, sodium retention, increased appetite, negative nitrogen balance due to protein catabolism, weight gain, metabolic acidosis, hypercholesterolemia, hypertriglyceridemia, dyslipidemia[Ref]
+Ocular
+Frequency not reported: Exophthalmos, glaucoma, increased intraocular pressure, posterior subcapsular cataracts, blindness, chorioretinopathy, worsening of symptoms associated with corneal ulcers, retinopathy of prematurity, blurred vision[Ref]
+Rare instances of blindness have been associated with corticosteroid intralesional therapy around the face and head.[Ref]
+Cardiovascular
+Frequency not reported: Bradycardia, cardiac arrest, cardiac arrhythmias, cardiac enlargement, circulatory collapse, congestive heart failure, fat embolism, hypertension, hypertrophic cardiomyopathy in premature infants, myocardial rupture following recent myocardial infarction, syncope, tachycardia, thromboembolism, thrombophlebitis, vasculitis, edema[Ref]
+Musculoskeletal
+Frequency not reported: Suppression of growth in pediatric patients, aseptic necrosis of femoral and humeral heads, calcinosis, Charcot-like atrophy, loss of muscle mass, muscle weakness, steroid myopathy. osteoporosis, pathologic fracture of long bones, postinjection flare, tendon rupture, particularly of the Achilles tendon, vertebral compression fractures, myalgia, muscle atrophy, osteonecrosis, neuropathic arthralgia, growth retardation[Ref]
+Corticosteroids can cause a dose-dependent inhibition of growth in infancy, childhood, and adolescence due to it causing early closure of the epiphyses, which may be irreversible.[Ref]
+Dermatologic
+Frequency not reported: Acne, allergic dermatitis, dry scaly skin, ecchymosis, hirsutism, petechiae, erythema, hyperpigmentation, hypopigmentation, impaired wound healing, increased sweating, rash, sterile abscess, striae, suppressed reactions to skin tests, thin fragile skin, thinning scalp hair, urticaria, hypertrichosis, angioedema, skin atrophy, hyperhidrosis, pruritus, burning or tingling especially in the perineal area (after IV injection), telangiectasia, pigment disorders[Ref]
+Hematologic
+Frequency not reported: Leucocytosis, lymphopenia, eosinopenia, polycythemia, abnormal coagulation, polymorphonuclear leukocytosis[Ref]
+Genitourinary
+Frequency not reported: Menstrual irregularities, amenorrhea, increased or decreased motility and number of spermatozoa, increased urine calcium[Ref]
+Hepatic
+Frequency not reported: Hepatomegaly, elevation in liver enzymes[Ref]
+Immunologic
+Frequency not reported: Opportunistic infection, exacerbation of latent infections, decreased resistance to infection, immunosuppression, candidiasis, chicken pox (varicella)
+Other
+Frequency not reported: Vertigo, abnormal fat deposits, malaise, sterile abscess, impaired healing, fatigue, malaise
+Respiratory
+Frequency not reported: Hiccups, pulmonary edema
+References
+1. Cerner Multum, Inc. "UK Summary of Product Characteristics."
+2. (2016) "Product Information. Dexamethasone Sodium Phosphate (dexamethasone)." West Ward Pharmaceutical Corporation
+3. (2017) "Product Information. Dexamethasone (dexamethasone)." Par Pharmaceutical Inc (formerly Qualitest Pharmaceuticals Inc)
+4. Sechi GP, Piras MR, Demurtas A, Tanca S, Rosati G (1987) "Dexamethasone-induced schizoaffective-like state in multiple sclerosis: prophylaxis and treatment with carbamazepine." Clin Neuropharmacol, 10, p. 453-7
+5. Carroll BJ, Schroeder K, Mukhopadhyay S, Greden JF, Feinberg M, Ritchie J, Tarika J (1980) "Plasma dexamethasone concentrations and cortisol suppression response in patients with endogenous depression." J Clin Endocrinol Metab, 51, p. 433-7
+6. (2001) "Product Information. Decadron (dexamethasone)." Merck &amp; Co., Inc
+7. Jaime Vazquez J (1993) "Persistent hiccup as a side-effect of dexamethasone treatment." Hum Exp Toxicol, 12, p. 52
+8. Kanwar AJ, Kaur S, Dhar S, Ghosh S (1993) "Hiccup--a side-effect of pulse therapy." Dermatology, 187, p. 279
+9. Fadul CE, Lemann W, Thaler HT, Posner JB (1988) "Perforation of the gastrointestinal tract in patients receiving steroids for neurologic disease." Neurology, 38, p. 348-52
+10. McDonnell M, Evans N (1995) "Upper and lower gastrointestinal complications with dexamethasone despite H2 antagonists." J Paediatr Child Health, 31, p. 152-4
+11. Whitmore SE (1994) "Dexamethasone injection-induced generalized dermatitis." Br J Dermatol, 131, p. 296-7
+12. New MI, Peterson RE, Saenger P, Levine LS (1976) "Evidence for an unidentified ACTH-induced steroid hormone causing hypertension." J Clin Endocrinol Metab, 43, p. 1283-93
+13. Spenney JG, Eure CA, Kreisberg RA (1969) "Hyperglycemic, hyperosmolar, nonketoacidotic diabetes. A complication of steroid and immunosupressive therapy." Diabetes, 18, p. 107-10
+14. Ludvik B, Clodi M, Kautzky-Willer A, Capek M, Hartter E, Pacini G, Prager R (1993) "Effect of dexamethasone on insulin sensitivity, islet amyloid polypeptide and insulin secretion in humans." Diabetologia, 36, p. 84-7
+15. Tsoi WW (1994) "Cushing's syndrome caused by analgesic/dexamethasone preparation." Ann Pharmacother, 28, p. 1411
+16. Kobayashi Y, Akaishi K, Nishio T, Kimura Y (1974) "Posterior subcapsular cataract in nephrotic children receiving steroid therapy." Am J Dis Child, 128, p. 671-3
+17. Bluming AZ, Zeegen P (1986) "Cataracts induced by intermittent Decadron used as an antiemetic." J Clin Oncol, 4, p. 221-3
+18. Godel V, Regenbogen L, Stein R (1978) "On the mechanism of corticosteroid-induced ocular hypertension." Ann Ophthalmol, 10, p. 191-6
+19. Francois J (1977) "Corticosteroid glaucoma." Ann Ophthalmol, 9, p. 1075-80
+20. Schmidt GB, Meier MA, Sadove MS (1972) "Sudden appearance of cardiac arrhythmias after dexamethasone." JAMA, 221, p. 1402-4
+21. Rao G, Zikria EA, Miller WH, Samadani SR, Ford WB (1972) "Cardiac arrhythmias after dexamethasone." JAMA, 222, p. 1185
+Does De-Sone LA interact with my other drugs?
+Enter medications to view a detailed interaction report using our Drug Interaction Checker.
+Drug name
+Add a drug to check interactions
+Add
+Frequently asked questions
+How long does dexamethasone stay in your system?
+What is a dexamethasone suppression test used for?
+Can I use expired neomycin and polymyxin b sulfates, dexamethasone ophthalmic?
+More about De-Sone LA (dexamethasone)
+Check interactions
+Compare alternatives
+Latest FDA alerts (9)
+Dosage information
+During pregnancy
+Drug class: glucocorticoids
+Breastfeeding
+Patient resources
+De-Sone LA injection drug information
+Other brands
+Decadron, Dexamethasone Intensol, TaperDex, Baycadron, ... +4 more
+Professional resources
+Dexamethasone monograph
+Dexamethasone Tablets (FDA)
+Other brands
+Decadron, TaperDex, Dexabliss, Dexpak Taperpak, ... +7 more
+Related treatment guides
+Adrenal Insufficiency
+Allergic Rhinitis
+Addison's Disease
+Adrenocortical Insufficiency
+Further information
+De-Sone LA side effects can vary depending on the individual. Always consult your healthcare provider to ensure the information displayed on this page applies to your personal circumstances.
+Note: Medication side effects may be underreported. If you are experiencing side effects that are not listed, submit a report to the FDA by following this guide.
+Medical Disclaimer
+DRUG STATUS
+Availability
+Prescription only
+Rx
+Pregnancy &amp; Lactation
+Risk data available
+CSA Schedule*
+Not a controlled drug
+N/A
+WADA Class
+Anti-Doping Classification
+User Reviews &amp; Ratings
+Review this drug
+Drugs.com Mobile App
+Access drug &amp; treatment information, identify pills, check interactions and set up personal medication records.
+Download the Medication Guide app on iTunes
+Download the Medication Guide app on the Google Play store
+About
+About Drugs.com
+Advertising policy
+Attribution &amp; citations
+Editorial policy
+Support
+Help center
+Sitemap
+Subscribe to Drugs.com newsletters
+Follow Drugs.com on Facebook
+Follow Drugs.com on Twitter
+Follow Drugs.com on Instagram
+Follow Drugs.com on YouTube
+Follow Drugs.com on Pinterest
+Subscribe to our newsletter for the latest medication news, new drug approvals and FDA alerts.
+Drugs.com provides accurate and independent information on more than 24,000 prescription drugs, over-the-counter medicines and natural products. This material is provided for educational purposes only and is not intended for medical advice, diagnosis or treatment. Data sources include Micromedex (updated 1 Jul 2025), Cerner Multum™ (updated 6 Jul 2025), ASHP (updated 11 May 2025) and others.
+Copyright © 2000-2025 Drugs.com. All rights reserved.</t>
         </is>
       </c>
     </row>
@@ -5998,23 +10577,27 @@
       </c>
       <c r="H61" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve">❌ Error processing Desoxyn: Message: invalid session id; For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#invalidsessionidexception
-Stacktrace:
-0   chromedriver                        0x00000001053c0ea4 cxxbridge1$str$ptr + 2722840
-1   chromedriver                        0x00000001053b8dac cxxbridge1$str$ptr + 2689824
-2   chromedriver                        0x0000000104f0a260 cxxbridge1$string$len + 90252
-3   chromedriver                        0x0000000104f44cf8 cxxbridge1$string$len + 330532
-4   chromedriver                        0x0000000104f6d2e4 cxxbridge1$string$len + 495888
-5   chromedriver                        0x0000000104f6c5ec cxxbridge1$string$len + 492568
-6   chromedriver                        0x0000000104ed93d8 chromedriver + 87000
-7   chromedriver                        0x0000000105383fc0 cxxbridge1$str$ptr + 2473268
-8   chromedriver                        0x000000010538722c cxxbridge1$str$ptr + 2486176
-9   chromedriver                        0x0000000105365a08 cxxbridge1$str$ptr + 2348924
-10  chromedriver                        0x0000000105387ae8 cxxbridge1$str$ptr + 2488412
-11  chromedriver                        0x0000000105356a98 cxxbridge1$str$ptr + 2287628
-12  chromedriver                        0x0000000104ed7664 chromedriver + 79460
-13  dyld                                0x0000000181e2ab98 start + 6076
-</t>
+          <t>--- Desoxyn side effects ---
+Get emergency medical help if you have signs of an allergic reaction: hives, difficult breathing, swelling of your face, lips, tongue, or throat.
+Tell your doctor right away if you have new or sudden changes in mood or behavior, including new or worse depression or anxiety, panic attacks, trouble sleeping, or if you feel impulsive, irritable, agitated, hostile, aggressive, restless, more active or talkative, or have thoughts about suicide or hurting yourself.
+Desoxyn may cause serious side effects. Call your doctor at once if you have:
+signs of heart problems--chest pain, trouble breathing, feeling like you might pass out;
+signs of blood circulation problems--numbness, pain, cold feeling, unexplained wounds, or skin color changes (pale, red, or blue appearance) in your fingers or toes;
+a seizure (convulsions);
+muscle twitches (tics); or
+changes in your vision.
+Seek medical attention right away if you have symptoms of serotonin syndrome, such as: agitation, hallucinations, fever, sweating, shivering, fast heart rate, muscle stiffness, twitching, loss of coordination, nausea, vomiting, or diarrhea.
+Desoxyn can affect growth in children. Tell your doctor if your child is not growing at a normal rate while using Desoxyn.
+Common side effects of Desoxyn may include:
+headache or dizziness;
+fast heartbeats;
+sleep problems (insomnia);
+dry mouth;
+tremors;
+diarrhea, upset stomach; or
+loss of appetite, weight loss.
+This is not a complete list of side effects and others may occur. Call your doctor for medical advice about side effects. You may report side effects to FDA at 1-800-FDA-1088.
+Desoxyn side effects (more detail)</t>
         </is>
       </c>
     </row>
@@ -6040,23 +10623,20 @@
       </c>
       <c r="H62" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">❌ Error processing Devil's claw: Message: invalid session id; For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#invalidsessionidexception
-Stacktrace:
-0   chromedriver                        0x00000001053c0ea4 cxxbridge1$str$ptr + 2722840
-1   chromedriver                        0x00000001053b8dac cxxbridge1$str$ptr + 2689824
-2   chromedriver                        0x0000000104f0a260 cxxbridge1$string$len + 90252
-3   chromedriver                        0x0000000104f44cf8 cxxbridge1$string$len + 330532
-4   chromedriver                        0x0000000104f6d2e4 cxxbridge1$string$len + 495888
-5   chromedriver                        0x0000000104f6c5ec cxxbridge1$string$len + 492568
-6   chromedriver                        0x0000000104ed93d8 chromedriver + 87000
-7   chromedriver                        0x0000000105383fc0 cxxbridge1$str$ptr + 2473268
-8   chromedriver                        0x000000010538722c cxxbridge1$str$ptr + 2486176
-9   chromedriver                        0x0000000105365a08 cxxbridge1$str$ptr + 2348924
-10  chromedriver                        0x0000000105387ae8 cxxbridge1$str$ptr + 2488412
-11  chromedriver                        0x0000000105356a98 cxxbridge1$str$ptr + 2287628
-12  chromedriver                        0x0000000104ed7664 chromedriver + 79460
-13  dyld                                0x0000000181e2ab98 start + 6076
-</t>
+          <t>--- Devil's claw side effects ---
+Get emergency medical help if you have any of these signs of an allergic reaction: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+Although not all side effects are known, devil's claw is thought to be possibly safe when taken in recommended doses for up to 1 year.
+Stop using devil's claw and call your healthcare provider at once if you have:
+a light-headed feeling, like you might pass out;
+severe itching, skin rash; or
+high blood pressure--severe headache, blurred vision, pounding in your neck or ears, anxiety, shortness of breath.
+Common side effects of devil's claw may include:
+diarrhea, stomach pain;
+nausea, vomiting, loss of appetite;
+changes in your menstrual periods;
+headache, ringing in your ears; or
+altered sense of taste.
+This is not a complete list of side effects and others may occur. Call your doctor for medical advice about side effects. You may report side effects to FDA at 1-800-FDA-1088.</t>
         </is>
       </c>
     </row>
@@ -6082,23 +10662,32 @@
       </c>
       <c r="H63" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve">❌ Error processing Dexamethasone Intensol: Message: invalid session id; For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#invalidsessionidexception
-Stacktrace:
-0   chromedriver                        0x00000001053c0ea4 cxxbridge1$str$ptr + 2722840
-1   chromedriver                        0x00000001053b8dac cxxbridge1$str$ptr + 2689824
-2   chromedriver                        0x0000000104f0a260 cxxbridge1$string$len + 90252
-3   chromedriver                        0x0000000104f44cf8 cxxbridge1$string$len + 330532
-4   chromedriver                        0x0000000104f6d2e4 cxxbridge1$string$len + 495888
-5   chromedriver                        0x0000000104f6c5ec cxxbridge1$string$len + 492568
-6   chromedriver                        0x0000000104ed93d8 chromedriver + 87000
-7   chromedriver                        0x0000000105383fc0 cxxbridge1$str$ptr + 2473268
-8   chromedriver                        0x000000010538722c cxxbridge1$str$ptr + 2486176
-9   chromedriver                        0x0000000105365a08 cxxbridge1$str$ptr + 2348924
-10  chromedriver                        0x0000000105387ae8 cxxbridge1$str$ptr + 2488412
-11  chromedriver                        0x0000000105356a98 cxxbridge1$str$ptr + 2287628
-12  chromedriver                        0x0000000104ed7664 chromedriver + 79460
-13  dyld                                0x0000000181e2ab98 start + 6076
-</t>
+          <t>--- Dexamethasone Intensol side effects ---
+Get emergency medical help if you have signs of an allergic reaction: hives; difficulty breathing; swelling of your face, lips, tongue, or throat.
+Dexamethasone Intensol may cause serious side effects. Call your doctor at once if you have:
+muscle tightness, weakness, or limp feeling;
+blurred vision, tunnel vision, eye pain, or seeing halos around lights;
+shortness of breath (even with mild exertion), swelling, rapid weight gain;
+severe depression, unusual thoughts or behavior;
+a seizure (convulsions);
+bloody or tarry stools, coughing up blood;
+fast or slow heart rate, weak pulse;
+pancreatitis--severe pain in your upper stomach spreading to your back, nausea and vomiting;
+low potassium level--leg cramps, constipation, irregular heartbeats, fluttering in your chest, increased thirst or urination, numbness or tingling; or
+increased blood pressure--severe headache, blurred vision, pounding in your neck or ears, anxiety, nosebleed.
+Dexamethasone Intensol can affect growth in children. Tell your doctor if your child is not growing at a normal rate while using Dexamethasone Intensol Intensol.
+Common side effects of Dexamethasone Intensol may include:
+fluid retention (swelling in your hands or ankles);
+increased appetite;
+mood changes, trouble sleeping;
+skin rash, bruising or discoloration;
+acne, increased sweating, increased hair growth;
+headache, dizziness;
+nausea, vomiting, upset stomach;
+changes in your menstrual periods; or
+changes in the shape or location of body fat (especially in your arms, legs, face, neck, breasts, and waist).
+This is not a complete list of side effects and others may occur. Call your doctor for medical advice about side effects. You may report side effects to FDA at 1-800-FDA-1088.
+Dexamethasone Intensol side effects (more detail)</t>
         </is>
       </c>
     </row>
@@ -6124,23 +10713,15 @@
       </c>
       <c r="H64" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">❌ Error processing Digitek: Message: invalid session id; For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#invalidsessionidexception
-Stacktrace:
-0   chromedriver                        0x00000001053c0ea4 cxxbridge1$str$ptr + 2722840
-1   chromedriver                        0x00000001053b8dac cxxbridge1$str$ptr + 2689824
-2   chromedriver                        0x0000000104f0a260 cxxbridge1$string$len + 90252
-3   chromedriver                        0x0000000104f44cf8 cxxbridge1$string$len + 330532
-4   chromedriver                        0x0000000104f6d2e4 cxxbridge1$string$len + 495888
-5   chromedriver                        0x0000000104f6c5ec cxxbridge1$string$len + 492568
-6   chromedriver                        0x0000000104ed93d8 chromedriver + 87000
-7   chromedriver                        0x0000000105383fc0 cxxbridge1$str$ptr + 2473268
-8   chromedriver                        0x000000010538722c cxxbridge1$str$ptr + 2486176
-9   chromedriver                        0x0000000105365a08 cxxbridge1$str$ptr + 2348924
-10  chromedriver                        0x0000000105387ae8 cxxbridge1$str$ptr + 2488412
-11  chromedriver                        0x0000000105356a98 cxxbridge1$str$ptr + 2287628
-12  chromedriver                        0x0000000104ed7664 chromedriver + 79460
-13  dyld                                0x0000000181e2ab98 start + 6076
-</t>
+          <t>Tell your doctor if you have ever had any unusual or allergic reaction to this medicine or any other medicines. Also tell your health care professional if you have any other types of allergies, such as to foods, dyes, preservatives, or animals. For non-prescription products, read the label or package ingredients carefully.
+Using this medicine with any of the following medicines may cause an increased risk of certain side effects, but using both drugs may be the best treatment for you. If both medicines are prescribed together, your doctor may change the dose or how often you use one or both of the medicines.
+Do not stop taking this medicine without first checking with your doctor. Stopping suddenly may cause a serious change in heart function.
+Watch for signs and symptoms of overdose while you are taking this medicine. Follow your doctor's directions carefully. The amount of this medicine needed to help most people is very close to the amount that could cause serious problems from overdose. Some early warning signs of overdose are confusion, loss of appetite, nausea, vomiting, diarrhea, or vision problems. Other signs of overdose are changes in the rate or rhythm of the heartbeat (becoming irregular or slow), palpitations (feeling of pounding in the chest), or fainting. In infants and small children, the earliest signs of overdose are changes in the rate and rhythm of the heartbeat. Children may not show the other symptoms as soon as adults.
+Along with its needed effects, a medicine may cause some unwanted effects. Although not all of these side effects may occur, if they do occur they may need medical attention.
+Check with your doctor immediately if any of the following side effects occur:
+Some side effects may occur that usually do not need medical attention. These side effects may go away during treatment as your body adjusts to the medicine. Also, your health care professional may be able to tell you about ways to prevent or reduce some of these side effects. Check with your health care professional if any of the following side effects continue or are bothersome or if you have any questions about them:
+Other side effects not listed may also occur in some patients. If you notice any other effects, check with your healthcare professional.
+Call your doctor for medical advice about side effects. You may report side effects to the FDA at 1-800-FDA-1088.</t>
         </is>
       </c>
     </row>
@@ -6166,23 +10747,17 @@
       </c>
       <c r="H65" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve">❌ Error processing Doryx: Message: invalid session id; For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#invalidsessionidexception
-Stacktrace:
-0   chromedriver                        0x00000001053c0ea4 cxxbridge1$str$ptr + 2722840
-1   chromedriver                        0x00000001053b8dac cxxbridge1$str$ptr + 2689824
-2   chromedriver                        0x0000000104f0a260 cxxbridge1$string$len + 90252
-3   chromedriver                        0x0000000104f44cf8 cxxbridge1$string$len + 330532
-4   chromedriver                        0x0000000104f6d2e4 cxxbridge1$string$len + 495888
-5   chromedriver                        0x0000000104f6c5ec cxxbridge1$string$len + 492568
-6   chromedriver                        0x0000000104ed93d8 chromedriver + 87000
-7   chromedriver                        0x0000000105383fc0 cxxbridge1$str$ptr + 2473268
-8   chromedriver                        0x000000010538722c cxxbridge1$str$ptr + 2486176
-9   chromedriver                        0x0000000105365a08 cxxbridge1$str$ptr + 2348924
-10  chromedriver                        0x0000000105387ae8 cxxbridge1$str$ptr + 2488412
-11  chromedriver                        0x0000000105356a98 cxxbridge1$str$ptr + 2287628
-12  chromedriver                        0x0000000104ed7664 chromedriver + 79460
-13  dyld                                0x0000000181e2ab98 start + 6076
-</t>
+          <t>Tell your doctor if you have ever had any unusual or allergic reaction to this medicine or any other medicines. Also tell your health care professional if you have any other types of allergies, such as to foods, dyes, preservatives, or animals. For non-prescription products, read the label or package ingredients carefully.
+Using this medicine with any of the following medicines may cause an increased risk of certain side effects, but using both drugs may be the best treatment for you. If both medicines are prescribed together, your doctor may change the dose or how often you use one or both of the medicines.
+Take this medicine exactly as directed by your doctor. Do not take more of it, do not take it more often, and do not take it for a longer time than your doctor ordered. To do so may increase the chance of side effects.
+If you have a severe reaction from the sun, check with your doctor.
+Serious skin reactions, including exfoliative dermatitis, erythema multiforme, Stevens-Johnson syndrome (SJS), toxic epidermal necrolysis, drug reaction with eosinophilia and systemic symptoms (DRESS) can occur with this medicine. Check with your doctor right away if you have blistering, peeling, or loosening of the skin, red skin lesions, severe acne or a skin rash, sores or ulcers on the skin, fever or chills, cough, sore throat, swollen, painful, or tender lymph glands in the neck, armpit, or groin, or yellow skin or eyes while using this medicine.
+Along with its needed effects, a medicine may cause some unwanted effects. Although not all of these side effects may occur, if they do occur they may need medical attention.
+Check with your doctor immediately if any of the following side effects occur:
+Some side effects may occur that usually do not need medical attention. These side effects may go away during treatment as your body adjusts to the medicine. Also, your health care professional may be able to tell you about ways to prevent or reduce some of these side effects. Check with your health care professional if any of the following side effects continue or are bothersome or if you have any questions about them:
+Other side effects not listed may also occur in some patients. If you notice any other effects, check with your healthcare professional.
+Call your doctor for medical advice about side effects. You may report side effects to the FDA at 1-800-FDA-1088.
+Oracea is used to treat inflammation associated with rosacea in adults. Learn about side effects ...</t>
         </is>
       </c>
     </row>
@@ -6208,23 +10783,17 @@
       </c>
       <c r="H66" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">❌ Error processing Doryx MPC: Message: invalid session id; For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#invalidsessionidexception
-Stacktrace:
-0   chromedriver                        0x00000001053c0ea4 cxxbridge1$str$ptr + 2722840
-1   chromedriver                        0x00000001053b8dac cxxbridge1$str$ptr + 2689824
-2   chromedriver                        0x0000000104f0a260 cxxbridge1$string$len + 90252
-3   chromedriver                        0x0000000104f44cf8 cxxbridge1$string$len + 330532
-4   chromedriver                        0x0000000104f6d2e4 cxxbridge1$string$len + 495888
-5   chromedriver                        0x0000000104f6c5ec cxxbridge1$string$len + 492568
-6   chromedriver                        0x0000000104ed93d8 chromedriver + 87000
-7   chromedriver                        0x0000000105383fc0 cxxbridge1$str$ptr + 2473268
-8   chromedriver                        0x000000010538722c cxxbridge1$str$ptr + 2486176
-9   chromedriver                        0x0000000105365a08 cxxbridge1$str$ptr + 2348924
-10  chromedriver                        0x0000000105387ae8 cxxbridge1$str$ptr + 2488412
-11  chromedriver                        0x0000000105356a98 cxxbridge1$str$ptr + 2287628
-12  chromedriver                        0x0000000104ed7664 chromedriver + 79460
-13  dyld                                0x0000000181e2ab98 start + 6076
-</t>
+          <t>Tell your doctor if you have ever had any unusual or allergic reaction to this medicine or any other medicines. Also tell your health care professional if you have any other types of allergies, such as to foods, dyes, preservatives, or animals. For non-prescription products, read the label or package ingredients carefully.
+Using this medicine with any of the following medicines may cause an increased risk of certain side effects, but using both drugs may be the best treatment for you. If both medicines are prescribed together, your doctor may change the dose or how often you use one or both of the medicines.
+Take this medicine exactly as directed by your doctor. Do not take more of it, do not take it more often, and do not take it for a longer time than your doctor ordered. To do so may increase the chance of side effects.
+If you have a severe reaction from the sun, check with your doctor.
+Serious skin reactions, including exfoliative dermatitis, erythema multiforme, Stevens-Johnson syndrome (SJS), toxic epidermal necrolysis, drug reaction with eosinophilia and systemic symptoms (DRESS) can occur with this medicine. Check with your doctor right away if you have blistering, peeling, or loosening of the skin, red skin lesions, severe acne or a skin rash, sores or ulcers on the skin, fever or chills, cough, sore throat, swollen, painful, or tender lymph glands in the neck, armpit, or groin, or yellow skin or eyes while using this medicine.
+Along with its needed effects, a medicine may cause some unwanted effects. Although not all of these side effects may occur, if they do occur they may need medical attention.
+Check with your doctor immediately if any of the following side effects occur:
+Some side effects may occur that usually do not need medical attention. These side effects may go away during treatment as your body adjusts to the medicine. Also, your health care professional may be able to tell you about ways to prevent or reduce some of these side effects. Check with your health care professional if any of the following side effects continue or are bothersome or if you have any questions about them:
+Other side effects not listed may also occur in some patients. If you notice any other effects, check with your healthcare professional.
+Call your doctor for medical advice about side effects. You may report side effects to the FDA at 1-800-FDA-1088.
+Oracea is used to treat inflammation associated with rosacea in adults. Learn about side effects ...</t>
         </is>
       </c>
     </row>
@@ -6250,23 +10819,259 @@
       </c>
       <c r="H67" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve">❌ Error processing Dxevo: Message: invalid session id; For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#invalidsessionidexception
-Stacktrace:
-0   chromedriver                        0x00000001053c0ea4 cxxbridge1$str$ptr + 2722840
-1   chromedriver                        0x00000001053b8dac cxxbridge1$str$ptr + 2689824
-2   chromedriver                        0x0000000104f0a260 cxxbridge1$string$len + 90252
-3   chromedriver                        0x0000000104f44cf8 cxxbridge1$string$len + 330532
-4   chromedriver                        0x0000000104f6d2e4 cxxbridge1$string$len + 495888
-5   chromedriver                        0x0000000104f6c5ec cxxbridge1$string$len + 492568
-6   chromedriver                        0x0000000104ed93d8 chromedriver + 87000
-7   chromedriver                        0x0000000105383fc0 cxxbridge1$str$ptr + 2473268
-8   chromedriver                        0x000000010538722c cxxbridge1$str$ptr + 2486176
-9   chromedriver                        0x0000000105365a08 cxxbridge1$str$ptr + 2348924
-10  chromedriver                        0x0000000105387ae8 cxxbridge1$str$ptr + 2488412
-11  chromedriver                        0x0000000105356a98 cxxbridge1$str$ptr + 2287628
-12  chromedriver                        0x0000000104ed7664 chromedriver + 79460
-13  dyld                                0x0000000181e2ab98 start + 6076
-</t>
+          <t>Skip to main content
+Search Drugs.com
+Search
+Site navigation
+Close
+Home
+Side Effects
+Dxevo
+Dxevo Side Effects
+Generic name: dexamethasone
+Medically reviewed by Drugs.com. Last updated on Oct 9, 2023.
+Serious side effects
+Other side effects
+Professional info
+FAQ
+Note: This document provides detailed information about Dxevo Side Effects associated with dexamethasone. Some dosage forms listed on this page may not apply specifically to the brand name Dxevo.
+Applies to dexamethasone: oral elixir, oral solution, oral tablet.
+Precautions
+If you will be taking this medicine for a long time, it is very important that your doctor check you at regular visits for any unwanted effects that may be caused by this medicine. Blood or urine tests may be needed to check for unwanted effects.
+Using this medicine while you are pregnant can harm your unborn baby. Use an effective form of birth control to keep from getting pregnant during treatment and for 1 month after your last dose. If you think you have become pregnant while using this medicine, tell your doctor right away.
+If you are using this medicine for a long time, tell your doctor about any extra stress or anxiety in your life, including other health concerns and emotional stress. Your dose of this medicine might need to be changed for a short time while you have extra stress.
+Using too much of this medicine or using it for a long time may increase your risk of having adrenal gland problems. Talk to your doctor right away if you have more than one of these symptoms while you are using this medicine: blurred vision, dizziness or fainting, a fast, irregular, or pounding heartbeat, increased thirst or urination, irritability, or unusual tiredness or weakness.
+Using this medicine may increase your risk of cancer, including Kaposi's sarcoma. Talk to your doctor if you have concerns about this risk.
+While you are being treated with dexamethasone (the active ingredient contained in Dxevo), do not have any immunizations (vaccines) without your doctor's approval. Dexamethasone may lower your body's resistance and the vaccine may not work as well or you might get the infection the vaccine is meant to prevent. In addition, you should not be around other persons living in your household who receive live virus vaccines because there is a chance they could pass the virus on to you. Some examples of live vaccines include measles, mumps, influenza (nasal flu vaccine), poliovirus (oral form), rotavirus, and rubella. Do not get close to them and do not stay in the same room with them for very long. If you have questions about this, talk to your doctor.
+Check with your doctor right away if blurred vision, difficulty in reading, or any other change in vision occurs during or after treatment. Your doctor may want you to have your eyes checked by an ophthalmologist (eye doctor).
+This medicine might cause thinning of the bones (osteoporosis) or slow growth in children if used for a long time. Tell your doctor if you have any bone pain or if you have an increased risk for osteoporosis. If your child is using this medicine, tell the doctor if you think your child is not growing properly.
+This medicine may cause myopathy. Tell your doctor right away if you have new or worsening unexplained muscle pain, tenderness, or weakness.
+This medicine may cause changes in mood or behavior for some patients. Tell your doctor right away if you have depression, mood swings, a false or unusual sense of well-being, trouble sleeping, or personality changes while taking this medicine.
+Make sure any doctor or dentist who treats you knows that you are using this medicine. This medicine may affect the results of certain skin tests.
+Talk with your doctor before using this medicine if you plan to have children. Some men who use Hemady™ have become infertile (unable to have children).
+Do not take other medicines unless they have been discussed with your doctor. This includes prescription or nonprescription (over-the-counter [OTC]) medicines and herbal or vitamin supplements.
+Serious side effects of Dxevo
+Along with its needed effects, dexamethasone may cause some unwanted effects. Although not all of these side effects may occur, if they do occur they may need medical attention.
+Check with your doctor immediately if any of the following side effects occur while taking dexamethasone:
+More common side effects
+aggression
+agitation
+anxiety
+blurred vision
+decrease in the amount of urine
+dizziness
+fast, slow, pounding, or irregular heartbeat or pulse
+headache
+irritability
+mental depression
+mood changes
+nervousness
+noisy, rattling breathing
+numbness or tingling in the arms or legs
+pounding in the ears
+swelling of the fingers, hands, feet, or lower legs
+trouble thinking, speaking, or walking
+troubled breathing at rest
+weight gain
+Incidence not known
+Other side effects of Dxevo
+Some side effects of dexamethasone may occur that usually do not need medical attention. These side effects may go away during treatment as your body adjusts to the medicine. Also, your health care professional may be able to tell you about ways to prevent or reduce some of these side effects.
+Check with your health care professional if any of the following side effects continue or are bothersome or if you have any questions about them:
+More common side effects
+increased appetite
+Incidence not known
+See also:
+Benlysta
+Benlysta is used for active systemic lupus erythematosus (SLE) or lupus nephritis in adults and ...
+Reviews &amp; ratings
+7.8 / 10
+65 Reviews
+View more
+Carvykti
+Carvykti (ciltacabtagene autoleucel) is a treatment for relapsed or refractory multiple myeloma ...
+Reviews &amp; ratings
+Add a review
+View more
+FEATURED
+Entyvio
+Entyvio (vedolizumab) is used to treat ulcerative colitis (UC) and Crohn's disease, reducing ...
+Reviews &amp; ratings
+6.3 / 10
+166 Reviews
+View more
+Abecma
+Abecma is a CAR T cell therapy used to treat relapsed refractory multiple myeloma (RRMM); it is a ...
+Reviews &amp; ratings
+Add a review
+View more
+Nplate
+Nplate is used to prevent bleeding episodes in people with chronic immune thrombocytopenic purpura ...
+Reviews &amp; ratings
+7.5 / 10
+11 Reviews
+View more
+Saphnelo
+Saphnelo is used for moderate to severe SLE (lupus) for adults who are also receiving other lupus ...
+Reviews &amp; ratings
+7.9 / 10
+11 Reviews
+View more
+Skyrizi
+Skyrizi (risankizumab) is used to treat plaque psoriasis, psoriatic arthritis, ulcerative colitis ...
+Reviews &amp; ratings
+8.0 / 10
+62 Reviews
+View more
+Tecvayli
+Tecvayli (teclistamab) is a treatment for relapsed or refractory multiple myeloma. Includes ...
+Reviews &amp; ratings
+5 Reviews
+View more
+Dupixent
+Dupixent is used to treat eczema, eosinophilic or oral-corticosteroid-dependent asthma, chronic ...
+Reviews &amp; ratings
+7.3 / 10
+520 Reviews
+View more
+Kesimpta
+Kesimpta is used to treat relapsing forms of multiple sclerosis (MS), including clinically isolated ...
+Reviews &amp; ratings
+7.0 / 10
+79 Reviews
+View more
+Managing side effects (general information)
+For healthcare professionals
+Applies to dexamethasone: compounding powder, inhalation aerosol with adapter, injectable solution, injectable suspension, intravenous solution, oral concentrate, oral liquid, oral tablet, transdermal solution.
+General adverse events
+The most commonly occurring side effects have included alteration in glucose tolerance, behavioral and mood changes, increased appetite, and weight gain; the incidence generally correlates with dosage, timing of administration, and duration of treatment.[Ref]
+Psychiatric
+Frequency not reported: Depression, affective disorders, anxiety, emotional instability, euphoria, insomnia, mood swings, personality changes, psychic disorders, confusional states, anxiety, abnormal behavior, irritability, aggravated schizophrenia[Ref]
+A wide range of psychiatric reactions including affective disorders (e.g., irritable, euphoric, depressed, labile mood, and suicidal ideation) psychotic reactions (e.g., mania, delusions, hallucinations, aggravation of schizophrenia), behavioral disturbances, irritability, anxiety, sleep disturbances and cognitive dysfunction (e.g., confusion, amnesia) have been reported. These reactions have been reported in adults and children. In adults, the occurrence of severe reactions has been estimated to be about 5% to 6%.[Ref]
+Nervous system
+Frequency not reported: Convulsions, headache, increased intracranial pressure with papilledema (pseudotumor cerebri) usually following discontinuation of treatment, benign intracranial hypertension, neuropathy[Ref]
+Gastrointestinal
+Frequency not reported: Abdominal distention, nausea, pancreatitis, peptic ulcer, perforation of the small and large intestine, ulcerative esophagitis, gastric hemorrhage, vomiting, abdominal pain, diarrhea, dyspepsia, nausea, flatulence[Ref]
+Hypersensitivity
+Frequency not reported: Anaphylactoid reaction, anaphylaxis, angioedema[Ref]
+Endocrine
+Frequency not reported: Cushingoid state, hirsutism, secondary adrenocortical and pituitary unresponsiveness (particularly in times of stress, as in trauma, surgery, or illness), moon face[Ref]
+Metabolic
+Frequency not reported: Decreased carbohydrate and glucose tolerance, hyperglycemia, glycosuria, manifestations of latent diabetes, hypokalemic alkalosis, potassium loss, sodium retention, increased appetite, negative nitrogen balance due to protein catabolism, weight gain, metabolic acidosis, hypercholesterolemia, hypertriglyceridemia, dyslipidemia[Ref]
+Ocular
+Frequency not reported: Exophthalmos, glaucoma, increased intraocular pressure, posterior subcapsular cataracts, blindness, chorioretinopathy, worsening of symptoms associated with corneal ulcers, retinopathy of prematurity, blurred vision[Ref]
+Rare instances of blindness have been associated with corticosteroid intralesional therapy around the face and head.[Ref]
+Cardiovascular
+Frequency not reported: Bradycardia, cardiac arrest, cardiac arrhythmias, cardiac enlargement, circulatory collapse, congestive heart failure, fat embolism, hypertension, hypertrophic cardiomyopathy in premature infants, myocardial rupture following recent myocardial infarction, syncope, tachycardia, thromboembolism, thrombophlebitis, vasculitis, edema[Ref]
+Musculoskeletal
+Frequency not reported: Suppression of growth in pediatric patients, aseptic necrosis of femoral and humeral heads, calcinosis, Charcot-like atrophy, loss of muscle mass, muscle weakness, steroid myopathy. osteoporosis, pathologic fracture of long bones, postinjection flare, tendon rupture, particularly of the Achilles tendon, vertebral compression fractures, myalgia, muscle atrophy, osteonecrosis, neuropathic arthralgia, growth retardation[Ref]
+Corticosteroids can cause a dose-dependent inhibition of growth in infancy, childhood, and adolescence due to it causing early closure of the epiphyses, which may be irreversible.[Ref]
+Dermatologic
+Frequency not reported: Acne, allergic dermatitis, dry scaly skin, ecchymosis, hirsutism, petechiae, erythema, hyperpigmentation, hypopigmentation, impaired wound healing, increased sweating, rash, sterile abscess, striae, suppressed reactions to skin tests, thin fragile skin, thinning scalp hair, urticaria, hypertrichosis, angioedema, skin atrophy, hyperhidrosis, pruritus, burning or tingling especially in the perineal area (after IV injection), telangiectasia, pigment disorders[Ref]
+Hematologic
+Frequency not reported: Leucocytosis, lymphopenia, eosinopenia, polycythemia, abnormal coagulation, polymorphonuclear leukocytosis[Ref]
+Genitourinary
+Frequency not reported: Menstrual irregularities, amenorrhea, increased or decreased motility and number of spermatozoa, increased urine calcium[Ref]
+Hepatic
+Frequency not reported: Hepatomegaly, elevation in liver enzymes[Ref]
+Immunologic
+Frequency not reported: Opportunistic infection, exacerbation of latent infections, decreased resistance to infection, immunosuppression, candidiasis, chicken pox (varicella)
+Other
+Frequency not reported: Vertigo, abnormal fat deposits, malaise, sterile abscess, impaired healing, fatigue, malaise
+Respiratory
+Frequency not reported: Hiccups, pulmonary edema
+References
+1. Cerner Multum, Inc. "UK Summary of Product Characteristics."
+2. (2016) "Product Information. Dexamethasone Sodium Phosphate (dexamethasone)." West Ward Pharmaceutical Corporation
+3. (2017) "Product Information. Dexamethasone (dexamethasone)." Par Pharmaceutical Inc (formerly Qualitest Pharmaceuticals Inc)
+4. Sechi GP, Piras MR, Demurtas A, Tanca S, Rosati G (1987) "Dexamethasone-induced schizoaffective-like state in multiple sclerosis: prophylaxis and treatment with carbamazepine." Clin Neuropharmacol, 10, p. 453-7
+5. Carroll BJ, Schroeder K, Mukhopadhyay S, Greden JF, Feinberg M, Ritchie J, Tarika J (1980) "Plasma dexamethasone concentrations and cortisol suppression response in patients with endogenous depression." J Clin Endocrinol Metab, 51, p. 433-7
+6. (2001) "Product Information. Decadron (dexamethasone)." Merck &amp; Co., Inc
+7. Jaime Vazquez J (1993) "Persistent hiccup as a side-effect of dexamethasone treatment." Hum Exp Toxicol, 12, p. 52
+8. Kanwar AJ, Kaur S, Dhar S, Ghosh S (1993) "Hiccup--a side-effect of pulse therapy." Dermatology, 187, p. 279
+9. Fadul CE, Lemann W, Thaler HT, Posner JB (1988) "Perforation of the gastrointestinal tract in patients receiving steroids for neurologic disease." Neurology, 38, p. 348-52
+10. McDonnell M, Evans N (1995) "Upper and lower gastrointestinal complications with dexamethasone despite H2 antagonists." J Paediatr Child Health, 31, p. 152-4
+11. Whitmore SE (1994) "Dexamethasone injection-induced generalized dermatitis." Br J Dermatol, 131, p. 296-7
+12. New MI, Peterson RE, Saenger P, Levine LS (1976) "Evidence for an unidentified ACTH-induced steroid hormone causing hypertension." J Clin Endocrinol Metab, 43, p. 1283-93
+13. Spenney JG, Eure CA, Kreisberg RA (1969) "Hyperglycemic, hyperosmolar, nonketoacidotic diabetes. A complication of steroid and immunosupressive therapy." Diabetes, 18, p. 107-10
+14. Ludvik B, Clodi M, Kautzky-Willer A, Capek M, Hartter E, Pacini G, Prager R (1993) "Effect of dexamethasone on insulin sensitivity, islet amyloid polypeptide and insulin secretion in humans." Diabetologia, 36, p. 84-7
+15. Tsoi WW (1994) "Cushing's syndrome caused by analgesic/dexamethasone preparation." Ann Pharmacother, 28, p. 1411
+16. Kobayashi Y, Akaishi K, Nishio T, Kimura Y (1974) "Posterior subcapsular cataract in nephrotic children receiving steroid therapy." Am J Dis Child, 128, p. 671-3
+17. Bluming AZ, Zeegen P (1986) "Cataracts induced by intermittent Decadron used as an antiemetic." J Clin Oncol, 4, p. 221-3
+18. Godel V, Regenbogen L, Stein R (1978) "On the mechanism of corticosteroid-induced ocular hypertension." Ann Ophthalmol, 10, p. 191-6
+19. Francois J (1977) "Corticosteroid glaucoma." Ann Ophthalmol, 9, p. 1075-80
+20. Schmidt GB, Meier MA, Sadove MS (1972) "Sudden appearance of cardiac arrhythmias after dexamethasone." JAMA, 221, p. 1402-4
+21. Rao G, Zikria EA, Miller WH, Samadani SR, Ford WB (1972) "Cardiac arrhythmias after dexamethasone." JAMA, 222, p. 1185
+Does Dxevo interact with my other drugs?
+Enter medications to view a detailed interaction report using our Drug Interaction Checker.
+Drug name
+Add a drug to check interactions
+Add
+Frequently asked questions
+How long does dexamethasone stay in your system?
+What is a dexamethasone suppression test used for?
+Can I use expired neomycin and polymyxin b sulfates, dexamethasone ophthalmic?
+More about Dxevo (dexamethasone)
+Check interactions
+Compare alternatives
+Drug images
+Latest FDA alerts (9)
+Dosage information
+During pregnancy
+Drug class: glucocorticoids
+Breastfeeding
+Patient resources
+Other brands
+Decadron, Dexamethasone Intensol, TaperDex, Baycadron, ... +5 more
+Professional resources
+Dxevo Tablets prescribing information
+Dexamethasone (AHFS Monograph)
+Other brands
+Decadron, TaperDex, Dexabliss, Dexpak Taperpak, ... +6 more
+Related treatment guides
+Addison's Disease
+Adrenal Insufficiency
+Adrenocortical Insufficiency
+Allergic Rhinitis
+Further information
+Dxevo side effects can vary depending on the individual. Always consult your healthcare provider to ensure the information displayed on this page applies to your personal circumstances.
+Note: Medication side effects may be underreported. If you are experiencing side effects that are not listed, submit a report to the FDA by following this guide.
+Medical Disclaimer
+DRUG STATUS
+Availability
+Prescription only
+Rx
+Pregnancy &amp; Lactation
+Risk data available
+CSA Schedule*
+Not a controlled drug
+N/A
+WADA Class
+Anti-Doping Classification
+User Reviews &amp; Ratings
+Review this drug
+Images
+Dxevo dexamethasone 1.5 mg (702)
+Drugs.com Mobile App
+Access drug &amp; treatment information, identify pills, check interactions and set up personal medication records.
+Download the Medication Guide app on iTunes
+Download the Medication Guide app on the Google Play store
+About
+About Drugs.com
+Advertising policy
+Attribution &amp; citations
+Editorial policy
+Support
+Help center
+Sitemap
+Subscribe to Drugs.com newsletters
+Follow Drugs.com on Facebook
+Follow Drugs.com on Twitter
+Follow Drugs.com on Instagram
+Follow Drugs.com on YouTube
+Follow Drugs.com on Pinterest
+Subscribe to our newsletter for the latest medication news, new drug approvals and FDA alerts.
+Drugs.com provides accurate and independent information on more than 24,000 prescription drugs, over-the-counter medicines and natural products. This material is provided for educational purposes only and is not intended for medical advice, diagnosis or treatment. Data sources include Micromedex (updated 1 Jul 2025), Cerner Multum™ (updated 6 Jul 2025), ASHP (updated 11 May 2025) and others.
+Copyright © 2000-2025 Drugs.com. All rights reserved.</t>
         </is>
       </c>
     </row>
@@ -6292,23 +11097,291 @@
       </c>
       <c r="H68" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">❌ Error processing E.E.S. Granules: Message: invalid session id; For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#invalidsessionidexception
-Stacktrace:
-0   chromedriver                        0x00000001053c0ea4 cxxbridge1$str$ptr + 2722840
-1   chromedriver                        0x00000001053b8dac cxxbridge1$str$ptr + 2689824
-2   chromedriver                        0x0000000104f0a260 cxxbridge1$string$len + 90252
-3   chromedriver                        0x0000000104f44cf8 cxxbridge1$string$len + 330532
-4   chromedriver                        0x0000000104f6d2e4 cxxbridge1$string$len + 495888
-5   chromedriver                        0x0000000104f6c5ec cxxbridge1$string$len + 492568
-6   chromedriver                        0x0000000104ed93d8 chromedriver + 87000
-7   chromedriver                        0x0000000105383fc0 cxxbridge1$str$ptr + 2473268
-8   chromedriver                        0x000000010538722c cxxbridge1$str$ptr + 2486176
-9   chromedriver                        0x0000000105365a08 cxxbridge1$str$ptr + 2348924
-10  chromedriver                        0x0000000105387ae8 cxxbridge1$str$ptr + 2488412
-11  chromedriver                        0x0000000105356a98 cxxbridge1$str$ptr + 2287628
-12  chromedriver                        0x0000000104ed7664 chromedriver + 79460
-13  dyld                                0x0000000181e2ab98 start + 6076
-</t>
+          <t>Skip to main content
+Search Drugs.com
+Search
+Site navigation
+Close
+Home
+E.E.S. Granules
+Side Effects
+E.E.S. Granules Side Effects
+Generic name: erythromycin
+Medically reviewed by Drugs.com. Last updated on Aug 2, 2024.
+Serious side effects
+Other side effects
+Professional info
+FAQ
+Note: This document provides detailed information about E.E.S. Granules Side Effects associated with erythromycin. Some dosage forms listed on this page may not apply specifically to the brand name E.E.S. Granules.
+Applies to erythromycin: oral capsule delayed release, oral powder for suspension, oral tablet, oral tablet delayed release, oral tablet enteric coated.
+Other dosage forms:
+capsule, powder for suspension, suspension, tablet, tablet chewable
+intravenous powder for solution
+Important warnings
+This medicine can cause some serious health issues
+Oral route (suspension)
+Erythromycin estolate is contraindicated in patients with preexisting liver disease.
+Hepatic dysfunction with or without jaundice has occurred, mainly in adults.
+It may be accompanied by malaise, nausea, vomiting, abdominal colic, fever, and in some instances, severe abdominal pain may lead to an abdominal surgical emergency.
+Discontinue erythromycin promptly if the above findings occur.
+Precautions
+It is very important that your doctor check you or your child's progress at regular visits to make sure this medicine is working properly and to check for unwanted effects. If your or your child's symptoms do not improve within a few days, or if they become worse, check with your doctor.
+Do not use this medicine if you or your child are also using astemizole (Hismanal®), cisapride (Propulsid®), ergotamine (Cafergot®, Ergomar®), dihydroergotamine (Migranal®), pimozide (Orap®), terfenadine (Seldane®), or statin medicine (eg, lovastatin, simvastatin, Mevacor®, Zocor®). Using these medicines together may increase risk for more serious side effects.
+Check with your doctor right away if you or your child have pain or tenderness in the upper stomach, pale stools, dark urine, loss of appetite, nausea, unusual tiredness or weakness, or yellow eyes or skin. These could be symptoms of a serious liver problem.
+This medicine can cause changes in heart rhythms, such as a condition called QT prolongation. It may change the way your heart beats and cause fainting or serious side effects in some patients. Contact your doctor right away if you or your child have worsening symptoms of heart rhythm problems, such as fast, pounding, or uneven heartbeat.
+Make sure your doctor knows if you are pregnant or may be pregnant before using this medicine.
+Erythromycin may cause diarrhea, and in some cases it can be severe. It may occur 2 months or more after you stop using this medicine. Do not take any medicine to treat diarrhea without first checking with your doctor. Diarrhea medicines may make the diarrhea worse or make it last longer. If you have any questions about this or if mild diarrhea continues or gets worse, check with your doctor.
+Before you have any medical tests, tell the medical doctor in charge that you or your child are using this medicine. The results of some tests may be affected by this medicine.
+Do not take other medicines unless they have been discussed with your doctor. This includes prescription or nonprescription (over-the-counter [OTC]) medicines and herbal or vitamin supplements.
+Serious side effects of E.E.S. Granules
+Along with its needed effects, erythromycin (the active ingredient contained in E.E.S. Granules) may cause some unwanted effects. Although not all of these side effects may occur, if they do occur they may need medical attention.
+Check with your doctor immediately if any of the following side effects occur while taking erythromycin:
+Rare side effects
+blistering, peeling, or loosening of the skin
+chills
+cough
+diarrhea
+difficulty with swallowing
+dizziness
+fast heartbeat
+hives or welts, skin rash
+joint or muscle pain
+puffiness or swelling of the eyelids or around the eyes, face, lips, or tongue
+red, irritated eyes
+red skin lesions, often with a purple center
+redness of the skin
+sore throat
+sores, ulcers, or white spots in the mouth or on the lips
+tightness in the chest
+unusual tiredness or weakness
+Incidence not known
+Other side effects of E.E.S. Granules
+Some side effects of erythromycin may occur that usually do not need medical attention. These side effects may go away during treatment as your body adjusts to the medicine. Also, your health care professional may be able to tell you about ways to prevent or reduce some of these side effects.
+Check with your health care professional if any of the following side effects continue or are bothersome or if you have any questions about them:
+Incidence not known
+diarrhea (mild)
+loss of appetite
+weight loss
+See also:
+Guaifenesin
+Guaifenesin is an expectorant. It helps loosen congestion in your chest and throat. Includes ...
+Reviews &amp; ratings
+7.1 / 10
+306 Reviews
+View more
+Sulfamethoxazole/trimethoprim
+Sulfamethoxazole/trimethoprim is used for acne, bacterial infection, bacterial skin infection ...
+Reviews &amp; ratings
+4.9 / 10
+1,724 Reviews
+View more
+FEATURED
+Botox
+Botox is used cosmetically to reduce facial lines and wrinkles and for medical purposes for ...
+Reviews &amp; ratings
+5.7 / 10
+478 Reviews
+View more
+Cefdinir
+Cefdinir is used for bacterial infection, bronchitis, middle ear infections, pneumonia, sinusitis ...
+Reviews &amp; ratings
+4.3 / 10
+398 Reviews
+View more
+Amoxicillin/clavulanate
+Amoxicillin and clavulanate potassium is a combination antibiotic used to treat bacterial ...
+Reviews &amp; ratings
+5.3 / 10
+913 Reviews
+View more
+Levofloxacin
+Levofloxacin is a fluoroquinolone antibiotic used to treat serious bacterial infections and prevent ...
+Reviews &amp; ratings
+5.1 / 10
+745 Reviews
+View more
+Augmentin
+Augmentin is a prescription antibiotic combining amoxicillin and clavulanate to treat bacterial ...
+Reviews &amp; ratings
+5.4 / 10
+449 Reviews
+View more
+Ceftriaxone
+Ceftriaxone is used for bacteremia, bacterial endocarditis prevention, bacterial infection, bone ...
+Reviews &amp; ratings
+8.5 / 10
+177 Reviews
+View more
+Ciprofloxacin
+Ciprofloxacin is an antibiotic belong to a group of drugs called fluoroquinolones. Learn about side ...
+Reviews &amp; ratings
+5.0 / 10
+937 Reviews
+View more
+Azithromycin
+Azithromycin is an antibiotic used to treat many different types of infections caused by bacteria ...
+Reviews &amp; ratings
+6.8 / 10
+1,309 Reviews
+View more
+Managing side effects (general information)
+For healthcare professionals
+Applies to erythromycin: compounding powder, injectable powder for injection, oral capsule, oral delayed release capsule, oral delayed release tablet, oral granule for reconstitution, oral suspension, oral tablet, oral tablet chewable, oral tablet coated particles.
+General adverse events
+The most commonly reported side effect included localized irritation, abdominal cramping, abdominal discomfort, and decreased appetite.[Ref]
+Gastrointestinal
+Common (1% to 10%): Abdominal cramping, abdominal pain, diarrhea, flatulence, infantile hypertrophic pyloric stenosis, nausea, severe non¬-bilious vomiting, soft defecation, vomiting
+Uncommon (0.1% to 1%): Abdominal discomfort, oral candidiasis
+Rare (0.01% to 0.1%): Pancreatitis, pseudomembranous colitis
+Very rare (less than 0.01%): Spastic hypertrophic pyloric stenosis (in children)[Ref]
+Abdominal pain, diarrhea, nausea, and vomiting may occur with treatment, and appear to be dose-related.
+In a study with 157 infants given oral formations for pertussis prophylaxis, 7 (approximately 5%) developed irritability with feeding and severe, non-bilious vomiting associated with IHPS.
+Pseudomembranous colitis may occur during or after treatment.[Ref]
+Metabolic
+Common (1% to 10%): Anorexia, decreased appetite[Ref]
+Anorexia may occur with treatment, and appears to be dose-related.[Ref]
+Cardiovascular
+Common (1% to 10%): Thrombophlebitis
+Uncommon (0.1% to 1%): Chest pain, palpitations
+Rare (0.01% to 0.1%): Atypical ventricular tachycardia, palpitations, QT interval prolongation/QT prolongation, torsade de pointes, ventricular arrhythmias/fatal ventricular arrhythmias
+Very rare (less than 0.01%): Cardiac arrhythmias
+Frequency not reported: Cardiac rhythmic disorders, hypotension, ventricular tachyarrhythmias, ventricular tachycardia[Ref]
+Local
+Common (1% to 10%): Local irritation
+Uncommon (0.1% to 1%): Venous irritation
+Rare (0.01% to 0.1%): Pain, vessel trauma[Ref]
+Slow infusion of diluted parenteral formulations (continuously or intermittently via IV over no less than 20 to 60 minutes) may alleviate venous trauma and pain.[Ref]
+Musculoskeletal
+Common (1% to 10%): Muscle spasms
+Rare (0.01% to 0.1%): Joint swelling, rhabdomyolysis
+Very rare (less than 0.01%): Myasthenia gravis unmasking, myasthenia gravis worsening[Ref]
+Psychiatric
+Common (1% to 10%): Irritability with feeding
+Rare (0.01% to 0.1%): Neonatal irritability
+Frequency not reported: Confusion, confusional state, hallucinations[Ref]
+Dermatologic
+Uncommon (0.1% to 1%): Erythema, exanthema, mild rash, pruritus, urticaria, urticarial exanthema
+Rare (0.01% to 0.1%): Erythema multiforme, mild skin eruptions, skin reactions, Stevens-Johnson syndrome, toxic epidermal necrolysis
+Frequency not reported: Acute generalized exanthematous pustulosis (AGEP), bullous fixed eruptions, eczema, rashes with/without pruritus, skin eruptions, upper abdominal discomfort[Ref]
+Hepatic
+Uncommon (0.1% to 1%): Alkaline phosphatase elevations, ALT elevations, AST elevations, elevation of liver enzymes, GGT elevations
+Rare (0.01% to 0.1%): Cholestasis, cholestatic jaundice
+Very rare (less than 0.01%): Abnormal liver function test results, hepatitis, hepatomegaly, liver dysfunction with/without jaundice, liver failure
+Frequency not reported: Cholestatic hepatitis, hepatocellular hepatitis, jaundice, liver dysfunction[Ref]
+Abnormal liver function test results, hepatitis, and/or liver dysfunction may occur with oral formulations.[Ref]
+Immunologic
+Uncommon (0.1% to 1%): Overgrowth of nonsusceptible bacteria, overgrowth of nonsusceptible fungi[Ref]
+Hypersensitivity
+Uncommon (0.1% to 1%): Hypersensitivity
+Rare (0.01% to 0.1%): Allergic edema, allergic reactions, anaphylactic reaction, anaphylactic shock, anaphylaxis, angioedema
+Frequency not reported: Serious allergic reactions[Ref]
+Other
+Uncommon (0.1% to 1%): Reversible hearing loss
+Rare (0.01% to 0.1%): Pyrexia
+Very rare (less than 0.01%): Deafness, reversible deafness, tinnitus
+Frequency not reported: Discomfort, fever, malaise[Ref]
+Reversible hearing loss was more frequently reported in patients with renal or liver dysfunction.
+Older patients, especially those with liver and/or renal dysfunction, may be at higher risk of developing increased risk of hearing loss, especially when given doses of at least 4 grams/day.[Ref]
+Genitourinary
+Uncommon (0.1% to 1%): Vaginal candidiasis[Ref]
+Endocrine
+Uncommon (0.1% to 1%): Lactate dehydrogenase (LDH) elevations[Ref]
+Nervous system
+Rare (0.01% to 0.1%): Central nervous system (CNS) damage, convulsions, seizures
+Frequency not reported: Dizziness, headache, mitochondrial optic neuropathy, somnolence, transient CNS side effects, vertigo[Ref]
+Renal
+Rare (0.01% to 0.1%): Damage to the kidneys
+Very rare (less than 0.01%): Tubulointerstitial nephritis
+Frequency not reported: Interstitial nephritis[Ref]
+Hematologic
+Rare (0.01% to 0.1%): Damage to the blood
+Frequency not reported: Eosinophilia[Ref]
+Ocular
+Frequency not reported: Blurred vision, diplopia, visual impairment[Ref]
+Respiratory
+Frequency not reported: Asthmatic states, dyspnea[Ref]
+References
+1. "Product Information. Eryc (erythromycin)." Parke-Davis
+2. (2022) "Product Information. Ery-Tab (erythromycin)." Abbott Pharmaceutical
+3. (2003) "Product Information. Erythrocin Lactobionate (erythromycin)." Abbott Pharmaceutical
+4. Cerner Multum, Inc. "UK Summary of Product Characteristics."
+5. Cerner Multum, Inc. "Australian Product Information."
+Does E.E.S. Granules interact with my other drugs?
+Enter medications to view a detailed interaction report using our Drug Interaction Checker.
+Drug name
+Add a drug to check interactions
+Add
+Frequently asked questions
+What are the strongest antibiotics available?
+What causes black hairy tongue?
+What are enteric-coated tablets?
+Can you take antibiotics while pregnant?
+More about E.E.S. Granules (erythromycin)
+Check interactions
+Compare alternatives
+Pricing &amp; coupons
+Dosage information
+During pregnancy
+Drug class: macrolides
+Breastfeeding
+En español
+Patient resources
+E.E.S. Granules advanced reading
+Other brands
+Erythrocin, Ery-Tab, EryPed, Eryc, ... +3 more
+Professional resources
+EES prescribing information
+Erythromycins General Statement (AHFS Monograph)
+Other brands
+Erythrocin, Ery-Tab, EryPed, PCE Dispertab
+Related treatment guides
+Bacterial Endocarditis Prevention
+Bartonellosis
+Bowel Preparation
+Bronchitis
+Further information
+E.E.S. Granules side effects can vary depending on the individual. Always consult your healthcare provider to ensure the information displayed on this page applies to your personal circumstances.
+Note: Medication side effects may be underreported. If you are experiencing side effects that are not listed, submit a report to the FDA by following this guide.
+Medical Disclaimer
+Antibiotics 101
+List of Common Antibiotics &amp; Types
+Antibiotics and Alcohol
+Probiotics and Antibiotics
+Antibiotics for Strep Throat
+Antibiotics for a Tooth Infection
+Antibiotics for UTI's
+DRUG STATUS
+Availability
+Prescription only
+Rx
+Pregnancy &amp; Lactation
+Risk data available
+CSA Schedule*
+Not a controlled drug
+N/A
+User Reviews &amp; Ratings
+Review this drug
+Drugs.com Mobile App
+Access drug &amp; treatment information, identify pills, check interactions and set up personal medication records.
+Download the Medication Guide app on iTunes
+Download the Medication Guide app on the Google Play store
+About
+About Drugs.com
+Advertising policy
+Attribution &amp; citations
+Editorial policy
+Support
+Help center
+Sitemap
+Subscribe to Drugs.com newsletters
+Follow Drugs.com on Facebook
+Follow Drugs.com on Twitter
+Follow Drugs.com on Instagram
+Follow Drugs.com on YouTube
+Follow Drugs.com on Pinterest
+Subscribe to our newsletter for the latest medication news, new drug approvals and FDA alerts.
+Drugs.com provides accurate and independent information on more than 24,000 prescription drugs, over-the-counter medicines and natural products. This material is provided for educational purposes only and is not intended for medical advice, diagnosis or treatment. Data sources include Micromedex (updated 1 Jul 2025), Cerner Multum™ (updated 6 Jul 2025), ASHP (updated 11 May 2025) and others.
+Copyright © 2000-2025 Drugs.com. All rights reserved.</t>
         </is>
       </c>
     </row>
@@ -6334,23 +11407,24 @@
       </c>
       <c r="H69" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve">❌ Error processing EC-Naprosyn: Message: invalid session id; For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#invalidsessionidexception
-Stacktrace:
-0   chromedriver                        0x00000001053c0ea4 cxxbridge1$str$ptr + 2722840
-1   chromedriver                        0x00000001053b8dac cxxbridge1$str$ptr + 2689824
-2   chromedriver                        0x0000000104f0a260 cxxbridge1$string$len + 90252
-3   chromedriver                        0x0000000104f44cf8 cxxbridge1$string$len + 330532
-4   chromedriver                        0x0000000104f6d2e4 cxxbridge1$string$len + 495888
-5   chromedriver                        0x0000000104f6c5ec cxxbridge1$string$len + 492568
-6   chromedriver                        0x0000000104ed93d8 chromedriver + 87000
-7   chromedriver                        0x0000000105383fc0 cxxbridge1$str$ptr + 2473268
-8   chromedriver                        0x000000010538722c cxxbridge1$str$ptr + 2486176
-9   chromedriver                        0x0000000105365a08 cxxbridge1$str$ptr + 2348924
-10  chromedriver                        0x0000000105387ae8 cxxbridge1$str$ptr + 2488412
-11  chromedriver                        0x0000000105356a98 cxxbridge1$str$ptr + 2287628
-12  chromedriver                        0x0000000104ed7664 chromedriver + 79460
-13  dyld                                0x0000000181e2ab98 start + 6076
-</t>
+          <t>--- EC-Naprosyn side effects ---
+Get emergency medical help if you have signs of an allergic reaction (runny or stuffy nose, wheezing or trouble breathing, hives, swelling in your face or throat) or a severe skin reaction (fever, sore throat, burning eyes, skin pain, red or purple skin rash with blistering and peeling).
+Stop using EC-Naprosyn and seek medical treatment if you have a serious drug reaction that can affect many parts of your body. Symptoms may include skin rash, fever, swollen glands, muscle aches, severe weakness, unusual bruising, or yellowing of your skin or eyes.
+Get emergency medical help if you have signs of a heart attack or stroke: chest pain spreading to your jaw or shoulder, sudden numbness or weakness on one side of the body, slurred speech, leg swelling, feeling short of breath.
+EC-Naprosyn may cause serious side effects. Stop using EC-Naprosyn and call your doctor at once if you have:
+shortness of breath (even with mild exertion);
+swelling or rapid weight gain;
+the first sign of any skin rash or blister, no matter how mild;
+signs of stomach bleeding--bloody or tarry stools, coughing up blood or vomit that looks like coffee grounds;
+liver problems--nausea, upper stomach pain, loss of appetite, dark urine, clay-colored stools, jaundice (yellowing of the skin or eyes);
+kidney problems--little or no urination, painful urination, swelling in your feet or ankles; or
+low red blood cells (anemia)--pale skin, unusual tiredness, feeling light-headed or short of breath, cold hands and feet.
+Common side effects of EC-Naprosyn may include:
+headache;
+indigestion, heartburn, stomach pain; or
+flu symptoms;
+This is not a complete list of side effects and others may occur. Call your doctor for medical advice about side effects. You may report side effects to FDA at 1-800-FDA-1088.
+EC-Naprosyn side effects (more detail)</t>
         </is>
       </c>
     </row>
@@ -6376,23 +11450,14 @@
       </c>
       <c r="H70" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">❌ Error processing Easprin: Message: invalid session id; For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#invalidsessionidexception
-Stacktrace:
-0   chromedriver                        0x00000001053c0ea4 cxxbridge1$str$ptr + 2722840
-1   chromedriver                        0x00000001053b8dac cxxbridge1$str$ptr + 2689824
-2   chromedriver                        0x0000000104f0a260 cxxbridge1$string$len + 90252
-3   chromedriver                        0x0000000104f44cf8 cxxbridge1$string$len + 330532
-4   chromedriver                        0x0000000104f6d2e4 cxxbridge1$string$len + 495888
-5   chromedriver                        0x0000000104f6c5ec cxxbridge1$string$len + 492568
-6   chromedriver                        0x0000000104ed93d8 chromedriver + 87000
-7   chromedriver                        0x0000000105383fc0 cxxbridge1$str$ptr + 2473268
-8   chromedriver                        0x000000010538722c cxxbridge1$str$ptr + 2486176
-9   chromedriver                        0x0000000105365a08 cxxbridge1$str$ptr + 2348924
-10  chromedriver                        0x0000000105387ae8 cxxbridge1$str$ptr + 2488412
-11  chromedriver                        0x0000000105356a98 cxxbridge1$str$ptr + 2287628
-12  chromedriver                        0x0000000104ed7664 chromedriver + 79460
-13  dyld                                0x0000000181e2ab98 start + 6076
-</t>
+          <t>Tell your doctor if you have ever had any unusual or allergic reaction to this medicine or any other medicines. Also tell your health care professional if you have any other types of allergies, such as to foods, dyes, preservatives, or animals. For non-prescription products, read the label or package ingredients carefully.
+Using this medicine with any of the following medicines may cause an increased risk of certain side effects, but using both drugs may be the best treatment for you. If both medicines are prescribed together, your doctor may change the dose or how often you use one or both of the medicines.
+Using this medicine with any of the following may cause an increased risk of certain side effects but may be unavoidable in some cases. If used together, your doctor may change the dose or how often you use this medicine, or give you special instructions about the use of food, alcohol, or tobacco.
+Along with its needed effects, a medicine may cause some unwanted effects. Although not all of these side effects may occur, if they do occur they may need medical attention.
+Check with your doctor immediately if any of the following side effects occur:
+Some side effects may occur that usually do not need medical attention. These side effects may go away during treatment as your body adjusts to the medicine. Also, your health care professional may be able to tell you about ways to prevent or reduce some of these side effects. Check with your health care professional if any of the following side effects continue or are bothersome or if you have any questions about them:
+Other side effects not listed may also occur in some patients. If you notice any other effects, check with your healthcare professional.
+Call your doctor for medical advice about side effects. You may report side effects to the FDA at 1-800-FDA-1088.</t>
         </is>
       </c>
     </row>
@@ -6418,23 +11483,20 @@
       </c>
       <c r="H71" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve">❌ Error processing Ecotrin: Message: invalid session id; For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#invalidsessionidexception
-Stacktrace:
-0   chromedriver                        0x00000001053c0ea4 cxxbridge1$str$ptr + 2722840
-1   chromedriver                        0x00000001053b8dac cxxbridge1$str$ptr + 2689824
-2   chromedriver                        0x0000000104f0a260 cxxbridge1$string$len + 90252
-3   chromedriver                        0x0000000104f44cf8 cxxbridge1$string$len + 330532
-4   chromedriver                        0x0000000104f6d2e4 cxxbridge1$string$len + 495888
-5   chromedriver                        0x0000000104f6c5ec cxxbridge1$string$len + 492568
-6   chromedriver                        0x0000000104ed93d8 chromedriver + 87000
-7   chromedriver                        0x0000000105383fc0 cxxbridge1$str$ptr + 2473268
-8   chromedriver                        0x000000010538722c cxxbridge1$str$ptr + 2486176
-9   chromedriver                        0x0000000105365a08 cxxbridge1$str$ptr + 2348924
-10  chromedriver                        0x0000000105387ae8 cxxbridge1$str$ptr + 2488412
-11  chromedriver                        0x0000000105356a98 cxxbridge1$str$ptr + 2287628
-12  chromedriver                        0x0000000104ed7664 chromedriver + 79460
-13  dyld                                0x0000000181e2ab98 start + 6076
-</t>
+          <t>--- Ecotrin side effects ---
+Get emergency medical help if you have signs of an allergic reaction: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+Ecotrin may cause serious side effects. Stop using Ecotrin and call your doctor at once if you have:
+ringing in your ears, confusion, hallucinations, rapid breathing, seizure (convulsions);
+severe nausea, vomiting, or stomach pain;
+bloody or tarry stools, coughing up blood or vomit that looks like coffee grounds;
+fever lasting longer than 3 days; or
+swelling, or pain lasting longer than 10 days.
+Common side effects of Ecotrin may include:
+upset stomach, heartburn;
+drowsiness; or
+mild headache.
+This is not a complete list of side effects and others may occur. Call your doctor for medical advice about side effects. You may report side effects to FDA at 1-800-FDA-1088.
+Ecotrin side effects (more detail)</t>
         </is>
       </c>
     </row>
@@ -6460,23 +11522,14 @@
       </c>
       <c r="H72" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">❌ Error processing Ecpirin: Message: invalid session id; For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#invalidsessionidexception
-Stacktrace:
-0   chromedriver                        0x00000001053c0ea4 cxxbridge1$str$ptr + 2722840
-1   chromedriver                        0x00000001053b8dac cxxbridge1$str$ptr + 2689824
-2   chromedriver                        0x0000000104f0a260 cxxbridge1$string$len + 90252
-3   chromedriver                        0x0000000104f44cf8 cxxbridge1$string$len + 330532
-4   chromedriver                        0x0000000104f6d2e4 cxxbridge1$string$len + 495888
-5   chromedriver                        0x0000000104f6c5ec cxxbridge1$string$len + 492568
-6   chromedriver                        0x0000000104ed93d8 chromedriver + 87000
-7   chromedriver                        0x0000000105383fc0 cxxbridge1$str$ptr + 2473268
-8   chromedriver                        0x000000010538722c cxxbridge1$str$ptr + 2486176
-9   chromedriver                        0x0000000105365a08 cxxbridge1$str$ptr + 2348924
-10  chromedriver                        0x0000000105387ae8 cxxbridge1$str$ptr + 2488412
-11  chromedriver                        0x0000000105356a98 cxxbridge1$str$ptr + 2287628
-12  chromedriver                        0x0000000104ed7664 chromedriver + 79460
-13  dyld                                0x0000000181e2ab98 start + 6076
-</t>
+          <t>Tell your doctor if you have ever had any unusual or allergic reaction to this medicine or any other medicines. Also tell your health care professional if you have any other types of allergies, such as to foods, dyes, preservatives, or animals. For non-prescription products, read the label or package ingredients carefully.
+Using this medicine with any of the following medicines may cause an increased risk of certain side effects, but using both drugs may be the best treatment for you. If both medicines are prescribed together, your doctor may change the dose or how often you use one or both of the medicines.
+Using this medicine with any of the following may cause an increased risk of certain side effects but may be unavoidable in some cases. If used together, your doctor may change the dose or how often you use this medicine, or give you special instructions about the use of food, alcohol, or tobacco.
+Along with its needed effects, a medicine may cause some unwanted effects. Although not all of these side effects may occur, if they do occur they may need medical attention.
+Check with your doctor immediately if any of the following side effects occur:
+Some side effects may occur that usually do not need medical attention. These side effects may go away during treatment as your body adjusts to the medicine. Also, your health care professional may be able to tell you about ways to prevent or reduce some of these side effects. Check with your health care professional if any of the following side effects continue or are bothersome or if you have any questions about them:
+Other side effects not listed may also occur in some patients. If you notice any other effects, check with your healthcare professional.
+Call your doctor for medical advice about side effects. You may report side effects to the FDA at 1-800-FDA-1088.</t>
         </is>
       </c>
     </row>
@@ -6502,23 +11555,31 @@
       </c>
       <c r="H73" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve">❌ Error processing Effexor: Message: invalid session id; For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#invalidsessionidexception
-Stacktrace:
-0   chromedriver                        0x00000001053c0ea4 cxxbridge1$str$ptr + 2722840
-1   chromedriver                        0x00000001053b8dac cxxbridge1$str$ptr + 2689824
-2   chromedriver                        0x0000000104f0a260 cxxbridge1$string$len + 90252
-3   chromedriver                        0x0000000104f44cf8 cxxbridge1$string$len + 330532
-4   chromedriver                        0x0000000104f6d2e4 cxxbridge1$string$len + 495888
-5   chromedriver                        0x0000000104f6c5ec cxxbridge1$string$len + 492568
-6   chromedriver                        0x0000000104ed93d8 chromedriver + 87000
-7   chromedriver                        0x0000000105383fc0 cxxbridge1$str$ptr + 2473268
-8   chromedriver                        0x000000010538722c cxxbridge1$str$ptr + 2486176
-9   chromedriver                        0x0000000105365a08 cxxbridge1$str$ptr + 2348924
-10  chromedriver                        0x0000000105387ae8 cxxbridge1$str$ptr + 2488412
-11  chromedriver                        0x0000000105356a98 cxxbridge1$str$ptr + 2287628
-12  chromedriver                        0x0000000104ed7664 chromedriver + 79460
-13  dyld                                0x0000000181e2ab98 start + 6076
-</t>
+          <t>--- Effexor side effects ---
+Get emergency medical help if you have signs of an allergic reaction to Effexor: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+Tell your doctor right away if you have new or sudden changes in mood or behavior, including new or worse depression or anxiety, panic attacks, trouble sleeping, or if you feel impulsive, irritable, agitated, hostile, aggressive, restless, more active or talkative, or have thoughts about suicide or hurting yourself.
+Venlafaxine may cause serious side effects. Call your doctor at once if you have:
+blurred vision, eye pain or redness, seeing halos around lights;
+cough, chest tightness, trouble breathing;
+a seizure (convulsions);
+unusual bleeding - nosebleeds, bleeding gums, abnormal vaginal bleeding, any bleeding that will not stop;
+low blood sodium - headache, confusion, problems with thinking or memory, weakness, feeling unsteady; or
+severe nervous system reaction - very stiff (rigid) muscles, high fever, sweating, confusion, fast or uneven heartbeats, tremors, feeling like you might pass out.
+Seek medical attention right away if you have symptoms of serotonin syndrome, such as: agitation, hallucinations, fever, sweating, shivering, fast heart rate, muscle stiffness, twitching, loss of coordination, nausea, vomiting, or diarrhea.
+Common Effexor side effects include:
+headache, dizziness, drowsiness, tiredness;
+ringing in your ears, feeling anxious, nervous, or jittery;
+sleep problems, unusual dreams;
+tremors;
+fast heartbeats;
+blurred vision;
+nausea, vomiting, diarrhea, constipation;
+changes in weight or appetite;
+dry mouth, yawning;
+increased sweating; or
+sexual problems.
+This is not a complete list of side effects and others may occur. Call your doctor for medical advice about side effects. You may report side effects to FDA at 1-800-FDA-1088.
+Effexor XR side effects (more detail)</t>
         </is>
       </c>
     </row>
@@ -6544,23 +11605,14 @@
       </c>
       <c r="H74" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">❌ Error processing Entercote: Message: invalid session id; For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#invalidsessionidexception
-Stacktrace:
-0   chromedriver                        0x00000001053c0ea4 cxxbridge1$str$ptr + 2722840
-1   chromedriver                        0x00000001053b8dac cxxbridge1$str$ptr + 2689824
-2   chromedriver                        0x0000000104f0a260 cxxbridge1$string$len + 90252
-3   chromedriver                        0x0000000104f44cf8 cxxbridge1$string$len + 330532
-4   chromedriver                        0x0000000104f6d2e4 cxxbridge1$string$len + 495888
-5   chromedriver                        0x0000000104f6c5ec cxxbridge1$string$len + 492568
-6   chromedriver                        0x0000000104ed93d8 chromedriver + 87000
-7   chromedriver                        0x0000000105383fc0 cxxbridge1$str$ptr + 2473268
-8   chromedriver                        0x000000010538722c cxxbridge1$str$ptr + 2486176
-9   chromedriver                        0x0000000105365a08 cxxbridge1$str$ptr + 2348924
-10  chromedriver                        0x0000000105387ae8 cxxbridge1$str$ptr + 2488412
-11  chromedriver                        0x0000000105356a98 cxxbridge1$str$ptr + 2287628
-12  chromedriver                        0x0000000104ed7664 chromedriver + 79460
-13  dyld                                0x0000000181e2ab98 start + 6076
-</t>
+          <t>Tell your doctor if you have ever had any unusual or allergic reaction to this medicine or any other medicines. Also tell your health care professional if you have any other types of allergies, such as to foods, dyes, preservatives, or animals. For non-prescription products, read the label or package ingredients carefully.
+Using this medicine with any of the following medicines may cause an increased risk of certain side effects, but using both drugs may be the best treatment for you. If both medicines are prescribed together, your doctor may change the dose or how often you use one or both of the medicines.
+Using this medicine with any of the following may cause an increased risk of certain side effects but may be unavoidable in some cases. If used together, your doctor may change the dose or how often you use this medicine, or give you special instructions about the use of food, alcohol, or tobacco.
+Along with its needed effects, a medicine may cause some unwanted effects. Although not all of these side effects may occur, if they do occur they may need medical attention.
+Check with your doctor immediately if any of the following side effects occur:
+Some side effects may occur that usually do not need medical attention. These side effects may go away during treatment as your body adjusts to the medicine. Also, your health care professional may be able to tell you about ways to prevent or reduce some of these side effects. Check with your health care professional if any of the following side effects continue or are bothersome or if you have any questions about them:
+Other side effects not listed may also occur in some patients. If you notice any other effects, check with your healthcare professional.
+Call your doctor for medical advice about side effects. You may report side effects to the FDA at 1-800-FDA-1088.</t>
         </is>
       </c>
     </row>
@@ -6586,23 +11638,18 @@
       </c>
       <c r="H75" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve">❌ Error processing EryPed: Message: invalid session id; For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#invalidsessionidexception
-Stacktrace:
-0   chromedriver                        0x00000001053c0ea4 cxxbridge1$str$ptr + 2722840
-1   chromedriver                        0x00000001053b8dac cxxbridge1$str$ptr + 2689824
-2   chromedriver                        0x0000000104f0a260 cxxbridge1$string$len + 90252
-3   chromedriver                        0x0000000104f44cf8 cxxbridge1$string$len + 330532
-4   chromedriver                        0x0000000104f6d2e4 cxxbridge1$string$len + 495888
-5   chromedriver                        0x0000000104f6c5ec cxxbridge1$string$len + 492568
-6   chromedriver                        0x0000000104ed93d8 chromedriver + 87000
-7   chromedriver                        0x0000000105383fc0 cxxbridge1$str$ptr + 2473268
-8   chromedriver                        0x000000010538722c cxxbridge1$str$ptr + 2486176
-9   chromedriver                        0x0000000105365a08 cxxbridge1$str$ptr + 2348924
-10  chromedriver                        0x0000000105387ae8 cxxbridge1$str$ptr + 2488412
-11  chromedriver                        0x0000000105356a98 cxxbridge1$str$ptr + 2287628
-12  chromedriver                        0x0000000104ed7664 chromedriver + 79460
-13  dyld                                0x0000000181e2ab98 start + 6076
-</t>
+          <t>--- What are some side effects that I need to call my doctor about right away? ---
+WARNING/CAUTION: Even though it may be rare, some people may have very bad and sometimes deadly side effects when taking a drug. Tell your doctor or get medical help right away if you have any of the following signs or symptoms that may be related to a very bad side effect:
+Signs of an allergic reaction, like rash; hives; itching; red, swollen, blistered, or peeling skin with or without fever; wheezing; tightness in the chest or throat; trouble breathing, swallowing, or talking; unusual hoarseness; or swelling of the mouth, face, lips, tongue, or throat.
+Signs of liver problems like dark urine, feeling tired, not hungry, upset stomach or stomach pain, light-colored stools, throwing up, or yellow skin or eyes.
+Signs of a very bad skin reaction (Stevens-Johnson syndrome/toxic epidermal necrolysis) like red, swollen, blistered, or peeling skin (with or without fever); red or irritated eyes; or sores in the mouth, throat, nose, or eyes.
+Not able to pass urine or change in how much urine is passed.
+Very bad dizziness or passing out.
+A fast heartbeat.
+A very bad and sometimes deadly type of heartbeat that is not normal (long QT on ECG) has happened with EryPed (erythromycin suspension). Some other drugs taken along with EryPed (erythromycin suspension) may add to this effect. Get medical help right away if your heartbeat does not feel normal.
+Diarrhea is common with antibiotics. Rarely, a severe form called C diff–associated diarrhea (CDAD) may happen. Sometimes, this has led to a deadly bowel problem (colitis). CDAD may happen during or a few months after taking antibiotics. Call your doctor right away if you have stomach pain, cramps, or very loose, watery, or bloody stools. Check with your doctor before treating diarrhea.
+Hearing loss has rarely happened in people taking EryPed (erythromycin suspension). This most often goes back to normal. The chance may be higher if you have kidney problems or if you take high doses of EryPed (erythromycin suspension). Call your doctor right away if you have hearing problems like hearing loss.
+EryPed side effects (more detail)</t>
         </is>
       </c>
     </row>
@@ -6628,23 +11675,19 @@
       </c>
       <c r="H76" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">❌ Error processing Eryc: Message: invalid session id; For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#invalidsessionidexception
-Stacktrace:
-0   chromedriver                        0x00000001053c0ea4 cxxbridge1$str$ptr + 2722840
-1   chromedriver                        0x00000001053b8dac cxxbridge1$str$ptr + 2689824
-2   chromedriver                        0x0000000104f0a260 cxxbridge1$string$len + 90252
-3   chromedriver                        0x0000000104f44cf8 cxxbridge1$string$len + 330532
-4   chromedriver                        0x0000000104f6d2e4 cxxbridge1$string$len + 495888
-5   chromedriver                        0x0000000104f6c5ec cxxbridge1$string$len + 492568
-6   chromedriver                        0x0000000104ed93d8 chromedriver + 87000
-7   chromedriver                        0x0000000105383fc0 cxxbridge1$str$ptr + 2473268
-8   chromedriver                        0x000000010538722c cxxbridge1$str$ptr + 2486176
-9   chromedriver                        0x0000000105365a08 cxxbridge1$str$ptr + 2348924
-10  chromedriver                        0x0000000105387ae8 cxxbridge1$str$ptr + 2488412
-11  chromedriver                        0x0000000105356a98 cxxbridge1$str$ptr + 2287628
-12  chromedriver                        0x0000000104ed7664 chromedriver + 79460
-13  dyld                                0x0000000181e2ab98 start + 6076
-</t>
+          <t>Erythromycin estolate is contraindicated in patients with preexisting liver disease. Hepatic dysfunction with or without jaundice has occurred, mainly in adults. It may be accompanied by malaise, nausea, vomiting, abdominal colic, fever, and in some instances, severe abdominal pain may lead to an abdominal surgical emergency. Discontinue erythromycin promptly if the above findings occur .
+Erythromycin is used to prevent and treat infections in many different parts of the body, including respiratory tract infections, skin infections, diphtheria, intestinal amebiasis, acute pelvic inflammatory disease, Legionnaire's disease, pertussis, and syphilis. This medicine is also used to prevent recurrent attacks of rheumatic fever in patients who have had an allergic reaction to penicillin or sulfa drugs.
+Tell your doctor if you have ever had any unusual or allergic reaction to this medicine or any other medicines. Also tell your health care professional if you have any other types of allergies, such as to foods, dyes, preservatives, or animals. For non-prescription products, read the label or package ingredients carefully.
+Using this medicine with any of the following medicines may cause an increased risk of certain side effects, but using both drugs may be the best treatment for you. If both medicines are prescribed together, your doctor may change the dose or how often you use one or both of the medicines.
+Do not use this medicine if you or your child are also using astemizole (Hismanal®), cisapride (Propulsid®), ergotamine (Cafergot®, Ergomar®), dihydroergotamine (Migranal®), pimozide (Orap®), terfenadine (Seldane®), or statin medicine (eg, lovastatin, simvastatin, Mevacor®, Zocor®). Using these medicines together may increase risk for more serious side effects.
+Check with your doctor right away if you or your child have pain or tenderness in the upper stomach, pale stools, dark urine, loss of appetite, nausea, unusual tiredness or weakness, or yellow eyes or skin. These could be symptoms of a serious liver problem.
+This medicine can cause changes in heart rhythms, such as a condition called QT prolongation. It may change the way your heart beats and cause fainting or serious side effects in some patients. Contact your doctor right away if you or your child have worsening symptoms of heart rhythm problems, such as fast, pounding, or uneven heartbeat.
+Along with its needed effects, a medicine may cause some unwanted effects. Although not all of these side effects may occur, if they do occur they may need medical attention.
+Check with your doctor immediately if any of the following side effects occur:
+Some side effects may occur that usually do not need medical attention. These side effects may go away during treatment as your body adjusts to the medicine. Also, your health care professional may be able to tell you about ways to prevent or reduce some of these side effects. Check with your health care professional if any of the following side effects continue or are bothersome or if you have any questions about them:
+Other side effects not listed may also occur in some patients. If you notice any other effects, check with your healthcare professional.
+Call your doctor for medical advice about side effects. You may report side effects to the FDA at 1-800-FDA-1088.
+Levofloxacin is a fluoroquinolone antibiotic used to treat serious bacterial infections and prevent ...</t>
         </is>
       </c>
     </row>
@@ -6670,23 +11713,18 @@
       </c>
       <c r="H77" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve">❌ Error processing Erythrocin: Message: invalid session id; For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#invalidsessionidexception
-Stacktrace:
-0   chromedriver                        0x00000001053c0ea4 cxxbridge1$str$ptr + 2722840
-1   chromedriver                        0x00000001053b8dac cxxbridge1$str$ptr + 2689824
-2   chromedriver                        0x0000000104f0a260 cxxbridge1$string$len + 90252
-3   chromedriver                        0x0000000104f44cf8 cxxbridge1$string$len + 330532
-4   chromedriver                        0x0000000104f6d2e4 cxxbridge1$string$len + 495888
-5   chromedriver                        0x0000000104f6c5ec cxxbridge1$string$len + 492568
-6   chromedriver                        0x0000000104ed93d8 chromedriver + 87000
-7   chromedriver                        0x0000000105383fc0 cxxbridge1$str$ptr + 2473268
-8   chromedriver                        0x000000010538722c cxxbridge1$str$ptr + 2486176
-9   chromedriver                        0x0000000105365a08 cxxbridge1$str$ptr + 2348924
-10  chromedriver                        0x0000000105387ae8 cxxbridge1$str$ptr + 2488412
-11  chromedriver                        0x0000000105356a98 cxxbridge1$str$ptr + 2287628
-12  chromedriver                        0x0000000104ed7664 chromedriver + 79460
-13  dyld                                0x0000000181e2ab98 start + 6076
-</t>
+          <t>--- What are some side effects that I need to call my doctor about right away? ---
+WARNING/CAUTION: Even though it may be rare, some people may have very bad and sometimes deadly side effects when taking a drug. Tell your doctor or get medical help right away if you have any of the following signs or symptoms that may be related to a very bad side effect:
+Signs of an allergic reaction, like rash; hives; itching; red, swollen, blistered, or peeling skin with or without fever; wheezing; tightness in the chest or throat; trouble breathing, swallowing, or talking; unusual hoarseness; or swelling of the mouth, face, lips, tongue, or throat.
+Signs of liver problems like dark urine, feeling tired, not hungry, upset stomach or stomach pain, light-colored stools, throwing up, or yellow skin or eyes.
+Signs of a very bad skin reaction (Stevens-Johnson syndrome/toxic epidermal necrolysis) like red, swollen, blistered, or peeling skin (with or without fever); red or irritated eyes; or sores in the mouth, throat, nose, or eyes.
+Not able to pass urine or change in how much urine is passed.
+Very bad dizziness or passing out.
+A fast heartbeat.
+A very bad and sometimes deadly type of heartbeat that is not normal (long QT on ECG) has happened with Erythrocin (erythromycin tablets). Some other drugs taken along with Erythrocin (erythromycin tablets) may add to this effect. Get medical help right away if your heartbeat does not feel normal.
+Diarrhea is common with antibiotics. Rarely, a severe form called C diff–associated diarrhea (CDAD) may happen. Sometimes, this has led to a deadly bowel problem (colitis). CDAD may happen during or a few months after taking antibiotics. Call your doctor right away if you have stomach pain, cramps, or very loose, watery, or bloody stools. Check with your doctor before treating diarrhea.
+Hearing loss has rarely happened in people taking Erythrocin (erythromycin tablets). This most often goes back to normal. The chance may be higher if you have kidney problems or if you take high doses of Erythrocin (erythromycin tablets). Call your doctor right away if you have hearing problems like hearing loss.
+Erythrocin side effects (more detail)</t>
         </is>
       </c>
     </row>
@@ -6712,23 +11750,18 @@
       </c>
       <c r="H78" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">❌ Error processing Erythrocin Lactobionate: Message: invalid session id; For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#invalidsessionidexception
-Stacktrace:
-0   chromedriver                        0x00000001053c0ea4 cxxbridge1$str$ptr + 2722840
-1   chromedriver                        0x00000001053b8dac cxxbridge1$str$ptr + 2689824
-2   chromedriver                        0x0000000104f0a260 cxxbridge1$string$len + 90252
-3   chromedriver                        0x0000000104f44cf8 cxxbridge1$string$len + 330532
-4   chromedriver                        0x0000000104f6d2e4 cxxbridge1$string$len + 495888
-5   chromedriver                        0x0000000104f6c5ec cxxbridge1$string$len + 492568
-6   chromedriver                        0x0000000104ed93d8 chromedriver + 87000
-7   chromedriver                        0x0000000105383fc0 cxxbridge1$str$ptr + 2473268
-8   chromedriver                        0x000000010538722c cxxbridge1$str$ptr + 2486176
-9   chromedriver                        0x0000000105365a08 cxxbridge1$str$ptr + 2348924
-10  chromedriver                        0x0000000105387ae8 cxxbridge1$str$ptr + 2488412
-11  chromedriver                        0x0000000105356a98 cxxbridge1$str$ptr + 2287628
-12  chromedriver                        0x0000000104ed7664 chromedriver + 79460
-13  dyld                                0x0000000181e2ab98 start + 6076
-</t>
+          <t>Erythromycin injection is used to treat bacterial infections in many different parts of the body. It is also used to treat diphtheria, acute pelvic inflammatory disease, and Legionnaire's disease. This medicine is also used to prevent bacterial endocarditis and rheumatic fever to occur again in patients who have had an allergic reaction to penicillin or sulfa drugs.
+Tell your doctor if you have ever had any unusual or allergic reaction to this medicine or any other medicines. Also tell your health care professional if you have any other types of allergies, such as to foods, dyes, preservatives, or animals. For non-prescription products, read the label or package ingredients carefully.
+Using this medicine with any of the following medicines may cause an increased risk of certain side effects, but using both drugs may be the best treatment for you. If both medicines are prescribed together, your doctor may change the dose or how often you use one or both of the medicines.
+You should not receive this medicine if you are also using astemizole (Hismanal®), cisapride (Propulsid®), dihydroergotamine (Migranal®), ergotamine (Ergomar®), pimozide (Orap®), terfenadine (Seldane®), or statin medicine (eg, lovastatin, simvastatin, Mevacor®, Zocor®). Using these medicines together may cause serious unwanted effects.
+Check with your doctor right away if you or your child have pain or tenderness in the upper stomach, pale stools, dark urine, loss of appetite, nausea, unusual tiredness or weakness, or yellow eyes or skin. These could be symptoms of a serious liver problem.
+This medicine can cause changes in heart rhythms, such as a condition called QT prolongation. It may change the way your heart beats and cause fainting or serious side effects in some patients. Contact your doctor right away if you or your child have any symptoms of heart rhythm problems, such as fast, pounding, or uneven heartbeat.
+Along with its needed effects, a medicine may cause some unwanted effects. Although not all of these side effects may occur, if they do occur they may need medical attention.
+Check with your doctor or nurse immediately if any of the following side effects occur:
+Some side effects may occur that usually do not need medical attention. These side effects may go away during treatment as your body adjusts to the medicine. Also, your health care professional may be able to tell you about ways to prevent or reduce some of these side effects. Check with your health care professional if any of the following side effects continue or are bothersome or if you have any questions about them:
+Other side effects not listed may also occur in some patients. If you notice any other effects, check with your healthcare professional.
+Call your doctor for medical advice about side effects. You may report side effects to the FDA at 1-800-FDA-1088.
+Levofloxacin is a fluoroquinolone antibiotic used to treat serious bacterial infections and prevent ...</t>
         </is>
       </c>
     </row>
@@ -13526,7 +18559,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="25" customWidth="1" min="1" max="1"/>
     <col width="50" customWidth="1" min="2" max="2"/>
@@ -15035,7 +20068,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="25" customWidth="1" min="1" max="1"/>
     <col width="50" customWidth="1" min="2" max="2"/>
@@ -15708,7 +20741,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="25" customWidth="1" min="1" max="1"/>
     <col width="50" customWidth="1" min="2" max="2"/>
@@ -16667,7 +21700,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="25" customWidth="1" min="1" max="1"/>
     <col width="50" customWidth="1" min="2" max="2"/>
@@ -18352,7 +23385,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="25" customWidth="1" min="1" max="1"/>
     <col width="50" customWidth="1" min="2" max="2"/>
@@ -19069,7 +24102,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="25" customWidth="1" min="1" max="1"/>
     <col width="50" customWidth="1" min="2" max="2"/>
@@ -19368,7 +24401,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="25" customWidth="1" min="1" max="1"/>
     <col width="50" customWidth="1" min="2" max="2"/>
@@ -19975,7 +25008,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="25" customWidth="1" min="1" max="1"/>
     <col width="50" customWidth="1" min="2" max="2"/>

--- a/Analysis/main_diseases_analysis_final.xlsx
+++ b/Analysis/main_diseases_analysis_final.xlsx
@@ -556,7 +556,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="30" customWidth="1" min="1" max="1"/>
     <col width="15" customWidth="1" min="2" max="2"/>
@@ -903,7 +903,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="25" customWidth="1" min="1" max="1"/>
     <col width="50" customWidth="1" min="2" max="2"/>
@@ -1488,7 +1488,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="25" customWidth="1" min="1" max="1"/>
     <col width="50" customWidth="1" min="2" max="2"/>
@@ -3217,7 +3217,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="30" customWidth="1" min="1" max="1"/>
     <col width="40" customWidth="1" min="2" max="2"/>
@@ -31691,7 +31691,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="25" customWidth="1" min="1" max="1"/>
     <col width="50" customWidth="1" min="2" max="2"/>
@@ -33200,7 +33200,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="25" customWidth="1" min="1" max="1"/>
     <col width="50" customWidth="1" min="2" max="2"/>
@@ -33873,7 +33873,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="25" customWidth="1" min="1" max="1"/>
     <col width="50" customWidth="1" min="2" max="2"/>
@@ -34832,7 +34832,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="25" customWidth="1" min="1" max="1"/>
     <col width="50" customWidth="1" min="2" max="2"/>
@@ -36517,7 +36517,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="25" customWidth="1" min="1" max="1"/>
     <col width="50" customWidth="1" min="2" max="2"/>
@@ -37234,7 +37234,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="25" customWidth="1" min="1" max="1"/>
     <col width="50" customWidth="1" min="2" max="2"/>
@@ -37533,7 +37533,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="25" customWidth="1" min="1" max="1"/>
     <col width="50" customWidth="1" min="2" max="2"/>
@@ -38140,7 +38140,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="25" customWidth="1" min="1" max="1"/>
     <col width="50" customWidth="1" min="2" max="2"/>

--- a/Analysis/main_diseases_analysis_final.xlsx
+++ b/Analysis/main_diseases_analysis_final.xlsx
@@ -89,7 +89,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill/>
     </fill>
@@ -150,8 +150,14 @@
         <bgColor rgb="FFF8F9FA"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F8F9FA"/>
+        <bgColor rgb="00F8F9FA"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -189,11 +195,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -232,6 +244,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -603,7 +621,7 @@
       <selection activeCell="A1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="30" customWidth="1" style="15" min="1" max="1"/>
     <col width="15" customWidth="1" style="15" min="2" max="2"/>
@@ -950,7 +968,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="25" customWidth="1" style="15" min="1" max="1"/>
     <col width="50" customWidth="1" style="15" min="2" max="2"/>
@@ -1534,7 +1552,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="25" customWidth="1" style="15" min="1" max="1"/>
     <col width="50" customWidth="1" style="15" min="2" max="2"/>
@@ -3262,7 +3280,7 @@
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="30" customWidth="1" style="15" min="1" max="1"/>
     <col width="40" customWidth="1" style="15" min="2" max="2"/>
@@ -3424,7 +3442,16 @@
           <t>https://www.drugs.com/5-htp-mood-and-stress.html</t>
         </is>
       </c>
-      <c r="G9" s="12" t="n"/>
+      <c r="G9" s="20">
+        <f>== 5-HTP Mood and Stress side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives, difficult breathing, swelling of your face, lips, tongue, or throat.
+Seek medical attention right away if you have symptoms of serotonin syndrome, such as: agitation, hallucinations, fever, sweating, shivering, fast heart rate, muscle stiffness, twitching, loss of coordination, nausea, vomiting, or diarrhea.
+Stop using 5-HTP Mood and Stress and call your healthcare provider at once if you have:
+slow heart rate, feeling like you might pass out;
+skin rash, bruising; or
+Common side effects of 5-HTP Mood and Stress may include:</f>
+        <v/>
+      </c>
       <c r="H9" s="10" t="n"/>
     </row>
     <row r="10" ht="409.5" customHeight="1" s="15">
@@ -3464,7 +3491,11 @@
           <t>https://www.drugs.com/a-g-profen.html</t>
         </is>
       </c>
-      <c r="G10" s="13" t="n"/>
+      <c r="G10" s="21" t="inlineStr">
+        <is>
+          <t>❌ No substantial side effects content found for A-G Profen</t>
+        </is>
+      </c>
       <c r="H10" s="8" t="n"/>
     </row>
     <row r="11" ht="409.5" customHeight="1" s="15">
@@ -3504,7 +3535,15 @@
           <t>https://www.drugs.com/achromycin-v.html</t>
         </is>
       </c>
-      <c r="G11" s="12" t="n"/>
+      <c r="G11" s="20">
+        <f>== Achromycin V Side Effects ===
+Generic name: tetracycline
+Medically reviewed by Drugs.com. Last updated on Jun 23, 2025.
+Serious side effects
+Other side effects
+Professional info</f>
+        <v/>
+      </c>
       <c r="H11" s="10" t="n"/>
     </row>
     <row r="12" ht="16" customHeight="1" s="15">
@@ -3544,7 +3583,17 @@
           <t>https://www.drugs.com/actimmune.html</t>
         </is>
       </c>
-      <c r="G12" s="13" t="n"/>
+      <c r="G12" s="21">
+        <f>== Actimmune side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficulty breathing; swelling of your face, lips, tongue, or throat.
+Actimmune may cause serious side effects. Call your doctor at once if you have:
+confusion, hallucinations;
+a seizure (convulsions);
+low blood cell counts--fever, chills, flu-like symptoms, swollen gums, mouth sores, skin sores, easy bruising, unusual bleeding; or
+Your doses may be delayed or reduced if you have certain side effects.
+Common side effects of Actimmune may include:</f>
+        <v/>
+      </c>
       <c r="H12" s="8" t="n"/>
     </row>
     <row r="13" ht="16" customHeight="1" s="15">
@@ -3584,7 +3633,21 @@
           <t>https://www.drugs.com/activase.html</t>
         </is>
       </c>
-      <c r="G13" s="12" t="n"/>
+      <c r="G13" s="20">
+        <f>== Activase side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+Activase increases your risk of bleeding, which can be severe or fatal. Call your doctor or seek emergency medical attention if you have bleeding that will not stop. Bleeding may occur from a surgical incision, or from the skin where a needle was inserted during a blood test or while receiving injectable medication. You may also have bleeding on the inside of your body, such as in your stomach or intestines, kidneys or bladder, brain, or within the muscles.
+Call your doctor or get emergency medical help if you have signs of bleeding, such as:
+sudden headache, feeling very weak or dizzy;
+bleeding gums, nosebleeds;
+easy bruising;
+bleeding from a wound, incision, catheter, or needle injection;
+bloody or tarry stools, coughing up blood or vomit that looks like coffee grounds;
+red or pink urine;
+heavy menstrual periods or abnormal vaginal bleeding; or
+Also call your doctor at once if you have:</f>
+        <v/>
+      </c>
       <c r="H13" s="10" t="n"/>
     </row>
     <row r="14" ht="16" customHeight="1" s="15">
@@ -3606,7 +3669,11 @@
           <t>https://www.drugs.com/addaprin.html</t>
         </is>
       </c>
-      <c r="G14" s="13" t="n"/>
+      <c r="G14" s="21" t="inlineStr">
+        <is>
+          <t>❌ No substantial side effects content found for Addaprin</t>
+        </is>
+      </c>
       <c r="H14" s="8" t="n"/>
     </row>
     <row r="15" ht="16" customHeight="1" s="15">
@@ -3628,7 +3695,15 @@
           <t>https://www.drugs.com/adipex-p.html</t>
         </is>
       </c>
-      <c r="G15" s="12" t="n"/>
+      <c r="G15" s="20">
+        <f>== Adipex-P Side Effects ===
+Generic name: phentermine
+Medically reviewed by Drugs.com. Last updated on Nov 11, 2024.
+Serious side effects
+Other side effects
+Professional info</f>
+        <v/>
+      </c>
       <c r="H15" s="10" t="n"/>
     </row>
     <row r="16" ht="16" customHeight="1" s="15">
@@ -3646,7 +3721,20 @@
           <t>https://www.drugs.com/advair-hfa.html</t>
         </is>
       </c>
-      <c r="G16" s="13" t="n"/>
+      <c r="G16" s="21">
+        <f>== Advair HFA side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficulty breathing; swelling of your face, lips, tongue, or throat.
+Advair HFA may cause serious side effects. Call your doctor at once if you have:
+wheezing, choking, or other breathing problems after using this medicine;
+fever, chills, cough with mucus, feeling short of breath;
+chest pain, fast or irregular heartbeats, severe headache, pounding in your neck or ears;
+tremors, nervousness;
+blurred vision, tunnel vision, eye pain, or seeing halos around lights;
+high blood sugar--increased thirst, increased urination, dry mouth, fruity breath odor;
+signs of a hormonal disorder--worsening tiredness or weakness, feeling light-headed, nausea, vomiting.
+Common side effects of Advair HFA may include:</f>
+        <v/>
+      </c>
       <c r="H16" s="8" t="n"/>
     </row>
     <row r="17" ht="16" customHeight="1" s="15">
@@ -3664,7 +3752,11 @@
           <t>https://www.drugs.com/advil-children's.html</t>
         </is>
       </c>
-      <c r="G17" s="12" t="n"/>
+      <c r="G17" s="20" t="inlineStr">
+        <is>
+          <t>❌ Could not find main result for Advil Children's</t>
+        </is>
+      </c>
       <c r="H17" s="10" t="n"/>
     </row>
     <row r="18" ht="32" customHeight="1" s="15">
@@ -3682,7 +3774,11 @@
           <t>https://www.drugs.com/advil-infant's-concentrated-drops.html</t>
         </is>
       </c>
-      <c r="G18" s="13" t="n"/>
+      <c r="G18" s="21" t="inlineStr">
+        <is>
+          <t>❌ Could not find main result for Advil Infant's Concentrated Drops</t>
+        </is>
+      </c>
       <c r="H18" s="8" t="n"/>
     </row>
     <row r="19" ht="32" customHeight="1" s="15">
@@ -3700,7 +3796,16 @@
           <t>https://www.drugs.com/advil-junior-strength.html</t>
         </is>
       </c>
-      <c r="G19" s="12" t="n"/>
+      <c r="G19" s="20">
+        <f>== Advil Junior Strength Side Effects ===
+Advil Junior Strength
+Generic name: ibuprofen
+Medically reviewed by Drugs.com. Last updated on Jun 5, 2025.
+Serious side effects
+Other side effects
+Professional info</f>
+        <v/>
+      </c>
       <c r="H19" s="10" t="n"/>
     </row>
     <row r="20" ht="16" customHeight="1" s="15">
@@ -3718,7 +3823,15 @@
           <t>https://www.drugs.com/advil-liqui-gels.html</t>
         </is>
       </c>
-      <c r="G20" s="13" t="n"/>
+      <c r="G20" s="21">
+        <f>== Advil Liqui-Gels Side Effects ===
+Generic name: ibuprofen
+Medically reviewed by Drugs.com. Last updated on Jun 5, 2025.
+Serious side effects
+Other side effects
+Professional info</f>
+        <v/>
+      </c>
       <c r="H20" s="8" t="n"/>
     </row>
     <row r="21" ht="16" customHeight="1" s="15">
@@ -3736,7 +3849,22 @@
           <t>https://www.drugs.com/ala-tet.html</t>
         </is>
       </c>
-      <c r="G21" s="12" t="n"/>
+      <c r="G21" s="20">
+        <f>== Ala-Tet side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+Ala-Tet may cause serious side effects. Call your doctor at once if you have:
+severe blistering, peeling, and red skin rash;
+fever, chills, body aches, flu symptoms;
+pale or yellowed skin, easy bruising or bleeding;
+any signs of a new infection.
+Common side effects of Ala-Tet may include:
+nausea, vomiting, diarrhea, upset stomach, loss of appetite;
+white patches or sores inside your mouth or on your lips;
+swollen tongue, black or "hairy" tongue, trouble swallowing;
+sores or swelling in your rectal or genital area; or
+vaginal itching or discharge.</f>
+        <v/>
+      </c>
       <c r="H21" s="10" t="n"/>
     </row>
     <row r="22" ht="16" customHeight="1" s="15">
@@ -3754,7 +3882,16 @@
           <t>https://www.drugs.com/altoprev.html</t>
         </is>
       </c>
-      <c r="G22" s="13" t="n"/>
+      <c r="G22" s="21">
+        <f>== Altoprev side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+Altoprev can cause the breakdown of muscle tissue, which can lead to kidney failure. Call your doctor right away if you have unexplained muscle pain, tenderness, or weakness especially if you also have fever, unusual tiredness, or dark colored urine.
+Also call your doctor at once if you have:
+muscle weakness in your hips, shoulders, neck, and back;
+trouble lifting your arms, trouble climbing or standing;
+Common side effects of Altoprev may include:</f>
+        <v/>
+      </c>
       <c r="H22" s="8" t="n"/>
     </row>
     <row r="23" ht="16" customHeight="1" s="15">
@@ -3772,7 +3909,19 @@
           <t>https://www.drugs.com/amoclan.html</t>
         </is>
       </c>
-      <c r="G23" s="12" t="n"/>
+      <c r="G23" s="20">
+        <f>== Side Effects of Amoclan ===
+Along with its needed effects, a medicine may cause some unwanted effects. Although not all of these side effects may occur, if they do occur they may need medical attention.
+Check with your doctor immediately if any of the following side effects occur:
+Hives or welts
+itching
+itching of the vagina or genital area
+pain during sexual intercourse
+redness of the skin
+skin rash
+thick, white vaginal discharge with no odor or with a mild odor</f>
+        <v/>
+      </c>
       <c r="H23" s="10" t="n"/>
     </row>
     <row r="24" ht="16" customHeight="1" s="15">
@@ -3790,7 +3939,19 @@
           <t>https://www.drugs.com/anafranil.html</t>
         </is>
       </c>
-      <c r="G24" s="13" t="n"/>
+      <c r="G24" s="21">
+        <f>== Anafranil side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+Seek medical treatment if you have a serious drug reaction that can affect many parts of your body. Symptoms may include: skin rash, fever, swollen glands, muscle aches, severe weakness, unusual bruising, or yellowing of your skin or eyes.
+Report any new or worsening symptoms to your doctor, such as: mood or behavior changes, anxiety, panic attacks, trouble sleeping, or if you feel impulsive, irritable, agitated, hostile, aggressive, restless, hyperactive (mentally or physically), more depressed, or have thoughts about suicide or hurting yourself.
+Anafranil may cause serious side effects. Call your doctor at once if you have:
+low sodium level --headache, confusion, slurred speech, severe weakness, vomiting, loss of coordination, feeling unsteady;
+blurred vision, tunnel vision, eye pain or swelling, or seeing halos around lights;
+confusion, extreme fear, thoughts of hurting yourself;
+pain or burning when you urinate; or
+a seizure (convulsions).</f>
+        <v/>
+      </c>
       <c r="H24" s="8" t="n"/>
     </row>
     <row r="25" ht="16" customHeight="1" s="15">
@@ -3808,7 +3969,19 @@
           <t>https://www.drugs.com/anaprox-ds.html</t>
         </is>
       </c>
-      <c r="G25" s="12" t="n"/>
+      <c r="G25" s="20">
+        <f>== Anaprox-DS side effects ===
+Get emergency medical help if you have signs of an allergic reaction (runny or stuffy nose, wheezing or trouble breathing, hives, swelling in your face or throat) or a severe skin reaction (fever, sore throat, burning eyes, skin pain, red or purple skin rash with blistering and peeling).
+Stop using Anaprox-DS and seek medical treatment if you have a serious drug reaction that can affect many parts of your body. Symptoms may include skin rash, fever, swollen glands, muscle aches, severe weakness, unusual bruising, or yellowing of your skin or eyes.
+Get emergency medical help if you have signs of a heart attack or stroke: chest pain spreading to your jaw or shoulder, sudden numbness or weakness on one side of the body, slurred speech, leg swelling, feeling short of breath.
+Anaprox-DS may cause serious side effects. Stop using Anaprox-DS and call your doctor at once if you have:
+shortness of breath (even with mild exertion);
+swelling or rapid weight gain;
+the first sign of any skin rash or blister, no matter how mild;
+liver problems--nausea, upper stomach pain, loss of appetite, dark urine, clay-colored stools, jaundice (yellowing of the skin or eyes);
+kidney problems--little or no urination, painful urination, swelling in your feet or ankles; or</f>
+        <v/>
+      </c>
       <c r="H25" s="10" t="n"/>
     </row>
     <row r="26" ht="16" customHeight="1" s="15">
@@ -3826,7 +3999,20 @@
           <t>https://www.drugs.com/antara.html</t>
         </is>
       </c>
-      <c r="G26" s="13" t="n"/>
+      <c r="G26" s="21">
+        <f>== Antara side effects ===
+Get emergency medical help if you have signs of an allergic reaction (hives, difficult breathing, swelling in your face or throat) or a severe skin reaction (fever, sore throat, burning in your eyes, skin pain, red or purple skin rash that spreads and causes blistering and peeling).
+In rare cases, Antara can cause a condition that results in the breakdown of skeletal muscle tissue, leading to kidney failure. Call your doctor right away if you have unexplained muscle pain, tenderness, or weakness especially if you also have fever, unusual tiredness, or dark colored urine.
+Also call your doctor at once if you have:
+sharp stomach pain spreading to your back or shoulder blade;
+loss of appetite, stomach pain just after eating a meal;
+jaundice (yellowing of the skin or eyes);
+fever, chills, weakness, sore throat, mouth sores, unusual bruising or bleeding;
+chest pain, sudden cough, wheezing, rapid breathing, coughing up blood; or
+swelling, warmth, or redness in an arm or leg.
+Common side effects of Antara may include:</f>
+        <v/>
+      </c>
       <c r="H26" s="8" t="n"/>
     </row>
     <row r="27" ht="16" customHeight="1" s="15">
@@ -3844,7 +4030,23 @@
           <t>https://www.drugs.com/apresoline.html</t>
         </is>
       </c>
-      <c r="G27" s="12" t="n"/>
+      <c r="G27" s="20">
+        <f>== Apresoline side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+Apresoline may cause serious side effects. Call your doctor at once if you have:
+chest pain or pressure, pain spreading to your jaw or shoulder;
+fast or pounding heartbeats;
+a light-headed feeling, like you might pass out;
+numbness, tingling, or burning pain in your hands or feet;
+painful or difficult urination;
+little or no urination; or
+lupus-like syndrome--joint pain or swelling with fever, swollen glands, muscle aches, chest pain, vomiting, unusual thoughts or behavior, and patchy skin color.
+Common side effects of Apresoline may include:
+chest pain, fast heart rate;
+headache; or
+nausea, vomiting, diarrhea, loss of appetite.</f>
+        <v/>
+      </c>
       <c r="H27" s="10" t="n"/>
     </row>
     <row r="28" ht="16" customHeight="1" s="15">
@@ -3862,7 +4064,32 @@
           <t>https://www.drugs.com/aristospan.html</t>
         </is>
       </c>
-      <c r="G28" s="13" t="n"/>
+      <c r="G28" s="21">
+        <f>== Side Effects of Aristospan ===
+Along with its needed effects, a medicine may cause some unwanted effects. Although not all of these side effects may occur, if they do occur they may need medical attention.
+Check with your doctor or nurse immediately if any of the following side effects occur:
+Aggression
+agitation
+anxiety
+blurred vision
+decrease in the amount of urine
+dizziness
+fast, slow, pounding, or irregular heartbeat or pulse
+headache
+irritability
+mental depression
+mood changes
+nervousness
+noisy, rattling breathing
+numbness or tingling in the arms or legs
+pounding in the ears
+shortness of breath
+swelling of the fingers, hands, feet, or lower legs
+trouble thinking, speaking, or walking
+troubled breathing at rest
+weight gain</f>
+        <v/>
+      </c>
       <c r="H28" s="8" t="n"/>
     </row>
     <row r="29" ht="16" customHeight="1" s="15">
@@ -3880,7 +4107,18 @@
           <t>https://www.drugs.com/arthritis-pain.html</t>
         </is>
       </c>
-      <c r="G29" s="12" t="n"/>
+      <c r="G29" s="20">
+        <f>== Arthritis Pain side effects ===
+Platelet aggregation inhibitors
+Get emergency medical help if you have signs of an allergic reaction: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+Arthritis Pain may cause serious side effects. Stop using Arthritis Pain and call your doctor at once if you have:
+ringing in your ears, confusion, hallucinations, rapid breathing, seizure (convulsions);
+severe nausea, vomiting, or stomach pain;
+bloody or tarry stools, coughing up blood or vomit that looks like coffee grounds;
+fever lasting longer than 3 days; or
+swelling, or pain lasting longer than 10 days.</f>
+        <v/>
+      </c>
       <c r="H29" s="10" t="n"/>
     </row>
     <row r="30" ht="16" customHeight="1" s="15">
@@ -3898,7 +4136,11 @@
           <t>https://www.drugs.com/ascriptin.html</t>
         </is>
       </c>
-      <c r="G30" s="13" t="n"/>
+      <c r="G30" s="21" t="inlineStr">
+        <is>
+          <t>❌ No substantial side effects content found for Ascriptin</t>
+        </is>
+      </c>
       <c r="H30" s="8" t="n"/>
     </row>
     <row r="31" ht="16" customHeight="1" s="15">
@@ -3916,7 +4158,11 @@
           <t>https://www.drugs.com/aspergum.html</t>
         </is>
       </c>
-      <c r="G31" s="12" t="n"/>
+      <c r="G31" s="20" t="inlineStr">
+        <is>
+          <t>❌ No substantial side effects content found for Aspergum</t>
+        </is>
+      </c>
       <c r="H31" s="10" t="n"/>
     </row>
     <row r="32" ht="16" customHeight="1" s="15">
@@ -3934,7 +4180,18 @@
           <t>https://www.drugs.com/aspi-cor.html</t>
         </is>
       </c>
-      <c r="G32" s="13" t="n"/>
+      <c r="G32" s="21">
+        <f>== Aspi-Cor side effects ===
+Platelet aggregation inhibitors
+Get emergency medical help if you have signs of an allergic reaction: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+Aspi-Cor may cause serious side effects. Stop using Aspi-Cor and call your doctor at once if you have:
+ringing in your ears, confusion, hallucinations, rapid breathing, seizure (convulsions);
+severe nausea, vomiting, or stomach pain;
+bloody or tarry stools, coughing up blood or vomit that looks like coffee grounds;
+fever lasting longer than 3 days; or
+swelling, or pain lasting longer than 10 days.</f>
+        <v/>
+      </c>
       <c r="H32" s="8" t="n"/>
     </row>
     <row r="33" ht="16" customHeight="1" s="15">
@@ -3952,7 +4209,18 @@
           <t>https://www.drugs.com/aspir-low.html</t>
         </is>
       </c>
-      <c r="G33" s="12" t="n"/>
+      <c r="G33" s="20">
+        <f>== Aspir-Low side effects ===
+Platelet aggregation inhibitors
+Get emergency medical help if you have signs of an allergic reaction: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+Aspir-Low may cause serious side effects. Stop using Aspir-Low and call your doctor at once if you have:
+ringing in your ears, confusion, hallucinations, rapid breathing, seizure (convulsions);
+severe nausea, vomiting, or stomach pain;
+bloody or tarry stools, coughing up blood or vomit that looks like coffee grounds;
+fever lasting longer than 3 days; or
+swelling, or pain lasting longer than 10 days.</f>
+        <v/>
+      </c>
       <c r="H33" s="10" t="n"/>
     </row>
     <row r="34" ht="16" customHeight="1" s="15">
@@ -3970,7 +4238,11 @@
           <t>https://www.drugs.com/aspirtab.html</t>
         </is>
       </c>
-      <c r="G34" s="13" t="n"/>
+      <c r="G34" s="21" t="inlineStr">
+        <is>
+          <t>❌ No substantial side effects content found for Aspirtab</t>
+        </is>
+      </c>
       <c r="H34" s="8" t="n"/>
     </row>
     <row r="35" ht="16" customHeight="1" s="15">
@@ -3988,7 +4260,17 @@
           <t>https://www.drugs.com/atorvaliq.html</t>
         </is>
       </c>
-      <c r="G35" s="12" t="n"/>
+      <c r="G35" s="20">
+        <f>== Atorvaliq side effects ===
+Get emergency medical help if you have signs of an allergic reaction (hives, difficult breathing, swelling in your face or throat) or a severe skin reaction (fever, sore throat, burning eyes, skin pain, red or purple skin rash with blistering and peeling).
+Atorvaliq can cause the breakdown of muscle tissue, which can lead to kidney failure. Call your doctor right away if you have unexplained muscle pain, tenderness, or weakness especially if you also have fever, unusual tiredness, or dark urine.
+Also call your doctor at once if you have:
+muscle weakness in your hips, shoulders, neck, and back;
+trouble lifting your arms, trouble climbing or standing;
+kidney problems--swelling, urinating less, feeling tired or short of breath; or
+high blood sugar--increased thirst, increased urination, dry mouth, fruity breath odor.</f>
+        <v/>
+      </c>
       <c r="H35" s="10" t="n"/>
     </row>
     <row r="36" ht="16" customHeight="1" s="15">
@@ -4006,7 +4288,17 @@
           <t>https://www.drugs.com/atrovent.html</t>
         </is>
       </c>
-      <c r="G36" s="13" t="n"/>
+      <c r="G36" s="21">
+        <f>== Atrovent HFA side effects ===
+Get emergency medical help if you have signs of an allergic reaction to Atrovent HFA: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+You may need to use a different bronchodilator medication if you have an allergic reaction to ipratropium.
+Call your doctor at once if you have:
+wheezing, choking, or other breathing problems after using this medicine;
+little or no urination;
+blurred vision, tunnel vision, eye pain, or seeing halos around lights; or
+worsened breathing problems.</f>
+        <v/>
+      </c>
       <c r="H36" s="8" t="n"/>
     </row>
     <row r="37" ht="16" customHeight="1" s="15">
@@ -4024,7 +4316,19 @@
           <t>https://www.drugs.com/augmentin-xr.html</t>
         </is>
       </c>
-      <c r="G37" s="12" t="n"/>
+      <c r="G37" s="20">
+        <f>== Side Effects of Augmentin XR ===
+Along with its needed effects, a medicine may cause some unwanted effects. Although not all of these side effects may occur, if they do occur they may need medical attention.
+Check with your doctor immediately if any of the following side effects occur:
+Hives or welts
+itching
+itching of the vagina or genital area
+pain during sexual intercourse
+redness of the skin
+skin rash
+thick, white vaginal discharge with no odor or with a mild odor</f>
+        <v/>
+      </c>
       <c r="H37" s="10" t="n"/>
     </row>
     <row r="38" ht="16" customHeight="1" s="15">
@@ -4042,7 +4346,15 @@
           <t>https://www.drugs.com/avtozma.html</t>
         </is>
       </c>
-      <c r="G38" s="13" t="n"/>
+      <c r="G38" s="21">
+        <f>== Avtozma Side Effects ===
+Generic name: tocilizumab
+Medically reviewed by Drugs.com. Last updated on Jun 25, 2025.
+Serious side effects
+Other side effects
+Professional info</f>
+        <v/>
+      </c>
       <c r="H38" s="8" t="n"/>
     </row>
     <row r="39" ht="32" customHeight="1" s="15">
@@ -4060,7 +4372,15 @@
           <t>https://www.drugs.com/azithromycin-dose-pack.html</t>
         </is>
       </c>
-      <c r="G39" s="12" t="n"/>
+      <c r="G39" s="20">
+        <f>== Azithromycin Dose Pack Side Effects ===
+Generic name: azithromycin
+Medically reviewed by Drugs.com. Last updated on Oct 16, 2024.
+Serious side effects
+Other side effects
+Professional info</f>
+        <v/>
+      </c>
       <c r="H39" s="10" t="n"/>
     </row>
     <row r="40" ht="16" customHeight="1" s="15">
@@ -4078,7 +4398,18 @@
           <t>https://www.drugs.com/azulfidine.html</t>
         </is>
       </c>
-      <c r="G40" s="13" t="n"/>
+      <c r="G40" s="21">
+        <f>== Azulfidine side effects ===
+Get emergency medical help if you have signs of an allergic reaction (hives, difficult breathing, swelling in your face or throat) or a severe skin reaction (fever, sore throat, burning eyes, skin pain, red or purple skin rash with blistering and peeling).
+Seek medical treatment if you have a serious drug reaction that can affect many parts of your body. Symptoms may include: skin rash, fever, swollen glands, muscle aches, severe weakness, unusual bruising, or yellowing of your skin or eyes.
+You may get infections more easily, even serious or fatal infections. Call your doctor right away if you have signs of infection such as:
+fever, chills, sore throat;
+mouth sores, red or swollen gums;
+pale skin, easy bruising, unusual bleeding; or
+chest discomfort, wheezing, dry cough or hack, rapid weight loss.
+Also call your doctor at once if you have:</f>
+        <v/>
+      </c>
       <c r="H40" s="8" t="n"/>
     </row>
     <row r="41" ht="16" customHeight="1" s="15">
@@ -4096,7 +4427,21 @@
           <t>https://www.drugs.com/b3-500-gr.html</t>
         </is>
       </c>
-      <c r="G41" s="12" t="n"/>
+      <c r="G41" s="20">
+        <f>== B3-500-Gr side effects ===
+Miscellaneous antihyperlipidemic agents
+Get emergency medical help if you have signs of an allergic reaction: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+B3-500-Gr may cause serious side effects. Call your doctor at once if you have:
+heart attack symptoms--chest pain or pressure, pain spreading to your jaw or shoulder, nausea, sweating;
+high blood sugar--increased thirst, increased urination, dry mouth, fruity breath odor;
+unexplained muscle pain, tenderness or weakness;
+a light-headed feeling, like you might pass out;
+irregular heartbeats;
+severe warmth or redness under your skin;
+vision problems; or
+jaundice (yellowing of the skin or eyes).</f>
+        <v/>
+      </c>
       <c r="H41" s="10" t="n"/>
     </row>
     <row r="42" ht="16" customHeight="1" s="15">
@@ -4114,7 +4459,15 @@
           <t>https://www.drugs.com/bayer-aspirin.html</t>
         </is>
       </c>
-      <c r="G42" s="13" t="n"/>
+      <c r="G42" s="21">
+        <f>== Bayer Aspirin Side Effects ===
+Generic name: aspirin
+Medically reviewed by Drugs.com. Last updated on May 14, 2024.
+Serious side effects
+Other side effects
+Professional info</f>
+        <v/>
+      </c>
       <c r="H42" s="8" t="n"/>
     </row>
     <row r="43" ht="32" customHeight="1" s="15">
@@ -4132,7 +4485,15 @@
           <t>https://www.drugs.com/bayer-aspirin-extra-strength-plus.html</t>
         </is>
       </c>
-      <c r="G43" s="12" t="n"/>
+      <c r="G43" s="20">
+        <f>== Bayer Aspirin Extra Strength Plus Side Effects ===
+Generic name: aspirin
+Medically reviewed by Drugs.com. Last updated on May 14, 2024.
+Serious side effects
+Other side effects
+Professional info</f>
+        <v/>
+      </c>
       <c r="H43" s="10" t="n"/>
     </row>
     <row r="44" ht="16" customHeight="1" s="15">
@@ -4150,7 +4511,11 @@
           <t>https://www.drugs.com/belviq-xr.html</t>
         </is>
       </c>
-      <c r="G44" s="13" t="n"/>
+      <c r="G44" s="21" t="inlineStr">
+        <is>
+          <t>❌ No substantial side effects content found for Belviq XR</t>
+        </is>
+      </c>
       <c r="H44" s="8" t="n"/>
     </row>
     <row r="45" ht="16" customHeight="1" s="15">
@@ -4168,7 +4533,22 @@
           <t>https://www.drugs.com/brodspec.html</t>
         </is>
       </c>
-      <c r="G45" s="12" t="n"/>
+      <c r="G45" s="20">
+        <f>== Brodspec side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+Brodspec may cause serious side effects. Call your doctor at once if you have:
+severe blistering, peeling, and red skin rash;
+fever, chills, body aches, flu symptoms;
+pale or yellowed skin, easy bruising or bleeding;
+any signs of a new infection.
+Common side effects of Brodspec may include:
+nausea, vomiting, diarrhea, upset stomach, loss of appetite;
+white patches or sores inside your mouth or on your lips;
+swollen tongue, black or "hairy" tongue, trouble swallowing;
+sores or swelling in your rectal or genital area; or
+vaginal itching or discharge.</f>
+        <v/>
+      </c>
       <c r="H45" s="10" t="n"/>
     </row>
     <row r="46" ht="16" customHeight="1" s="15">
@@ -4186,7 +4566,15 @@
           <t>https://www.drugs.com/celestone-soluspan.html</t>
         </is>
       </c>
-      <c r="G46" s="13" t="n"/>
+      <c r="G46" s="21">
+        <f>== Celestone Soluspan Side Effects ===
+Generic name: betamethasone
+Medically reviewed by Drugs.com. Last updated on Oct 28, 2024.
+Serious side effects
+Other side effects
+Professional info</f>
+        <v/>
+      </c>
       <c r="H46" s="8" t="n"/>
     </row>
     <row r="47" ht="16" customHeight="1" s="15">
@@ -4204,7 +4592,19 @@
           <t>https://www.drugs.com/chaparral.html</t>
         </is>
       </c>
-      <c r="G47" s="12" t="n"/>
+      <c r="G47" s="20">
+        <f>== Chaparral side effects ===
+Get emergency medical help if you have any of these signs of an allergic reaction: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+Stop using chaparral and call your healthcare provider at once if you have:
+liver problems--nausea, upper stomach pain, itching, tired feeling, loss of appetite, dark urine, clay-colored stools, jaundice (yellowing of the skin or eyes); or
+Common side effects of chaparral may include:
+nausea, stomach pain;
+diarrhea, weight loss;
+fever;
+itching or rash (when used on the skin); or
+abnormal liver function tests.</f>
+        <v/>
+      </c>
       <c r="H47" s="10" t="n"/>
     </row>
     <row r="48" ht="16" customHeight="1" s="15">
@@ -4222,7 +4622,16 @@
           <t>https://www.drugs.com/chondroitin.html</t>
         </is>
       </c>
-      <c r="G48" s="13" t="n"/>
+      <c r="G48" s="21">
+        <f>== Chondroitin side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+Although not all side effects are known, chondroitin is thought to be possibly safe when taken for up to 6 years.
+Stop using chondroitin and call your healthcare provider at once if you have:
+irregular heartbeats; or
+swelling in your legs.
+Common side effects of chondroitin may include:</f>
+        <v/>
+      </c>
       <c r="H48" s="8" t="n"/>
     </row>
     <row r="49" ht="16" customHeight="1" s="15">
@@ -4240,7 +4649,17 @@
           <t>https://www.drugs.com/cipro-i.v..html</t>
         </is>
       </c>
-      <c r="G49" s="12" t="n"/>
+      <c r="G49" s="20">
+        <f>== Cipro I.V. side effects ===
+Get emergency medical help if you have signs of an allergic reaction (hives, difficult breathing, swelling in your face or throat) or a severe skin reaction (fever, sore throat, burning in your eyes, skin pain, red or purple skin rash that spreads and causes blistering and peeling).
+Cipro I.V. can cause serious side effects, including tendon problems, side effects on your nerves (which may cause permanent nerve damage), serious mood or behavior changes (after just one dose), or low blood sugar (which can lead to coma).
+Stop using Cipro I.V. and call your doctor at once if you have:
+low blood sugar--headache, hunger, sweating, irritability, dizziness, nausea, fast heart rate, or feeling anxious or shaky;
+nerve symptoms in your hands, arms, legs, or feet--numbness, weakness, tingling, burning pain;
+serious mood or behavior changes--nervousness, confusion, agitation, paranoia, hallucinations, memory problems, trouble concentrating, thoughts of suicide; or
+In rare cases, Cipro I.V. may cause damage to your aorta, the main blood artery of the body. This could lead to dangerous bleeding or death. Get emergency medical help if you have severe and constant pain in your chest, stomach, or back.</f>
+        <v/>
+      </c>
       <c r="H49" s="10" t="n"/>
     </row>
     <row r="50" ht="16" customHeight="1" s="15">
@@ -4258,7 +4677,15 @@
           <t>https://www.drugs.com/cipro-xr.html</t>
         </is>
       </c>
-      <c r="G50" s="13" t="n"/>
+      <c r="G50" s="21">
+        <f>== Cipro XR Side Effects ===
+Generic name: ciprofloxacin
+Medically reviewed by Drugs.com. Last updated on Mar 20, 2024.
+Serious side effects
+Other side effects
+Professional info</f>
+        <v/>
+      </c>
       <c r="H50" s="8" t="n"/>
     </row>
     <row r="51" ht="16" customHeight="1" s="15">
@@ -4276,7 +4703,23 @@
           <t>https://www.drugs.com/claforan.html</t>
         </is>
       </c>
-      <c r="G51" s="12" t="n"/>
+      <c r="G51" s="20">
+        <f>== Claforan side effects ===
+Get emergency medical help if you have signs of an allergic reaction (hives, difficult breathing, swelling in your face or throat) or a severe skin reaction (fever, sore throat, burning in your eyes, skin pain, red or purple skin rash that spreads and causes blistering and peeling).
+Claforan may cause serious side effects. Call your doctor at once if you have:
+severe stomach pain, diarrhea that is watery or bloody (even if it occurs months after your last dose);
+burning, irritation, or skin changes where the injection was given;
+dark urine, jaundice (yellowing of the skin or eyes);
+a seizure;
+fever, chills, tiredness; or
+easy bruising, unusual bleeding, pale skin, cold hands and feet.
+Common side effects of Claforan may include:
+pain, bruising, swelling, or other irritation where the injection was given;
+diarrhea;
+fever; or
+rash, itching.</f>
+        <v/>
+      </c>
       <c r="H51" s="10" t="n"/>
     </row>
     <row r="52" ht="16" customHeight="1" s="15">
@@ -4294,7 +4737,14 @@
           <t>https://www.drugs.com/cleocin-hcl.html</t>
         </is>
       </c>
-      <c r="G52" s="13" t="n"/>
+      <c r="G52" s="21">
+        <f>== Cleocin Side Effects ===
+Generic name: clindamycin
+Medically reviewed by Drugs.com. Last updated on Mar 25, 2025.
+Serious side effects
+Professional info</f>
+        <v/>
+      </c>
       <c r="H52" s="8" t="n"/>
     </row>
     <row r="53" ht="16" customHeight="1" s="15">
@@ -4312,7 +4762,15 @@
           <t>https://www.drugs.com/cleocin-pediatric.html</t>
         </is>
       </c>
-      <c r="G53" s="12" t="n"/>
+      <c r="G53" s="20">
+        <f>== Side Effects of Cleocin Pediatric ===
+Along with its needed effects, a medicine may cause some unwanted effects. Although not all of these side effects may occur, if they do occur they may need medical attention.
+Check with your doctor immediately if any of the following side effects occur:
+Cracks in the skin
+loss of heat from the body
+red, swollen skin scaly skin</f>
+        <v/>
+      </c>
       <c r="H53" s="10" t="n"/>
     </row>
     <row r="54" ht="16" customHeight="1" s="15">
@@ -4330,7 +4788,14 @@
           <t>https://www.drugs.com/cleocin-phosphate.html</t>
         </is>
       </c>
-      <c r="G54" s="13" t="n"/>
+      <c r="G54" s="21">
+        <f>== Cleocin Phosphate Side Effects ===
+Generic name: clindamycin
+Medically reviewed by Drugs.com. Last updated on Mar 25, 2025.
+Serious side effects
+Professional info</f>
+        <v/>
+      </c>
       <c r="H54" s="8" t="n"/>
     </row>
     <row r="55" ht="16" customHeight="1" s="15">
@@ -4348,7 +4813,32 @@
           <t>https://www.drugs.com/clinacort.html</t>
         </is>
       </c>
-      <c r="G55" s="12" t="n"/>
+      <c r="G55" s="20">
+        <f>== Side Effects of Clinacort ===
+Along with its needed effects, a medicine may cause some unwanted effects. Although not all of these side effects may occur, if they do occur they may need medical attention.
+Check with your doctor or nurse immediately if any of the following side effects occur:
+Aggression
+agitation
+anxiety
+blurred vision
+decrease in the amount of urine
+dizziness
+fast, slow, pounding, or irregular heartbeat or pulse
+headache
+irritability
+mental depression
+mood changes
+nervousness
+noisy, rattling breathing
+numbness or tingling in the arms or legs
+pounding in the ears
+shortness of breath
+swelling of the fingers, hands, feet, or lower legs
+trouble thinking, speaking, or walking
+troubled breathing at rest
+weight gain</f>
+        <v/>
+      </c>
       <c r="H55" s="10" t="n"/>
     </row>
     <row r="56" ht="16" customHeight="1" s="15">
@@ -4366,7 +4856,18 @@
           <t>https://www.drugs.com/colestid.html</t>
         </is>
       </c>
-      <c r="G56" s="13" t="n"/>
+      <c r="G56" s="21">
+        <f>== Colestid side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficulty breathing; swelling of your face, lips, tongue, or throat.
+Colestid may cause serious side effects. Call your doctor at once if you have:
+trouble swallowing;
+severe constipation or stomach pain; or
+black, bloody, or tarry stools.
+Common side effects of Colestid may include:
+constipation; or
+hemorrhoids.</f>
+        <v/>
+      </c>
       <c r="H56" s="8" t="n"/>
     </row>
     <row r="57" ht="32" customHeight="1" s="15">
@@ -4384,7 +4885,15 @@
           <t>https://www.drugs.com/combivent-respimat.html</t>
         </is>
       </c>
-      <c r="G57" s="12" t="n"/>
+      <c r="G57" s="20">
+        <f>== Combivent Respimat Side Effects ===
+Generic name: albuterol / ipratropium
+Medically reviewed by Drugs.com. Last updated on Feb 12, 2025.
+Serious side effects
+Other side effects
+Professional info</f>
+        <v/>
+      </c>
       <c r="H57" s="10" t="n"/>
     </row>
     <row r="58" ht="16" customHeight="1" s="15">
@@ -4402,7 +4911,23 @@
           <t>https://www.drugs.com/corgard.html</t>
         </is>
       </c>
-      <c r="G58" s="13" t="n"/>
+      <c r="G58" s="21">
+        <f>== Corgard side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficulty breathing; swelling of your face, lips, tongue, or throat.
+Corgard may cause serious side effects. Call your doctor at once if you have:
+a light-headed feeling, like you might pass out;
+slow heartbeats;
+shortness of breath (even with mild exertion), swelling, rapid weight gain; or
+bronchospasm (wheezing, chest tightness, trouble breathing).
+Common side effects of Corgard may include:
+numbness or cold feeling in your hands or feet;
+dizziness;
+feeling tired;
+upset stomach, vomiting, diarrhea, constipation;
+vision problems; or
+mood changes, confusion, memory problems.</f>
+        <v/>
+      </c>
       <c r="H58" s="8" t="n"/>
     </row>
     <row r="59" ht="16" customHeight="1" s="15">
@@ -9471,7 +9996,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="25" customWidth="1" style="15" min="1" max="1"/>
     <col width="50" customWidth="1" style="15" min="2" max="2"/>
@@ -10979,7 +11504,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="25" customWidth="1" style="15" min="1" max="1"/>
     <col width="50" customWidth="1" style="15" min="2" max="2"/>
@@ -11651,7 +12176,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="25" customWidth="1" style="15" min="1" max="1"/>
     <col width="50" customWidth="1" style="15" min="2" max="2"/>
@@ -12609,7 +13134,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="25" customWidth="1" style="15" min="1" max="1"/>
     <col width="50" customWidth="1" style="15" min="2" max="2"/>
@@ -14293,7 +14818,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="25" customWidth="1" style="15" min="1" max="1"/>
     <col width="50" customWidth="1" style="15" min="2" max="2"/>
@@ -15009,7 +15534,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="25" customWidth="1" style="15" min="1" max="1"/>
     <col width="50" customWidth="1" style="15" min="2" max="2"/>
@@ -15307,7 +15832,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="25" customWidth="1" style="15" min="1" max="1"/>
     <col width="50" customWidth="1" style="15" min="2" max="2"/>
@@ -15913,7 +16438,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="25" customWidth="1" style="15" min="1" max="1"/>
     <col width="50" customWidth="1" style="15" min="2" max="2"/>

--- a/Analysis/main_diseases_analysis_final.xlsx
+++ b/Analysis/main_diseases_analysis_final.xlsx
@@ -4945,7 +4945,23 @@
           <t>https://www.drugs.com/daraprim.html</t>
         </is>
       </c>
-      <c r="G59" s="10" t="n"/>
+      <c r="G59" s="20">
+        <f>== Daraprim side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+Daraprim may cause serious side effects. Stop using Daraprim and call your doctor at once if you have:
+sore throat, swelling in your tongue;
+pale skin, easy bruising, purple spots under your skin;
+the first sign of any skin rash, no matter how mild;
+blood in your urine;
+fever, cold or flu symptoms;
+new or worsening cough, fever, trouble breathing;
+irregular heartbeats;
+severe skin reaction--fever, sore throat, swelling in your face or tongue, burning in your eyes, skin pain, followed by a red or purple skin rash that spreads (especially in the face or upper body) and causes blistering and peeling.
+Common side effects of Daraprim may include:
+vomiting; or
+loss of appetite.</f>
+        <v/>
+      </c>
       <c r="H59" s="10" t="n"/>
     </row>
     <row r="60" ht="16" customHeight="1" s="15">
@@ -4963,7 +4979,15 @@
           <t>https://www.drugs.com/de-sone-la.html</t>
         </is>
       </c>
-      <c r="G60" s="8" t="n"/>
+      <c r="G60" s="21">
+        <f>== De-Sone LA Side Effects ===
+Generic name: dexamethasone
+Medically reviewed by Drugs.com. Last updated on Oct 9, 2023.
+Serious side effects
+Other side effects
+Professional info</f>
+        <v/>
+      </c>
       <c r="H60" s="8" t="n"/>
     </row>
     <row r="61" ht="16" customHeight="1" s="15">
@@ -4981,7 +5005,17 @@
           <t>https://www.drugs.com/desoxyn.html</t>
         </is>
       </c>
-      <c r="G61" s="10" t="n"/>
+      <c r="G61" s="20">
+        <f>== Desoxyn side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives, difficult breathing, swelling of your face, lips, tongue, or throat.
+Desoxyn may cause serious side effects. Call your doctor at once if you have:
+signs of heart problems--chest pain, trouble breathing, feeling like you might pass out;
+a seizure (convulsions);
+muscle twitches (tics); or
+changes in your vision.
+Seek medical attention right away if you have symptoms of serotonin syndrome, such as: agitation, hallucinations, fever, sweating, shivering, fast heart rate, muscle stiffness, twitching, loss of coordination, nausea, vomiting, or diarrhea.</f>
+        <v/>
+      </c>
       <c r="H61" s="10" t="n"/>
     </row>
     <row r="62" ht="16" customHeight="1" s="15">
@@ -4999,7 +5033,11 @@
           <t>https://www.drugs.com/devil's-claw.html</t>
         </is>
       </c>
-      <c r="G62" s="8" t="n"/>
+      <c r="G62" s="21" t="inlineStr">
+        <is>
+          <t>❌ Could not find main result for Devil's claw</t>
+        </is>
+      </c>
       <c r="H62" s="8" t="n"/>
     </row>
     <row r="63" ht="32" customHeight="1" s="15">
@@ -5017,7 +5055,22 @@
           <t>https://www.drugs.com/dexamethasone-intensol.html</t>
         </is>
       </c>
-      <c r="G63" s="10" t="n"/>
+      <c r="G63" s="20">
+        <f>== Dexamethasone Intensol side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficulty breathing; swelling of your face, lips, tongue, or throat.
+Dexamethasone Intensol may cause serious side effects. Call your doctor at once if you have:
+muscle tightness, weakness, or limp feeling;
+blurred vision, tunnel vision, eye pain, or seeing halos around lights;
+shortness of breath (even with mild exertion), swelling, rapid weight gain;
+severe depression, unusual thoughts or behavior;
+a seizure (convulsions);
+bloody or tarry stools, coughing up blood;
+fast or slow heart rate, weak pulse;
+pancreatitis--severe pain in your upper stomach spreading to your back, nausea and vomiting;
+increased blood pressure--severe headache, blurred vision, pounding in your neck or ears, anxiety, nosebleed.
+Common side effects of Dexamethasone Intensol may include:</f>
+        <v/>
+      </c>
       <c r="H63" s="10" t="n"/>
     </row>
     <row r="64" ht="16" customHeight="1" s="15">
@@ -5035,7 +5088,11 @@
           <t>https://www.drugs.com/digitek.html</t>
         </is>
       </c>
-      <c r="G64" s="8" t="n"/>
+      <c r="G64" s="21" t="inlineStr">
+        <is>
+          <t>❌ No substantial side effects content found for Digitek</t>
+        </is>
+      </c>
       <c r="H64" s="8" t="n"/>
     </row>
     <row r="65" ht="16" customHeight="1" s="15">
@@ -5053,7 +5110,16 @@
           <t>https://www.drugs.com/doryx.html</t>
         </is>
       </c>
-      <c r="G65" s="10" t="n"/>
+      <c r="G65" s="20">
+        <f>== Side Effects of Doryx ===
+Along with its needed effects, a medicine may cause some unwanted effects. Although not all of these side effects may occur, if they do occur they may need medical attention.
+Check with your doctor immediately if any of the following side effects occur:
+Diarrhea
+itching of the vagina or genital area
+pain during sexual intercourse
+thick, white vaginal discharge with no odor or with a mild odor</f>
+        <v/>
+      </c>
       <c r="H65" s="10" t="n"/>
     </row>
     <row r="66" ht="16" customHeight="1" s="15">
@@ -5071,7 +5137,16 @@
           <t>https://www.drugs.com/doryx-mpc.html</t>
         </is>
       </c>
-      <c r="G66" s="8" t="n"/>
+      <c r="G66" s="21">
+        <f>== Side Effects of Doryx MPC ===
+Along with its needed effects, a medicine may cause some unwanted effects. Although not all of these side effects may occur, if they do occur they may need medical attention.
+Check with your doctor immediately if any of the following side effects occur:
+Diarrhea
+itching of the vagina or genital area
+pain during sexual intercourse
+thick, white vaginal discharge with no odor or with a mild odor</f>
+        <v/>
+      </c>
       <c r="H66" s="8" t="n"/>
     </row>
     <row r="67" ht="16" customHeight="1" s="15">
@@ -5089,7 +5164,15 @@
           <t>https://www.drugs.com/dxevo.html</t>
         </is>
       </c>
-      <c r="G67" s="10" t="n"/>
+      <c r="G67" s="20">
+        <f>== Dxevo Side Effects ===
+Generic name: dexamethasone
+Medically reviewed by Drugs.com. Last updated on Oct 9, 2023.
+Serious side effects
+Other side effects
+Professional info</f>
+        <v/>
+      </c>
       <c r="H67" s="10" t="n"/>
     </row>
     <row r="68" ht="16" customHeight="1" s="15">
@@ -5107,7 +5190,15 @@
           <t>https://www.drugs.com/e.e.s.-granules.html</t>
         </is>
       </c>
-      <c r="G68" s="8" t="n"/>
+      <c r="G68" s="21">
+        <f>== E.E.S. Granules Side Effects ===
+Generic name: erythromycin
+Medically reviewed by Drugs.com. Last updated on Aug 2, 2024.
+Serious side effects
+Other side effects
+Professional info</f>
+        <v/>
+      </c>
       <c r="H68" s="8" t="n"/>
     </row>
     <row r="69" ht="16" customHeight="1" s="15">
@@ -5125,7 +5216,19 @@
           <t>https://www.drugs.com/ec-naprosyn.html</t>
         </is>
       </c>
-      <c r="G69" s="10" t="n"/>
+      <c r="G69" s="20">
+        <f>== EC-Naprosyn side effects ===
+Get emergency medical help if you have signs of an allergic reaction (runny or stuffy nose, wheezing or trouble breathing, hives, swelling in your face or throat) or a severe skin reaction (fever, sore throat, burning eyes, skin pain, red or purple skin rash with blistering and peeling).
+Stop using EC-Naprosyn and seek medical treatment if you have a serious drug reaction that can affect many parts of your body. Symptoms may include skin rash, fever, swollen glands, muscle aches, severe weakness, unusual bruising, or yellowing of your skin or eyes.
+Get emergency medical help if you have signs of a heart attack or stroke: chest pain spreading to your jaw or shoulder, sudden numbness or weakness on one side of the body, slurred speech, leg swelling, feeling short of breath.
+EC-Naprosyn may cause serious side effects. Stop using EC-Naprosyn and call your doctor at once if you have:
+shortness of breath (even with mild exertion);
+swelling or rapid weight gain;
+the first sign of any skin rash or blister, no matter how mild;
+liver problems--nausea, upper stomach pain, loss of appetite, dark urine, clay-colored stools, jaundice (yellowing of the skin or eyes);
+kidney problems--little or no urination, painful urination, swelling in your feet or ankles; or</f>
+        <v/>
+      </c>
       <c r="H69" s="10" t="n"/>
     </row>
     <row r="70" ht="16" customHeight="1" s="15">
@@ -5143,7 +5246,11 @@
           <t>https://www.drugs.com/easprin.html</t>
         </is>
       </c>
-      <c r="G70" s="8" t="n"/>
+      <c r="G70" s="21" t="inlineStr">
+        <is>
+          <t>❌ No substantial side effects content found for Easprin</t>
+        </is>
+      </c>
       <c r="H70" s="8" t="n"/>
     </row>
     <row r="71" ht="16" customHeight="1" s="15">
@@ -5161,7 +5268,18 @@
           <t>https://www.drugs.com/ecotrin.html</t>
         </is>
       </c>
-      <c r="G71" s="10" t="n"/>
+      <c r="G71" s="20">
+        <f>== Ecotrin side effects ===
+Platelet aggregation inhibitors
+Get emergency medical help if you have signs of an allergic reaction: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+Ecotrin may cause serious side effects. Stop using Ecotrin and call your doctor at once if you have:
+ringing in your ears, confusion, hallucinations, rapid breathing, seizure (convulsions);
+severe nausea, vomiting, or stomach pain;
+bloody or tarry stools, coughing up blood or vomit that looks like coffee grounds;
+fever lasting longer than 3 days; or
+swelling, or pain lasting longer than 10 days.</f>
+        <v/>
+      </c>
       <c r="H71" s="10" t="n"/>
     </row>
     <row r="72" ht="16" customHeight="1" s="15">
@@ -5179,7 +5297,11 @@
           <t>https://www.drugs.com/ecpirin.html</t>
         </is>
       </c>
-      <c r="G72" s="8" t="n"/>
+      <c r="G72" s="21" t="inlineStr">
+        <is>
+          <t>❌ No substantial side effects content found for Ecpirin</t>
+        </is>
+      </c>
       <c r="H72" s="8" t="n"/>
     </row>
     <row r="73" ht="16" customHeight="1" s="15">
@@ -5197,7 +5319,18 @@
           <t>https://www.drugs.com/effexor.html</t>
         </is>
       </c>
-      <c r="G73" s="10" t="n"/>
+      <c r="G73" s="20">
+        <f>== Effexor side effects ===
+Get emergency medical help if you have signs of an allergic reaction to Effexor: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+Venlafaxine may cause serious side effects. Call your doctor at once if you have:
+blurred vision, eye pain or redness, seeing halos around lights;
+cough, chest tightness, trouble breathing;
+a seizure (convulsions);
+low blood sodium - headache, confusion, problems with thinking or memory, weakness, feeling unsteady; or
+severe nervous system reaction - very stiff (rigid) muscles, high fever, sweating, confusion, fast or uneven heartbeats, tremors, feeling like you might pass out.
+Seek medical attention right away if you have symptoms of serotonin syndrome, such as: agitation, hallucinations, fever, sweating, shivering, fast heart rate, muscle stiffness, twitching, loss of coordination, nausea, vomiting, or diarrhea.</f>
+        <v/>
+      </c>
       <c r="H73" s="10" t="n"/>
     </row>
     <row r="74" ht="16" customHeight="1" s="15">
@@ -5215,7 +5348,11 @@
           <t>https://www.drugs.com/entercote.html</t>
         </is>
       </c>
-      <c r="G74" s="8" t="n"/>
+      <c r="G74" s="21" t="inlineStr">
+        <is>
+          <t>❌ No substantial side effects content found for Entercote</t>
+        </is>
+      </c>
       <c r="H74" s="8" t="n"/>
     </row>
     <row r="75" ht="16" customHeight="1" s="15">
@@ -5233,7 +5370,11 @@
           <t>https://www.drugs.com/eryped.html</t>
         </is>
       </c>
-      <c r="G75" s="10" t="n"/>
+      <c r="G75" s="20" t="inlineStr">
+        <is>
+          <t>What are some side effects that I need to call my doctor about right away?</t>
+        </is>
+      </c>
       <c r="H75" s="10" t="n"/>
     </row>
     <row r="76" ht="16" customHeight="1" s="15">
@@ -5251,7 +5392,11 @@
           <t>https://www.drugs.com/eryc.html</t>
         </is>
       </c>
-      <c r="G76" s="8" t="n"/>
+      <c r="G76" s="21" t="inlineStr">
+        <is>
+          <t>❌ No substantial side effects content found for Eryc</t>
+        </is>
+      </c>
       <c r="H76" s="8" t="n"/>
     </row>
     <row r="77" ht="16" customHeight="1" s="15">
@@ -5269,7 +5414,11 @@
           <t>https://www.drugs.com/erythrocin.html</t>
         </is>
       </c>
-      <c r="G77" s="10" t="n"/>
+      <c r="G77" s="20" t="inlineStr">
+        <is>
+          <t>What are some side effects that I need to call my doctor about right away?</t>
+        </is>
+      </c>
       <c r="H77" s="10" t="n"/>
     </row>
     <row r="78" ht="32" customHeight="1" s="15">
@@ -5287,7 +5436,11 @@
           <t>https://www.drugs.com/erythrocin-lactobionate.html</t>
         </is>
       </c>
-      <c r="G78" s="8" t="n"/>
+      <c r="G78" s="21" t="inlineStr">
+        <is>
+          <t>❌ No substantial side effects content found for Erythrocin Lactobionate</t>
+        </is>
+      </c>
       <c r="H78" s="8" t="n"/>
     </row>
     <row r="79" ht="16" customHeight="1" s="15">
@@ -5305,7 +5458,15 @@
           <t>https://www.drugs.com/feosol-original.html</t>
         </is>
       </c>
-      <c r="G79" s="10" t="n"/>
+      <c r="G79" s="20">
+        <f>== Feosol Original Side Effects ===
+Generic name: ferrous sulfate
+Medically reviewed by Drugs.com. Last updated on Apr 16, 2024.
+Serious side effects
+Other side effects
+Professional info</f>
+        <v/>
+      </c>
       <c r="H79" s="10" t="n"/>
     </row>
     <row r="80" ht="16" customHeight="1" s="15">
@@ -5323,7 +5484,21 @@
           <t>https://www.drugs.com/fer-in-sol.html</t>
         </is>
       </c>
-      <c r="G80" s="8" t="n"/>
+      <c r="G80" s="21">
+        <f>== Fer-in-Sol side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficulty breathing; swelling of your face, lips, tongue, or throat.
+Fer-in-Sol may cause serious side effects. Call your doctor at once if you have:
+severe stomach pain or vomiting;
+cough with bloody mucus or vomit that looks like coffee grounds;
+fever; or
+bloody or tarry stools.
+Common side effects of Fer-in-Sol may include:
+diarrhea, constipation;
+nausea, stomach pain;
+green-colored stools; or
+loss of appetite.</f>
+        <v/>
+      </c>
       <c r="H80" s="8" t="n"/>
     </row>
     <row r="81" ht="16" customHeight="1" s="15">
@@ -5341,7 +5516,24 @@
           <t>https://www.drugs.com/fergon.html</t>
         </is>
       </c>
-      <c r="G81" s="10" t="n"/>
+      <c r="G81" s="20">
+        <f>== Fergon side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives, blistering or peeling skin; fever; difficulty breathing; swelling of your face, lips, tongue, or throat.
+Fergon may cause serious side effects. Call your doctor at once if you have:
+bright red blood in your stools;
+black or tarry stools;
+a fever;
+stomach pain;
+coughing up blood or vomit that looks like coffee grounds; or
+pain in your chest or throat when swallowing a Fergon tablet.
+Common side effects of Fergon may include:
+constipation, diarrhea;
+nausea, vomiting, stomach pain;
+loss of appetite;
+green-colored stools; or
+temporary staining of the teeth.</f>
+        <v/>
+      </c>
       <c r="H81" s="10" t="n"/>
     </row>
     <row r="82" ht="16" customHeight="1" s="15">
@@ -5359,7 +5551,20 @@
           <t>https://www.drugs.com/ferrlecit.html</t>
         </is>
       </c>
-      <c r="G82" s="8" t="n"/>
+      <c r="G82" s="21">
+        <f>== Ferrlecit side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives, sweating, vomiting; severe lower back pain; wheezing, difficult breathing; swelling of your face, lips, tongue, or throat.
+Some side effects may occur within 30 minutes after an injection. Tell your caregiver if you feel dizzy, nauseated, light-headed, itchy, or sweaty.
+Ferrlecit may cause serious side effects. Call your doctor at once if you have:
+a light-headed feeling, like you might pass out;
+swelling, rapid weight gain;
+feeling very weak or tired;
+shortness of breath;
+severe pain in your chest, back, sides, or groin; or
+flushing (sudden warmth, redness, or tingly feeling).
+Common side effects of Ferrlecit may include:</f>
+        <v/>
+      </c>
       <c r="H82" s="8" t="n"/>
     </row>
     <row r="83" ht="16" customHeight="1" s="15">
@@ -5377,7 +5582,21 @@
           <t>https://www.drugs.com/ferrousal.html</t>
         </is>
       </c>
-      <c r="G83" s="10" t="n"/>
+      <c r="G83" s="20">
+        <f>== Ferrousal side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficulty breathing; swelling of your face, lips, tongue, or throat.
+Ferrousal may cause serious side effects. Call your doctor at once if you have:
+severe stomach pain or vomiting;
+cough with bloody mucus or vomit that looks like coffee grounds;
+fever; or
+bloody or tarry stools.
+Common side effects of Ferrousal may include:
+diarrhea, constipation;
+nausea, stomach pain;
+green-colored stools; or
+loss of appetite.</f>
+        <v/>
+      </c>
       <c r="H83" s="10" t="n"/>
     </row>
     <row r="84" ht="16" customHeight="1" s="15">
@@ -5395,7 +5614,15 @@
           <t>https://www.drugs.com/flagyl-375.html</t>
         </is>
       </c>
-      <c r="G84" s="8" t="n"/>
+      <c r="G84" s="21">
+        <f>== Flagyl 375 Side Effects ===
+Generic name: metronidazole
+Medically reviewed by Drugs.com. Last updated on Sep 15, 2024.
+Serious side effects
+Other side effects
+Professional info</f>
+        <v/>
+      </c>
       <c r="H84" s="8" t="n"/>
     </row>
     <row r="85" ht="16" customHeight="1" s="15">
@@ -5413,7 +5640,15 @@
           <t>https://www.drugs.com/flagyl-iv.html</t>
         </is>
       </c>
-      <c r="G85" s="10" t="n"/>
+      <c r="G85" s="20">
+        <f>== Flagyl IV Side Effects ===
+Generic name: metronidazole
+Medically reviewed by Drugs.com. Last updated on Sep 15, 2024.
+Serious side effects
+Other side effects
+Professional info</f>
+        <v/>
+      </c>
       <c r="H85" s="10" t="n"/>
     </row>
     <row r="86" ht="16" customHeight="1" s="15">
@@ -5431,7 +5666,15 @@
           <t>https://www.drugs.com/flax.html</t>
         </is>
       </c>
-      <c r="G86" s="8" t="n"/>
+      <c r="G86" s="21">
+        <f>== Flax side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficulty breathing; swelling of your face, lips, tongue, or throat.
+Although not all side effects are known, flax is thought to be likely safe for most people when taken by mouth.
+Stop using flax and call your healthcare provider at once if you have:
+any bleeding that does not stop.
+Common side effects of flax may include:</f>
+        <v/>
+      </c>
       <c r="H86" s="8" t="n"/>
     </row>
     <row r="87" ht="16" customHeight="1" s="15">
@@ -5449,7 +5692,16 @@
           <t>https://www.drugs.com/flolipid.html</t>
         </is>
       </c>
-      <c r="G87" s="10" t="n"/>
+      <c r="G87" s="20">
+        <f>== Flolipid side effects ===
+Get emergency medical help if you have signs of an allergic reaction (hives, difficult breathing, swelling in your face or throat) or a severe skin reaction (fever, sore throat, burning eyes, skin pain, red or purple skin rash with blistering and peeling).
+Flolipid can cause the breakdown of muscle tissue, which can lead to kidney failure. Call your doctor right away if you have unexplained muscle pain, tenderness, or weakness especially if you also have fever, unusual tiredness, or dark urine.
+Also call your doctor at once if you have:
+muscle weakness in your hips, shoulders, neck, and back;
+trouble lifting your arms, trouble climbing or standing; or
+Common side effects of Flolipid may include:</f>
+        <v/>
+      </c>
       <c r="H87" s="10" t="n"/>
     </row>
     <row r="88" ht="16" customHeight="1" s="15">
@@ -5467,7 +5719,17 @@
           <t>https://www.drugs.com/flovent.html</t>
         </is>
       </c>
-      <c r="G88" s="8" t="n"/>
+      <c r="G88" s="21">
+        <f>== Flovent side effects ===
+Get emergency medical help if you have signs of an allergic reaction to Flovent: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+Call your doctor at once if you have:
+weakness, tired feeling, nausea, vomiting, feeling like you might pass out;
+wheezing, choking, or other breathing problems after using this medicine;
+blurred vision, tunnel vision, eye pain, or seeing halos around lights;
+worsening of your asthma symptoms;
+blood vessel inflammation - fever, cough, stomach pain, weight loss, skin rash, severe tingling, numbness, chest pain; or</f>
+        <v/>
+      </c>
       <c r="H88" s="8" t="n"/>
     </row>
     <row r="89" ht="16" customHeight="1" s="15">
@@ -5485,7 +5747,23 @@
           <t>https://www.drugs.com/fortaz.html</t>
         </is>
       </c>
-      <c r="G89" s="10" t="n"/>
+      <c r="G89" s="20">
+        <f>== Ceftazidime side effects ===
+Get emergency medical help if you have signs of an allergic reaction (hives, itching, feeling light-headed, wheezing, difficult breathing, swelling in your face or throat) or a severe skin reaction (fever, sore throat, burning eyes, skin pain, red or purple skin rash with blistering and peeling).
+Fortaz may cause serious side effects. Call your doctor at once if you have:
+severe stomach pain, diarrhea that is watery or bloody (even if it occurs months after your last dose);
+pale or yellowed skin, dark colored urine, fever, or weakness;
+confusion, hallucinations, severe weakness;
+involuntary muscle movement;
+seizure (black-out or convulsions); or
+a cold feeling, discoloration, or skin changes in your fingers.
+Common side effects of Fortaz may include:
+allergic reaction;
+numbness, tingling, burning pain;
+headache, dizziness;
+nausea, vomiting, diarrhea, stomach pain; or</f>
+        <v/>
+      </c>
       <c r="H89" s="10" t="n"/>
     </row>
     <row r="90" ht="16" customHeight="1" s="15">
@@ -5503,7 +5781,15 @@
           <t>https://www.drugs.com/garlic.html</t>
         </is>
       </c>
-      <c r="G90" s="8" t="n"/>
+      <c r="G90" s="21">
+        <f>== Garlic side effects ===
+Get emergency medical help if you have any of these signs of an allergic reaction: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+Although not all side effects are known, garlic is thought to be possibly safe when taken for a short period of time.
+Stop using garlic and call your healthcare provider at once if you have:
+redness, swelling, or blistering (when applied to the skin); or
+easy bruising or bleeding (nosebleeds, bleeding gums).</f>
+        <v/>
+      </c>
       <c r="H90" s="8" t="n"/>
     </row>
     <row r="91" ht="16" customHeight="1" s="15">
@@ -5521,7 +5807,11 @@
           <t>https://www.drugs.com/genacote.html</t>
         </is>
       </c>
-      <c r="G91" s="10" t="n"/>
+      <c r="G91" s="20" t="inlineStr">
+        <is>
+          <t>❌ No substantial side effects content found for Genacote</t>
+        </is>
+      </c>
       <c r="H91" s="10" t="n"/>
     </row>
     <row r="92" ht="16" customHeight="1" s="15">
@@ -5539,7 +5829,17 @@
           <t>https://www.drugs.com/glucosamine.html</t>
         </is>
       </c>
-      <c r="G92" s="8" t="n"/>
+      <c r="G92" s="21">
+        <f>== Glucosamine side effects ===
+Get emergency medical help if you have any of these signs of an allergic reaction: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+Common side effects of glucosamine may include:
+nausea, vomiting;
+diarrhea, constipation; or
+heartburn.
+This is not a complete list of side effects and others may occur. Call your doctor for medical advice about side effects. You may report side effects to FDA at 1-800-FDA-1088.
+Glucosamine side effects (more detail)</f>
+        <v/>
+      </c>
       <c r="H92" s="8" t="n"/>
     </row>
     <row r="93" ht="16" customHeight="1" s="15">
@@ -5557,7 +5857,14 @@
           <t>https://www.drugs.com/gotu-kola.html</t>
         </is>
       </c>
-      <c r="G93" s="10" t="n"/>
+      <c r="G93" s="20">
+        <f>== Gotu kola side effects ===
+Get emergency medical help if you have any of these signs of an allergic reaction: hives, itching, redness, or burning of your skin; difficulty breathing; swelling of your face, lips, tongue, or throat.
+Stop using gotu kola and call your healthcare provider at once if you have:
+liver problems--nausea, upper stomach pain, itching, tired feeling, loss of appetite, dark urine, clay-colored stools, jaundice (yellowing of the skin or eyes).
+Common side effects of gotu kola may include:</f>
+        <v/>
+      </c>
       <c r="H93" s="10" t="n"/>
     </row>
     <row r="94" ht="16" customHeight="1" s="15">
@@ -5575,7 +5882,15 @@
           <t>https://www.drugs.com/guarana.html</t>
         </is>
       </c>
-      <c r="G94" s="8" t="n"/>
+      <c r="G94" s="21">
+        <f>== Guarana side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficulty breathing; swelling of your face, lips, tongue, or throat.
+Although not all side effects are known, guarana is thought to be likely safe for most people when taken in amounts commonly found in foods. Products containing guarana are possibly safe when taken by mouth and for a short period of time.
+Stop using guarana and call your healthcare provider at once if you have:
+an unusual bleeding or any bleeding that will not stop.
+Common side effects of guarana may include:</f>
+        <v/>
+      </c>
       <c r="H94" s="8" t="n"/>
     </row>
     <row r="95" ht="16" customHeight="1" s="15">
@@ -5593,7 +5908,15 @@
           <t>https://www.drugs.com/hadlima.html</t>
         </is>
       </c>
-      <c r="G95" s="10" t="n"/>
+      <c r="G95" s="20">
+        <f>== Hadlima Side Effects ===
+Generic name: adalimumab
+Medically reviewed by Drugs.com. Last updated on Jun 14, 2025.
+Serious side effects
+Other side effects
+Professional info</f>
+        <v/>
+      </c>
       <c r="H95" s="10" t="n"/>
     </row>
     <row r="96" ht="16" customHeight="1" s="15">
@@ -5611,7 +5934,20 @@
           <t>https://www.drugs.com/haldol.html</t>
         </is>
       </c>
-      <c r="G96" s="8" t="n"/>
+      <c r="G96" s="21">
+        <f>== Haldol side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+High doses or long-term use of haloperidol can cause a serious movement disorder that may not be reversible. The longer you use Haldol, the more likely you are to develop this disorder, especially if you are a woman or an older adult.
+Haldol may cause serious side effects. Call your doctor at once if you have:
+muscle spasms in your neck, tightness in your throat, trouble swallowing;
+rapid changes in mood or behavior;
+fast or pounding heartbeats, fluttering in your chest, shortness of breath, and sudden dizziness (like you might pass out);
+cough with mucus, chest pain, feeling short of breath;
+low white blood cell counts--fever, chills, mouth sores, skin sores, sore throat, cough, trouble breathing; or
+severe nervous system reaction--very stiff (rigid) muscles, high fever, sweating, confusion, fast or uneven heartbeats, tremors, feeling like you might pass out.
+Common side effects of Haldol may include:</f>
+        <v/>
+      </c>
       <c r="H96" s="8" t="n"/>
     </row>
     <row r="97" ht="16" customHeight="1" s="15">
@@ -5629,7 +5965,15 @@
           <t>https://www.drugs.com/haldol-decanoate.html</t>
         </is>
       </c>
-      <c r="G97" s="10" t="n"/>
+      <c r="G97" s="20">
+        <f>== Haldol Decanoate Side Effects ===
+Generic name: haloperidol
+Medically reviewed by Drugs.com. Last updated on Oct 4, 2023.
+Serious side effects
+Other side effects
+Professional info</f>
+        <v/>
+      </c>
       <c r="H97" s="10" t="n"/>
     </row>
     <row r="98" ht="16" customHeight="1" s="15">
@@ -5647,7 +5991,11 @@
           <t>https://www.drugs.com/halfprin.html</t>
         </is>
       </c>
-      <c r="G98" s="8" t="n"/>
+      <c r="G98" s="21" t="inlineStr">
+        <is>
+          <t>❌ No substantial side effects content found for Halfprin</t>
+        </is>
+      </c>
       <c r="H98" s="8" t="n"/>
     </row>
     <row r="99" ht="16" customHeight="1" s="15">
@@ -5665,7 +6013,22 @@
           <t>https://www.drugs.com/hemocyte.html</t>
         </is>
       </c>
-      <c r="G99" s="10" t="n"/>
+      <c r="G99" s="20">
+        <f>== Hemocyte side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficulty breathing; swelling of your face, lips, tongue, or throat.
+Hemocyte may cause serious side effects. Call your doctor at once if you have:
+severe stomach pain;
+severe nausea or vomiting;
+coughing up blood or vomit that looks like coffee grounds;
+blood or tarry stools; or
+bright red blood in your stools.
+Common side effects of Hemocyte may include:
+constipation, diarrhea;
+stomach cramps;
+loss of appetite; or
+black or dark-colored stools or urine.</f>
+        <v/>
+      </c>
       <c r="H99" s="10" t="n"/>
     </row>
     <row r="100" ht="16" customHeight="1" s="15">
@@ -5683,7 +6046,15 @@
           <t>https://www.drugs.com/hydergine.html</t>
         </is>
       </c>
-      <c r="G100" s="8" t="n"/>
+      <c r="G100" s="21">
+        <f>== Hydergine side effects ===
+Get emergency medical help if you have any of these signs of an allergic reaction: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+Hydergine may cause serious side effects. Call your doctor at once if you have:
+any changes in memory, alertness, mood, appetite, energy level, or ability to care for yourself.
+Common side effects of Hydergine may include:
+nausea or other stomach discomfort.</f>
+        <v/>
+      </c>
       <c r="H100" s="8" t="n"/>
     </row>
     <row r="101" ht="16" customHeight="1" s="15">
@@ -5701,7 +6072,15 @@
           <t>https://www.drugs.com/inderal-la.html</t>
         </is>
       </c>
-      <c r="G101" s="10" t="n"/>
+      <c r="G101" s="20">
+        <f>== Inderal LA Side Effects ===
+Generic name: propranolol
+Medically reviewed by Drugs.com. Last updated on Mar 21, 2025.
+Serious side effects
+Other side effects
+Professional info</f>
+        <v/>
+      </c>
       <c r="H101" s="10" t="n"/>
     </row>
     <row r="102" ht="16" customHeight="1" s="15">
@@ -5719,7 +6098,23 @@
           <t>https://www.drugs.com/infed.html</t>
         </is>
       </c>
-      <c r="G102" s="8" t="n"/>
+      <c r="G102" s="21">
+        <f>== Infed side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+Infed can cause severe and sometimes fatal allergic reactions or severely low blood pressure. Call your doctor or seek medical help right away if you feel light-headed or if you suddenly have trouble breathing.
+Also all your doctor at once if you have:
+fast or slow heartbeats. chest pain, wheezing, trouble breathing;
+a light-headed feeling, like you might pass out;
+flushing (warmth, redness, or tingly feeling);
+blue-colored lips or fingernails;
+red or pink urine;
+weak or shallow breathing (breathing may stop);
+seizure (convulsions);
+swelling, warmth, redness, or itching where the medicine was injected; or
+delayed effect (1-2 days after injection)--fever, chills, dizziness, headache, general ill feeling, nausea and vomiting, joint or muscle pain, back pain.
+Common side effects of Infed may include:</f>
+        <v/>
+      </c>
       <c r="H102" s="8" t="n"/>
     </row>
     <row r="103" ht="16" customHeight="1" s="15">
@@ -5737,7 +6132,23 @@
           <t>https://www.drugs.com/inspra.html</t>
         </is>
       </c>
-      <c r="G103" s="10" t="n"/>
+      <c r="G103" s="20">
+        <f>== This drug side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; severe stomach pain; difficulty breathing; swelling of your face, lips, tongue, or throat.
+Inspra may cause serious side effects. Call your doctor at once if you have:
+a light-headed feeling, like you might pass out;
+diarrhea, vomiting;
+little or no urination;
+fast or irregular heartbeats;
+trouble breathing;
+swelling in your feet or lower legs; or
+high potassium--nausea, weakness, tingly feeling, chest pain, irregular heartbeats, loss of movement.
+Common side effects of Inspra may include:
+high potassium;
+headache; or
+dizziness.</f>
+        <v/>
+      </c>
       <c r="H103" s="10" t="n"/>
     </row>
     <row r="104" ht="16" customHeight="1" s="15">
@@ -5755,7 +6166,18 @@
           <t>https://www.drugs.com/isochron.html</t>
         </is>
       </c>
-      <c r="G104" s="8" t="n"/>
+      <c r="G104" s="21">
+        <f>== Isochron side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficulty breathing; swelling of your face, lips, tongue, or throat.
+Isochron may cause serious side effects. Call your doctor at once if you have:
+a light-headed feeling, like you might pass out;
+worsening angina pain;
+fast or slow heart rate; or
+pounding heartbeats or fluttering in your chest.
+Isochron can cause severe headaches. These headaches may gradually become less severe as you continue to use nitroglycerin. Do not stop taking Isochron to avoid headaches. Ask your doctor before using any headache pain medication.
+Common side effects may be more likely to occur, such as:</f>
+        <v/>
+      </c>
       <c r="H104" s="8" t="n"/>
     </row>
     <row r="105" ht="16" customHeight="1" s="15">
@@ -5773,7 +6195,21 @@
           <t>https://www.drugs.com/jantoven.html</t>
         </is>
       </c>
-      <c r="G105" s="10" t="n"/>
+      <c r="G105" s="20">
+        <f>== Jantoven side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+Jantoven increases your risk of bleeding, which can be severe or life-threatening. Call your doctor at once if you have any signs of bleeding such as:
+sudden headache, feeling very weak or dizzy;
+swelling, pain, unusual bruising;
+bleeding gums, nosebleeds;
+bleeding from wounds or needle injections that will not stop;
+heavy menstrual periods or abnormal vaginal bleeding;
+blood in your urine, bloody or tarry stools; or
+coughing up blood or vomit that looks like coffee grounds.
+pain, swelling, hot or cold feeling, skin changes, or discoloration anywhere on your body; or
+sudden and severe leg or foot pain, foot ulcer, purple toes or fingers.</f>
+        <v/>
+      </c>
       <c r="H105" s="10" t="n"/>
     </row>
     <row r="106" ht="16" customHeight="1" s="15">
@@ -5791,7 +6227,16 @@
           <t>https://www.drugs.com/katerzia.html</t>
         </is>
       </c>
-      <c r="G106" s="8" t="n"/>
+      <c r="G106" s="21">
+        <f>== Katerzia side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficulty breathing; swelling of your face, lips, tongue, or throat.
+In rare cases, when you first start taking Katerzia, your chest pain may get worse or you could have a heart attack. Seek emergency medical attention or call your doctor right away if you have symptoms such as: chest pain or pressure, pain spreading to your jaw or shoulder, nausea, sweating.
+Katerzia may cause serious side effects. Call your doctor at once if you have:
+worsening chest pain; or
+a light-headed feeling, like you might pass out.
+Common side effects of Katerzia may include:</f>
+        <v/>
+      </c>
       <c r="H106" s="8" t="n"/>
     </row>
     <row r="107" ht="16" customHeight="1" s="15">
@@ -5809,7 +6254,15 @@
           <t>https://www.drugs.com/kenalog-10.html</t>
         </is>
       </c>
-      <c r="G107" s="10" t="n"/>
+      <c r="G107" s="20">
+        <f>== Kenalog-10 Side Effects ===
+Generic name: triamcinolone
+Medically reviewed by Drugs.com. Last updated on Mar 17, 2025.
+Serious side effects
+Other side effects
+Professional info</f>
+        <v/>
+      </c>
       <c r="H107" s="10" t="n"/>
     </row>
     <row r="108" ht="16" customHeight="1" s="15">
@@ -5827,7 +6280,16 @@
           <t>https://www.drugs.com/lescol-xl.html</t>
         </is>
       </c>
-      <c r="G108" s="8" t="n"/>
+      <c r="G108" s="21">
+        <f>== Lescol XL side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficulty breathing; swelling of your face, lips, tongue, or throat.
+In rare cases, Lescol XL can cause a condition that results in the breakdown of skeletal muscle tissue, leading to kidney failure. Call your doctor right away if you have unexplained muscle pain, tenderness, or weakness especially if you also have fever, unusual tiredness, or dark colored urine.
+Also call your doctor at once if you have:
+muscle weakness in your hips, shoulders, neck, and back;
+trouble lifting your arms, trouble climbing or standing;
+Common side effects of Lescol XL may include:</f>
+        <v/>
+      </c>
       <c r="H108" s="8" t="n"/>
     </row>
     <row r="109" ht="16" customHeight="1" s="15">
@@ -5845,7 +6307,25 @@
           <t>https://www.drugs.com/lomaira.html</t>
         </is>
       </c>
-      <c r="G109" s="10" t="n"/>
+      <c r="G109" s="20">
+        <f>== Lomaira side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+Lomaira may cause serious side effects. Call your doctor at once if you have:
+feeling short of breath, even with mild exertion;
+chest pain, feeling like you might pass out;
+swelling in your ankles or feet;
+pounding heartbeats or fluttering in your chest;
+tremors, feeling restless, trouble sleeping;
+unusual changes in mood or behavior; or
+increased blood pressure--severe headache, blurred vision, pounding in your neck or ears, anxiety, nosebleed.
+Common side effects of Lomaira may include:
+itching;
+dizziness, headache;
+dry mouth, unpleasant taste;
+diarrhea, constipation, stomach pain; or
+increased or decreased interest in sex.</f>
+        <v/>
+      </c>
       <c r="H109" s="10" t="n"/>
     </row>
     <row r="110" ht="16" customHeight="1" s="15">
@@ -5863,7 +6343,18 @@
           <t>https://www.drugs.com/lopid.html</t>
         </is>
       </c>
-      <c r="G110" s="8" t="n"/>
+      <c r="G110" s="21">
+        <f>== Lopid side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficulty breathing; swelling of your face, lips, tongue, or throat.
+In rare cases, Lopid can cause a condition that results in the breakdown of skeletal muscle tissue, leading to kidney failure. Call your doctor right away if you have unexplained muscle pain, tenderness, or weakness especially if you also have fever, unusual tiredness, and dark colored urine.
+Also call your doctor at once if you have:
+sharp pain in your upper stomach (especially after eating);
+jaundice (yellowing of your skin or eyes);
+pain or burning when you urinate;
+blurred vision, eye pain, or seeing halos around lights; or
+Common side effects of Lopid may include:</f>
+        <v/>
+      </c>
       <c r="H110" s="8" t="n"/>
     </row>
     <row r="111" ht="16" customHeight="1" s="15">
@@ -5881,7 +6372,14 @@
           <t>https://www.drugs.com/lovaza.html</t>
         </is>
       </c>
-      <c r="G111" s="10" t="n"/>
+      <c r="G111" s="20">
+        <f>== Lovaza side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives, difficult breathing, swelling of your face, lips, tongue, or throat.
+Lovaza may cause serious side effects. Call your doctor at once if you have:
+chest pain; or
+uneven heartbeats.</f>
+        <v/>
+      </c>
       <c r="H111" s="10" t="n"/>
     </row>
     <row r="112" ht="16" customHeight="1" s="15">
@@ -5899,7 +6397,19 @@
           <t>https://www.drugs.com/marplan.html</t>
         </is>
       </c>
-      <c r="G112" s="8" t="n"/>
+      <c r="G112" s="21">
+        <f>== Marplan side effects ===
+Get emergency medical help if you have any of these signs of an allergic reaction: hives; difficulty breathing; swelling of your face, lips, tongue, or throat.
+Report any new or worsening symptoms to your doctor, such as: mood or behavior changes, anxiety, panic attacks, trouble sleeping, or if you feel impulsive, irritable, agitated, hostile, aggressive, restless, hyperactive (mentally or physically), more depressed, or have thoughts about suicide or hurting yourself.
+Stop taking Marplan and call your doctor at once if you have:
+sudden and severe headache, rapid heartbeat, stiffness in your neck, nausea, vomiting, cold sweat, vision problems, sensitivity to light;
+chest pain, fast or slow heart rate;
+swelling, rapid weight gain;
+jaundice (yellowing of the skin or eyes); or
+a light-headed feeling, like you might pass out.
+Common side effects of Marplan may include:</f>
+        <v/>
+      </c>
       <c r="H112" s="8" t="n"/>
     </row>
     <row r="113" ht="16" customHeight="1" s="15">
@@ -5917,7 +6427,20 @@
           <t>https://www.drugs.com/medrol-dosepak.html</t>
         </is>
       </c>
-      <c r="G113" s="10" t="n"/>
+      <c r="G113" s="20">
+        <f>== Medrol Dosepak side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+Medrol Dosepak may cause serious side effects. Call your doctor at once if you have:
+shortness of breath (even with mild exertion), swelling, rapid weight gain;
+bruising, thinning skin, or any wound that will not heal;
+blurred vision, tunnel vision, eye pain, or seeing halos around lights;
+severe depression, changes in personality, unusual thoughts or behavior;
+new or unusual pain in an arm or leg or in your back;
+bloody or tarry stools, coughing up blood or vomit that looks like coffee grounds;
+seizure (convulsions); or
+Common side effects of Medrol Dosepak may include:</f>
+        <v/>
+      </c>
       <c r="H113" s="10" t="n"/>
     </row>
     <row r="114" ht="16" customHeight="1" s="15">
@@ -5935,7 +6458,25 @@
           <t>https://www.drugs.com/melfiat.html</t>
         </is>
       </c>
-      <c r="G114" s="8" t="n"/>
+      <c r="G114" s="21">
+        <f>== Melfiat side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+Melfiat may cause serious side effects. Call your doctor at once if you have:
+pounding heartbeats or fluttering in your chest;
+tremors, severe agitation, feeling restless, trouble sleeping;
+unusual changes in mood or behavior;
+little or no urination; or
+increased blood pressure--severe headache, blurred vision, pounding in your neck or ears, anxiety, nosebleed.
+Common side effects of Melfiat may include:
+flushing (warmth, redness, or tingly feeling);
+increased sweating or urination;
+dizziness, headache;
+blurred vision;
+dry mouth, nausea;
+diarrhea, constipation, stomach pain; or
+increased or decreased interest in sex.</f>
+        <v/>
+      </c>
       <c r="H114" s="8" t="n"/>
     </row>
     <row r="115" ht="16" customHeight="1" s="15">
@@ -5953,7 +6494,17 @@
           <t>https://www.drugs.com/mepron.html</t>
         </is>
       </c>
-      <c r="G115" s="10" t="n"/>
+      <c r="G115" s="20">
+        <f>== Mepron side effects ===
+Get emergency medical help if you have signs of an allergic reaction (hives, difficult breathing, swelling in your face or throat) or a severe skin reaction (fever, sore throat, burning in your eyes, skin pain, red or purple skin rash that spreads and causes blistering and peeling).
+Mepron may cause serious side effects. Call your doctor at once if you have:
+Common side effects of Mepron may include:
+nausea, vomiting, diarrhea;
+headache;
+fever; or
+rash.</f>
+        <v/>
+      </c>
       <c r="H115" s="10" t="n"/>
     </row>
     <row r="116" ht="16" customHeight="1" s="15">
@@ -5971,7 +6522,15 @@
           <t>https://www.drugs.com/minipress.html</t>
         </is>
       </c>
-      <c r="G116" s="8" t="n"/>
+      <c r="G116" s="21">
+        <f>== Side Effects of Minipress ===
+Along with its needed effects, a medicine may cause some unwanted effects. Although not all of these side effects may occur, if they do occur they may need medical attention.
+Check with your doctor immediately if any of the following side effects occur:
+Dizziness
+fast, irregular, pounding, or racing heartbeat or pulse
+sleepiness</f>
+        <v/>
+      </c>
       <c r="H116" s="8" t="n"/>
     </row>
     <row r="117" ht="32" customHeight="1" s="15">
@@ -5989,7 +6548,16 @@
           <t>https://www.drugs.com/minocin-for-injection.html</t>
         </is>
       </c>
-      <c r="G117" s="10" t="n"/>
+      <c r="G117" s="20">
+        <f>== Minocin For Injection Side Effects ===
+Minocin for Injection
+Generic name: minocycline
+Medically reviewed by Drugs.com. Last updated on Dec 29, 2024.
+Other side effects
+Serious side effects
+Professional info</f>
+        <v/>
+      </c>
       <c r="H117" s="10" t="n"/>
     </row>
     <row r="118" ht="16" customHeight="1" s="15">
@@ -6007,7 +6575,16 @@
           <t>https://www.drugs.com/monodox.html</t>
         </is>
       </c>
-      <c r="G118" s="8" t="n"/>
+      <c r="G118" s="21">
+        <f>== Side Effects of Monodox ===
+Along with its needed effects, a medicine may cause some unwanted effects. Although not all of these side effects may occur, if they do occur they may need medical attention.
+Check with your doctor immediately if any of the following side effects occur:
+Diarrhea
+itching of the vagina or genital area
+pain during sexual intercourse
+thick, white vaginal discharge with no odor or with a mild odor</f>
+        <v/>
+      </c>
       <c r="H118" s="8" t="n"/>
     </row>
     <row r="119" ht="16" customHeight="1" s="15">
@@ -6025,7 +6602,18 @@
           <t>https://www.drugs.com/motrin.html</t>
         </is>
       </c>
-      <c r="G119" s="10" t="n"/>
+      <c r="G119" s="20">
+        <f>== Motrin IB side effects ===
+Get emergency medical help if you have signs of an allergic reaction to Motrin IB (hives, difficult breathing, swelling in your face or throat) or a severe skin reaction (fever, sore throat, burning eyes, skin pain, red or purple skin rash with blistering and peeling).
+Get emergency medical help if you have signs of a heart attack or stroke: chest pain spreading to your jaw or shoulder, sudden numbness or weakness on one side of the body, slurred speech, leg swelling, feeling short of breath.
+Stop using Motrin IB and call your doctor at once if you have:
+changes in your vision;
+shortness of breath (even with mild exertion);
+swelling or rapid weight gain;
+a skin rash, no matter how mild;
+liver problems - nausea, upper stomach pain, itching, tired feeling, flu-like symptoms, loss of appetite, dark urine, clay-colored stools, jaundice (yellowing of the skin or eyes);</f>
+        <v/>
+      </c>
       <c r="H119" s="10" t="n"/>
     </row>
     <row r="120" ht="16" customHeight="1" s="15">
@@ -6043,7 +6631,22 @@
           <t>https://www.drugs.com/nardil.html</t>
         </is>
       </c>
-      <c r="G120" s="8" t="n"/>
+      <c r="G120" s="21">
+        <f>== Nardil side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficulty breathing; swelling of your face, lips, tongue, or throat.
+Report any new or worsening symptoms to your doctor, such as: mood or behavior changes, anxiety, panic attacks, trouble sleeping, or if you feel impulsive, irritable, agitated, hostile, aggressive, restless, hyperactive (mentally or physically), more depressed, or have thoughts about suicide or hurting yourself.
+Nardil may cause serious side effects. Call your doctor at once if you have:
+sudden and severe headache, neck pain or stiffness;
+pounding heartbeats or fluttering in your chest;
+fast or slow heartbeats;
+chest pain;
+a light-headed feeling, like you might pass out;
+sweating (sometimes with fever and sometimes with cold, clammy skin);
+nausea, vomiting; or
+dilated pupils (your eyes may be more sensitive to light).
+Common side effects of Nardil may include:</f>
+        <v/>
+      </c>
       <c r="H120" s="8" t="n"/>
     </row>
     <row r="121" ht="16" customHeight="1" s="15">
@@ -6061,7 +6664,22 @@
           <t>https://www.drugs.com/natrol-same.html</t>
         </is>
       </c>
-      <c r="G121" s="10" t="n"/>
+      <c r="G121" s="20">
+        <f>== SAMe side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives, difficult breathing, swelling of your face, lips, tongue, or throat.
+Seek medical attention right away if you have symptoms of serotonin syndrome, such as: agitation, hallucinations, fever, sweating, shivering, fast heart rate, muscle stiffness, twitching, loss of coordination, nausea, vomiting, or diarrhea.
+Although not all side effects are known, SAMe is thought to be likely safe for most adults when used as directed.
+Common side effects of Natrol may include:
+changes in hair color;
+headache, dizziness;
+feeling anxious or nervous;
+loss of appetite, vomiting, nausea, upset stomach;
+dry mouth;
+diarrhea, constipation;
+increased sweating; or
+sleep problems (insomnia).</f>
+        <v/>
+      </c>
       <c r="H121" s="10" t="n"/>
     </row>
     <row r="122" ht="16" customHeight="1" s="15">
@@ -6079,7 +6697,25 @@
           <t>https://www.drugs.com/nebupent.html</t>
         </is>
       </c>
-      <c r="G122" s="8" t="n"/>
+      <c r="G122" s="21">
+        <f>== Nebupent side effects ===
+Get emergency medical help if you have any of these signs of an allergic reaction: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+Nebupent may cause serious side effects. Call your doctor at once if you have:
+wheezing, choking, or other breathing problems after using this medication with a nebulizer;
+a light-headed feeling, like you might pass out;
+fast or uneven heart rate;
+painful or difficult urination;
+confusion, hallucinations;
+pain, burning, irritation, or skin changes where the injection was given;
+worsening symptoms, or signs of a new infection (fever, cough, trouble breathing, night sweats);
+pancreatitis--severe pain in your upper stomach spreading to your back, nausea and vomiting;
+low blood sugar--headache, hunger, weakness, sweating, confusion, irritability, dizziness, or feeling jittery; or
+severe skin reaction--fever, sore throat, swelling in your face or tongue, burning in your eyes, skin pain, followed by a red or purple skin rash that spreads (especially in the face or upper body) and causes blistering and peeling.
+Common side effects of Nebupent may include:
+loss of appetite; or
+unusual or unpleasant taste in the mouth.</f>
+        <v/>
+      </c>
       <c r="H122" s="8" t="n"/>
     </row>
     <row r="123" ht="16" customHeight="1" s="15">
@@ -6097,7 +6733,21 @@
           <t>https://www.drugs.com/niacin-sr.html</t>
         </is>
       </c>
-      <c r="G123" s="10" t="n"/>
+      <c r="G123" s="20">
+        <f>== Niacin SR side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+Niacin SR may cause serious side effects. Call your doctor at once if you have:
+heart attack symptoms--chest pain or pressure, pain spreading to your jaw or shoulder, nausea, sweating;
+high blood sugar--increased thirst, increased urination, dry mouth, fruity breath odor;
+unexplained muscle pain, tenderness or weakness;
+a light-headed feeling, like you might pass out;
+irregular heartbeats;
+severe warmth or redness under your skin;
+vision problems; or
+jaundice (yellowing of the skin or eyes).
+Common side effects of Niacin SR may include:</f>
+        <v/>
+      </c>
       <c r="H123" s="10" t="n"/>
     </row>
     <row r="124" ht="16" customHeight="1" s="15">
@@ -6115,7 +6765,16 @@
           <t>https://www.drugs.com/norliqva.html</t>
         </is>
       </c>
-      <c r="G124" s="8" t="n"/>
+      <c r="G124" s="21">
+        <f>== Norliqva side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficulty breathing; swelling of your face, lips, tongue, or throat.
+In rare cases, when you first start taking Norliqva, your chest pain may get worse or you could have a heart attack. Seek emergency medical attention or call your doctor right away if you have symptoms such as: chest pain or pressure, pain spreading to your jaw or shoulder, nausea, sweating.
+Norliqva may cause serious side effects. Call your doctor at once if you have:
+worsening chest pain; or
+a light-headed feeling, like you might pass out.
+Common side effects of Norliqva may include:</f>
+        <v/>
+      </c>
       <c r="H124" s="8" t="n"/>
     </row>
     <row r="125" ht="16" customHeight="1" s="15">
@@ -6133,7 +6792,11 @@
           <t>https://www.drugs.com/norwich-aspirin.html</t>
         </is>
       </c>
-      <c r="G125" s="10" t="n"/>
+      <c r="G125" s="20" t="inlineStr">
+        <is>
+          <t>❌ No substantial side effects content found for Norwich Aspirin</t>
+        </is>
+      </c>
       <c r="H125" s="10" t="n"/>
     </row>
     <row r="126" ht="16" customHeight="1" s="15">
@@ -6151,7 +6814,20 @@
           <t>https://www.drugs.com/nymalize.html</t>
         </is>
       </c>
-      <c r="G126" s="8" t="n"/>
+      <c r="G126" s="21">
+        <f>== Nymalize side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+Nymalize may cause serious side effects. Call your doctor at once if you have:
+a light-headed feeling, like you might pass out;
+fast or slow heart rate; or
+swelling in your ankles or feet.
+Common side effects of Nymalize may include:
+low blood pressure (feeling light-headed);
+nausea, upset stomach;
+slow heartbeats; or
+muscle pain.</f>
+        <v/>
+      </c>
       <c r="H126" s="8" t="n"/>
     </row>
     <row r="127" ht="16" customHeight="1" s="15">
@@ -6169,7 +6845,15 @@
           <t>https://www.drugs.com/otrexup.html</t>
         </is>
       </c>
-      <c r="G127" s="10" t="n"/>
+      <c r="G127" s="20">
+        <f>== Otrexup Side Effects ===
+Generic name: methotrexate
+Medically reviewed by Drugs.com. Last updated on Feb 23, 2024.
+Serious side effects
+Other side effects
+Professional info</f>
+        <v/>
+      </c>
       <c r="H127" s="10" t="n"/>
     </row>
     <row r="128" ht="16" customHeight="1" s="15">
@@ -6187,7 +6871,11 @@
           <t>https://www.drugs.com/pce-dispertab.html</t>
         </is>
       </c>
-      <c r="G128" s="8" t="n"/>
+      <c r="G128" s="21" t="inlineStr">
+        <is>
+          <t>❌ No substantial side effects content found for PCE Dispertab</t>
+        </is>
+      </c>
       <c r="H128" s="8" t="n"/>
     </row>
     <row r="129" ht="16" customHeight="1" s="15">
@@ -6205,7 +6893,22 @@
           <t>https://www.drugs.com/parnate.html</t>
         </is>
       </c>
-      <c r="G129" s="10" t="n"/>
+      <c r="G129" s="20">
+        <f>== Parnate side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+Report any new or worsening symptoms to your doctor, such as: mood or behavior changes, anxiety, panic attacks, trouble sleeping, or if you feel impulsive, irritable, agitated, hostile, aggressive, restless, hyperactive (mentally or physically), more depressed, or have thoughts about suicide or hurting yourself.
+Parnate may cause serious side effects. Call your doctor at once if you have:
+dilated pupils, vision problems, sensitivity to light;
+sudden and severe headache, neck pain or stiffness;
+numbness or weakness, problems with vision or speech;
+fast or pounding heartbeats;
+fever, cold sweat, nausea, vomiting;
+a light-headed feeling, like you might pass out;
+a seizure;
+high levels of serotonin in the body--agitation, hallucinations, sweating, shivering, muscle stiffness, twitching, loss of coordination, vomiting, diarrhea; or
+Serious side effects may be more likely in older adults.</f>
+        <v/>
+      </c>
       <c r="H129" s="10" t="n"/>
     </row>
     <row r="130" ht="16" customHeight="1" s="15">
@@ -6223,7 +6926,14 @@
           <t>https://www.drugs.com/pentam.html</t>
         </is>
       </c>
-      <c r="G130" s="8" t="n"/>
+      <c r="G130" s="21">
+        <f>== Pentam Side Effects ===
+Generic name: pentamidine
+Medically reviewed by Drugs.com. Last updated on Jun 8, 2025.
+Serious side effects
+Professional info</f>
+        <v/>
+      </c>
       <c r="H130" s="8" t="n"/>
     </row>
     <row r="131" ht="16" customHeight="1" s="15">
@@ -6241,7 +6951,25 @@
           <t>https://www.drugs.com/pentam-300.html</t>
         </is>
       </c>
-      <c r="G131" s="10" t="n"/>
+      <c r="G131" s="20">
+        <f>== Pentam 300 side effects ===
+Get emergency medical help if you have any of these signs of an allergic reaction: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+Pentam 300 may cause serious side effects. Call your doctor at once if you have:
+wheezing, choking, or other breathing problems after using this medication with a nebulizer;
+a light-headed feeling, like you might pass out;
+fast or uneven heart rate;
+painful or difficult urination;
+confusion, hallucinations;
+pain, burning, irritation, or skin changes where the injection was given;
+worsening symptoms, or signs of a new infection (fever, cough, trouble breathing, night sweats);
+pancreatitis--severe pain in your upper stomach spreading to your back, nausea and vomiting;
+low blood sugar--headache, hunger, weakness, sweating, confusion, irritability, dizziness, or feeling jittery; or
+severe skin reaction--fever, sore throat, swelling in your face or tongue, burning in your eyes, skin pain, followed by a red or purple skin rash that spreads (especially in the face or upper body) and causes blistering and peeling.
+Common side effects of Pentam 300 may include:
+loss of appetite; or
+unusual or unpleasant taste in the mouth.</f>
+        <v/>
+      </c>
       <c r="H131" s="10" t="n"/>
     </row>
     <row r="132" ht="16" customHeight="1" s="15">
@@ -6259,7 +6987,16 @@
           <t>https://www.drugs.com/persantine.html</t>
         </is>
       </c>
-      <c r="G132" s="8" t="n"/>
+      <c r="G132" s="21">
+        <f>== Persantine side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+Persantine may cause serious side effects. Call your doctor at once if you have:
+a light-headed feeling, like you might pass out;
+chest pain; or
+Older adults may be more likely to feel light-headed while taking Persantine.
+Common side effects of Persantine may include:</f>
+        <v/>
+      </c>
       <c r="H132" s="8" t="n"/>
     </row>
     <row r="133" ht="16" customHeight="1" s="15">
@@ -6277,7 +7014,26 @@
           <t>https://www.drugs.com/pfizerpen.html</t>
         </is>
       </c>
-      <c r="G133" s="10" t="n"/>
+      <c r="G133" s="20">
+        <f>== Pfizerpen side effects ===
+Get emergency medical help if you have any of these signs of an allergic reaction: hives; difficulty breathing; swelling of your face, lips, tongue, or throat.
+Pfizerpen may cause serious side effects. Call your doctor at once if you have:
+the first sign of any skin rash, no matter how mild;
+red or scaly skin;
+fever, chills, swollen glands, muscle or joint pain, fast heartbeats, general ill feeling;
+a light-headed feeling, like you might pass out;
+severe stomach pain, diarrhea that is watery or bloody;
+little or no urinating;
+bruising, severe tingling, numbness, pain, muscle weakness;
+seizure (convulsions); or
+unusual changes in mood or behavior.
+Common side effects of Pfizerpen may include:
+mild diarrhea;
+headache;
+black or hairy tongue; or
+pain, swelling, bruising, or irritation around the IV needle.</f>
+        <v/>
+      </c>
       <c r="H133" s="10" t="n"/>
     </row>
     <row r="134" ht="16" customHeight="1" s="15">
@@ -6295,7 +7051,15 @@
           <t>https://www.drugs.com/pneumovax-23.html</t>
         </is>
       </c>
-      <c r="G134" s="8" t="n"/>
+      <c r="G134" s="21">
+        <f>== This vaccine side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficulty breathing; swelling of your face, lips, tongue, or throat.
+You should not receive a booster vaccine if you have had a life-threatening allergic reaction after the first shot.
+Keep track of all side effects you have. If you need a booster dose, you will need to tell the vaccination provider if the previous shot caused any side effects.
+Becoming infected with pneumococcal disease is much more dangerous to your health than receiving this vaccine. However, like any medicine, this vaccine can cause side effects but the risk of serious side effects is low.
+Pneumovax 23 may cause serious side effects. Call your doctor at once if you have:</f>
+        <v/>
+      </c>
       <c r="H134" s="8" t="n"/>
     </row>
     <row r="135" ht="16" customHeight="1" s="15">
@@ -6313,7 +7077,15 @@
           <t>https://www.drugs.com/pregnyl.html</t>
         </is>
       </c>
-      <c r="G135" s="10" t="n"/>
+      <c r="G135" s="20">
+        <f>== Pregnyl Side Effects ===
+Generic name: chorionic gonadotropin (hcg)
+Medically reviewed by Drugs.com. Last updated on May 11, 2025.
+Serious side effects
+Other side effects
+Professional info</f>
+        <v/>
+      </c>
       <c r="H135" s="10" t="n"/>
     </row>
     <row r="136" ht="16" customHeight="1" s="15">
@@ -6331,7 +7103,19 @@
           <t>https://www.drugs.com/prevalite.html</t>
         </is>
       </c>
-      <c r="G136" s="8" t="n"/>
+      <c r="G136" s="21">
+        <f>== Prevalite side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficulty breathing; swelling of your face, lips, tongue, or throat.
+Prevalite may cause serious side effects. Call your doctor at once if you have:
+ongoing or worsening constipation;
+severe stomach pain;
+blood in your urine;
+black, bloody, or tarry stools; or
+easy bruising, unusual bleeding.
+Side effects such as constipation may be more likely in older adults.
+Common side effects of Prevalite may include:</f>
+        <v/>
+      </c>
       <c r="H136" s="8" t="n"/>
     </row>
     <row r="137" ht="16" customHeight="1" s="15">
@@ -6349,7 +7133,23 @@
           <t>https://www.drugs.com/primaxin-iv.html</t>
         </is>
       </c>
-      <c r="G137" s="10" t="n"/>
+      <c r="G137" s="20">
+        <f>== Primaxin IV side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives, difficult breathing, swelling of your face, lips, tongue, or throat.
+Primaxin IV may cause serious side effects. Call your doctor at once if you have:
+severe stomach pain, diarrhea that is watery or bloody (even if it occurs months after your last dose);
+pain, swelling, burning, or irritation around the IV needle; or
+seizure (convulsions).
+Common side effects of Primaxin IV may include:
+pain, bruising, induration, redness, swelling, or irritation where the medicine was injected;
+fever, feeling light-headed, seizures;
+fast heart rate, little or no urination, urine discoloration;
+thrush (a fungal infection);
+dizziness, drowsiness;
+nausea, vomiting, diarrhea; or
+itching, rash.</f>
+        <v/>
+      </c>
       <c r="H137" s="10" t="n"/>
     </row>
     <row r="138" ht="16" customHeight="1" s="15">
@@ -6367,7 +7167,23 @@
           <t>https://www.drugs.com/primsol.html</t>
         </is>
       </c>
-      <c r="G138" s="8" t="n"/>
+      <c r="G138" s="21">
+        <f>== Primsol side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+Primsol may cause serious side effects. Call your doctor at once if you have:
+severe stomach pain, diarrhea that is watery or bloody (even if it occurs months after your last dose);
+pale, gray, or bluish skin;
+fever, weakness;
+sore or swollen tongue;
+easy bruising, purple or red spots under your skin;
+a skin rash, no matter how mild; or
+high potassium level--nausea, weakness, tingly feeling, chest pain, irregular heartbeats, loss of movement.
+Common side effects of Primsol may include:
+vomiting, diarrhea, stomach pain;
+rash, itching; or
+swelling in your tongue.</f>
+        <v/>
+      </c>
       <c r="H138" s="8" t="n"/>
     </row>
     <row r="139" ht="16" customHeight="1" s="15">
@@ -6385,7 +7201,15 @@
           <t>https://www.drugs.com/proair-hfa.html</t>
         </is>
       </c>
-      <c r="G139" s="10" t="n"/>
+      <c r="G139" s="20">
+        <f>== Side Effects of ProAir HFA ===
+Along with its needed effects, a medicine may cause some unwanted effects. Although not all of these side effects may occur, if they do occur they may need medical attention.
+Check with your doctor immediately if any of the following side effects occur:
+Fast, irregular, pounding, or racing heartbeat or pulse
+shakiness in the legs, arms, hands, or feet
+trembling or shaking of the hands or feet</f>
+        <v/>
+      </c>
       <c r="H139" s="10" t="n"/>
     </row>
     <row r="140" ht="16" customHeight="1" s="15">
@@ -6403,7 +7227,17 @@
           <t>https://www.drugs.com/proair-respiclick.html</t>
         </is>
       </c>
-      <c r="G140" s="8" t="n"/>
+      <c r="G140" s="21">
+        <f>== ProAir RespiClick side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives, difficult breathing, swelling of your face, lips, tongue, or throat.
+ProAir RespiClick may cause serious side effects. Call your doctor at once if you have:
+wheezing, choking, or other breathing problems after using ProAir RespiClick;
+chest pain, fast heart rate, pounding heartbeats or fluttering in your chest;
+severe headache, pounding in your neck or ears;
+high blood sugar--increased thirst, increased urination, dry mouth, fruity breath odor; or
+Common side effects of ProAir RespiClick may include:</f>
+        <v/>
+      </c>
       <c r="H140" s="8" t="n"/>
     </row>
     <row r="141" ht="32" customHeight="1" s="15">
@@ -6421,7 +7255,11 @@
           <t>https://www.drugs.com/probenecid-and-colchicine.html</t>
         </is>
       </c>
-      <c r="G141" s="10" t="n"/>
+      <c r="G141" s="20">
+        <f>== Side Effects of probenecid and colchicine ===
+Along with its needed effects, a medicine may cause some unwanted effects. Although not all of these side effects may occur, if they do occur they may need medical attention.</f>
+        <v/>
+      </c>
       <c r="H141" s="10" t="n"/>
     </row>
     <row r="142" ht="16" customHeight="1" s="15">
@@ -6439,7 +7277,19 @@
           <t>https://www.drugs.com/procardia.html</t>
         </is>
       </c>
-      <c r="G142" s="8" t="n"/>
+      <c r="G142" s="21">
+        <f>== Procardia side effects ===
+Get emergency medical help if you have signs of an allergic reaction (hives, difficult breathing, swelling in your face or throat) or a severe skin reaction (fever, sore throat, burning eyes, skin pain, red or purple skin rash with blistering and peeling).
+Procardia may cause serious side effects. Call your doctor at once if you have:
+worsening chest pain;
+pounding heartbeats or fluttering in your chest;
+a light-headed feeling, like you might pass out;
+swelling in your hands or lower legs; or
+upper stomach pain, jaundice (yellowing of the skin or eyes).
+You may have more severe or more frequent episodes of angina when you first start taking Procardia or whenever your dose is changed.
+Common side effects of Procardia may include:</f>
+        <v/>
+      </c>
       <c r="H142" s="8" t="n"/>
     </row>
     <row r="143" ht="16" customHeight="1" s="15">
@@ -6457,7 +7307,11 @@
           <t>https://www.drugs.com/proventil-hfa.html</t>
         </is>
       </c>
-      <c r="G143" s="10" t="n"/>
+      <c r="G143" s="20" t="inlineStr">
+        <is>
+          <t>What are some side effects that I need to call my doctor about right away?</t>
+        </is>
+      </c>
       <c r="H143" s="10" t="n"/>
     </row>
     <row r="144" ht="16" customHeight="1" s="15">
@@ -6475,7 +7329,19 @@
           <t>https://www.drugs.com/pulmicort-flexhaler.html</t>
         </is>
       </c>
-      <c r="G144" s="8" t="n"/>
+      <c r="G144" s="21">
+        <f>== Pulmicort Flexhaler side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives, rash, severe itching; chest pain, difficult breathing, feeling anxious; swelling of your face, lips, tongue, or throat.
+Pulmicort Flexhaler may cause serious side effects. Call your doctor at once if you have:
+worsening asthma symptoms;
+wheezing, choking, or other breathing problems after using this medication;
+white patches or sores inside your mouth or on your lips;
+blurred vision, tunnel vision, eye pain or swelling, or seeing halos around lights;
+signs of infection--fever, chills, body aches, ear pain, nausea, vomiting; or
+signs of low adrenal gland hormones--worsening tiredness or muscle weakness, feeling light-headed, nausea, vomiting.
+Common side effects of Pulmicort Flexhaler may include:</f>
+        <v/>
+      </c>
       <c r="H144" s="8" t="n"/>
     </row>
     <row r="145" ht="16" customHeight="1" s="15">
@@ -6493,7 +7359,15 @@
           <t>https://www.drugs.com/rasuvo.html</t>
         </is>
       </c>
-      <c r="G145" s="10" t="n"/>
+      <c r="G145" s="20">
+        <f>== Rasuvo Side Effects ===
+Generic name: methotrexate
+Medically reviewed by Drugs.com. Last updated on Feb 23, 2024.
+Serious side effects
+Other side effects
+Professional info</f>
+        <v/>
+      </c>
       <c r="H145" s="10" t="n"/>
     </row>
     <row r="146" ht="16" customHeight="1" s="15">
@@ -6511,7 +7385,16 @@
           <t>https://www.drugs.com/red-yeast-rice.html</t>
         </is>
       </c>
-      <c r="G146" s="8" t="n"/>
+      <c r="G146" s="21">
+        <f>== Red yeast rice side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+Although not all side effects are known, red yeast rice is thought to be possibly safe when taken as directed for up to 4.5 years.
+Stop using red yeast rice and call your healthcare provider at once if you have:
+unexplained muscle pain, tenderness, or weakness;
+fever, unusual tiredness; or
+nausea, upper stomach pain, itching, tiredness, loss of appetite, dark urine, clay-colored stools, jaundice (yellowing of the skin or eyes).</f>
+        <v/>
+      </c>
       <c r="H146" s="8" t="n"/>
     </row>
     <row r="147" ht="16" customHeight="1" s="15">
@@ -6529,7 +7412,25 @@
           <t>https://www.drugs.com/regimex.html</t>
         </is>
       </c>
-      <c r="G147" s="10" t="n"/>
+      <c r="G147" s="20">
+        <f>== Regimex side effects ===
+Get emergency medical help if you have any of these signs of an allergic reaction: hives; difficulty breathing; swelling of your face, lips, tongue, or throat.
+Regimex may cause serious side effects. Stop using Regimex and call your doctor at once if you have:
+shortness of breath (even with mild exertion), swelling, rapid weight gain;
+chest pain, feeling like you might pass out;
+pounding heartbeats or fluttering in your chest;
+confusion or irritability, unusual thoughts or behavior; or
+dangerously high blood pressure (severe headache, blurred vision, buzzing in your ears, anxiety, confusion, chest pain, shortness of breath, uneven heartbeats, seizure).
+Common side effects of Regimex may include:
+feeling restless or hyperactive;
+headache, dizziness, tremors;
+sleep problems (insomnia);
+increased sweating;
+dry mouth or an unpleasant taste in your mouth;
+nausea, diarrhea upset stomach; or
+skin rash.</f>
+        <v/>
+      </c>
       <c r="H147" s="10" t="n"/>
     </row>
     <row r="148" ht="16" customHeight="1" s="15">
@@ -6547,7 +7448,19 @@
           <t>https://www.drugs.com/retacrit.html</t>
         </is>
       </c>
-      <c r="G148" s="8" t="n"/>
+      <c r="G148" s="21">
+        <f>== Retacrit side effects ===
+Get emergency medical help if you have signs of an allergic reaction (hives, sweating, rapid pulse, wheezing, trouble breathing, severe dizziness or fainting, swelling in your face or throat) or a severe skin reaction (fever, sore throat, burning eyes, skin pain, red or purple skin rash with blistering and peeling).
+Retacrit can cause serious side effects, including heart attack or stroke. Seek emergency medical help if you have:
+heart attack symptoms--chest pain or pressure, pain spreading to your jaw or shoulder, nausea, sweating;
+signs of a stroke--sudden numbness or weakness (especially on one side of the body), sudden severe headache, slurred speech, problems with vision or balance.
+Retacrit may cause serious side effects. Call your doctor at once if you have:
+unusual tiredness;
+a seizure (convulsions);
+high blood sugar--increased thirst, increased urination, dry mouth, fruity breath odor;
+increased blood pressure--severe headache, blurred vision, pounding in your neck or ears, anxiety, nosebleed.</f>
+        <v/>
+      </c>
       <c r="H148" s="8" t="n"/>
     </row>
     <row r="149" ht="16" customHeight="1" s="15">
@@ -6565,7 +7478,11 @@
           <t>https://www.drugs.com/rifadin.html</t>
         </is>
       </c>
-      <c r="G149" s="10" t="n"/>
+      <c r="G149" s="20" t="inlineStr">
+        <is>
+          <t>What are some side effects that I need to call my doctor about right away?</t>
+        </is>
+      </c>
       <c r="H149" s="10" t="n"/>
     </row>
     <row r="150" ht="16" customHeight="1" s="15">
@@ -6583,7 +7500,11 @@
           <t>https://www.drugs.com/rifadin-iv.html</t>
         </is>
       </c>
-      <c r="G150" s="8" t="n"/>
+      <c r="G150" s="21" t="inlineStr">
+        <is>
+          <t>❌ No substantial side effects content found for Rifadin IV</t>
+        </is>
+      </c>
       <c r="H150" s="8" t="n"/>
     </row>
     <row r="151" ht="16" customHeight="1" s="15">
@@ -6601,7 +7522,11 @@
           <t>https://www.drugs.com/rimactane.html</t>
         </is>
       </c>
-      <c r="G151" s="10" t="n"/>
+      <c r="G151" s="20" t="inlineStr">
+        <is>
+          <t>❌ No substantial side effects content found for Rimactane</t>
+        </is>
+      </c>
       <c r="H151" s="10" t="n"/>
     </row>
     <row r="152" ht="16" customHeight="1" s="15">
@@ -6619,7 +7544,11 @@
           <t>https://www.drugs.com/septra-ds.html</t>
         </is>
       </c>
-      <c r="G152" s="8" t="n"/>
+      <c r="G152" s="21" t="inlineStr">
+        <is>
+          <t>❌ No substantial side effects content found for Septra DS</t>
+        </is>
+      </c>
       <c r="H152" s="8" t="n"/>
     </row>
     <row r="153" ht="16" customHeight="1" s="15">
@@ -6637,7 +7566,14 @@
           <t>https://www.drugs.com/sibutramine.html</t>
         </is>
       </c>
-      <c r="G153" s="10" t="n"/>
+      <c r="G153" s="20">
+        <f>== Sibutramine Side Effects ===
+Other side effects
+Serious side effects
+Professional info
+Applies to sibutramine: oral capsule.</f>
+        <v/>
+      </c>
       <c r="H153" s="10" t="n"/>
     </row>
     <row r="154" ht="16" customHeight="1" s="15">
@@ -6655,7 +7591,14 @@
           <t>https://www.drugs.com/slippery-elm.html</t>
         </is>
       </c>
-      <c r="G154" s="8" t="n"/>
+      <c r="G154" s="21">
+        <f>== Slippery elm side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficulty breathing; swelling of your face, lips, tongue, or throat.
+Although not all side effects are known, slippery elm is thought to be likely safe for most people when taken by mouth.
+Common side effects of slippery elm may include:
+This is not a complete list of side effects and others may occur. Call your doctor for medical advice about side effects. You may report side effects to FDA at 1-800-FDA-1088.</f>
+        <v/>
+      </c>
       <c r="H154" s="8" t="n"/>
     </row>
     <row r="155" ht="16" customHeight="1" s="15">
@@ -6673,7 +7616,21 @@
           <t>https://www.drugs.com/slow-fe.html</t>
         </is>
       </c>
-      <c r="G155" s="10" t="n"/>
+      <c r="G155" s="20">
+        <f>== Slow Fe side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficulty breathing; swelling of your face, lips, tongue, or throat.
+Slow Fe may cause serious side effects. Call your doctor at once if you have:
+severe stomach pain or vomiting;
+cough with bloody mucus or vomit that looks like coffee grounds;
+fever; or
+bloody or tarry stools.
+Common side effects of Slow Fe may include:
+diarrhea, constipation;
+nausea, stomach pain;
+green-colored stools; or
+loss of appetite.</f>
+        <v/>
+      </c>
       <c r="H155" s="10" t="n"/>
     </row>
     <row r="156" ht="16" customHeight="1" s="15">
@@ -6691,7 +7648,21 @@
           <t>https://www.drugs.com/slow-release-iron.html</t>
         </is>
       </c>
-      <c r="G156" s="8" t="n"/>
+      <c r="G156" s="21">
+        <f>== Slow Release Iron side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficulty breathing; swelling of your face, lips, tongue, or throat.
+Slow Release Iron may cause serious side effects. Call your doctor at once if you have:
+severe stomach pain or vomiting;
+cough with bloody mucus or vomit that looks like coffee grounds;
+fever; or
+bloody or tarry stools.
+Common side effects of Slow Release Iron may include:
+diarrhea, constipation;
+nausea, stomach pain;
+green-colored stools; or
+loss of appetite.</f>
+        <v/>
+      </c>
       <c r="H156" s="8" t="n"/>
     </row>
     <row r="157" ht="16" customHeight="1" s="15">
@@ -6709,7 +7680,11 @@
           <t>https://www.drugs.com/spiriva-respimat.html</t>
         </is>
       </c>
-      <c r="G157" s="10" t="n"/>
+      <c r="G157" s="20" t="inlineStr">
+        <is>
+          <t>❌ No substantial side effects content found for Spiriva Respimat</t>
+        </is>
+      </c>
       <c r="H157" s="10" t="n"/>
     </row>
     <row r="158" ht="16" customHeight="1" s="15">
@@ -6727,7 +7702,11 @@
           <t>https://www.drugs.com/st.-john's-wort.html</t>
         </is>
       </c>
-      <c r="G158" s="8" t="n"/>
+      <c r="G158" s="21" t="inlineStr">
+        <is>
+          <t>❌ Could not find main result for St. John's wort</t>
+        </is>
+      </c>
       <c r="H158" s="8" t="n"/>
     </row>
     <row r="159" ht="16" customHeight="1" s="15">
@@ -6745,7 +7724,19 @@
           <t>https://www.drugs.com/sular.html</t>
         </is>
       </c>
-      <c r="G159" s="10" t="n"/>
+      <c r="G159" s="20">
+        <f>== Sular side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+Sular may cause serious side effects. Call your doctor at once if you have:
+a light-headed feeling, like you might pass out;
+chest pain or pressure, pain spreading to your jaw or shoulder;
+swelling in your hands or feet;
+flushing (sudden warmth, redness, or tingly feeling);
+fast heartbeats; or
+sudden numbness or weakness, problems with vision or speech.
+Common side effects of Sular may include:</f>
+        <v/>
+      </c>
       <c r="H159" s="10" t="n"/>
     </row>
     <row r="160" ht="16" customHeight="1" s="15">
@@ -6763,7 +7754,11 @@
           <t>https://www.drugs.com/sulfatrim-pediatric.html</t>
         </is>
       </c>
-      <c r="G160" s="8" t="n"/>
+      <c r="G160" s="21" t="inlineStr">
+        <is>
+          <t>❌ No substantial side effects content found for Sulfatrim Pediatric</t>
+        </is>
+      </c>
       <c r="H160" s="8" t="n"/>
     </row>
     <row r="161" ht="16" customHeight="1" s="15">
@@ -6781,7 +7776,25 @@
           <t>https://www.drugs.com/suprenza.html</t>
         </is>
       </c>
-      <c r="G161" s="10" t="n"/>
+      <c r="G161" s="20">
+        <f>== Suprenza side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+Suprenza may cause serious side effects. Call your doctor at once if you have:
+feeling short of breath, even with mild exertion;
+chest pain, feeling like you might pass out;
+swelling in your ankles or feet;
+pounding heartbeats or fluttering in your chest;
+tremors, feeling restless, trouble sleeping;
+unusual changes in mood or behavior; or
+increased blood pressure--severe headache, blurred vision, pounding in your neck or ears, anxiety, nosebleed.
+Common side effects of Suprenza may include:
+itching;
+dizziness, headache;
+dry mouth, unpleasant taste;
+diarrhea, constipation, stomach pain; or
+increased or decreased interest in sex.</f>
+        <v/>
+      </c>
       <c r="H161" s="10" t="n"/>
     </row>
     <row r="162" ht="16" customHeight="1" s="15">
@@ -6799,7 +7812,23 @@
           <t>https://www.drugs.com/tazicef.html</t>
         </is>
       </c>
-      <c r="G162" s="8" t="n"/>
+      <c r="G162" s="21">
+        <f>== Ceftazidime side effects ===
+Get emergency medical help if you have signs of an allergic reaction (hives, itching, feeling light-headed, wheezing, difficult breathing, swelling in your face or throat) or a severe skin reaction (fever, sore throat, burning eyes, skin pain, red or purple skin rash with blistering and peeling).
+Tazicef may cause serious side effects. Call your doctor at once if you have:
+severe stomach pain, diarrhea that is watery or bloody (even if it occurs months after your last dose);
+pale or yellowed skin, dark colored urine, fever, or weakness;
+confusion, hallucinations, severe weakness;
+involuntary muscle movement;
+seizure (black-out or convulsions); or
+a cold feeling, discoloration, or skin changes in your fingers.
+Common side effects of Tazicef may include:
+allergic reaction;
+numbness, tingling, burning pain;
+headache, dizziness;
+nausea, vomiting, diarrhea, stomach pain; or</f>
+        <v/>
+      </c>
       <c r="H162" s="8" t="n"/>
     </row>
     <row r="163" ht="16" customHeight="1" s="15">
@@ -6817,7 +7846,11 @@
           <t>https://www.drugs.com/tenuate-dospan.html</t>
         </is>
       </c>
-      <c r="G163" s="10" t="n"/>
+      <c r="G163" s="20" t="inlineStr">
+        <is>
+          <t>What are some side effects that I need to call my doctor about right away?</t>
+        </is>
+      </c>
       <c r="H163" s="10" t="n"/>
     </row>
     <row r="164" ht="16" customHeight="1" s="15">
@@ -6835,7 +7868,24 @@
           <t>https://www.drugs.com/tofranil.html</t>
         </is>
       </c>
-      <c r="G164" s="8" t="n"/>
+      <c r="G164" s="21">
+        <f>== Tofranil side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+Report any new or worsening symptoms to your doctor, such as: mood or behavior changes, anxiety, panic attacks, trouble sleeping, or if you feel impulsive, irritable, agitated, hostile, aggressive, restless, hyperactive (mentally or physically), more depressed, or have thoughts about suicide or hurting yourself.
+Tofranil may cause serious side effects. Call your doctor at once if you have:
+easy bruising, unusual bleeding, purple or red spots under your skin;
+tunnel vision, eye pain or swelling, or seeing halos around lights;
+a light-headed feeling, like you might pass out;
+new or worsening chest pain, pounding heartbeats or fluttering in your chest;
+sudden numbness or weakness, problems with vision, speech, or balance;
+fever, sore throat;
+confusion, hallucinations, unusual thoughts or behavior;
+painful or difficult urination;
+seizure (convulsions); or
+jaundice (yellowing of the skin or eyes).
+Common side effects of Tofranil may include:</f>
+        <v/>
+      </c>
       <c r="H164" s="8" t="n"/>
     </row>
     <row r="165" ht="16" customHeight="1" s="15">
@@ -6853,7 +7903,19 @@
           <t>https://www.drugs.com/trandate.html</t>
         </is>
       </c>
-      <c r="G165" s="10" t="n"/>
+      <c r="G165" s="20">
+        <f>== Trandate side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficulty breathing; swelling of your face, lips, tongue, or throat.
+Trandate may cause serious side effects. Call your doctor at once if you have:
+a light-headed feeling, like you might pass out;
+slow heart rate, weak pulse, fainting, slow breathing (breathing may stop);
+shortness of breath (even with mild exertion), swelling, rapid weight gain;
+severe headache, blurred vision, pounding in your neck or ears; or
+liver problems--loss of appetite, stomach pain (upper right side), flu-like symptoms, itching, dark urine, jaundice (yellowing of the skin or eyes).
+Severe dizziness or fainting may be more likely in older adults.
+Common side effects of Trandate may include:</f>
+        <v/>
+      </c>
       <c r="H165" s="10" t="n"/>
     </row>
     <row r="166" ht="16" customHeight="1" s="15">
@@ -6871,7 +7933,23 @@
           <t>https://www.drugs.com/unasyn.html</t>
         </is>
       </c>
-      <c r="G166" s="8" t="n"/>
+      <c r="G166" s="21">
+        <f>== Unasyn side effects ===
+Get emergency medical help if you have signs of an allergic reaction (hives, difficult breathing, swelling in your face or throat) or a severe skin reaction (fever, sore throat, burning eyes, skin pain, red or purple skin rash with blistering and peeling).
+Unasyn may cause serious side effects. Call your doctor at once if you have:
+severe stomach pain, diarrhea that is watery or bloody (even if it occurs months after your last dose);
+thrush (white patches inside your mouth or throat);
+heart problems--fast heartbeats, chest pain or pressure, pain spreading to your jaw or shoulder, nausea, sweating;
+liver problems--nausea, upper stomach pain, itching, tired feeling, loss of appetite, dark urine, clay-colored stools, jaundice (yellowing of the skin or eyes); or
+signs of a new infection--fever, headache, tiredness, ear pain or drainage, eye pain or redness, cough, skin rash, sores or pimples with pus, joint pain, ongoing neck or back pain, diarrhea, pain or burning when you urinate.
+Common side effects of Unasyn may include:
+diarrhea;
+rash;
+swollen, black, or "hairy" tongue;
+vaginal itching or discharge;
+pain where the medicine was injected.</f>
+        <v/>
+      </c>
       <c r="H166" s="8" t="n"/>
     </row>
     <row r="167" ht="16" customHeight="1" s="15">
@@ -6889,7 +7967,15 @@
           <t>https://www.drugs.com/valerian.html</t>
         </is>
       </c>
-      <c r="G167" s="10" t="n"/>
+      <c r="G167" s="20">
+        <f>== Valerian side effects ===
+Get emergency medical help if you have any of these signs of an allergic reaction: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+Although not all side effects are known, valerian is thought to be possibly safe when taken for a short period of time (4 to 8 weeks).
+Valerian may cause serious side effects. Stop using valerian and call your doctor at once if you have:
+liver problems--nausea, upper stomach pain, itching, tired feeling, loss of appetite, dark urine, clay-colored stools, jaundice (yellowing of the skin or eyes).
+Common side effects of valerian may include:</f>
+        <v/>
+      </c>
       <c r="H167" s="10" t="n"/>
     </row>
     <row r="168" ht="16" customHeight="1" s="15">
@@ -6907,7 +7993,14 @@
           <t>https://www.drugs.com/vancocin-hcl.html</t>
         </is>
       </c>
-      <c r="G168" s="8" t="n"/>
+      <c r="G168" s="21">
+        <f>== Vancomycin Side Effects ===
+Medically reviewed by Drugs.com. Last updated on Oct 30, 2023.
+Serious side effects
+Other side effects
+Professional info</f>
+        <v/>
+      </c>
       <c r="H168" s="8" t="n"/>
     </row>
     <row r="169" ht="32" customHeight="1" s="15">
@@ -6925,7 +8018,15 @@
           <t>https://www.drugs.com/vancocin-hcl-pulvules.html</t>
         </is>
       </c>
-      <c r="G169" s="10" t="n"/>
+      <c r="G169" s="20">
+        <f>== Vancocin HCl Pulvules Side Effects ===
+Generic name: vancomycin
+Medically reviewed by Drugs.com. Last updated on Oct 30, 2023.
+Serious side effects
+Other side effects
+Professional info</f>
+        <v/>
+      </c>
       <c r="H169" s="10" t="n"/>
     </row>
     <row r="170" ht="16" customHeight="1" s="15">
@@ -6943,7 +8044,17 @@
           <t>https://www.drugs.com/vazalore.html</t>
         </is>
       </c>
-      <c r="G170" s="8" t="n"/>
+      <c r="G170" s="21">
+        <f>== Vazalore side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+Vazalore may cause serious side effects. Stop using Vazalore and call your doctor at once if you have:
+ringing in your ears, confusion, hallucinations, rapid breathing, seizure (convulsions);
+severe nausea, vomiting, or stomach pain;
+bloody or tarry stools, coughing up blood or vomit that looks like coffee grounds;
+fever lasting longer than 3 days; or
+swelling, or pain lasting longer than 10 days.</f>
+        <v/>
+      </c>
       <c r="H170" s="8" t="n"/>
     </row>
     <row r="171" ht="16" customHeight="1" s="15">
@@ -6961,7 +8072,25 @@
           <t>https://www.drugs.com/ventolin.html</t>
         </is>
       </c>
-      <c r="G171" s="10" t="n"/>
+      <c r="G171" s="20">
+        <f>== Ventolin side effects ===
+Get emergency medical help if you have signs of an allergic reaction to Ventolin: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+Call your doctor at once if you have:
+wheezing, choking, or other breathing problems after using this medicine;
+chest pain, fast heart rate, pounding heartbeats or fluttering in your chest;
+severe headache, pounding in your neck or ears;
+pain or burning when you urinate;
+high blood sugar - increased thirst, increased urination, dry mouth, fruity breath odor; or
+Common Ventolin side effects may include:
+chest pain, fast or pounding heartbeats;
+dizziness;
+upset stomach, vomiting;
+painful urination;
+feeling shaky or nervous;
+headache, back pain, body aches; or
+cough, sore throat, sinus pain, runny or stuffy nose.</f>
+        <v/>
+      </c>
       <c r="H171" s="10" t="n"/>
     </row>
     <row r="172" ht="16" customHeight="1" s="15">
@@ -6979,7 +8108,15 @@
           <t>https://www.drugs.com/verelan.html</t>
         </is>
       </c>
-      <c r="G172" s="8" t="n"/>
+      <c r="G172" s="21">
+        <f>== Verelan Side Effects ===
+Generic name: verapamil
+Medically reviewed by Drugs.com. Last updated on May 27, 2024.
+Other side effects
+Serious side effects
+Professional info</f>
+        <v/>
+      </c>
       <c r="H172" s="8" t="n"/>
     </row>
     <row r="173" ht="16" customHeight="1" s="15">
@@ -6997,7 +8134,13 @@
           <t>https://www.drugs.com/vibramycin.html</t>
         </is>
       </c>
-      <c r="G173" s="10" t="n"/>
+      <c r="G173" s="20" t="inlineStr">
+        <is>
+          <t>Medically reviewed by Carmen Pope, BPharm. Last updated on Dec 30, 2024.
+Official Answer by Drugs.com
+Official Answer by Drugs.com</t>
+        </is>
+      </c>
       <c r="H173" s="10" t="n"/>
     </row>
     <row r="174" ht="16" customHeight="1" s="15">
@@ -7015,7 +8158,11 @@
           <t>https://www.drugs.com/vospire-er.html</t>
         </is>
       </c>
-      <c r="G174" s="8" t="n"/>
+      <c r="G174" s="21" t="inlineStr">
+        <is>
+          <t>What are some side effects that I need to call my doctor about right away?</t>
+        </is>
+      </c>
       <c r="H174" s="8" t="n"/>
     </row>
     <row r="175" ht="16" customHeight="1" s="15">
@@ -7033,7 +8180,19 @@
           <t>https://www.drugs.com/welchol.html</t>
         </is>
       </c>
-      <c r="G175" s="10" t="n"/>
+      <c r="G175" s="20">
+        <f>== Welchol side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+Welchol may cause serious side effects. Stop using Welchol and call your doctor at once if you have:
+severe constipation;
+severe stomach pain; or
+pancreatitis--severe pain in your upper stomach spreading to your back, nausea and vomiting.
+Common side effects of Welchol may include:
+constipation;
+nausea; or
+upset stomach.</f>
+        <v/>
+      </c>
       <c r="H175" s="10" t="n"/>
     </row>
     <row r="176" ht="16" customHeight="1" s="15">
@@ -7051,7 +8210,19 @@
           <t>https://www.drugs.com/wellbutrin-sr.html</t>
         </is>
       </c>
-      <c r="G176" s="8" t="n"/>
+      <c r="G176" s="21">
+        <f>== Wellbutrin SR side effects ===
+Get emergency medical help if you have signs of an allergic reaction (hives, itching, fever, swollen glands, difficult breathing, swelling in your face or throat) or a severe skin reaction (fever, sore throat, burning eyes, skin pain, red or purple skin rash with blistering and peeling).
+Report any new or worsening symptoms to your doctor, such as: mood or behavior changes, anxiety, depression, panic attacks, trouble sleeping, or if you feel impulsive, irritable, agitated, hostile, aggressive, restless, hyperactive (mentally or physically), more depressed, or have thoughts about suicide or hurting yourself.
+Wellbutrin SR may cause serious side effects. Call your doctor at once if you have:
+a seizure (convulsions);
+confusion, unusual changes in mood or behavior;
+blurred vision, tunnel vision, eye pain or swelling, or seeing halos around lights;
+fast or irregular heartbeats; or
+a manic episode--racing thoughts, increased energy, reckless behavior, feeling extremely happy or irritable, talking more than usual, severe problems with sleep.
+Common side effects of Wellbutrin SR may include:</f>
+        <v/>
+      </c>
       <c r="H176" s="8" t="n"/>
     </row>
     <row r="177" ht="16" customHeight="1" s="15">
@@ -7069,7 +8240,19 @@
           <t>https://www.drugs.com/wellbutrin-xl.html</t>
         </is>
       </c>
-      <c r="G177" s="10" t="n"/>
+      <c r="G177" s="20">
+        <f>== Wellbutrin XL side effects ===
+Get emergency medical help if you have signs of an allergic reaction (hives, itching, fever, swollen glands, difficult breathing, swelling in your face or throat) or a severe skin reaction (fever, sore throat, burning eyes, skin pain, red or purple skin rash with blistering and peeling).
+Report any new or worsening symptoms to your doctor, such as: mood or behavior changes, anxiety, depression, panic attacks, trouble sleeping, or if you feel impulsive, irritable, agitated, hostile, aggressive, restless, hyperactive (mentally or physically), more depressed, or have thoughts about suicide or hurting yourself.
+Wellbutrin XL may cause serious side effects. Call your doctor at once if you have:
+a seizure (convulsions);
+confusion, unusual changes in mood or behavior;
+blurred vision, tunnel vision, eye pain or swelling, or seeing halos around lights;
+fast or irregular heartbeats; or
+a manic episode--racing thoughts, increased energy, reckless behavior, feeling extremely happy or irritable, talking more than usual, severe problems with sleep.
+Common side effects of Wellbutrin XL may include:</f>
+        <v/>
+      </c>
       <c r="H177" s="10" t="n"/>
     </row>
     <row r="178" ht="16" customHeight="1" s="15">
@@ -7087,7 +8270,31 @@
           <t>https://www.drugs.com/xatmep.html</t>
         </is>
       </c>
-      <c r="G178" s="8" t="n"/>
+      <c r="G178" s="21">
+        <f>== Xatmep side effects ===
+Get emergency medical help if you have signs of an allergic reaction (hives, difficult breathing, swelling in your face or throat) or a severe skin reaction (fever, sore throat, burning in your eyes, skin pain, red or purple skin rash that spreads and causes blistering and peeling).
+Xatmep can cause serious or fatal side effects. Call your doctor at once if you have:
+sudden chest pain, wheezing, dry cough, cough with mucus, chest pain, feeling short of breath;
+fever, chills, swollen lymph glands, night sweats, weight loss;
+blisters or ulcers in your mouth, red or swollen gums, trouble swallowing;
+vomiting, diarrhea, blood in your urine or stools;
+skin changes such as redness, warmth, swelling, or oozing;
+low blood cell counts--fever, chills, tiredness, mouth sores, skin sores, easy bruising, unusual bleeding, pale skin, cold hands and feet, feeling light-headed or short of breath;
+kidney problems--little or no urination, swelling in your feet or ankles;
+liver problems--swelling around your midsection, right-sided upper stomach pain, nausea, loss of appetite, dark urine, jaundice (yellowing of the skin or eyes);
+nerve problems--confusion, weakness, drowsiness, coordination problems, feeling irritable, headache, neck stiffness, vision problems, loss of movement in any part of your body, seizure; or
+signs of tumor cell breakdown--tiredness, weakness, muscle cramps, nausea, vomiting, diarrhea, fast or slow heart rate, tingling in your hands and feet or around your mouth.
+Common side effects of Xatmep may include:
+fever, chills, tiredness, not feeling well;
+low blood cell counts;
+mouth sores;
+nausea, stomach pain;
+abnormal liver function tests;
+hair loss;
+burning skin lesions; or
+being more sensitive to light.</f>
+        <v/>
+      </c>
       <c r="H178" s="8" t="n"/>
     </row>
     <row r="179" ht="32" customHeight="1" s="15">
@@ -7105,7 +8312,21 @@
           <t>https://www.drugs.com/xopenex-concentrate.html</t>
         </is>
       </c>
-      <c r="G179" s="10" t="n"/>
+      <c r="G179" s="20">
+        <f>== Xopenex Concentrate side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+Xopenex Concentrate may cause serious side effects. Call your doctor at once if you have:
+wheezing, choking, or other breathing problems after using Xopenex Concentrate;
+pounding heartbeats or fluttering in your chest;
+worsening asthma symptoms; or
+Common side effects of Xopenex Concentrate may include:
+dizziness, nervousness, tremors;
+runny nose, sore throat;
+chest pain or tightness, irregular heartbeats;
+pain; or
+vomiting.</f>
+        <v/>
+      </c>
       <c r="H179" s="10" t="n"/>
     </row>
     <row r="180" ht="16" customHeight="1" s="15">
@@ -7123,7 +8344,21 @@
           <t>https://www.drugs.com/xopenex-hfa.html</t>
         </is>
       </c>
-      <c r="G180" s="8" t="n"/>
+      <c r="G180" s="21">
+        <f>== Xopenex HFA side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+Xopenex HFA may cause serious side effects. Call your doctor at once if you have:
+wheezing, choking, or other breathing problems after using Xopenex HFA;
+pounding heartbeats or fluttering in your chest;
+worsening asthma symptoms; or
+Common side effects of Xopenex HFA may include:
+dizziness, nervousness, tremors;
+runny nose, sore throat;
+chest pain or tightness, irregular heartbeats;
+pain; or
+vomiting.</f>
+        <v/>
+      </c>
       <c r="H180" s="8" t="n"/>
     </row>
     <row r="181" ht="16" customHeight="1" s="15">
@@ -7141,7 +8376,15 @@
           <t>https://www.drugs.com/zcort.html</t>
         </is>
       </c>
-      <c r="G181" s="10" t="n"/>
+      <c r="G181" s="20">
+        <f>== Zcort Side Effects ===
+Generic name: dexamethasone
+Medically reviewed by Drugs.com. Last updated on Oct 9, 2023.
+Serious side effects
+Other side effects
+Professional info</f>
+        <v/>
+      </c>
       <c r="H181" s="10" t="n"/>
     </row>
     <row r="182" ht="16" customHeight="1" s="15">
@@ -7159,7 +8402,23 @@
           <t>https://www.drugs.com/acebutolol.html</t>
         </is>
       </c>
-      <c r="G182" s="8" t="n"/>
+      <c r="G182" s="21">
+        <f>== Acebutolol side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+Acebutolol may cause serious side effects. Call your doctor at once if you have:
+shortness of breath (even with mild exertion), swelling, rapid weight gain;
+new or worsening chest pain;
+slow heartbeats;
+a light-headed feeling, like you might pass out; or
+dangerously high blood pressure--severe headache, blurred vision, pounding in your neck or ears, nosebleed, anxiety, confusion, severe chest pain, shortness of breath, irregular heartbeats.
+Common side effects of acebutolol may include:
+headache, dizziness;
+feeling tired;
+nausea, upset stomach;
+diarrhea, constipation; or
+sleep problems (insomnia).</f>
+        <v/>
+      </c>
       <c r="H182" s="8" t="n"/>
     </row>
     <row r="183" ht="16" customHeight="1" s="15">
@@ -7177,7 +8436,21 @@
           <t>https://www.drugs.com/aclidinium.html</t>
         </is>
       </c>
-      <c r="G183" s="10" t="n"/>
+      <c r="G183" s="20">
+        <f>== Aclidinium side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives, itching, rash; wheezing, chest tightness, trouble breathing; swelling of your face, lips, tongue, or throat.
+Aclidinium may cause serious side effects. Call your doctor at once if you have:
+wheezing, choking, or other breathing problems after using this medication;
+blurred vision, nausea, vomiting, eye pain or redness, or seeing halos or bright colors around lights;
+increased urination, painful or difficult urination;
+little or no urinating; or
+worsening or no improvement in your symptoms.
+Common side effects of aclidinium may include:
+stuffy nose, sore throat, sinus pain;
+cough; or
+headache.</f>
+        <v/>
+      </c>
       <c r="H183" s="10" t="n"/>
     </row>
     <row r="184" ht="32" customHeight="1" s="15">
@@ -7195,7 +8468,15 @@
           <t>https://www.drugs.com/albuterol-/-ipratropium.html</t>
         </is>
       </c>
-      <c r="G184" s="8" t="n"/>
+      <c r="G184" s="21">
+        <f>== Albuterol / Ipratropium Side Effects ===
+Medically reviewed by Drugs.com. Last updated on Feb 12, 2025.
+Serious side effects
+Other side effects
+Professional info
+Applies to albuterol / ipratropium: inhalation solution, inhalation spray.</f>
+        <v/>
+      </c>
       <c r="H184" s="8" t="n"/>
     </row>
     <row r="185" ht="32" customHeight="1" s="15">
@@ -7213,7 +8494,11 @@
           <t>https://www.drugs.com/albuterol/ipratropium.html</t>
         </is>
       </c>
-      <c r="G185" s="10" t="n"/>
+      <c r="G185" s="20" t="inlineStr">
+        <is>
+          <t>❌ Could not find main result for albuterol/ipratropium</t>
+        </is>
+      </c>
       <c r="H185" s="10" t="n"/>
     </row>
     <row r="186" ht="16" customHeight="1" s="15">
@@ -7231,7 +8516,16 @@
           <t>https://www.drugs.com/aliskiren.html</t>
         </is>
       </c>
-      <c r="G186" s="8" t="n"/>
+      <c r="G186" s="21">
+        <f>== Aliskiren side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+Aliskiren may cause serious side effects. Call your doctor at once if you have:
+a light-headed feeling, like you might pass out;
+kidney problems--swelling, urinating less, feeling tired or short of breath; or
+high blood potassium--nausea, weakness, tingly feeling, chest pain, irregular heartbeats, loss of movement.
+Common side effects of aliskiren may include:</f>
+        <v/>
+      </c>
       <c r="H186" s="8" t="n"/>
     </row>
     <row r="187" ht="16" customHeight="1" s="15">
@@ -7249,7 +8543,21 @@
           <t>https://www.drugs.com/alteplase.html</t>
         </is>
       </c>
-      <c r="G187" s="10" t="n"/>
+      <c r="G187" s="20">
+        <f>== Alteplase side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+Alteplase increases your risk of bleeding, which can be severe or fatal. Call your doctor or seek emergency medical attention if you have bleeding that will not stop. Bleeding may occur from a surgical incision, or from the skin where a needle was inserted during a blood test or while receiving injectable medication. You may also have bleeding on the inside of your body, such as in your stomach or intestines, kidneys or bladder, brain, or within the muscles.
+Call your doctor or get emergency medical help if you have signs of bleeding, such as:
+sudden headache, feeling very weak or dizzy;
+bleeding gums, nosebleeds;
+easy bruising;
+bleeding from a wound, incision, catheter, or needle injection;
+bloody or tarry stools, coughing up blood or vomit that looks like coffee grounds;
+red or pink urine;
+heavy menstrual periods or abnormal vaginal bleeding; or
+Also call your doctor at once if you have:</f>
+        <v/>
+      </c>
       <c r="H187" s="10" t="n"/>
     </row>
     <row r="188" ht="16" customHeight="1" s="15">
@@ -7267,7 +8575,20 @@
           <t>https://www.drugs.com/amikacin.html</t>
         </is>
       </c>
-      <c r="G188" s="8" t="n"/>
+      <c r="G188" s="21">
+        <f>== Amikacin side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+Amikacin may cause serious side effects. Call your doctor at once if you have:
+hearing loss, or a roaring sound in your ears;
+severe or ongoing dizziness;
+weak or shallow breathing;
+numbness or tingly feeling;
+muscle twitching or seizure (convulsions); or
+severe stomach pain, diarrhea that is watery or bloody.
+This is not a complete list of side effects and others may occur. Call your doctor for medical advice about side effects. You may report side effects to FDA at 1-800-FDA-1088.
+Amikacin side effects (more detail)</f>
+        <v/>
+      </c>
       <c r="H188" s="8" t="n"/>
     </row>
     <row r="189" ht="16" customHeight="1" s="15">
@@ -7285,7 +8606,20 @@
           <t>https://www.drugs.com/amisulpride.html</t>
         </is>
       </c>
-      <c r="G189" s="10" t="n"/>
+      <c r="G189" s="20">
+        <f>== Amisulpride side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+Amisulpride may cause serious side effects. Call your doctor at once if you have:
+sudden dizziness (like you might pass out);
+fast or pounding heartbeats, fluttering in your chest;
+shortness of breath; or
+Common side effects of amisulpride may include:
+low potassium;
+feeling light-headed;
+stomach bloating; or
+pain where the medicine was injected.</f>
+        <v/>
+      </c>
       <c r="H189" s="10" t="n"/>
     </row>
     <row r="190" ht="32" customHeight="1" s="15">
@@ -7303,7 +8637,11 @@
           <t>https://www.drugs.com/amlodipine-/-atorvastatin.html</t>
         </is>
       </c>
-      <c r="G190" s="8" t="n"/>
+      <c r="G190" s="21" t="inlineStr">
+        <is>
+          <t>❌ Connection lost during content extraction for amlodipine / atorvastatin</t>
+        </is>
+      </c>
       <c r="H190" s="8" t="n"/>
     </row>
     <row r="191" ht="32" customHeight="1" s="15">
@@ -7321,7 +8659,15 @@
           <t>https://www.drugs.com/ampicillin-/-sulbactam.html</t>
         </is>
       </c>
-      <c r="G191" s="10" t="n"/>
+      <c r="G191" s="20">
+        <f>== Ampicillin / Sulbactam Side Effects ===
+Medically reviewed by Drugs.com. Last updated on Mar 1, 2024.
+Other side effects
+Serious side effects
+Professional info
+Applies to ampicillin / sulbactam: injection powder for solution.</f>
+        <v/>
+      </c>
       <c r="H191" s="10" t="n"/>
     </row>
     <row r="192" ht="16" customHeight="1" s="15">
@@ -7339,7 +8685,18 @@
           <t>https://www.drugs.com/apixaban.html</t>
         </is>
       </c>
-      <c r="G192" s="8" t="n"/>
+      <c r="G192" s="21">
+        <f>== Apixaban side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; chest pain, wheezing, difficult breathing; feeling light-headed; swelling of your face, lips, tongue, or throat.
+Also seek emergency medical attention if you have symptoms of a spinal blood clot such as tingling, numbness, or muscle weakness especially in your legs and feet.
+Apixaban may cause serious side effects. Call your doctor at once if you have:
+heavy menstrual bleeding;
+headache, dizziness, weakness, feeling like you might pass out;
+urine that looks red, pink, or brown; or
+black or bloody stools, coughing up blood or vomit that looks like coffee grounds.
+This is not a complete list of side effects and others may occur. Call your doctor for medical advice about side effects. You may report side effects to FDA at 1-800-FDA-1088.</f>
+        <v/>
+      </c>
       <c r="H192" s="8" t="n"/>
     </row>
     <row r="193" ht="32" customHeight="1" s="15">
@@ -7357,7 +8714,15 @@
           <t>https://www.drugs.com/aspirin-/-dipyridamole.html</t>
         </is>
       </c>
-      <c r="G193" s="10" t="n"/>
+      <c r="G193" s="20">
+        <f>== Aspirin / Dipyridamole Side Effects ===
+Medically reviewed by Drugs.com. Last updated on Jan 30, 2024.
+Serious side effects
+Other side effects
+Professional info
+Applies to aspirin / dipyridamole: oral capsule extended release.</f>
+        <v/>
+      </c>
       <c r="H193" s="10" t="n"/>
     </row>
     <row r="194" ht="16" customHeight="1" s="15">
@@ -7375,7 +8740,17 @@
           <t>https://www.drugs.com/atovaquone.html</t>
         </is>
       </c>
-      <c r="G194" s="8" t="n"/>
+      <c r="G194" s="21">
+        <f>== Atovaquone side effects ===
+Get emergency medical help if you have signs of an allergic reaction (hives, difficult breathing, swelling in your face or throat) or a severe skin reaction (fever, sore throat, burning in your eyes, skin pain, red or purple skin rash that spreads and causes blistering and peeling).
+Atovaquone may cause serious side effects. Call your doctor at once if you have:
+Common side effects of atovaquone may include:
+nausea, vomiting, diarrhea;
+headache;
+fever; or
+rash.</f>
+        <v/>
+      </c>
       <c r="H194" s="8" t="n"/>
     </row>
     <row r="195" ht="16" customHeight="1" s="15">
@@ -7393,7 +8768,11 @@
           <t>https://www.drugs.com/aztreonam.html</t>
         </is>
       </c>
-      <c r="G195" s="10" t="n"/>
+      <c r="G195" s="20" t="inlineStr">
+        <is>
+          <t>❌ Could not find side effects link for aztreonam</t>
+        </is>
+      </c>
       <c r="H195" s="10" t="n"/>
     </row>
     <row r="196" ht="16" customHeight="1" s="15">
@@ -7411,7 +8790,22 @@
           <t>https://www.drugs.com/bempedoic-acid.html</t>
         </is>
       </c>
-      <c r="G196" s="8" t="n"/>
+      <c r="G196" s="21">
+        <f>== Bempedoic acid side effects ===
+Miscellaneous antihyperlipidemic agents
+The most common side effects of bempedoic acid include:
+symptoms of the common cold, flu, or flu-like symptoms
+back pain
+stomach pain
+high uric acid levels
+increased liver enzymes
+muscle spasms
+pain in the shoulder, legs, or arms
+anemia
+bronchitis.
+Serious side effects and warnings</f>
+        <v/>
+      </c>
       <c r="H196" s="8" t="n"/>
     </row>
     <row r="197" ht="32" customHeight="1" s="15">
@@ -7429,7 +8823,27 @@
           <t>https://www.drugs.com/bempedoic-acid/ezetimibe.html</t>
         </is>
       </c>
-      <c r="G197" s="10" t="n"/>
+      <c r="G197" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">❌ Failed to click main result for bempedoic acid/ezetimibe: Message: invalid session id
+Stacktrace:
+0   chromedriver                        0x0000000105290e6c cxxbridge1$str$ptr + 2722840
+1   chromedriver                        0x0000000105288d74 cxxbridge1$str$ptr + 2689824
+2   chromedriver                        0x0000000104dda260 cxxbridge1$string$len + 90252
+3   chromedriver                        0x0000000104e14cf8 cxxbridge1$string$len + 330532
+4   chromedriver                        0x0000000104e3d2e4 cxxbridge1$string$len + 495888
+5   chromedriver                        0x0000000104e3c5ec cxxbridge1$string$len + 492568
+6   chromedriver                        0x0000000104da93d8 chromedriver + 87000
+7   chromedriver                        0x0000000105253f88 cxxbridge1$str$ptr + 2473268
+8   chromedriver                        0x00000001052571f4 cxxbridge1$str$ptr + 2486176
+9   chromedriver                        0x00000001052359d0 cxxbridge1$str$ptr + 2348924
+10  chromedriver                        0x0000000105257ab0 cxxbridge1$str$ptr + 2488412
+11  chromedriver                        0x0000000105226a60 cxxbridge1$str$ptr + 2287628
+12  chromedriver                        0x0000000104da7664 chromedriver + 79460
+13  dyld                                0x0000000181e2ab98 start + 6076
+</t>
+        </is>
+      </c>
       <c r="H197" s="10" t="n"/>
     </row>
     <row r="198" ht="16" customHeight="1" s="15">
@@ -7447,7 +8861,16 @@
           <t>https://www.drugs.com/benazepril.html</t>
         </is>
       </c>
-      <c r="G198" s="8" t="n"/>
+      <c r="G198" s="21">
+        <f>== Benazepril side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives, severe stomach pain, difficulty breathing, swelling of your face, lips, tongue, or throat.
+Benazepril may cause serious side effects. Call your doctor at once if you have:
+a light-headed feeling, like you might pass out;
+kidney problems--swelling, urinating less, feeling tired or short of breath;
+high blood potassium--nausea, weakness, tingly feeling, chest pain, irregular heartbeats, loss of movement; or
+Common side effects of benazepril may include:</f>
+        <v/>
+      </c>
       <c r="H198" s="8" t="n"/>
     </row>
     <row r="199" ht="16" customHeight="1" s="15">
@@ -7465,7 +8888,25 @@
           <t>https://www.drugs.com/benzphetamine.html</t>
         </is>
       </c>
-      <c r="G199" s="10" t="n"/>
+      <c r="G199" s="20">
+        <f>== Benzphetamine side effects ===
+Get emergency medical help if you have any of these signs of an allergic reaction: hives; difficulty breathing; swelling of your face, lips, tongue, or throat.
+Benzphetamine may cause serious side effects. Stop using benzphetamine and call your doctor at once if you have:
+shortness of breath (even with mild exertion), swelling, rapid weight gain;
+chest pain, feeling like you might pass out;
+pounding heartbeats or fluttering in your chest;
+confusion or irritability, unusual thoughts or behavior; or
+dangerously high blood pressure (severe headache, blurred vision, buzzing in your ears, anxiety, confusion, chest pain, shortness of breath, uneven heartbeats, seizure).
+Common side effects of benzphetamine may include:
+feeling restless or hyperactive;
+headache, dizziness, tremors;
+sleep problems (insomnia);
+increased sweating;
+dry mouth or an unpleasant taste in your mouth;
+nausea, diarrhea upset stomach; or
+skin rash.</f>
+        <v/>
+      </c>
       <c r="H199" s="10" t="n"/>
     </row>
     <row r="200" ht="16" customHeight="1" s="15">
@@ -7483,7 +8924,14 @@
           <t>https://www.drugs.com/betamethasone.html</t>
         </is>
       </c>
-      <c r="G200" s="8" t="n"/>
+      <c r="G200" s="21">
+        <f>== Betamethasone Side Effects ===
+Medically reviewed by Drugs.com. Last updated on Oct 28, 2024.
+Serious side effects
+Other side effects
+Professional info</f>
+        <v/>
+      </c>
       <c r="H200" s="8" t="n"/>
     </row>
     <row r="201" ht="16" customHeight="1" s="15">
@@ -7501,7 +8949,18 @@
           <t>https://www.drugs.com/betaxolol.html</t>
         </is>
       </c>
-      <c r="G201" s="10" t="n"/>
+      <c r="G201" s="20">
+        <f>== Betaxolol side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+Betaxolol may cause serious side effects. Call your doctor at once if you have:
+shortness of breath (even with mild exertion), swelling, rapid weight gain;
+slow or uneven heartbeats;
+a light-headed feeling, like you might pass out; or
+lupus-like syndrome--joint pain or swelling with fever, swollen glands, muscle aches, chest pain, vomiting, unusual thoughts or behavior, and patchy skin color.
+Slow heartbeats may be more likely in older adults.
+Common side effects of betaxolol may include:</f>
+        <v/>
+      </c>
       <c r="H201" s="10" t="n"/>
     </row>
     <row r="202" ht="32" customHeight="1" s="15">
@@ -7519,7 +8978,11 @@
           <t>https://www.drugs.com/bisoprolol/hydrochlorothiazide.html</t>
         </is>
       </c>
-      <c r="G202" s="8" t="n"/>
+      <c r="G202" s="21" t="inlineStr">
+        <is>
+          <t>❌ Could not find main result for bisoprolol/hydrochlorothiazide</t>
+        </is>
+      </c>
       <c r="H202" s="8" t="n"/>
     </row>
     <row r="203" ht="16" customHeight="1" s="15">
@@ -7537,7 +9000,12 @@
           <t>https://www.drugs.com/budesonide.html</t>
         </is>
       </c>
-      <c r="G203" s="10" t="n"/>
+      <c r="G203" s="20">
+        <f>== Budesonide side effects ===
+Inhaled corticosteroids
+The most common side effects of budesonide oral suspension (Eohilia) are:</f>
+        <v/>
+      </c>
       <c r="H203" s="10" t="n"/>
     </row>
     <row r="204" ht="32" customHeight="1" s="15">
@@ -7555,7 +9023,14 @@
           <t>https://www.drugs.com/budesonide-/-formoterol.html</t>
         </is>
       </c>
-      <c r="G204" s="8" t="n"/>
+      <c r="G204" s="21">
+        <f>== Budesonide / Formoterol Side Effects ===
+Medically reviewed by Drugs.com. Last updated on Sep 25, 2024.
+Serious side effects
+Other side effects
+Professional info</f>
+        <v/>
+      </c>
       <c r="H204" s="8" t="n"/>
     </row>
     <row r="205" ht="32" customHeight="1" s="15">
@@ -7573,7 +9048,11 @@
           <t>https://www.drugs.com/budesonide/formoterol.html</t>
         </is>
       </c>
-      <c r="G205" s="10" t="n"/>
+      <c r="G205" s="20" t="inlineStr">
+        <is>
+          <t>❌ Could not find main result for budesonide/formoterol</t>
+        </is>
+      </c>
       <c r="H205" s="10" t="n"/>
     </row>
     <row r="206" ht="32" customHeight="1" s="15">
@@ -7591,7 +9070,14 @@
           <t>https://www.drugs.com/bupropion-/-naltrexone.html</t>
         </is>
       </c>
-      <c r="G206" s="8" t="n"/>
+      <c r="G206" s="21">
+        <f>== Bupropion / Naltrexone Side Effects ===
+Medically reviewed by Drugs.com. Last updated on Apr 16, 2025.
+Serious side effects
+Other side effects
+Professional info</f>
+        <v/>
+      </c>
       <c r="H206" s="8" t="n"/>
     </row>
     <row r="207" ht="32" customHeight="1" s="15">
@@ -7609,7 +9095,18 @@
           <t>https://www.drugs.com/bupropion-and-naltrexone.html</t>
         </is>
       </c>
-      <c r="G207" s="10" t="n"/>
+      <c r="G207" s="20">
+        <f>== Bupropion and naltrexone side effects ===
+Get emergency medical help if you have signs of an allergic reaction: fever, swollen glands, mouth sores, muscle or joint pain; hives, rash or itching; chest pain, difficult breathing; swelling of your face, lips, tongue, or throat.
+A person caring for you should seek emergency medical attention if you have slow breathing with long pauses, severe drowsiness, or if you are hard to wake up.
+Stop taking this medicine and call your doctor right away if you have:
+severe headache, blurred vision, pounding in your neck or ears, fast heartbeats;
+a seizure (convulsions);
+blurred vision, tunnel vision, eye pain or swelling, or seeing halos around lights;
+severe skin reaction--fever, sore throat, burning eyes, skin pain, red or purple skin rash with blistering and peeling.
+Older adults may be more likely to have certain side effects.</f>
+        <v/>
+      </c>
       <c r="H207" s="10" t="n"/>
     </row>
     <row r="208" ht="16" customHeight="1" s="15">
@@ -7627,7 +9124,22 @@
           <t>https://www.drugs.com/canakinumab.html</t>
         </is>
       </c>
-      <c r="G208" s="8" t="n"/>
+      <c r="G208" s="21">
+        <f>== Canakinumab side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; nausea, trouble swallowing; dizziness, fast or pounding heartbeats, difficult breathing; swelling of your face, lips, tongue, or throat.
+Serious and sometimes fatal infections may occur during treatment with canakinumab. Call your doctor right away if you have signs of infection such as:
+fever lasting longer than 3 days, chills, sweating;
+sores, warmth, or pain anywhere on your body;
+stomach pain, diarrhea, weight loss;
+ongoing cough, shortness of breath;
+chest pain, coughing up mucus or blood;
+pain or burning when you urinate;
+redness in one part of your body;
+warmth, redness, or swelling under your skin; or
+flu symptoms, feeling very tired.
+Common side effects of canakinumab may include:</f>
+        <v/>
+      </c>
       <c r="H208" s="8" t="n"/>
     </row>
     <row r="209" ht="16" customHeight="1" s="15">
@@ -7645,7 +9157,21 @@
           <t>https://www.drugs.com/candesartan.html</t>
         </is>
       </c>
-      <c r="G209" s="10" t="n"/>
+      <c r="G209" s="20">
+        <f>== Candesartan side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+Candesartan may cause serious side effects. Call your doctor at once if you have:
+a light-headed feeling, like you might pass out;
+little or no urination; or
+high potassium level--nausea, weakness, tingly feeling, chest pain, irregular heartbeats, loss of movement.
+Common side effects of candesartan may include:
+high potassium;
+headache, back pain;
+cold symptoms such as stuffy or runny nose, sneezing, sore throat;
+dizziness; or
+abnormal kidney test.</f>
+        <v/>
+      </c>
       <c r="H209" s="10" t="n"/>
     </row>
     <row r="210" ht="16" customHeight="1" s="15">
@@ -7663,7 +9189,23 @@
           <t>https://www.drugs.com/cefdinir.html</t>
         </is>
       </c>
-      <c r="G210" s="8" t="n"/>
+      <c r="G210" s="21">
+        <f>== Cefdinir side effects ===
+Get emergency medical help if you have signs of an allergic reaction (hives, difficult breathing, swelling in your face or throat) or a severe skin reaction (fever, sore throat, burning eyes, skin pain, red or purple skin rash with blistering and peeling).
+Cefdinir may cause serious side effects. Call your doctor at once if you have:
+severe stomach pain, diarrhea that is watery or bloody (even if it occurs months after your last dose);
+fever, chills, body aches, flu symptoms;
+pale skin, easy bruising, unusual bleeding;
+seizure (convulsions);
+fever, weakness, confusion;
+dark colored urine, jaundice (yellowing of the skin or eyes); or
+Common side effects of cefdinir may include:
+nausea, vomiting, stomach pain, diarrhea;
+vaginal itching or discharge;
+headache; or
+rash (including diaper rash in an infant taking liquid cefdinir.</f>
+        <v/>
+      </c>
       <c r="H210" s="8" t="n"/>
     </row>
     <row r="211" ht="16" customHeight="1" s="15">
@@ -7681,7 +9223,11 @@
           <t>https://www.drugs.com/cefepime.html</t>
         </is>
       </c>
-      <c r="G211" s="10" t="n"/>
+      <c r="G211" s="20" t="inlineStr">
+        <is>
+          <t>❌ Could not find side effects link for cefepime</t>
+        </is>
+      </c>
       <c r="H211" s="10" t="n"/>
     </row>
     <row r="212" ht="16" customHeight="1" s="15">
@@ -7699,7 +9245,23 @@
           <t>https://www.drugs.com/cefiderocol.html</t>
         </is>
       </c>
-      <c r="G212" s="8" t="n"/>
+      <c r="G212" s="21">
+        <f>== Cefiderocol side effects ===
+Get emergency medical help if you have signs of an allergic reaction (hives, difficult breathing, swelling in your face or throat) or a severe skin reaction (fever, sore throat, burning in your eyes, skin pain, red or purple skin rash that spreads and causes blistering and peeling).
+Cefiderocol may cause serious side effects. Call your doctor at once if you have:
+severe stomach pain, diarrhea that is watery or bloody (even if it occurs months after your last dose);
+tremor, rigid muscles, or a seizure;
+white patches or sores inside your mouth or on your lips; or
+Common side effects of cefiderocol may include:
+nausea, vomiting, diarrhea, constipation;
+mouth sores;
+cough;
+abnormal liver function tests;
+headache;
+rash; or
+pain, redness, itching, bruising, or swelling around the IV needle.</f>
+        <v/>
+      </c>
       <c r="H212" s="8" t="n"/>
     </row>
     <row r="213" ht="16" customHeight="1" s="15">
@@ -7717,7 +9279,23 @@
           <t>https://www.drugs.com/cefotaxime.html</t>
         </is>
       </c>
-      <c r="G213" s="10" t="n"/>
+      <c r="G213" s="20">
+        <f>== Cefotaxime side effects ===
+Get emergency medical help if you have signs of an allergic reaction (hives, difficult breathing, swelling in your face or throat) or a severe skin reaction (fever, sore throat, burning in your eyes, skin pain, red or purple skin rash that spreads and causes blistering and peeling).
+Cefotaxime may cause serious side effects. Call your doctor at once if you have:
+severe stomach pain, diarrhea that is watery or bloody (even if it occurs months after your last dose);
+burning, irritation, or skin changes where the injection was given;
+dark urine, jaundice (yellowing of the skin or eyes);
+a seizure;
+fever, chills, tiredness; or
+easy bruising, unusual bleeding, pale skin, cold hands and feet.
+Common side effects of cefotaxime may include:
+pain, bruising, swelling, or other irritation where the injection was given;
+diarrhea;
+fever; or
+rash, itching.</f>
+        <v/>
+      </c>
       <c r="H213" s="10" t="n"/>
     </row>
     <row r="214" ht="16" customHeight="1" s="15">
@@ -7735,7 +9313,24 @@
           <t>https://www.drugs.com/cefoxitin.html</t>
         </is>
       </c>
-      <c r="G214" s="8" t="n"/>
+      <c r="G214" s="21">
+        <f>== Cefoxitin side effects ===
+Get emergency medical help if you have signs of an allergic reaction (hives, difficult breathing, swelling in your face or throat) or a severe skin reaction (fever, sore throat, burning in your eyes, skin pain, red or purple skin rash that spreads and causes blistering and peeling).
+Cefoxitin may cause serious side effects. Call your doctor at once if you have:
+severe stomach pain, diarrhea that is watery or bloody (even if it occurs months after your last dose);
+a light-headed feeling, like you might pass out;
+little or no urination;
+jaundice (yellowing of the skin or eyes);
+a seizure;
+fever, chills, tiredness; or
+easy bruising, unusual bleeding, pale skin, cold hands and feet.
+Common side effects of cefoxitin may include:
+pain, bruising, swelling, or other irritation where the injection was given;
+diarrhea;
+fever; or
+rash, itching.</f>
+        <v/>
+      </c>
       <c r="H214" s="8" t="n"/>
     </row>
     <row r="215" ht="16" customHeight="1" s="15">
@@ -7753,7 +9348,21 @@
           <t>https://www.drugs.com/cefpodoxime.html</t>
         </is>
       </c>
-      <c r="G215" s="10" t="n"/>
+      <c r="G215" s="20">
+        <f>== Cefpodoxime side effects ===
+Get emergency medical help if you have signs of an allergic reaction (hives, difficult breathing, swelling in your face or throat) or a severe skin reaction (fever, sore throat, burning in your eyes, skin pain, red or purple skin rash that spreads and causes blistering and peeling).
+Cefpodoxime may cause serious side effects. Call your doctor at once if you have:
+severe stomach pain, diarrhea that is watery or bloody (even if it occurs months after your last dose);
+fever, chills, sore throat, mouth sores, swollen glands, joint pain, or not feeling well;
+a seizure; or
+Common side effects of cefpodoxime may include:
+diarrhea;
+nausea, stomach pain;
+headache;
+vaginal itching or discharge; or
+diaper rash in an infant using cefpodoxime.</f>
+        <v/>
+      </c>
       <c r="H215" s="10" t="n"/>
     </row>
     <row r="216" ht="16" customHeight="1" s="15">
@@ -7771,7 +9380,11 @@
           <t>https://www.drugs.com/ceftazidime.html</t>
         </is>
       </c>
-      <c r="G216" s="8" t="n"/>
+      <c r="G216" s="21" t="inlineStr">
+        <is>
+          <t>❌ Could not find side effects link for ceftazidime</t>
+        </is>
+      </c>
       <c r="H216" s="8" t="n"/>
     </row>
     <row r="217" ht="16" customHeight="1" s="15">
@@ -7789,7 +9402,11 @@
           <t>https://www.drugs.com/ceftriaxone.html</t>
         </is>
       </c>
-      <c r="G217" s="10" t="n"/>
+      <c r="G217" s="20" t="inlineStr">
+        <is>
+          <t>❌ Could not find side effects link for ceftriaxone</t>
+        </is>
+      </c>
       <c r="H217" s="10" t="n"/>
     </row>
     <row r="218" ht="16" customHeight="1" s="15">
@@ -7807,7 +9424,11 @@
           <t>https://www.drugs.com/cefuroxime.html</t>
         </is>
       </c>
-      <c r="G218" s="8" t="n"/>
+      <c r="G218" s="21" t="inlineStr">
+        <is>
+          <t>❌ Could not find side effects link for cefuroxime</t>
+        </is>
+      </c>
       <c r="H218" s="8" t="n"/>
     </row>
     <row r="219" ht="16" customHeight="1" s="15">
@@ -7825,7 +9446,17 @@
           <t>https://www.drugs.com/cholestyramine.html</t>
         </is>
       </c>
-      <c r="G219" s="10" t="n"/>
+      <c r="G219" s="20">
+        <f>== Cholestyramine side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficulty breathing; swelling of your face, lips, tongue, or throat.
+Cholestyramine may cause serious side effects. Call your doctor at once if you have:
+ongoing or worsening constipation;
+severe stomach pain;
+blood in your urine;
+black, bloody, or tarry stools; or
+easy bruising, unusual bleeding.</f>
+        <v/>
+      </c>
       <c r="H219" s="10" t="n"/>
     </row>
     <row r="220" ht="32" customHeight="1" s="15">
@@ -7843,7 +9474,15 @@
           <t>https://www.drugs.com/chondroitin-/-glucosamine.html</t>
         </is>
       </c>
-      <c r="G220" s="8" t="n"/>
+      <c r="G220" s="21">
+        <f>== Chondroitin / Glucosamine Side Effects ===
+Applies to chondroitin / glucosamine: oral capsule, oral kit, oral tablet.
+Important warnings
+This medicine can cause some serious health issues
+Follow all directions on the product label and package.
+Get emergency medical help if you have signs of an allergic reaction: hives; difficult breathing; swelling of your face, lips, tongue, or throat.</f>
+        <v/>
+      </c>
       <c r="H220" s="8" t="n"/>
     </row>
     <row r="221" ht="32" customHeight="1" s="15">
@@ -7861,7 +9500,15 @@
           <t>https://www.drugs.com/cilastatin-/-imipenem.html</t>
         </is>
       </c>
-      <c r="G221" s="10" t="n"/>
+      <c r="G221" s="20">
+        <f>== Cilastatin / Imipenem Side Effects ===
+Medically reviewed by Drugs.com. Last updated on Jan 1, 2025.
+Serious side effects
+Other side effects
+Professional info
+Applies to cilastatin / imipenem: powder for solution.</f>
+        <v/>
+      </c>
       <c r="H221" s="10" t="n"/>
     </row>
     <row r="222" ht="32" customHeight="1" s="15">
@@ -7879,7 +9526,15 @@
           <t>https://www.drugs.com/cilastatin-/-imipenem-/-relebactam.html</t>
         </is>
       </c>
-      <c r="G222" s="8" t="n"/>
+      <c r="G222" s="21">
+        <f>== Cilastatin / Imipenem / Relebactam Side Effects ===
+Medically reviewed by Drugs.com. Last updated on Oct 25, 2024.
+Serious side effects
+Other side effects
+Professional info
+Applies to cilastatin / imipenem / relebactam: intravenous powder for solution.</f>
+        <v/>
+      </c>
       <c r="H222" s="8" t="n"/>
     </row>
     <row r="223" ht="16" customHeight="1" s="15">
@@ -7897,7 +9552,16 @@
           <t>https://www.drugs.com/clofibrate.html</t>
         </is>
       </c>
-      <c r="G223" s="10" t="n"/>
+      <c r="G223" s="20">
+        <f>== Side Effects of clofibrate ===
+Along with its needed effects, a medicine may cause some unwanted effects. Although not all of these side effects may occur, if they do occur they may need medical attention.
+Check with your doctor immediately if any of the following side effects occur:
+Chest pain
+irregular heartbeat
+shortness of breath
+stomach pain (severe) with nausea and vomiting</f>
+        <v/>
+      </c>
       <c r="H223" s="10" t="n"/>
     </row>
     <row r="224" ht="16" customHeight="1" s="15">
@@ -7915,7 +9579,19 @@
           <t>https://www.drugs.com/clomipramine.html</t>
         </is>
       </c>
-      <c r="G224" s="8" t="n"/>
+      <c r="G224" s="21">
+        <f>== Clomipramine side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+Seek medical treatment if you have a serious drug reaction that can affect many parts of your body. Symptoms may include: skin rash, fever, swollen glands, muscle aches, severe weakness, unusual bruising, or yellowing of your skin or eyes.
+Report any new or worsening symptoms to your doctor, such as: mood or behavior changes, anxiety, panic attacks, trouble sleeping, or if you feel impulsive, irritable, agitated, hostile, aggressive, restless, hyperactive (mentally or physically), more depressed, or have thoughts about suicide or hurting yourself.
+Clomipramine may cause serious side effects. Call your doctor at once if you have:
+low sodium level --headache, confusion, slurred speech, severe weakness, vomiting, loss of coordination, feeling unsteady;
+blurred vision, tunnel vision, eye pain or swelling, or seeing halos around lights;
+confusion, extreme fear, thoughts of hurting yourself;
+pain or burning when you urinate; or
+a seizure (convulsions).</f>
+        <v/>
+      </c>
       <c r="H224" s="8" t="n"/>
     </row>
     <row r="225" ht="16" customHeight="1" s="15">
@@ -7933,7 +9609,22 @@
           <t>https://www.drugs.com/clopidogrel.html</t>
         </is>
       </c>
-      <c r="G225" s="10" t="n"/>
+      <c r="G225" s="20">
+        <f>== Clopidogrel side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+Clopidogrel increases your risk of bleeding, which can be severe or life-threatening. Call your doctor or seek emergency medical attention if you have bleeding that will not stop, if you have blood in your urine, black or bloody stools, or if you cough up blood or vomit that looks like coffee grounds.
+Also call your doctor at once if you have:
+nosebleeds, pale skin, easy bruising, purple spots under your skin or in your mouth;
+jaundice (yellowing of your skin or eyes);
+fast heartbeats, shortness of breath;
+headache, fever, weakness, feeling tired;
+little or no urination;
+a seizure;
+low blood sugar--headache, hunger, sweating, irritability, dizziness, fast heart rate, and feeling anxious or shaky; or
+signs of a blood clot--sudden numbness or weakness, confusion, problems with vision or speech.
+Common side effects of clopidogrel may include:</f>
+        <v/>
+      </c>
       <c r="H225" s="10" t="n"/>
     </row>
     <row r="226" ht="32" customHeight="1" s="15">
@@ -7951,7 +9642,14 @@
           <t>https://www.drugs.com/colchicine-/-probenecid.html</t>
         </is>
       </c>
-      <c r="G226" s="8" t="n"/>
+      <c r="G226" s="21">
+        <f>== Colchicine / Probenecid Side Effects ===
+Applies to colchicine / probenecid: oral tablet.
+Important warnings
+This medicine can cause some serious health issues
+Get emergency medical help if you have any of these signs of an allergic reaction while taking colchicine/probenecid: hives; difficult breathing; swelling of your face, lips, tongue, or throat.</f>
+        <v/>
+      </c>
       <c r="H226" s="8" t="n"/>
     </row>
     <row r="227" ht="16" customHeight="1" s="15">
@@ -7969,7 +9667,19 @@
           <t>https://www.drugs.com/colesevelam.html</t>
         </is>
       </c>
-      <c r="G227" s="10" t="n"/>
+      <c r="G227" s="20">
+        <f>== Colesevelam side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+Colesevelam may cause serious side effects. Stop using colesevelam and call your doctor at once if you have:
+severe constipation;
+severe stomach pain; or
+pancreatitis--severe pain in your upper stomach spreading to your back, nausea and vomiting.
+Common side effects of colesevelam may include:
+constipation;
+nausea; or
+upset stomach.</f>
+        <v/>
+      </c>
       <c r="H227" s="10" t="n"/>
     </row>
     <row r="228" ht="16" customHeight="1" s="15">
@@ -7987,7 +9697,18 @@
           <t>https://www.drugs.com/colestipol.html</t>
         </is>
       </c>
-      <c r="G228" s="8" t="n"/>
+      <c r="G228" s="21">
+        <f>== Colestipol side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficulty breathing; swelling of your face, lips, tongue, or throat.
+Colestipol may cause serious side effects. Call your doctor at once if you have:
+trouble swallowing;
+severe constipation or stomach pain; or
+black, bloody, or tarry stools.
+Common side effects of colestipol may include:
+constipation; or
+hemorrhoids.</f>
+        <v/>
+      </c>
       <c r="H228" s="8" t="n"/>
     </row>
     <row r="229" ht="16" customHeight="1" s="15">
@@ -8005,7 +9726,20 @@
           <t>https://www.drugs.com/cortisone.html</t>
         </is>
       </c>
-      <c r="G229" s="10" t="n"/>
+      <c r="G229" s="20">
+        <f>== Cortisone side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficulty breathing; swelling of your face, lips, tongue, or throat.
+Cortisone may cause serious side effects. Call your doctor at once if you have:
+blurred vision, eye pain or redness, seeing halos around lights;
+swelling, rapid weight gain, feeling short of breath;
+unusual changes in mood or behavior;
+skin lesions;
+sudden unusual pain in a bone or joint;
+severe headaches, ringing in your ears, pain behind your eyes;
+pancreatitis--severe pain in your upper stomach spreading to your back, nausea and vomiting; or
+Common side effects of cortisone may include:</f>
+        <v/>
+      </c>
       <c r="H229" s="10" t="n"/>
     </row>
     <row r="230" ht="16" customHeight="1" s="15">
@@ -8023,7 +9757,18 @@
           <t>https://www.drugs.com/dabigatran.html</t>
         </is>
       </c>
-      <c r="G230" s="8" t="n"/>
+      <c r="G230" s="21">
+        <f>== Dabigatran side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+Also seek emergency medical attention if you have symptoms of a spinal blood clot: back pain, numbness, tingling, muscle weakness in your lower body, or loss of bladder or bowel control.
+Dabigatran may cause serious side effects. Call your doctor at once if you have:
+headache, weakness, dizziness, or feeling like you might pass out;
+bloody or tarry stools, coughing up blood or vomit that looks like coffee grounds;
+urine that looks red, pink, or brown; or
+unexpected pain, joint pain or swelling.
+Common side effects of dabigatran may include:</f>
+        <v/>
+      </c>
       <c r="H230" s="8" t="n"/>
     </row>
     <row r="231" ht="16" customHeight="1" s="15">
@@ -8041,7 +9786,28 @@
           <t>https://www.drugs.com/dapsone.html</t>
         </is>
       </c>
-      <c r="G231" s="10" t="n"/>
+      <c r="G231" s="20">
+        <f>== Dapsone side effects ===
+Get emergency medical help if you have any of these signs of an allergic reaction: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+Dapsone may cause serious side effects. Call your doctor at once if you have:
+worsening or no improvement in your symptoms;
+jaundice (yellowing of the skin or eyes);
+numbness or tingling in your hands or feet;
+unusual thoughts or behavior;
+new or worsening cough, fever, trouble breathing;
+swelling, rapid weight gain, little or no urinating;
+signs of abnormal blood cell counts--sudden weakness or ill feeling, fever, chills, sore throat, mouth sores, red or swollen gums, trouble swallowing, pale skin, easy bruising, purple or red pinpoint spots under your skin;
+pancreas problems--severe pain in your upper stomach spreading to your back, nausea and vomiting, fast heart rate;
+an autoimmune disorder--joint pain or swelling with fever, headaches, confusion, chest pain, shortness of breath, and butterfly-shaped skin rash on your cheeks and nose that worsens in sunlight; or
+severe skin reaction--fever, sore throat, swelling in your face or tongue, burning in your eyes, skin pain, followed by a red or purple skin rash that spreads (especially in the face or upper body) and causes blistering and peeling.
+Common side effects of dapsone may include:
+stomach pain, nausea, vomiting;
+headache;
+dizziness or spinning sensation;
+blurred vision, ringing in your ears; or
+sleep problems (insomnia).</f>
+        <v/>
+      </c>
       <c r="H231" s="10" t="n"/>
     </row>
     <row r="232" ht="16" customHeight="1" s="15">
@@ -8059,7 +9825,20 @@
           <t>https://www.drugs.com/darbepoetin-alfa.html</t>
         </is>
       </c>
-      <c r="G232" s="8" t="n"/>
+      <c r="G232" s="21">
+        <f>== Darbepoetin alfa side effects ===
+Get emergency medical help if you have signs of an allergic reaction (hives, wheezing, difficult breathing, severe dizziness or fainting, swelling in your face or throat) or a severe skin reaction (fever, sore throat, burning in your eyes, skin pain, red or purple skin rash that spreads and causes blistering and peeling).
+Darbepoetin alfa can increase your risk of life-threatening heart or circulation problems, including heart attack or stroke. This risk will increase the longer you use darbepoetin alfa. Seek emergency medical help if you have:
+heart attack symptoms--chest pain or pressure, shortness of breath, pain spreading to your jaw or shoulder, nausea, sweating;
+signs of a stroke--sudden numbness or weakness (especially on one side of the body), confusion, sudden severe headache, slurred speech, problems with vision or balance;
+increased blood pressure--severe headache, blurred vision, pounding in your neck or ears, anxiety, nosebleed.
+Darbepoetin alfa may cause serious side effects. Call your doctor at once if you have:
+a light-headed feeling, like you might pass out;
+unusual weakness or tiredness;
+a seizure (convulsions); or
+shortness of breath (even with mild exertion), swelling, rapid weight gain.</f>
+        <v/>
+      </c>
       <c r="H232" s="8" t="n"/>
     </row>
     <row r="233" ht="16" customHeight="1" s="15">
@@ -8077,7 +9856,18 @@
           <t>https://www.drugs.com/diclofenac.html</t>
         </is>
       </c>
-      <c r="G233" s="10" t="n"/>
+      <c r="G233" s="20">
+        <f>== Diclofenac side effects ===
+Get emergency medical help if you have signs of an allergic reaction to diclofenac (hives, difficult breathing, swelling in your face or throat) or a severe skin reaction (fever, sore throat, burning eyes, skin pain, red or purple skin rash with blistering and peeling).
+Stop using diclofenac and seek medical treatment if you have a serious drug reaction that can affect many parts of your body. Symptoms may include skin rash, fever, swollen glands, muscle aches, severe weakness, unusual bruising, or yellowing of your skin or eyes.
+Get emergency medical help if you have signs of a heart attack or stroke: chest pain spreading to your jaw or shoulder, sudden numbness or weakness on one side of the body, slurred speech, feeling short of breath.
+Stop using this medicine and call your doctor at once if you have:
+the first sign of any skin rash, no matter how mild;
+flu-like symptoms;
+heart problems - swelling, rapid weight gain, feeling short of breath;
+liver problems - nausea, diarrhea, stomach pain (upper right side), tiredness, itching, dark urine, jaundice (yellowing of the skin or eyes); or</f>
+        <v/>
+      </c>
       <c r="H233" s="10" t="n"/>
     </row>
     <row r="234" ht="16" customHeight="1" s="15">
@@ -8095,7 +9885,28 @@
           <t>https://www.drugs.com/diethylpropion.html</t>
         </is>
       </c>
-      <c r="G234" s="8" t="n"/>
+      <c r="G234" s="21">
+        <f>== Diethylpropion side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+Diethylpropion may cause serious side effects. Call your doctor at once if you have:
+chest pain, feeling short of breath (especially with exertion);
+swelling in your ankles or feet;
+anxiety, feeling nervous or jittery;
+muscle twitches;
+feelings of extreme happiness or sadness;
+fast or pounding heartbeats, fluttering in your chest; or
+a light-headed feeling, like you might pass out.
+Common side effects of diethylpropion may include:
+nausea, vomiting, diarrhea, upset stomach, constipation;
+headache, blurred vision;
+sleep problems (insomnia);
+dizziness, drowsiness, tired feeling;
+depressed mood;
+dry mouth, unpleasant taste in your mouth;
+decreased sex drive; or
+redness, bruising, or rash.</f>
+        <v/>
+      </c>
       <c r="H234" s="8" t="n"/>
     </row>
     <row r="235" ht="16" customHeight="1" s="15">
@@ -8113,7 +9924,18 @@
           <t>https://www.drugs.com/difelikefalin.html</t>
         </is>
       </c>
-      <c r="G235" s="10" t="n"/>
+      <c r="G235" s="20">
+        <f>== Difelikefalin side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives, difficult breathing, swelling of your face, lips, tongue, or throat.
+Common side effects of difelikefalin may include:
+high blood levels of potassium (hyperkalemia);
+diarrhea, nausea;
+headache, drowsiness, confusion, changes in your mental state; or
+dizziness, falls, loss of coordination.
+This is not a complete list of side effects and others may occur. Call your doctor for medical advice about side effects. You may report side effects to FDA at 1-800-FDA-1088.
+Difelikefalin side effects (more detail)</f>
+        <v/>
+      </c>
       <c r="H235" s="10" t="n"/>
     </row>
     <row r="236" ht="16" customHeight="1" s="15">
@@ -8131,7 +9953,16 @@
           <t>https://www.drugs.com/dipyridamole.html</t>
         </is>
       </c>
-      <c r="G236" s="8" t="n"/>
+      <c r="G236" s="21">
+        <f>== Dipyridamole side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+Dipyridamole may cause serious side effects. Call your doctor at once if you have:
+a light-headed feeling, like you might pass out;
+chest pain; or
+Older adults may be more likely to feel light-headed while taking dipyridamole.
+Common side effects of dipyridamole may include:</f>
+        <v/>
+      </c>
       <c r="H236" s="8" t="n"/>
     </row>
     <row r="237" ht="32" customHeight="1" s="15">
@@ -8149,7 +9980,15 @@
           <t>https://www.drugs.com/durlobactam-/-sulbactam.html</t>
         </is>
       </c>
-      <c r="G237" s="10" t="n"/>
+      <c r="G237" s="20">
+        <f>== Durlobactam / Sulbactam Side Effects ===
+Medically reviewed by Drugs.com. Last updated on Nov 23, 2024.
+Serious side effects
+Other side effects
+Professional info
+Applies to durlobactam / sulbactam: intravenous powder for solution.</f>
+        <v/>
+      </c>
       <c r="H237" s="10" t="n"/>
     </row>
     <row r="238" ht="16" customHeight="1" s="15">
@@ -8167,7 +10006,20 @@
           <t>https://www.drugs.com/edoxaban.html</t>
         </is>
       </c>
-      <c r="G238" s="8" t="n"/>
+      <c r="G238" s="21">
+        <f>== Edoxaban side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+Also seek emergency medical attention if you have symptoms of a spinal blood clot: back pain, numbness or muscle weakness in your lower body, or loss of bladder or bowel control.
+Edoxaban can cause you to bleed more easily. Call your doctor at once if you have signs of bleeding such as:
+easy bruising or bleeding (nosebleeds, bleeding gums, heavy menstrual bleeding);
+pain, swelling, or drainage from a wound or where a needle was injected in your skin;
+bleeding from wounds or needle injections, any bleeding that will not stop;
+headaches, dizziness, weakness, feeling like you might pass out;
+urine that looks red, pink, or brown; or
+bloody or tarry stools, coughing up blood or vomit that looks like coffee grounds.
+Common side effects of edoxaban may include:</f>
+        <v/>
+      </c>
       <c r="H238" s="8" t="n"/>
     </row>
     <row r="239" ht="16" customHeight="1" s="15">
@@ -8185,7 +10037,18 @@
           <t>https://www.drugs.com/empagliflozin.html</t>
         </is>
       </c>
-      <c r="G239" s="10" t="n"/>
+      <c r="G239" s="20">
+        <f>== Empagliflozin side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives, difficult breathing, swelling of your face, lips, tongue, or throat.
+Seek medical attention right away if you have signs of a serious genital infection (penis or vagina): burning, itching, odor, discharge, pain, tenderness, redness or swelling of the genital or rectal area, fever, not feeling well. These symptoms may get worse quickly.
+Empagliflozin may cause serious side effects. Call your doctor at once if you have:
+a light-headed feeling, like you might pass out;
+low blood sugar--headache, hunger, weakness, sweating, confusion, irritability, dizziness, fast heart rate, or feeling jittery;
+dehydration--dizziness, confusion, feeling very thirsty, less urination;
+ketoacidosis (too much acid in the blood)--nausea, vomiting, stomach pain, confusion, unusual drowsiness, or trouble breathing; or
+Common side effects of empagliflozin may include:</f>
+        <v/>
+      </c>
       <c r="H239" s="10" t="n"/>
     </row>
     <row r="240" ht="16" customHeight="1" s="15">
@@ -8203,7 +10066,20 @@
           <t>https://www.drugs.com/enoxaparin.html</t>
         </is>
       </c>
-      <c r="G240" s="8" t="n"/>
+      <c r="G240" s="21">
+        <f>== Enoxaparin side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; itching or burning skin; difficult breathing; swelling of your face, lips, tongue, or throat.
+Also seek emergency medical attention if you have symptoms of a spinal blood clot: back pain, numbness or muscle weakness in your lower body, or loss of bladder or bowel control.
+Enoxaparin may cause serious side effects. Call your doctor at once if you have:
+unusual bleeding, or any bleeding that will not stop;
+easy bruising, purple or red spots under your skin;
+nosebleeds, bleeding gums;
+abnormal vaginal bleeding, blood in your urine or stools;
+coughing up blood or vomit that looks like coffee grounds;
+signs of bleeding in the brain--sudden weakness (especially on one side of the body), sudden severe headache, problems with speech or vision; or
+Common side effects of enoxaparin may include:</f>
+        <v/>
+      </c>
       <c r="H240" s="8" t="n"/>
     </row>
     <row r="241" ht="16" customHeight="1" s="15">
@@ -8221,7 +10097,23 @@
           <t>https://www.drugs.com/eplerenone.html</t>
         </is>
       </c>
-      <c r="G241" s="10" t="n"/>
+      <c r="G241" s="20">
+        <f>== This drug side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; severe stomach pain; difficulty breathing; swelling of your face, lips, tongue, or throat.
+Eplerenone may cause serious side effects. Call your doctor at once if you have:
+a light-headed feeling, like you might pass out;
+diarrhea, vomiting;
+little or no urination;
+fast or irregular heartbeats;
+trouble breathing;
+swelling in your feet or lower legs; or
+high potassium--nausea, weakness, tingly feeling, chest pain, irregular heartbeats, loss of movement.
+Common side effects of eplerenone may include:
+high potassium;
+headache; or
+dizziness.</f>
+        <v/>
+      </c>
       <c r="H241" s="10" t="n"/>
     </row>
     <row r="242" ht="16" customHeight="1" s="15">
@@ -8239,7 +10131,19 @@
           <t>https://www.drugs.com/epoetin-alfa.html</t>
         </is>
       </c>
-      <c r="G242" s="8" t="n"/>
+      <c r="G242" s="21">
+        <f>== Epoetin alfa side effects ===
+Get emergency medical help if you have signs of an allergic reaction (hives, sweating, rapid pulse, wheezing, trouble breathing, severe dizziness or fainting, swelling in your face or throat) or a severe skin reaction (fever, sore throat, burning eyes, skin pain, red or purple skin rash with blistering and peeling).
+Epoetin alfa can cause serious side effects, including heart attack or stroke. Seek emergency medical help if you have:
+heart attack symptoms--chest pain or pressure, pain spreading to your jaw or shoulder, nausea, sweating;
+signs of a stroke--sudden numbness or weakness (especially on one side of the body), sudden severe headache, slurred speech, problems with vision or balance.
+Epoetin alfa may cause serious side effects. Call your doctor at once if you have:
+unusual tiredness;
+a seizure (convulsions);
+high blood sugar--increased thirst, increased urination, dry mouth, fruity breath odor;
+increased blood pressure--severe headache, blurred vision, pounding in your neck or ears, anxiety, nosebleed.</f>
+        <v/>
+      </c>
       <c r="H242" s="8" t="n"/>
     </row>
     <row r="243" ht="32" customHeight="1" s="15">
@@ -8257,7 +10161,11 @@
           <t>https://www.drugs.com/epoetin-beta-methoxy-polyethylene-glycol.html</t>
         </is>
       </c>
-      <c r="G243" s="10" t="n"/>
+      <c r="G243" s="20" t="inlineStr">
+        <is>
+          <t>❌ Could not find side effects link for epoetin beta-methoxy polyethylene glycol</t>
+        </is>
+      </c>
       <c r="H243" s="10" t="n"/>
     </row>
     <row r="244" ht="16" customHeight="1" s="15">
@@ -8275,7 +10183,16 @@
           <t>https://www.drugs.com/eprosartan.html</t>
         </is>
       </c>
-      <c r="G244" s="8" t="n"/>
+      <c r="G244" s="21">
+        <f>== Side Effects of eprosartan ===
+Along with its needed effects, a medicine may cause some unwanted effects. Although not all of these side effects may occur, if they do occur they may need medical attention.
+Check with your doctor immediately if any of the following side effects occur:
+Burning or painful urination or changes in urinary frequency
+cough
+fever
+sore throat</f>
+        <v/>
+      </c>
       <c r="H244" s="8" t="n"/>
     </row>
     <row r="245" ht="16" customHeight="1" s="15">
@@ -8293,7 +10210,15 @@
           <t>https://www.drugs.com/ergoloid-mesylates.html</t>
         </is>
       </c>
-      <c r="G245" s="10" t="n"/>
+      <c r="G245" s="20">
+        <f>== Ergoloid mesylates side effects ===
+Get emergency medical help if you have any of these signs of an allergic reaction: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+Ergoloid mesylates may cause serious side effects. Call your doctor at once if you have:
+any changes in memory, alertness, mood, appetite, energy level, or ability to care for yourself.
+Common side effects of ergoloid mesylates may include:
+nausea or other stomach discomfort.</f>
+        <v/>
+      </c>
       <c r="H245" s="10" t="n"/>
     </row>
     <row r="246" ht="16" customHeight="1" s="15">
@@ -8311,7 +10236,19 @@
           <t>https://www.drugs.com/evinacumab.html</t>
         </is>
       </c>
-      <c r="G246" s="8" t="n"/>
+      <c r="G246" s="21">
+        <f>== Evinacumab side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives, rash, itching; feeling light-headed; wheezing, difficult breathing; swelling of your face, lips, tongue, or throat.
+Some side effects may occur during the injection. Tell your medical caregivers if you feel dizzy, nauseated, light-headed, itchy, sweaty, or have a headache, chest tightness, back pain, trouble breathing, or swelling in your face.
+Your evinacumab treatments may be delayed or permanently discontinued if you have certain side effects.
+Common side effects of evinacumab may include:
+cold or flu symptoms such as fever, chills, body aches, stuffy nose, sneezing, sore throat;
+dizziness;
+pain in your arms or legs;
+nausea; or
+lack of energy.</f>
+        <v/>
+      </c>
       <c r="H246" s="8" t="n"/>
     </row>
     <row r="247" ht="32" customHeight="1" s="15">
@@ -8329,7 +10266,15 @@
           <t>https://www.drugs.com/ezetimibe-/-rosuvastatin.html</t>
         </is>
       </c>
-      <c r="G247" s="10" t="n"/>
+      <c r="G247" s="20">
+        <f>== Ezetimibe / Rosuvastatin Side Effects ===
+Medically reviewed by Drugs.com. Last updated on Nov 11, 2024.
+Serious side effects
+Other side effects
+Professional info
+Applies to ezetimibe / rosuvastatin: oral tablet.</f>
+        <v/>
+      </c>
       <c r="H247" s="10" t="n"/>
     </row>
     <row r="248" ht="32" customHeight="1" s="15">
@@ -8347,7 +10292,15 @@
           <t>https://www.drugs.com/ezetimibe-/-simvastatin.html</t>
         </is>
       </c>
-      <c r="G248" s="8" t="n"/>
+      <c r="G248" s="21">
+        <f>== Ezetimibe / Simvastatin Side Effects ===
+Medically reviewed by Drugs.com. Last updated on Mar 5, 2024.
+Other side effects
+Serious side effects
+Professional info
+Applies to ezetimibe / simvastatin: oral tablet.</f>
+        <v/>
+      </c>
       <c r="H248" s="8" t="n"/>
     </row>
     <row r="249" ht="32" customHeight="1" s="15">
@@ -8365,7 +10318,11 @@
           <t>https://www.drugs.com/ezetimibe/rosuvastatin.html</t>
         </is>
       </c>
-      <c r="G249" s="10" t="n"/>
+      <c r="G249" s="20" t="inlineStr">
+        <is>
+          <t>❌ Could not find main result for ezetimibe/rosuvastatin</t>
+        </is>
+      </c>
       <c r="H249" s="10" t="n"/>
     </row>
     <row r="250" ht="32" customHeight="1" s="15">
@@ -8383,7 +10340,11 @@
           <t>https://www.drugs.com/ezetimibe/simvastatin.html</t>
         </is>
       </c>
-      <c r="G250" s="8" t="n"/>
+      <c r="G250" s="21" t="inlineStr">
+        <is>
+          <t>❌ Could not find main result for ezetimibe/simvastatin</t>
+        </is>
+      </c>
       <c r="H250" s="8" t="n"/>
     </row>
     <row r="251" ht="16" customHeight="1" s="15">
@@ -8401,7 +10362,20 @@
           <t>https://www.drugs.com/felodipine.html</t>
         </is>
       </c>
-      <c r="G251" s="10" t="n"/>
+      <c r="G251" s="20">
+        <f>== Felodipine side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives, difficult breathing, swelling of your face, lips, tongue, or throat.
+Felodipine may cause serious side effects. Call your doctor at once if you have:
+worsening chest pain, fast heart rate;
+a light-headed feeling, like you might pass out; or
+heart problems--swelling, rapid weight gain, feeling short of breath.
+Common side effects of felodipine may include:
+swelling in your arms, hands, legs, or feet;
+headache;
+dizziness; weakness; or
+flushing (sudden warmth, redness, or tingly feeling).</f>
+        <v/>
+      </c>
       <c r="H251" s="10" t="n"/>
     </row>
     <row r="252" ht="16" customHeight="1" s="15">
@@ -8419,7 +10393,20 @@
           <t>https://www.drugs.com/fenofibric-acid.html</t>
         </is>
       </c>
-      <c r="G252" s="8" t="n"/>
+      <c r="G252" s="21">
+        <f>== Fenofibric acid side effects ===
+Get emergency medical help if you have signs of an allergic reaction (hives, difficult breathing, swelling in your face or throat) or a severe skin reaction (fever, sore throat, burning in your eyes, skin pain, red or purple skin rash that spreads and causes blistering and peeling).
+In rare cases, fenofibric acid can cause a condition that results in the breakdown of skeletal muscle tissue, leading to kidney failure. Call your doctor right away if you have unexplained muscle pain, tenderness, or weakness especially if you also have fever, unusual tiredness, or dark colored urine.
+Also call your doctor at once if you have:
+sharp stomach pain spreading to your back or shoulder blade;
+loss of appetite, stomach pain just after eating a meal;
+jaundice (yellowing of the skin or eyes);
+fever, chills, weakness, sore throat, mouth sores, unusual bruising or bleeding;
+chest pain, sudden cough, wheezing, rapid breathing, coughing up blood; or
+swelling, warmth, or redness in an arm or leg.
+Common side effects of fenofibric acid may include:</f>
+        <v/>
+      </c>
       <c r="H252" s="8" t="n"/>
     </row>
     <row r="253" ht="16" customHeight="1" s="15">
@@ -8437,7 +10424,18 @@
           <t>https://www.drugs.com/ferrous-fumarate.html</t>
         </is>
       </c>
-      <c r="G253" s="10" t="n"/>
+      <c r="G253" s="20">
+        <f>== Ferrous fumarate side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficulty breathing; swelling of your face, lips, tongue, or throat.
+Ferrous fumarate may cause serious side effects. Call your doctor at once if you have:
+severe stomach pain;
+severe nausea or vomiting;
+coughing up blood or vomit that looks like coffee grounds;
+blood or tarry stools; or
+bright red blood in your stools.
+Common side effects of ferrous fumarate may include:</f>
+        <v/>
+      </c>
       <c r="H253" s="10" t="n"/>
     </row>
     <row r="254" ht="16" customHeight="1" s="15">
@@ -8455,7 +10453,24 @@
           <t>https://www.drugs.com/ferrous-gluconate.html</t>
         </is>
       </c>
-      <c r="G254" s="8" t="n"/>
+      <c r="G254" s="21">
+        <f>== Ferrous gluconate side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives, blistering or peeling skin; fever; difficulty breathing; swelling of your face, lips, tongue, or throat.
+Ferrous gluconate may cause serious side effects. Call your doctor at once if you have:
+bright red blood in your stools;
+black or tarry stools;
+a fever;
+stomach pain;
+coughing up blood or vomit that looks like coffee grounds; or
+pain in your chest or throat when swallowing a ferrous gluconate tablet.
+Common side effects of ferrous gluconate may include:
+constipation, diarrhea;
+nausea, vomiting, stomach pain;
+loss of appetite;
+green-colored stools; or
+temporary staining of the teeth.</f>
+        <v/>
+      </c>
       <c r="H254" s="8" t="n"/>
     </row>
     <row r="255" ht="16" customHeight="1" s="15">
@@ -8473,7 +10488,18 @@
           <t>https://www.drugs.com/ferumoxytol.html</t>
         </is>
       </c>
-      <c r="G255" s="10" t="n"/>
+      <c r="G255" s="20">
+        <f>== Ferumoxytol side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives, itching; wheezing, difficult breathing; a light-headed feeling (like you might pass out);swelling of your face, lips, tongue, or throat.
+Ferumoxytol can cause severe or fatal allergic reactions, even if you have used ferumoxytol before without any reaction. Watch for signs of allergic reaction for at least 30 minutes after your injection.
+Ferumoxytol may cause serious side effects. Call your doctor at once if you have:
+a light-headed feeling, like you might pass out;
+severe or ongoing vomiting or diarrhea;
+a seizure;
+kidney problems--swelling, urinating less, feeling tired or short of breath; or
+Common side effects of ferumoxytol may include:</f>
+        <v/>
+      </c>
       <c r="H255" s="10" t="n"/>
     </row>
     <row r="256" ht="16" customHeight="1" s="15">
@@ -8491,7 +10517,18 @@
           <t>https://www.drugs.com/finerenone.html</t>
         </is>
       </c>
-      <c r="G256" s="8" t="n"/>
+      <c r="G256" s="21">
+        <f>== Finerenone side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+Finerenone may cause serious side effects. Call your doctor at once if you have:
+high blood potassium--nausea, weakness, tingly feeling, chest pain, irregular heartbeats, loss of movement; or
+low blood sodium--headache, confusion, problems with thinking or memory, weakness, feeling unsteady.
+Common side effects of finerenone may include:
+high potassium;
+low sodium; or
+low blood pressure.</f>
+        <v/>
+      </c>
       <c r="H256" s="8" t="n"/>
     </row>
     <row r="257" ht="16" customHeight="1" s="15">
@@ -8509,7 +10546,15 @@
           <t>https://www.drugs.com/flu.html</t>
         </is>
       </c>
-      <c r="G257" s="10" t="n"/>
+      <c r="G257" s="20">
+        <f>== Advil Multi-Symptom Cold &amp; Flu Side Effects ===
+Advil Multi-Symptom Cold &amp; Flu
+Generic name: chlorpheniramine / ibuprofen / phenylephrine
+Medically reviewed by Drugs.com. Last updated on Mar 20, 2025.
+Serious side effects
+Other side effects</f>
+        <v/>
+      </c>
       <c r="H257" s="10" t="n"/>
     </row>
     <row r="258" ht="16" customHeight="1" s="15">
@@ -8527,7 +10572,11 @@
           <t>https://www.drugs.com/fluticasone.html</t>
         </is>
       </c>
-      <c r="G258" s="8" t="n"/>
+      <c r="G258" s="21" t="inlineStr">
+        <is>
+          <t>❌ Could not find side effects link for fluticasone</t>
+        </is>
+      </c>
       <c r="H258" s="8" t="n"/>
     </row>
     <row r="259" ht="32" customHeight="1" s="15">
@@ -8545,7 +10594,11 @@
           <t>https://www.drugs.com/fluticasone-/-salmeterol.html</t>
         </is>
       </c>
-      <c r="G259" s="10" t="n"/>
+      <c r="G259" s="20" t="inlineStr">
+        <is>
+          <t>❌ Lost connection while navigating to side effects page for fluticasone / salmeterol</t>
+        </is>
+      </c>
       <c r="H259" s="10" t="n"/>
     </row>
     <row r="260" ht="32" customHeight="1" s="15">
@@ -8563,7 +10616,14 @@
           <t>https://www.drugs.com/fluticasone-/-umeclidinium-/-vilanterol.html</t>
         </is>
       </c>
-      <c r="G260" s="8" t="n"/>
+      <c r="G260" s="21">
+        <f>== Fluticasone / Umeclidinium / Vilanterol Side Effects ===
+Medically reviewed by Drugs.com. Last updated on Jul 6, 2024.
+Serious side effects
+Other side effects
+Professional info</f>
+        <v/>
+      </c>
       <c r="H260" s="8" t="n"/>
     </row>
     <row r="261" ht="32" customHeight="1" s="15">
@@ -8581,7 +10641,14 @@
           <t>https://www.drugs.com/fluticasone-/-vilanterol.html</t>
         </is>
       </c>
-      <c r="G261" s="10" t="n"/>
+      <c r="G261" s="20">
+        <f>== Fluticasone / Vilanterol Side Effects ===
+Medically reviewed by Drugs.com. Last updated on Apr 22, 2024.
+Serious side effects
+Other side effects
+Professional info</f>
+        <v/>
+      </c>
       <c r="H261" s="10" t="n"/>
     </row>
     <row r="262" ht="32" customHeight="1" s="15">
@@ -8599,7 +10666,11 @@
           <t>https://www.drugs.com/fluticasone/salmeterol.html</t>
         </is>
       </c>
-      <c r="G262" s="8" t="n"/>
+      <c r="G262" s="21" t="inlineStr">
+        <is>
+          <t>❌ Could not find main result for fluticasone/salmeterol</t>
+        </is>
+      </c>
       <c r="H262" s="8" t="n"/>
     </row>
     <row r="263" ht="32" customHeight="1" s="15">
@@ -8617,7 +10688,11 @@
           <t>https://www.drugs.com/fluticasone/vilanterol/umeclidinium.html</t>
         </is>
       </c>
-      <c r="G263" s="10" t="n"/>
+      <c r="G263" s="20" t="inlineStr">
+        <is>
+          <t>❌ Could not find main result for fluticasone/vilanterol/umeclidinium</t>
+        </is>
+      </c>
       <c r="H263" s="10" t="n"/>
     </row>
     <row r="264" ht="16" customHeight="1" s="15">
@@ -8635,7 +10710,16 @@
           <t>https://www.drugs.com/fluvastatin.html</t>
         </is>
       </c>
-      <c r="G264" s="8" t="n"/>
+      <c r="G264" s="21">
+        <f>== Fluvastatin side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficulty breathing; swelling of your face, lips, tongue, or throat.
+In rare cases, fluvastatin can cause a condition that results in the breakdown of skeletal muscle tissue, leading to kidney failure. Call your doctor right away if you have unexplained muscle pain, tenderness, or weakness especially if you also have fever, unusual tiredness, or dark colored urine.
+Also call your doctor at once if you have:
+muscle weakness in your hips, shoulders, neck, and back;
+trouble lifting your arms, trouble climbing or standing;
+Common side effects of fluvastatin may include:</f>
+        <v/>
+      </c>
       <c r="H264" s="8" t="n"/>
     </row>
     <row r="265" ht="16" customHeight="1" s="15">
@@ -8653,7 +10737,18 @@
           <t>https://www.drugs.com/fluvoxamine.html</t>
         </is>
       </c>
-      <c r="G265" s="10" t="n"/>
+      <c r="G265" s="20">
+        <f>== Fluvoxamine side effects ===
+Get emergency medical help if you have signs of an allergic reaction: skin rash, blisters, or hives; fever, joint pain; difficult breathing; swelling of your face, lips, tongue, or throat.
+Call your doctor at once if you have;
+blurred vision, eye pain or redness, seeing halos around lights;
+a seizure;
+changes in weight or appetite;
+easy bruising or unusual bleeding; or
+low blood sodium--headache, confusion, problems with thinking or memory, weakness, feeling unsteady.
+Seek medical attention right away if you have symptoms of serotonin syndrome, such as: agitation, hallucinations, fever, sweating, shivering, fast heart rate, muscle stiffness, twitching, loss of coordination, nausea, vomiting, or diarrhea</f>
+        <v/>
+      </c>
       <c r="H265" s="10" t="n"/>
     </row>
     <row r="266" ht="16" customHeight="1" s="15">
@@ -8671,7 +10766,11 @@
           <t>https://www.drugs.com/formoterol.html</t>
         </is>
       </c>
-      <c r="G266" s="8" t="n"/>
+      <c r="G266" s="21" t="inlineStr">
+        <is>
+          <t>❌ Could not find side effects link for formoterol</t>
+        </is>
+      </c>
       <c r="H266" s="8" t="n"/>
     </row>
     <row r="267" ht="16" customHeight="1" s="15">
@@ -8689,7 +10788,27 @@
           <t>https://www.drugs.com/golimumab.html</t>
         </is>
       </c>
-      <c r="G267" s="10" t="n"/>
+      <c r="G267" s="20">
+        <f>== Golimumab side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives, difficult breathing, swelling of your face, lips, tongue, or throat.
+You may get infections more easily, even serious or fatal infections. Call your doctor right away if you have signs of infection such as:
+fever, chills, sweating, muscle aches, feeling very tired;
+cough, bloody mucus, shortness of breath;
+weight loss;
+painful skin sores, warmth, or redness;
+diarrhea, stomach pain; or
+increased urination, or burning when you urinate.
+Also call your doctor at once if you have:
+skin growths or changes in skin appearance;
+swelling in your lower legs;
+vision changes;
+numbness or tingly feeling, weakness in your arms or legs;
+heart problems--swelling, rapid weight gain, feeling short of breath;
+low blood cell counts--fever, chills, tiredness, mouth sores, skin sores, easy bruising, unusual bleeding, pale skin, cold hands and feet, feeling light-headed or short of breath;
+new or worsening symptoms of lupus--joint pain, and a skin rash on your cheeks or arms that worsens in sunlight; or
+signs of psoriasis--red or scaly patches of skin, flaking, pus.</f>
+        <v/>
+      </c>
       <c r="H267" s="10" t="n"/>
     </row>
     <row r="268" ht="16" customHeight="1" s="15">
@@ -8707,7 +10826,20 @@
           <t>https://www.drugs.com/haloperidol.html</t>
         </is>
       </c>
-      <c r="G268" s="8" t="n"/>
+      <c r="G268" s="21">
+        <f>== Haloperidol side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+High doses or long-term use of haloperidol can cause a serious movement disorder that may not be reversible. The longer you use haloperidol, the more likely you are to develop this disorder, especially if you are a woman or an older adult.
+Haloperidol may cause serious side effects. Call your doctor at once if you have:
+muscle spasms in your neck, tightness in your throat, trouble swallowing;
+rapid changes in mood or behavior;
+fast or pounding heartbeats, fluttering in your chest, shortness of breath, and sudden dizziness (like you might pass out);
+cough with mucus, chest pain, feeling short of breath;
+low white blood cell counts--fever, chills, mouth sores, skin sores, sore throat, cough, trouble breathing; or
+severe nervous system reaction--very stiff (rigid) muscles, high fever, sweating, confusion, fast or uneven heartbeats, tremors, feeling like you might pass out.
+Common side effects of haloperidol may include:</f>
+        <v/>
+      </c>
       <c r="H268" s="8" t="n"/>
     </row>
     <row r="269" ht="16" customHeight="1" s="15">
@@ -8725,7 +10857,21 @@
           <t>https://www.drugs.com/hyaluronan.html</t>
         </is>
       </c>
-      <c r="G269" s="10" t="n"/>
+      <c r="G269" s="20">
+        <f>== Hyaluronan side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+Hyaluronan may cause serious side effects. Call your doctor at once if you have:
+bleeding;
+increased knee pain; or
+signs of infection (warmth, swelling, redness) around your knee.
+Common side effects of hyaluronan may include:
+joint pain, stiffness, or swelling;
+itching, numbness, or tingling;
+headache, dizziness;
+back pain;
+swelling, pain, redness, or mild discomfort where the medicine was injected.</f>
+        <v/>
+      </c>
       <c r="H269" s="10" t="n"/>
     </row>
     <row r="270" ht="16" customHeight="1" s="15">
@@ -8743,7 +10889,23 @@
           <t>https://www.drugs.com/hydralazine.html</t>
         </is>
       </c>
-      <c r="G270" s="8" t="n"/>
+      <c r="G270" s="21">
+        <f>== Hydralazine side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+Hydralazine may cause serious side effects. Call your doctor at once if you have:
+chest pain or pressure, pain spreading to your jaw or shoulder;
+fast or pounding heartbeats;
+a light-headed feeling, like you might pass out;
+numbness, tingling, or burning pain in your hands or feet;
+painful or difficult urination;
+little or no urination; or
+lupus-like syndrome--joint pain or swelling with fever, swollen glands, muscle aches, chest pain, vomiting, unusual thoughts or behavior, and patchy skin color.
+Common side effects of hydralazine may include:
+chest pain, fast heart rate;
+headache; or
+nausea, vomiting, diarrhea, loss of appetite.</f>
+        <v/>
+      </c>
       <c r="H270" s="8" t="n"/>
     </row>
     <row r="271" ht="16" customHeight="1" s="15">
@@ -8761,7 +10923,24 @@
           <t>https://www.drugs.com/imipramine.html</t>
         </is>
       </c>
-      <c r="G271" s="10" t="n"/>
+      <c r="G271" s="20">
+        <f>== Imipramine side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+Report any new or worsening symptoms to your doctor, such as: mood or behavior changes, anxiety, panic attacks, trouble sleeping, or if you feel impulsive, irritable, agitated, hostile, aggressive, restless, hyperactive (mentally or physically), more depressed, or have thoughts about suicide or hurting yourself.
+Imipramine may cause serious side effects. Call your doctor at once if you have:
+easy bruising, unusual bleeding, purple or red spots under your skin;
+tunnel vision, eye pain or swelling, or seeing halos around lights;
+a light-headed feeling, like you might pass out;
+new or worsening chest pain, pounding heartbeats or fluttering in your chest;
+sudden numbness or weakness, problems with vision, speech, or balance;
+fever, sore throat;
+confusion, hallucinations, unusual thoughts or behavior;
+painful or difficult urination;
+seizure (convulsions); or
+jaundice (yellowing of the skin or eyes).
+Common side effects of imipramine may include:</f>
+        <v/>
+      </c>
       <c r="H271" s="10" t="n"/>
     </row>
     <row r="272" ht="32" customHeight="1" s="15">
@@ -8779,7 +10958,17 @@
           <t>https://www.drugs.com/interferon-gamma-1b.html</t>
         </is>
       </c>
-      <c r="G272" s="8" t="n"/>
+      <c r="G272" s="21">
+        <f>== Interferon gamma-1b side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficulty breathing; swelling of your face, lips, tongue, or throat.
+Interferon gamma-1b may cause serious side effects. Call your doctor at once if you have:
+confusion, hallucinations;
+a seizure (convulsions);
+low blood cell counts--fever, chills, flu-like symptoms, swollen gums, mouth sores, skin sores, easy bruising, unusual bleeding; or
+Your doses may be delayed or reduced if you have certain side effects.
+Common side effects of interferon gamma-1b may include:</f>
+        <v/>
+      </c>
       <c r="H272" s="8" t="n"/>
     </row>
     <row r="273" ht="16" customHeight="1" s="15">
@@ -8797,7 +10986,11 @@
           <t>https://www.drugs.com/ipratropium.html</t>
         </is>
       </c>
-      <c r="G273" s="10" t="n"/>
+      <c r="G273" s="20" t="inlineStr">
+        <is>
+          <t>❌ Could not find side effects link for ipratropium</t>
+        </is>
+      </c>
       <c r="H273" s="10" t="n"/>
     </row>
     <row r="274" ht="16" customHeight="1" s="15">
@@ -8815,7 +11008,19 @@
           <t>https://www.drugs.com/irbesartan.html</t>
         </is>
       </c>
-      <c r="G274" s="8" t="n"/>
+      <c r="G274" s="21">
+        <f>== Irbesartan side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+Irbesartan may cause serious side effects. Call your doctor at once if you have:
+a light-headed feeling, like you might pass out;
+little or no urination;
+high potassium level--nausea, weakness, tingly feeling, chest pain, irregular heartbeats, loss of movement.
+Common side effects of irbesartan may include:
+dizziness;
+feeling light-headed; or
+high potassium.</f>
+        <v/>
+      </c>
       <c r="H274" s="8" t="n"/>
     </row>
     <row r="275" ht="16" customHeight="1" s="15">
@@ -8833,7 +11038,23 @@
           <t>https://www.drugs.com/iron-dextran.html</t>
         </is>
       </c>
-      <c r="G275" s="10" t="n"/>
+      <c r="G275" s="20">
+        <f>== Iron dextran side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+Iron dextran can cause severe and sometimes fatal allergic reactions or severely low blood pressure. Call your doctor or seek medical help right away if you feel light-headed or if you suddenly have trouble breathing.
+Also all your doctor at once if you have:
+fast or slow heartbeats. chest pain, wheezing, trouble breathing;
+a light-headed feeling, like you might pass out;
+flushing (warmth, redness, or tingly feeling);
+blue-colored lips or fingernails;
+red or pink urine;
+weak or shallow breathing (breathing may stop);
+seizure (convulsions);
+swelling, warmth, redness, or itching where the medicine was injected; or
+delayed effect (1-2 days after injection)--fever, chills, dizziness, headache, general ill feeling, nausea and vomiting, joint or muscle pain, back pain.
+Common side effects of iron dextran may include:</f>
+        <v/>
+      </c>
       <c r="H275" s="10" t="n"/>
     </row>
     <row r="276" ht="16" customHeight="1" s="15">
@@ -8851,7 +11072,19 @@
           <t>https://www.drugs.com/isocarboxazid.html</t>
         </is>
       </c>
-      <c r="G276" s="8" t="n"/>
+      <c r="G276" s="21">
+        <f>== Isocarboxazid side effects ===
+Get emergency medical help if you have any of these signs of an allergic reaction: hives; difficulty breathing; swelling of your face, lips, tongue, or throat.
+Report any new or worsening symptoms to your doctor, such as: mood or behavior changes, anxiety, panic attacks, trouble sleeping, or if you feel impulsive, irritable, agitated, hostile, aggressive, restless, hyperactive (mentally or physically), more depressed, or have thoughts about suicide or hurting yourself.
+Stop taking isocarboxazid and call your doctor at once if you have:
+sudden and severe headache, rapid heartbeat, stiffness in your neck, nausea, vomiting, cold sweat, vision problems, sensitivity to light;
+chest pain, fast or slow heart rate;
+swelling, rapid weight gain;
+jaundice (yellowing of the skin or eyes); or
+a light-headed feeling, like you might pass out.
+Common side effects of isocarboxazid may include:</f>
+        <v/>
+      </c>
       <c r="H276" s="8" t="n"/>
     </row>
     <row r="277" ht="16" customHeight="1" s="15">
@@ -8869,7 +11102,11 @@
           <t>https://www.drugs.com/isoproterenol.html</t>
         </is>
       </c>
-      <c r="G277" s="10" t="n"/>
+      <c r="G277" s="20" t="inlineStr">
+        <is>
+          <t>❌ Could not find side effects link for isoproterenol</t>
+        </is>
+      </c>
       <c r="H277" s="10" t="n"/>
     </row>
     <row r="278" ht="32" customHeight="1" s="15">
@@ -8887,7 +11124,18 @@
           <t>https://www.drugs.com/isosorbide-dinitrate.html</t>
         </is>
       </c>
-      <c r="G278" s="8" t="n"/>
+      <c r="G278" s="21">
+        <f>== Isosorbide dinitrate side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficulty breathing; swelling of your face, lips, tongue, or throat.
+Isosorbide dinitrate may cause serious side effects. Call your doctor at once if you have:
+a light-headed feeling, like you might pass out;
+worsening angina pain;
+fast or slow heart rate; or
+pounding heartbeats or fluttering in your chest.
+Isosorbide dinitrate can cause severe headaches. These headaches may gradually become less severe as you continue to use nitroglycerin. Do not stop taking isosorbide dinitrate to avoid headaches. Ask your doctor before using any headache pain medication.
+Common side effects may be more likely to occur, such as:</f>
+        <v/>
+      </c>
       <c r="H278" s="8" t="n"/>
     </row>
     <row r="279" ht="16" customHeight="1" s="15">
@@ -8905,7 +11153,18 @@
           <t>https://www.drugs.com/isoxsuprine.html</t>
         </is>
       </c>
-      <c r="G279" s="10" t="n"/>
+      <c r="G279" s="20">
+        <f>== Side Effects of isoxsuprine ===
+Along with its needed effects, a medicine may cause some unwanted effects. Although not all of these side effects may occur, if they do occur they may need medical attention.
+Check with your doctor as soon as possible if any of the following side effects occur:
+Chest pain
+dizziness or faintness (more common for injection)
+fast heartbeat (more common for injection)
+shortness of breath
+skin rash
+Some side effects may occur that usually do not need medical attention. These side effects may go away during treatment as your body adjusts to the medicine. Also, your health care professional may be able to tell you about ways to prevent or reduce some of these side effects. Check with your health care professional if any of the following side effects continue or are bothersome or if you have any questions about them:</f>
+        <v/>
+      </c>
       <c r="H279" s="10" t="n"/>
     </row>
     <row r="280" ht="16" customHeight="1" s="15">
@@ -8923,7 +11182,18 @@
           <t>https://www.drugs.com/labetalol.html</t>
         </is>
       </c>
-      <c r="G280" s="8" t="n"/>
+      <c r="G280" s="21">
+        <f>== Labetalol side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficulty breathing; swelling of your face, lips, tongue, or throat.
+Labetalol may cause serious side effects. Call your doctor at once if you have:
+a light-headed feeling, like you might pass out;
+slow heart rate, weak pulse, fainting, slow breathing (breathing may stop);
+shortness of breath (even with mild exertion), swelling, rapid weight gain;
+severe headache, blurred vision, pounding in your neck or ears; or
+liver problems--loss of appetite, stomach pain (upper right side), flu-like symptoms, itching, dark urine, jaundice (yellowing of the skin or eyes).
+Severe dizziness or fainting may be more likely in older adults.</f>
+        <v/>
+      </c>
       <c r="H280" s="8" t="n"/>
     </row>
     <row r="281" ht="16" customHeight="1" s="15">
@@ -8941,7 +11211,26 @@
           <t>https://www.drugs.com/leflunomide.html</t>
         </is>
       </c>
-      <c r="G281" s="10" t="n"/>
+      <c r="G281" s="20">
+        <f>== Leflunomide side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficulty breathing; swelling of your face, lips, tongue, or throat.
+Leflunomide may cause serious side effects. Call your doctor at once if you have:
+signs of infection--sudden weakness or ill feeling, fever, chills, sore throat, mouth sores, red or swollen gums, trouble swallowing;
+sudden chest pain or discomfort, wheezing, dry cough, feeling short of breath;
+numbness, tingling, or burning pain in your hands or feet;
+liver problems--nausea, upper stomach pain, itching, tiredness, loss of appetite, dark urine, clay-colored stools, jaundice (yellowing of the skin or eyes); or
+severe skin reaction--fever, sore throat, swelling in your face or tongue, burning in your eyes, skin pain, followed by a red or purple skin rash that spreads (especially in the face or upper body) and causes blistering and peeling.
+Common side effects of leflunomide may include:
+nausea, diarrhea, stomach pain;
+headache;
+abnormal liver function tests;
+thinning hair;
+back pain;
+weakness;
+rash; or
+high blood pressure.</f>
+        <v/>
+      </c>
       <c r="H281" s="10" t="n"/>
     </row>
     <row r="282" ht="16" customHeight="1" s="15">
@@ -8959,7 +11248,14 @@
           <t>https://www.drugs.com/leucovorin.html</t>
         </is>
       </c>
-      <c r="G282" s="8" t="n"/>
+      <c r="G282" s="21">
+        <f>== Leucovorin side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+This is not a complete list of side effects and others may occur. Call your doctor for medical advice about side effects. You may report side effects to FDA at 1-800-FDA-1088.
+Leucovorin side effects (more detail)
+Related/similar drugs</f>
+        <v/>
+      </c>
       <c r="H282" s="8" t="n"/>
     </row>
     <row r="283" ht="16" customHeight="1" s="15">
@@ -8977,7 +11273,11 @@
           <t>https://www.drugs.com/levalbuterol.html</t>
         </is>
       </c>
-      <c r="G283" s="10" t="n"/>
+      <c r="G283" s="20" t="inlineStr">
+        <is>
+          <t>❌ Could not find side effects link for levalbuterol</t>
+        </is>
+      </c>
       <c r="H283" s="10" t="n"/>
     </row>
     <row r="284" ht="16" customHeight="1" s="15">
@@ -8995,7 +11295,11 @@
           <t>https://www.drugs.com/linezolid.html</t>
         </is>
       </c>
-      <c r="G284" s="8" t="n"/>
+      <c r="G284" s="21" t="inlineStr">
+        <is>
+          <t>❌ Could not find side effects link for linezolid</t>
+        </is>
+      </c>
       <c r="H284" s="8" t="n"/>
     </row>
     <row r="285" ht="16" customHeight="1" s="15">
@@ -9013,7 +11317,29 @@
           <t>https://www.drugs.com/liraglutide.html</t>
         </is>
       </c>
-      <c r="G285" s="10" t="n"/>
+      <c r="G285" s="20">
+        <f>== Side effects ===
+The most common side effects of liraglutide (Victoza/ liraglutide injection) when used in people with type 2 diabetes are:
+nausea
+diarrhea
+vomiting
+decreased appetite
+indigestion and constipation.
+The most common side effects of liraglutide (Saxenda) when used for weight loss are:
+nausea
+injection site reaction
+tiredness (fatigue)
+diarrhea
+low blood sugar (hypoglycemia)
+dizziness
+constipation
+headache
+stomach pain
+vomiting
+upset stomach (dyspepsia)
+changes in enzyme (lipase) levels in your blood.</f>
+        <v/>
+      </c>
       <c r="H285" s="10" t="n"/>
     </row>
     <row r="286" ht="16" customHeight="1" s="15">
@@ -9031,7 +11357,23 @@
           <t>https://www.drugs.com/lomitapide.html</t>
         </is>
       </c>
-      <c r="G286" s="8" t="n"/>
+      <c r="G286" s="21">
+        <f>== Lomitapide side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+Stop taking lomitapide and tell your doctor if you have:
+severe diarrhea;
+a light-headed feeling, like you might pass out;
+decreased urination; or
+tiredness.
+Call your doctor at once if you have signs of liver problems, such as:
+nausea, vomiting, upper stomach pain;
+loss of appetite;
+swelling around your midsection;
+flu-like symptoms, tiredness;
+dark urine, clay-colored stools; or
+jaundice (yellowing of the skin or eyes).</f>
+        <v/>
+      </c>
       <c r="H286" s="8" t="n"/>
     </row>
     <row r="287" ht="16" customHeight="1" s="15">
@@ -9049,7 +11391,11 @@
           <t>https://www.drugs.com/lorcaserin.html</t>
         </is>
       </c>
-      <c r="G287" s="10" t="n"/>
+      <c r="G287" s="20" t="inlineStr">
+        <is>
+          <t>❌ Could not find side effects link for lorcaserin</t>
+        </is>
+      </c>
       <c r="H287" s="10" t="n"/>
     </row>
     <row r="288" ht="16" customHeight="1" s="15">
@@ -9067,7 +11413,16 @@
           <t>https://www.drugs.com/lovastatin.html</t>
         </is>
       </c>
-      <c r="G288" s="8" t="n"/>
+      <c r="G288" s="21">
+        <f>== Lovastatin side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+Lovastatin can cause the breakdown of muscle tissue, which can lead to kidney failure. Call your doctor right away if you have unexplained muscle pain, tenderness, or weakness especially if you also have fever, unusual tiredness, or dark colored urine.
+Also call your doctor at once if you have:
+muscle weakness in your hips, shoulders, neck, and back;
+trouble lifting your arms, trouble climbing or standing;
+Common side effects of lovastatin may include:</f>
+        <v/>
+      </c>
       <c r="H288" s="8" t="n"/>
     </row>
     <row r="289" ht="16" customHeight="1" s="15">
@@ -9085,7 +11440,18 @@
           <t>https://www.drugs.com/meropenem.html</t>
         </is>
       </c>
-      <c r="G289" s="10" t="n"/>
+      <c r="G289" s="20">
+        <f>== Meropenem side effects ===
+Get emergency medical help if you have signs of an allergic reaction (hives, difficult breathing, swelling in your face or throat) or a severe skin reaction (fever, sore throat, burning in your eyes, skin pain, red or purple skin rash that spreads and causes blistering and peeling).
+Seek medical treatment if you have a serious drug reaction that can affect many parts of your body. Symptoms may include: skin rash, fever, swollen glands, muscle aches, severe weakness, unusual bruising, or yellowing of your skin or eyes.
+Meropenem may cause serious side effects. Call your doctor at once if you have:
+severe stomach pain, diarrhea that is watery or bloody (even if it occurs months after your last dose);
+seizures;
+pain, swelling, burning, or irritation around the IV needle; or
+confusion, weakness, numbness, tingling, burning pain.
+Common side effects of meropenem may include:</f>
+        <v/>
+      </c>
       <c r="H289" s="10" t="n"/>
     </row>
     <row r="290" ht="16" customHeight="1" s="15">
@@ -9103,7 +11469,21 @@
           <t>https://www.drugs.com/methyldopa.html</t>
         </is>
       </c>
-      <c r="G290" s="8" t="n"/>
+      <c r="G290" s="21">
+        <f>== Methyldopa side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+Methyldopa may cause serious side effects. Call your doctor at once if you have:
+a light-headed feeling, like you might pass out;
+pale or yellowed skin, dark colored urine, fever, confusion or weakness;
+uncontrolled or involuntary muscle movements;
+heart problems--swelling, rapid weight gain, feeling short of breath; or
+signs of liver or pancreas problems--loss of appetite, upper stomach pain (that may spread to your back), nausea or vomiting, fast heart rate, dark urine, jaundice (yellowing of the skin or eyes).
+Common side effects of methyldopa may include:
+drowsiness;
+weakness; or
+headache.</f>
+        <v/>
+      </c>
       <c r="H290" s="8" t="n"/>
     </row>
     <row r="291" ht="16" customHeight="1" s="15">
@@ -9121,7 +11501,15 @@
           <t>https://www.drugs.com/minoxidil.html</t>
         </is>
       </c>
-      <c r="G291" s="10" t="n"/>
+      <c r="G291" s="20">
+        <f>== Minoxidil topical side effects ===
+Common minoxidil side effects
+Common minoxidil side effects may include changes in the color or texture of your hair.
+Serious minoxidil side effects
+Get emergency medical help if you have any of these signs of an allergic reaction: hives, difficulty breathing, swelling of your face, lips, tongue, or throat.
+Although the risk of serious side effects is low when minoxidil foam and solution is applied to the skin, side effects can occur if the medicine is absorbed into your bloodstream.</f>
+        <v/>
+      </c>
       <c r="H291" s="10" t="n"/>
     </row>
     <row r="292" ht="16" customHeight="1" s="15">
@@ -9139,7 +11527,23 @@
           <t>https://www.drugs.com/moexipril.html</t>
         </is>
       </c>
-      <c r="G292" s="8" t="n"/>
+      <c r="G292" s="21">
+        <f>== Moexipril side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; severe stomach pain; difficulty breathing; swelling of your face, lips, tongue, or throat.
+Moexipril may cause serious side effects. Call your doctor at once if you have:
+a light-headed feeling, like you might pass out;
+sudden weakness or ill feeling, fever, chills, sore throat, painful mouth sores, cough, trouble breathing;
+little or no urinating; or
+high potassium--nausea, slow or unusual heart rate, weakness, loss of movement.
+Common side effects of moexipril may include:
+cough, runny or stuffy nose;
+headache, dizziness, tired feeling;
+increased urination;
+diarrhea;
+muscle pain; or
+mild skin itching or rash.</f>
+        <v/>
+      </c>
       <c r="H292" s="8" t="n"/>
     </row>
     <row r="293" ht="16" customHeight="1" s="15">
@@ -9157,7 +11561,11 @@
           <t>https://www.drugs.com/moxifloxacin.html</t>
         </is>
       </c>
-      <c r="G293" s="10" t="n"/>
+      <c r="G293" s="20" t="inlineStr">
+        <is>
+          <t>❌ Could not find side effects link for moxifloxacin</t>
+        </is>
+      </c>
       <c r="H293" s="10" t="n"/>
     </row>
     <row r="294" ht="16" customHeight="1" s="15">
@@ -9175,7 +11583,18 @@
           <t>https://www.drugs.com/nabumetone.html</t>
         </is>
       </c>
-      <c r="G294" s="8" t="n"/>
+      <c r="G294" s="21">
+        <f>== Nabumetone side effects ===
+Get emergency medical help if you have signs of an allergic reaction (hives, sneezing, runny or stuffy nose, wheezing, difficult breathing, swelling in your face or throat) or a severe skin reaction (fever, sore throat, burning eyes, skin pain, red or purple skin rash with blistering and peeling).
+Get emergency medical help if you have signs of a heart attack or stroke: chest pain spreading to your jaw or shoulder, sudden numbness or weakness on one side of the body, slurred speech, feeling short of breath.
+Nabumetone may cause serious side effects. Stop using nabumetone and call your doctor at once if you have:
+shortness of breath (even with mild exertion);
+swelling or rapid weight gain;
+the first sign of any skin rash, no matter how mild;
+liver problems--nausea, upper stomach pain, itching, tired feeling, flu-like symptoms, loss of appetite, dark urine, clay-colored stools, jaundice (yellowing of the skin or eyes);
+Common side effects of nabumetone may include:</f>
+        <v/>
+      </c>
       <c r="H294" s="8" t="n"/>
     </row>
     <row r="295" ht="16" customHeight="1" s="15">
@@ -9193,7 +11612,23 @@
           <t>https://www.drugs.com/nadolol.html</t>
         </is>
       </c>
-      <c r="G295" s="10" t="n"/>
+      <c r="G295" s="20">
+        <f>== Nadolol side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficulty breathing; swelling of your face, lips, tongue, or throat.
+Nadolol may cause serious side effects. Call your doctor at once if you have:
+a light-headed feeling, like you might pass out;
+slow heartbeats;
+shortness of breath (even with mild exertion), swelling, rapid weight gain; or
+bronchospasm (wheezing, chest tightness, trouble breathing).
+Common side effects of nadolol may include:
+numbness or cold feeling in your hands or feet;
+dizziness;
+feeling tired;
+upset stomach, vomiting, diarrhea, constipation;
+vision problems; or
+mood changes, confusion, memory problems.</f>
+        <v/>
+      </c>
       <c r="H295" s="10" t="n"/>
     </row>
     <row r="296" ht="16" customHeight="1" s="15">
@@ -9211,7 +11646,20 @@
           <t>https://www.drugs.com/nimodipine.html</t>
         </is>
       </c>
-      <c r="G296" s="8" t="n"/>
+      <c r="G296" s="21">
+        <f>== Nimodipine side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+Nimodipine may cause serious side effects. Call your doctor at once if you have:
+a light-headed feeling, like you might pass out;
+fast or slow heart rate; or
+swelling in your ankles or feet.
+Common side effects of nimodipine may include:
+low blood pressure (feeling light-headed);
+nausea, upset stomach;
+slow heartbeats; or
+muscle pain.</f>
+        <v/>
+      </c>
       <c r="H296" s="8" t="n"/>
     </row>
     <row r="297" ht="16" customHeight="1" s="15">
@@ -9229,7 +11677,19 @@
           <t>https://www.drugs.com/nisoldipine.html</t>
         </is>
       </c>
-      <c r="G297" s="10" t="n"/>
+      <c r="G297" s="20">
+        <f>== Nisoldipine side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+Nisoldipine may cause serious side effects. Call your doctor at once if you have:
+a light-headed feeling, like you might pass out;
+chest pain or pressure, pain spreading to your jaw or shoulder;
+swelling in your hands or feet;
+flushing (sudden warmth, redness, or tingly feeling);
+fast heartbeats; or
+sudden numbness or weakness, problems with vision or speech.
+Common side effects of nisoldipine may include:</f>
+        <v/>
+      </c>
       <c r="H297" s="10" t="n"/>
     </row>
     <row r="298" ht="16" customHeight="1" s="15">
@@ -9247,7 +11707,17 @@
           <t>https://www.drugs.com/olmesartan.html</t>
         </is>
       </c>
-      <c r="G298" s="8" t="n"/>
+      <c r="G298" s="21">
+        <f>== Olmesartan side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+Olmesartan may cause serious side effects. Call your doctor at once if you have:
+a light-headed feeling, like you might pass out;
+little or no urination;
+severe diarrhea and weight loss; or
+high potassium level--nausea, weakness, tingly feeling, chest pain, irregular heartbeats, loss of movement.
+Common side effects of olmesartan may include:</f>
+        <v/>
+      </c>
       <c r="H298" s="8" t="n"/>
     </row>
     <row r="299" ht="16" customHeight="1" s="15">
@@ -9265,7 +11735,14 @@
           <t>https://www.drugs.com/omega-3.html</t>
         </is>
       </c>
-      <c r="G299" s="10" t="n"/>
+      <c r="G299" s="20">
+        <f>== Omega-3 side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives, difficult breathing, swelling of your face, lips, tongue, or throat.
+Omega-3 may cause serious side effects. Call your doctor at once if you have:
+chest pain; or
+uneven heartbeats.</f>
+        <v/>
+      </c>
       <c r="H299" s="10" t="n"/>
     </row>
     <row r="300" ht="16" customHeight="1" s="15">
@@ -9283,7 +11760,21 @@
           <t>https://www.drugs.com/oxaprozin.html</t>
         </is>
       </c>
-      <c r="G300" s="8" t="n"/>
+      <c r="G300" s="21">
+        <f>== Oxaprozin side effects ===
+Get emergency medical help if you have signs of an allergic reaction: (sneezing, runny or stuffy nose; wheezing, trouble breathing, hives, swelling of your face, lips, tongue, or throat) or a severe skin reaction (fever, sore throat, burning eyes, skin pain, red or purple skin rash with blistering and peeling).
+Seek medical treatment if you have a serious drug reaction that can affect many parts of your body. Symptoms may include skin rash, fever, swollen glands, muscle aches, severe weakness, unusual bruising, or yellowing of your skin or eyes.
+Get emergency medical help if you have signs of a heart attack or stroke: chest pain spreading to your jaw or shoulder, sudden numbness or weakness on one side of the body, slurred speech, leg swelling, or feeling short of breath.
+Oxaprozin may cause serious side effects. Stop using oxaprozin and call your doctor at once if you have:
+any skin rash, no matter how mild, or a patchy skin color that worsens in sunlight;
+flu-like symptoms;
+severe headache, blurred vision, pounding in your neck or ears;
+heart problems--swelling, rapid weight gain, feeling short of breath;
+liver problems--diarrhea, loss of appetite, nausea, vomiting, stomach pain (upper right side), tiredness, itching, dark urine, clay-colored stools, jaundice (yellowing of the skin or eyes);
+kidney problems--swelling, urinating less, feeling tired or short of breath;
+high blood potassium--nausea, weakness, tingly feeling, chest pain, irregular heartbeats, loss of movement; or</f>
+        <v/>
+      </c>
       <c r="H300" s="8" t="n"/>
     </row>
     <row r="301" ht="32" customHeight="1" s="15">
@@ -9301,7 +11792,26 @@
           <t>https://www.drugs.com/penicillin-g-potassium.html</t>
         </is>
       </c>
-      <c r="G301" s="10" t="n"/>
+      <c r="G301" s="20">
+        <f>== Penicillin G potassium side effects ===
+Get emergency medical help if you have any of these signs of an allergic reaction: hives; difficulty breathing; swelling of your face, lips, tongue, or throat.
+Penicillin G potassium may cause serious side effects. Call your doctor at once if you have:
+the first sign of any skin rash, no matter how mild;
+red or scaly skin;
+fever, chills, swollen glands, muscle or joint pain, fast heartbeats, general ill feeling;
+a light-headed feeling, like you might pass out;
+severe stomach pain, diarrhea that is watery or bloody;
+little or no urinating;
+bruising, severe tingling, numbness, pain, muscle weakness;
+seizure (convulsions); or
+unusual changes in mood or behavior.
+Common side effects of penicillin G potassium may include:
+mild diarrhea;
+headache;
+black or hairy tongue; or
+pain, swelling, bruising, or irritation around the IV needle.</f>
+        <v/>
+      </c>
       <c r="H301" s="10" t="n"/>
     </row>
     <row r="302" ht="16" customHeight="1" s="15">
@@ -9319,7 +11829,25 @@
           <t>https://www.drugs.com/penicillin-g-sodium.html</t>
         </is>
       </c>
-      <c r="G302" s="8" t="n"/>
+      <c r="G302" s="21">
+        <f>== Penicillin G sodium side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives, itching; feeling like you might pass out; difficulty breathing; swelling of your face, lips, tongue, or throat.
+Penicillin G sodium may cause serious side effects. Call your doctor at once if you have:
+severe stomach pain, diarrhea that is watery or bloody;
+fever, chills, swollen glands, skin sores, muscle pain, feeling short of breath, warmth or redness under your skin, severe dizziness;
+white patches or sores inside your mouth or on your lips;
+easy bruising, skin rash, unusual bleeding, pale or yellowed skin, severe tingling, numbness, muscle weakness;
+red or pink urine, dark colored urine;
+swelling in your hands or feet;
+muscle twitching, seizures (convulsions); or
+signs of an electrolyte imbalance--dry mouth, increased thirst, mood changes, confusion, stomach pain, vomiting, muscle pain or weakness, lack of energy, irregular heartbeats, dark urine.
+Common side effects of penicillin G sodium may include:
+mild diarrhea;
+nausea, vomiting;
+black or hairy tongue; or
+pain, swelling, bruising, or irritation around the IV needle.</f>
+        <v/>
+      </c>
       <c r="H302" s="8" t="n"/>
     </row>
     <row r="303" ht="16" customHeight="1" s="15">
@@ -9337,7 +11865,25 @@
           <t>https://www.drugs.com/pentamidine.html</t>
         </is>
       </c>
-      <c r="G303" s="10" t="n"/>
+      <c r="G303" s="20">
+        <f>== Pentamidine side effects ===
+Get emergency medical help if you have any of these signs of an allergic reaction: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+Pentamidine may cause serious side effects. Call your doctor at once if you have:
+wheezing, choking, or other breathing problems after using this medication with a nebulizer;
+a light-headed feeling, like you might pass out;
+fast or uneven heart rate;
+painful or difficult urination;
+confusion, hallucinations;
+pain, burning, irritation, or skin changes where the injection was given;
+worsening symptoms, or signs of a new infection (fever, cough, trouble breathing, night sweats);
+pancreatitis--severe pain in your upper stomach spreading to your back, nausea and vomiting;
+low blood sugar--headache, hunger, weakness, sweating, confusion, irritability, dizziness, or feeling jittery; or
+severe skin reaction--fever, sore throat, swelling in your face or tongue, burning in your eyes, skin pain, followed by a red or purple skin rash that spreads (especially in the face or upper body) and causes blistering and peeling.
+Common side effects of pentamidine may include:
+loss of appetite; or
+unusual or unpleasant taste in the mouth.</f>
+        <v/>
+      </c>
       <c r="H303" s="10" t="n"/>
     </row>
     <row r="304" ht="16" customHeight="1" s="15">
@@ -9355,7 +11901,23 @@
           <t>https://www.drugs.com/perindopril.html</t>
         </is>
       </c>
-      <c r="G304" s="8" t="n"/>
+      <c r="G304" s="21">
+        <f>== Perindopril side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; severe stomach pain; difficulty breathing; swelling of your face, lips, tongue, or throat. You may be more likely to have an allergic reaction if you are African-American.
+Perindopril may cause serious side effects. Call your doctor at once if you have:
+a light-headed feeling, like you might pass out;
+fever, chills, body aches, flu symptoms, sores in your mouth and throat;
+little or no urination;
+swelling, rapid weight gain;
+high potassium--nausea, slow or unusual heart rate, weakness, loss of movement;
+pale skin, easy bruising or bleeding; or
+jaundice (yellowing of the skin or eyes).
+Common side effects of perindopril may include:
+dizziness;
+back pain; or
+cough.</f>
+        <v/>
+      </c>
       <c r="H304" s="8" t="n"/>
     </row>
     <row r="305" ht="16" customHeight="1" s="15">
@@ -9373,7 +11935,22 @@
           <t>https://www.drugs.com/phenelzine.html</t>
         </is>
       </c>
-      <c r="G305" s="10" t="n"/>
+      <c r="G305" s="20">
+        <f>== Phenelzine side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficulty breathing; swelling of your face, lips, tongue, or throat.
+Report any new or worsening symptoms to your doctor, such as: mood or behavior changes, anxiety, panic attacks, trouble sleeping, or if you feel impulsive, irritable, agitated, hostile, aggressive, restless, hyperactive (mentally or physically), more depressed, or have thoughts about suicide or hurting yourself.
+Phenelzine may cause serious side effects. Call your doctor at once if you have:
+sudden and severe headache, neck pain or stiffness;
+pounding heartbeats or fluttering in your chest;
+fast or slow heartbeats;
+chest pain;
+a light-headed feeling, like you might pass out;
+sweating (sometimes with fever and sometimes with cold, clammy skin);
+nausea, vomiting; or
+dilated pupils (your eyes may be more sensitive to light).
+Common side effects of phenelzine may include:</f>
+        <v/>
+      </c>
       <c r="H305" s="10" t="n"/>
     </row>
     <row r="306" ht="32" customHeight="1" s="15">
@@ -9391,7 +11968,15 @@
           <t>https://www.drugs.com/phentermine-/-topiramate.html</t>
         </is>
       </c>
-      <c r="G306" s="8" t="n"/>
+      <c r="G306" s="21">
+        <f>== Phentermine / Topiramate Side Effects ===
+Medically reviewed by Drugs.com. Last updated on Jun 13, 2025.
+Other side effects
+Serious side effects
+Professional info
+Applies to phentermine / topiramate: oral capsule extended release.</f>
+        <v/>
+      </c>
       <c r="H306" s="8" t="n"/>
     </row>
     <row r="307" ht="32" customHeight="1" s="15">
@@ -9409,7 +11994,19 @@
           <t>https://www.drugs.com/phentermine-and-topiramate.html</t>
         </is>
       </c>
-      <c r="G307" s="10" t="n"/>
+      <c r="G307" s="20">
+        <f>== Phentermine and topiramate side effects ===
+Get emergency medical help if you have signs of an allergic reaction (hives, difficult breathing, swelling in your face or throat) or a severe skin reaction (fever, sore throat, burning eyes, skin pain, red or purple skin rash with blistering and peeling).
+Report any new or worsening symptoms to your doctor, such as: mood or behavior changes, anxiety, panic attacks, trouble sleeping, or if you feel impulsive, irritable, agitated, hostile, aggressive, restless, hyperactive (mentally or physically), depressed, or have thoughts about suicide or hurting yourself.
+Phentermine and topiramate may cause serious side effects. Call your doctor at once if you have:
+unusual changes in mood or behavior;
+confusion, trouble concentrating, problems with speech or memory;
+fast or pounding heartbeats while you are resting;
+a seizure;
+signs of a kidney stone--severe pain in your side or lower back, painful or difficult urination; or
+Common side effects of phentermine and topiramate may include:</f>
+        <v/>
+      </c>
       <c r="H307" s="10" t="n"/>
     </row>
     <row r="308" ht="32" customHeight="1" s="15">
@@ -9427,7 +12024,15 @@
           <t>https://www.drugs.com/piperacillin-/-tazobactam.html</t>
         </is>
       </c>
-      <c r="G308" s="8" t="n"/>
+      <c r="G308" s="21">
+        <f>== Piperacillin / Tazobactam Side Effects ===
+Medically reviewed by Drugs.com. Last updated on Feb 9, 2025.
+Serious side effects
+Other side effects
+Professional info
+Applies to piperacillin / tazobactam: intravenous powder for solution, intravenous solution.</f>
+        <v/>
+      </c>
       <c r="H308" s="8" t="n"/>
     </row>
     <row r="309" ht="16" customHeight="1" s="15">
@@ -9445,7 +12050,18 @@
           <t>https://www.drugs.com/pitavastatin.html</t>
         </is>
       </c>
-      <c r="G309" s="10" t="n"/>
+      <c r="G309" s="20">
+        <f>== Pitavastatin side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives, difficult breathing, swelling of your face, lips, tongue, or throat.
+Pitavastatin can cause the breakdown of muscle tissue, which can lead to kidney failure. Call your doctor right away if you have unexplained muscle pain, tenderness, or weakness especially if you also have fever, unusual tiredness, or dark urine.
+Also call your doctor at once if you have:
+trouble lifting your arms or standing;
+abnormal liver function tests;
+liver problems--loss of appetite, nausea, vomiting, stomach pain (upper right side), tiredness, itching, dark urine, clay-colored stools, jaundice (yellowing of the skin or eyes); or
+high blood sugar--increased thirst, increased urination, dry mouth, fruity breath odor.
+Common side effects of pitavastatin may include:</f>
+        <v/>
+      </c>
       <c r="H309" s="10" t="n"/>
     </row>
     <row r="310" ht="16" customHeight="1" s="15">
@@ -9463,7 +12079,19 @@
           <t>https://www.drugs.com/prasugrel.html</t>
         </is>
       </c>
-      <c r="G310" s="8" t="n"/>
+      <c r="G310" s="21">
+        <f>== Prasugrel side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; dizziness, chest pain, difficulty breathing; swelling of your face, lips, tongue, or throat.
+Prasugrel increases your risk of bleeding, which can be severe or life-threatening.
+Prasugrel may cause serious side effects. Call your doctor at once if you have:
+a light-headed feeling, like you might pass out;
+any bleeding that will not stop;
+pink or brown urine;
+signs of a serious blood-clotting problem--pale skin, purple spots under your skin or on your mouth, fever, fast heart rate, weakness, stomach pain, trouble breathing, jaundice (yellowing of the skin or eyes);
+signs of a stroke--sudden numbness or weakness (especially on one side of the body), sudden severe headache, slurred speech, problems with vision or balance.
+The risk of bleeding is higher in older adults.</f>
+        <v/>
+      </c>
       <c r="H310" s="8" t="n"/>
     </row>
     <row r="311" ht="16" customHeight="1" s="15">
@@ -9481,7 +12109,17 @@
           <t>https://www.drugs.com/prazosin.html</t>
         </is>
       </c>
-      <c r="G311" s="10" t="n"/>
+      <c r="G311" s="20">
+        <f>== Prazosin side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficulty breathing; swelling of your face, lips, tongue, or throat.
+Prazosin may cause serious side effects. Call your doctor at once if you have:
+a light-headed feeling, like you might pass out;
+pounding heartbeats or fluttering in your chest;
+new or worsening chest pain; or
+Call your doctor or seek emergency medical attention if your erection is painful or lasts longer than 4 hours. A prolonged erection (priapism) can damage the penis.
+Common side effects of prazosin may include:</f>
+        <v/>
+      </c>
       <c r="H311" s="10" t="n"/>
     </row>
     <row r="312" ht="16" customHeight="1" s="15">
@@ -9499,7 +12137,21 @@
           <t>https://www.drugs.com/primaquine.html</t>
         </is>
       </c>
-      <c r="G312" s="8" t="n"/>
+      <c r="G312" s="21">
+        <f>== Primaquine side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+Stop taking primaquine and call your doctor at once if you have:
+fever;
+dark colored urine;
+pale or yellowed skin; or
+confusion or weakness.
+Common side effects of primaquine may include:
+nausea, vomiting, stomach cramps;
+irregular heartbeats;
+rash; or
+dizziness.</f>
+        <v/>
+      </c>
       <c r="H312" s="8" t="n"/>
     </row>
     <row r="313" ht="16" customHeight="1" s="15">
@@ -9517,7 +12169,28 @@
           <t>https://www.drugs.com/probenecid.html</t>
         </is>
       </c>
-      <c r="G313" s="10" t="n"/>
+      <c r="G313" s="20">
+        <f>== Probenecid side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficulty breathing; swelling of your face, lips, tongue, or throat.
+Probenecid may cause serious side effects. Call your doctor at once if you have:
+worsening gout symptoms;
+nausea, vomiting, stomach pain or swelling;
+painful or difficult urination;
+severe pain in your side or lower back;
+blood in your urine;
+urine that looks cloudy or foamy;
+puffy eyes, swelling in your ankles or feet, weight gain; or
+pale or yellowed skin.
+Common side effects of probenecid may include:
+headache, dizziness;
+nausea, vomiting, loss of appetite;
+flushing (sudden warmth, redness, or tingly feeling);
+sore gums;
+urinating more than usual;
+itching, rash; or
+hair loss.</f>
+        <v/>
+      </c>
       <c r="H313" s="10" t="n"/>
     </row>
     <row r="314" ht="16" customHeight="1" s="15">
@@ -9535,7 +12208,23 @@
           <t>https://www.drugs.com/pyrimethamine.html</t>
         </is>
       </c>
-      <c r="G314" s="8" t="n"/>
+      <c r="G314" s="21">
+        <f>== Pyrimethamine side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+Pyrimethamine may cause serious side effects. Stop using pyrimethamine and call your doctor at once if you have:
+sore throat, swelling in your tongue;
+pale skin, easy bruising, purple spots under your skin;
+the first sign of any skin rash, no matter how mild;
+blood in your urine;
+fever, cold or flu symptoms;
+new or worsening cough, fever, trouble breathing;
+irregular heartbeats;
+severe skin reaction--fever, sore throat, swelling in your face or tongue, burning in your eyes, skin pain, followed by a red or purple skin rash that spreads (especially in the face or upper body) and causes blistering and peeling.
+Common side effects of pyrimethamine may include:
+vomiting; or
+loss of appetite.</f>
+        <v/>
+      </c>
       <c r="H314" s="8" t="n"/>
     </row>
     <row r="315" ht="16" customHeight="1" s="15">
@@ -9553,7 +12242,23 @@
           <t>https://www.drugs.com/quinapril.html</t>
         </is>
       </c>
-      <c r="G315" s="10" t="n"/>
+      <c r="G315" s="20">
+        <f>== Quinapril side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives, difficult breathing, swelling of your face, lips, tongue, or throat.
+Quinapril may cause serious side effects. Call your doctor at once if you have:
+chest pain, fast, slow, or uneven heart rate;
+a light-headed feeling, like you might pass out;
+heart problems--swelling, rapid weight gain, feeling short of breath;
+kidney problems--swelling, urinating less, feeling tired or short of breath;
+signs of infection--fever, chills, sore throat, body aches, unusual tiredness, loss of appetite, bruising or bleeding; or
+high blood potassium--nausea, weakness, tingly feeling, chest pain, irregular heartbeats, loss of movement.
+Common side effects of quinapril may include:
+headache;
+nausea, vomiting, stomach pain;
+cough; or
+dizziness, tiredness.</f>
+        <v/>
+      </c>
       <c r="H315" s="10" t="n"/>
     </row>
     <row r="316" ht="16" customHeight="1" s="15">
@@ -9571,7 +12276,20 @@
           <t>https://www.drugs.com/rifampin.html</t>
         </is>
       </c>
-      <c r="G316" s="8" t="n"/>
+      <c r="G316" s="21">
+        <f>== Rifampin side effects ===
+Get emergency medical help if you have signs of an allergic reaction (hives, rash, feeling light-headed, wheezing, difficult breathing, swelling in your face or throat) or a severe skin reaction (fever, sore throat, burning in your eyes, skin pain, red or purple skin rash that spreads and causes blistering and peeling).
+Seek medical treatment if you have a serious drug reaction that can affect many parts of your body. Symptoms may include: skin rash, fever, swollen glands, muscle aches, severe weakness, unusual bruising, or yellowing of your skin or eyes.
+Rifampin may cause serious side effects. Call your doctor at once if you have:
+severe stomach pain, diarrhea that is watery or bloody;
+chest pain, cough, shortness of breath;
+a light-headed feeling, like you might pass out;
+easy bruising, unusual bleeding (nosebleeds, bleeding gums);
+pounding heartbeats or fluttering in your chest;
+flu symptoms--fever, chills, body aches, headache, weakness, nausea, vomiting; or
+Common side effects of rifampin may include:</f>
+        <v/>
+      </c>
       <c r="H316" s="8" t="n"/>
     </row>
     <row r="317" ht="16" customHeight="1" s="15">
@@ -9589,7 +12307,11 @@
           <t>https://www.drugs.com/rivaroxaban.html</t>
         </is>
       </c>
-      <c r="G317" s="10" t="n"/>
+      <c r="G317" s="20" t="inlineStr">
+        <is>
+          <t>❌ Lost connection while navigating to side effects page for rivaroxaban</t>
+        </is>
+      </c>
       <c r="H317" s="10" t="n"/>
     </row>
     <row r="318" ht="16" customHeight="1" s="15">
@@ -9607,7 +12329,24 @@
           <t>https://www.drugs.com/rivastigmine.html</t>
         </is>
       </c>
-      <c r="G318" s="8" t="n"/>
+      <c r="G318" s="21">
+        <f>== Rivastigmine side effects ===
+Get emergency medical help if you have signs of an allergic reaction: hives; difficult breathing; swelling of your face, lips, tongue, or throat.
+Rivastigmine may cause serious side effects. Call your doctor at once if you have:
+severe or ongoing vomiting or diarrhea, loss of appetite, weight loss;
+bloody or tarry stools, cough with bloody mucus or vomit that looks like coffee grounds;
+a light-headed feeling, like you might pass out;
+tremors (uncontrolled shaking), restless muscle movements in your eyes, tongue, jaw, or neck;
+seizure (convulsions);
+painful or difficult urination;
+severe skin redness, itching, or irritation; or
+dehydration symptoms--feeling very thirsty or hot, being unable to urinate, heavy sweating, or hot and dry skin.
+Common side effects of rivastigmine may include:
+upset stomach, nausea, vomiting;
+loss of appetite; or
+weakness.</f>
+        <v/>
+      </c>
       <c r="H318" s="8" t="n"/>
     </row>
     <row r="319" ht="16" customHeight="1" s="15">
@@ -9625,7 +12364,25 @@
           <t>https://www.drugs.com/roflumilast.html</t>
         </is>
       </c>
-      <c r="G319" s="10" t="n"/>
+      <c r="G319" s="20">
+        <f>== Roflumilast side effects ===
+Common roflumilast cream side effects
+The most common roflumilast cream 0.3% side effects include
+Diarrhea (3.1%)
+Headache (2.4%)
+Insomnia (1.4%)
+Nausea (1.2%)
+Application site pain(1.0%)
+Upper respiratory infections (1.0%)
+Urinary tract infections (1.0%)
+The most common roflumilast cream 0.15% side effects for atopic dermatitis are
+Headache (2.9%)
+Nausea (1.9%)
+Application site pain(1.5%)
+Diarrhea (1.5%)
+Vomiting (1.5%)</f>
+        <v/>
+      </c>
       <c r="H319" s="10" t="n"/>
     </row>
     <row r="320" ht="16" customHeight="1" s="15">

--- a/Analysis/main_diseases_analysis_final.xlsx
+++ b/Analysis/main_diseases_analysis_final.xlsx
@@ -3211,10 +3211,10 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="30" customWidth="1" min="1" max="1"/>
-    <col width="40" customWidth="1" min="2" max="2"/>
-    <col width="35" customWidth="1" min="3" max="3"/>
+    <col width="45" customWidth="1" min="2" max="2"/>
+    <col width="40" customWidth="1" min="3" max="3"/>
     <col width="35" customWidth="1" min="4" max="4"/>
-    <col width="25" customWidth="1" min="5" max="5"/>
+    <col width="35" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1">
@@ -3275,22 +3275,22 @@
       </c>
       <c r="B8" s="13" t="inlineStr">
         <is>
+          <t>WHAT IS</t>
+        </is>
+      </c>
+      <c r="C8" s="13" t="inlineStr">
+        <is>
           <t>SIDE EFFECTS</t>
         </is>
       </c>
-      <c r="C8" s="13" t="inlineStr">
+      <c r="D8" s="13" t="inlineStr">
         <is>
           <t>CALL A DOCTOR IF</t>
         </is>
       </c>
-      <c r="D8" s="13" t="inlineStr">
+      <c r="E8" s="13" t="inlineStr">
         <is>
           <t>GO TO ER IF</t>
-        </is>
-      </c>
-      <c r="E8" s="13" t="inlineStr">
-        <is>
-          <t>DOSAGE</t>
         </is>
       </c>
     </row>
@@ -6915,7 +6915,7 @@
     <row r="340">
       <c r="A340" s="16" t="inlineStr">
         <is>
-          <t>Next Steps: Populate columns B-E with FDA/Drugs.com data</t>
+          <t>Next Steps: Populate columns B-E with medication data (What Is, Side Effects, Call Doctor, Go to ER)</t>
         </is>
       </c>
     </row>

--- a/Analysis/main_diseases_analysis_final.xlsx
+++ b/Analysis/main_diseases_analysis_final.xlsx
@@ -2407,10 +2407,26 @@
           <t>5-HTP Mood and Stress</t>
         </is>
       </c>
-      <c r="B9" s="15" t="inlineStr"/>
-      <c r="C9" s="15" t="inlineStr"/>
-      <c r="D9" s="15" t="inlineStr"/>
-      <c r="E9" s="15" t="inlineStr"/>
+      <c r="B9" s="15" t="inlineStr">
+        <is>
+          <t>5-HTP Mood and Stress is a natural product used in alternative medicine. While it's been shown to be possibly effective in treating depression, its efficacy in other uses including anxiety, Down syndrome, alcohol withdrawal, Alzheimer's disease, headaches, attention deficit disorder, muscle spasms in the mouth, fibromyalgia, premenstrual syndrome, seizures, weight loss, Parkinson's disease, and sleep disorders lacks sufficient research to confirm effectiveness. This information is for educational purposes only and is not intended for medical advice, diagnosis, or treatment.</t>
+        </is>
+      </c>
+      <c r="C9" s="15" t="inlineStr">
+        <is>
+          <t>* Allergic reaction: hives, difficult breathing, swelling of face, lips, tongue, or throat. * Serotonin syndrome: agitation, hallucinations, fever, sweating, shivering, fast heart rate, muscle stiffness, twitching, loss of coordination, nausea, vomiting, diarrhea. * Skin rash * Bruising * Headache * Dizziness * Weakness * Severe vomiting * Stomach pain * Heartburn * Diarrhea * Constipation * Slow heart rate * Feeling like you might pass out * Racing thoughts * Increased energy * Decreased need for sleep * Risk-taking behavior * Agitation * Talkativeness</t>
+        </is>
+      </c>
+      <c r="D9" s="15" t="inlineStr">
+        <is>
+          <t>* Your symptoms do not improve or worsen. * You are considering surgery (stop taking 5-HTP at least 2 weeks prior). * You experience any of the listed side effects. * You are using stimulant medicine, opioid medicine, herbal products, or medicine for depression, mental illness, Parkinson's disease, migraine headaches, serious infections, or prevention of nausea and vomiting (due to potential serotonin syndrome interaction).</t>
+        </is>
+      </c>
+      <c r="E9" s="15" t="inlineStr">
+        <is>
+          <t>* You have signs of an allergic reaction (hives, difficult breathing, swelling of face, lips, tongue, or throat). * You have symptoms of serotonin syndrome (agitation, hallucinations, fever, sweating, shivering, fast heart rate, muscle stiffness, twitching, loss of coordination, nausea, vomiting, or diarrhea). * You experience an overdose (contact Poison Help line at 1-800-222-1222).</t>
+        </is>
+      </c>
       <c r="F9" s="15" t="inlineStr">
         <is>
           <t>Depression (major depressive disorder)</t>
@@ -2423,10 +2439,26 @@
           <t>A-G Profen</t>
         </is>
       </c>
-      <c r="B10" s="11" t="inlineStr"/>
-      <c r="C10" s="11" t="inlineStr"/>
-      <c r="D10" s="11" t="inlineStr"/>
-      <c r="E10" s="11" t="inlineStr"/>
+      <c r="B10" s="11" t="inlineStr">
+        <is>
+          <t>A-G Profen (presumed to be an ibuprofen-based medication) is a nonsteroidal anti-inflammatory drug (NSAID) used to treat mild to moderate pain and the symptoms of arthritis (osteoarthritis, rheumatoid arthritis, or juvenile arthritis), such as inflammation, swelling, stiffness, and joint pain. It can also be used to treat fever and menstrual cramps, as directed by a doctor. This medication does not cure arthritis; its effects last only as long as it is taken. Dosage for children under 2 years old is determined by body weight and temperature and should be prescribed by a doctor.</t>
+        </is>
+      </c>
+      <c r="C10" s="11" t="inlineStr">
+        <is>
+          <t>* Increased risk of serious cardiovascular thrombotic events, myocardial infarction, and stroke (potentially fatal) * Increased risk of serious gastrointestinal adverse events (especially in the elderly), including bleeding, ulceration, and perforation of the stomach or intestines (potentially fatal) * Bleeding in the stomach or intestines (may occur without warning signs) * Serious skin reactions (blistering, peeling, loosening of skin, chills, cough, diarrhea, fever, itching, joint or muscle pain, red skin lesions, sore throat, sores, ulcers, white spots in mouth or on lips, unusual tiredness or weakness) * Edema (fluid retention or body swelling) * Stomach or intestinal ulcers or bleeding * Nausea * Vomiting * Abdominal pain * Acid or sour stomach * Belching * Bloating * Cloudy urine * Decrease in amount of urine * Decrease in urine output or decrease in urine-concentrating ability * Diarrhea * Difficulty having a bowel movement * Excess air or gas in stomach or intestines * Full feeling * Heartburn * Indigestion * Itching skin * Pain or discomfort in chest, upper stomach, or throat * Pale skin * Passing gas * Noisy, rattling breathing * Rash with flat lesions or small raised lesions on the skin * Shortness of breath * Swelling of face, fingers, hands, feet, lower legs, or ankles * Troubled breathing at rest * Troubled breathing with exertion * Unusual bleeding or bruising * Unusual tiredness or weakness * Weight gain * Anaphylaxis (rare, but may be more common in patients allergic to aspirin or other NSAIDs): very fast or irregular breathing, gasping for breath, wheezing, fainting, changes in skin color of the face, very fast but irregular heartbeat or pulse, hive-like swellings on the skin, puffiness or swelling of the eyelids or around the eyes. * Symptoms of meningitis (fever, headache, nausea, vomiting, stiff neck or back) * Swelling of the face, fingers, feet, and/or lower legs * Severe stomach pain * Black, tarry stools * Vomiting of blood or material that... [truncated]</t>
+        </is>
+      </c>
+      <c r="D10" s="11" t="inlineStr">
+        <is>
+          <t>* You experience any unusual or allergic reaction to the medicine or any other medicine. * You have any other allergies (foods, dyes, preservatives, or animals). * You have age-related kidney problems (especially if elderly). * You are taking other medications (especially steroids or blood thinners). * You experience any of the following symptoms: blistering, peeling, loosening of skin, chills, cough, diarrhea, fever, itching, joint or muscle pain, red skin lesions, sore throat, sores, ulcers, white spots in mouth or on lips, unusual tiredness or weakness. * You notice swelling of the face, fingers, feet, and/or lower legs; severe stomach pain, black, tarry stools, and/or vomiting of blood or material that looks like coffee grounds; unusual weight gain; yellow skin or eyes; decreased urination; bleeding or bruising; and/or skin rash. * You notice signs of serious heart problems such as chest pain, tightness in chest, fast or irregular heartbeat, unusual flushing or warmth of skin, weakness, or slurring of speech. * You develop fever, headache, nausea, vomiting, and stiff neck or back. * You experience any of the listed side effects (see SIDE EFFECTS section).</t>
+        </is>
+      </c>
+      <c r="E10" s="11" t="inlineStr">
+        <is>
+          <t>* You experience anaphylaxis: very fast or irregular breathing, gasping for breath, wheezing, fainting, changes in skin color of the face, very fast but irregular heartbeat or pulse, hive-like swellings on the skin, puffiness or swelling of the eyelids or around the eyes.</t>
+        </is>
+      </c>
       <c r="F10" s="11" t="inlineStr">
         <is>
           <t>Arthritis</t>
@@ -2439,10 +2471,26 @@
           <t>Achromycin V</t>
         </is>
       </c>
-      <c r="B11" s="15" t="inlineStr"/>
-      <c r="C11" s="15" t="inlineStr"/>
-      <c r="D11" s="15" t="inlineStr"/>
-      <c r="E11" s="15" t="inlineStr"/>
+      <c r="B11" s="15" t="inlineStr">
+        <is>
+          <t>Achromycin V (Tetracycline HCl Capsules, USP) is an antibiotic in the tetracycline class. It works by inhibiting protein synthesis in bacteria, making it effective against a wide range of gram-negative and gram-positive organisms. It's used to treat various bacterial infections, including those of the upper and lower respiratory tract, skin and soft tissues, urinary tract, and infections caused by specific bacteria like *Chlamydia trachomatis*, *Rickettsia*, and others. It's also used as an alternative to penicillin in certain infections when penicillin is contraindicated. Importantly, Achromycin V should only be used to treat infections proven or strongly suspected to be bacterial. It is not effective against viral infections.</t>
+        </is>
+      </c>
+      <c r="C11" s="15" t="inlineStr">
+        <is>
+          <t>* **Gastrointestinal:** anorexia, nausea, epigastric distress, vomiting, diarrhea, glossitis, black hairy tongue, dysphagia, enterocolitis, inflammatory lesions (with monilial overgrowth) in the anogenital region. * **Teeth:** permanent discoloration (yellow-gray-brown), enamel hypoplasia (especially during tooth development last half of pregnancy, infancy, and childhood to age 8). * **Skin:** maculopapular and erythrematous rashes, exfoliative dermatitis (uncommon), onycholysis, discoloration of nails, photosensitivity (exaggerated sunburn reaction). * **Hypersensitivity Reactions:** urticaria, angioneurotic edema, anaphylaxis, anaphylactoid purpura, pericarditis, exacerbation of systemic lupus erythematosus, serum sickness-like reactions (fever, rash, arthralgia). * **Other:** bulging fontanels in infants, intracranial pressure in adults, decreased fibula growth rate in premature infants (reversible upon discontinuation), overgrowth of nonsusceptible organisms (including fungi superinfection).</t>
+        </is>
+      </c>
+      <c r="D11" s="15" t="inlineStr">
+        <is>
+          <t>* You experience any of the listed side effects. * You develop a superinfection (overgrowth of nonsusceptible organisms). * You have renal impairment and need dosage adjustment. * You are pregnant, breastfeeding, or considering becoming pregnant (due to potential for tooth discoloration and other effects on the developing fetus/infant). * You are treating a streptococcal infection; treatment should last at least 10 days. * You have symptoms that don't improve or worsen after 24-48 hours of treatment. * You have an allergic reaction. * You develop skin erythema (redness) from photosensitivity.</t>
+        </is>
+      </c>
+      <c r="E11" s="15" t="inlineStr">
+        <is>
+          <t>* You experience a severe allergic reaction (anaphylaxis, angioedema). * You experience severe or life-threatening symptoms (e.g., difficulty breathing, severe rash). * No specific information regarding situations requiring immediate ER visit is explicitly stated but severe allergic reactions and life-threatening symptoms would warrant immediate medical attention.</t>
+        </is>
+      </c>
       <c r="F11" s="15" t="inlineStr">
         <is>
           <t>Arthritis</t>
@@ -2455,10 +2503,26 @@
           <t>Actimmune</t>
         </is>
       </c>
-      <c r="B12" s="11" t="inlineStr"/>
-      <c r="C12" s="11" t="inlineStr"/>
-      <c r="D12" s="11" t="inlineStr"/>
-      <c r="E12" s="11" t="inlineStr"/>
+      <c r="B12" s="11" t="inlineStr">
+        <is>
+          <t>Actimmune is a medication made from human proteins (interferons) that help the body fight viral infections. It's primarily used to prevent serious infections in individuals with chronic granulomatous disease and to slow the progression of malignant osteopetrosis (a bone disorder).</t>
+        </is>
+      </c>
+      <c r="C12" s="11" t="inlineStr">
+        <is>
+          <t>* Allergic reactions: hives, difficulty breathing, swelling of the face, lips, tongue, or throat * Seizures (convulsions) * Low blood cell counts: fever, chills, flu-like symptoms, swollen gums, mouth sores, skin sores, easy bruising, unusual bleeding * Kidney problems: little or no urination, painful or difficult urination, swelling in the feet or ankles, feeling tired or short of breath * Confusion * Hallucinations * Increased risk of infection due to lowered blood cell counts * Increased risk of bleeding due to lowered blood cell counts * Dizziness * Loss of balance or coordination * Flu-like symptoms (can be associated with low blood cell counts or overdose)</t>
+        </is>
+      </c>
+      <c r="D12" s="11" t="inlineStr">
+        <is>
+          <t>* You experience unusual bruising or bleeding. * You experience signs of infection (fever, chills, body aches). * You have any of the following serious side effects: * Seizures (convulsions) * Low blood cell counts (with associated symptoms) * Kidney problems (with associated symptoms) * Confusion * Hallucinations * You experience any side effects that concern you.</t>
+        </is>
+      </c>
+      <c r="E12" s="11" t="inlineStr">
+        <is>
+          <t>* You have signs of an allergic reaction: hives, difficulty breathing, swelling of your face, lips, tongue, or throat.</t>
+        </is>
+      </c>
       <c r="F12" s="11" t="inlineStr">
         <is>
           <t>Chronic kidney disease</t>
@@ -2471,10 +2535,26 @@
           <t>Activase</t>
         </is>
       </c>
-      <c r="B13" s="15" t="inlineStr"/>
-      <c r="C13" s="15" t="inlineStr"/>
-      <c r="D13" s="15" t="inlineStr"/>
-      <c r="E13" s="15" t="inlineStr"/>
+      <c r="B13" s="15" t="inlineStr">
+        <is>
+          <t>Activase is a prescription medication. While the provided text does not specify its use, it strongly implies it's a medication with a significant risk of bleeding as a side effect. Further information regarding its specific indications and uses would be needed from additional reliable sources.</t>
+        </is>
+      </c>
+      <c r="C13" s="15" t="inlineStr">
+        <is>
+          <t>* Allergic reaction: hives, difficult breathing, swelling of the face, lips, tongue, or throat. * Bleeding (internal and external): This can be severe or fatal. Bleeding may occur from surgical incisions, needle insertion sites, or internally (stomach, intestines, kidneys, bladder, brain, muscles). * Sudden headache * Feeling very weak or dizzy * Bleeding gums * Nosebleeds * Easy bruising * Bleeding from a wound, incision, catheter, or needle injection * Bloody or tarry stools * Coughing up blood or vomit that looks like coffee grounds * Red or pink urine * Heavy menstrual periods or abnormal vaginal bleeding * Sudden numbness or weakness (especially on one side of the body) * Slurred speech * Problems with vision or balance * Chest pain or heavy feeling, pain spreading to the jaw or shoulder, nausea, sweating, general ill feeling * Swelling * Rapid weight gain * Little or no urination * Severe stomach pain * Nausea and vomiting * Increased blood pressure (severe headache, blurred vision, pounding in your neck or ears, anxiety, nosebleed) * Pancreatitis (severe pain in your upper stomach spreading to your back, nausea and vomiting)</t>
+        </is>
+      </c>
+      <c r="D13" s="15" t="inlineStr">
+        <is>
+          <t>* You experience any signs of bleeding (as listed above). * You have chest pain or heavy feeling, pain spreading to the jaw or shoulder, nausea, sweating, general ill feeling. * You have swelling, rapid weight gain, or little or no urination. * You have severe stomach pain, nausea, and vomiting. * You have increased blood pressure symptoms (severe headache, blurred vision, pounding in your neck or ears, anxiety, nosebleed). * You experience pancreatitis symptoms (severe pain in your upper stomach spreading to your back, nausea and vomiting).</t>
+        </is>
+      </c>
+      <c r="E13" s="15" t="inlineStr">
+        <is>
+          <t>* You have signs of an allergic reaction (hives, difficult breathing, swelling of your face, lips, tongue, or throat). * You have bleeding that will not stop.</t>
+        </is>
+      </c>
       <c r="F13" s="15" t="inlineStr">
         <is>
           <t>Stroke</t>
@@ -7633,6 +7713,7 @@
         </is>
       </c>
     </row>
+    <row r="336"/>
     <row r="337">
       <c r="A337" s="16" t="inlineStr">
         <is>
@@ -8556,8 +8637,8 @@
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A82:F82"/>
     <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A82:F82"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="A81:B81"/>
     <mergeCell ref="A1:F1"/>
